--- a/data/LMG.MI.xlsx
+++ b/data/LMG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="531">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53471577167511</t>
+    <t xml:space="preserve">1.53471565246582</t>
   </si>
   <si>
     <t xml:space="preserve">LMG.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">1.50033140182495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55148839950562</t>
+    <t xml:space="preserve">1.5514885187149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704061985016</t>
+    <t xml:space="preserve">1.50704050064087</t>
   </si>
   <si>
     <t xml:space="preserve">1.48439717292786</t>
@@ -59,19 +59,19 @@
     <t xml:space="preserve">1.44246506690979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43575584888458</t>
+    <t xml:space="preserve">1.43575596809387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39214646816254</t>
+    <t xml:space="preserve">1.39214658737183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41646707057953</t>
+    <t xml:space="preserve">1.41646695137024</t>
   </si>
   <si>
     <t xml:space="preserve">1.42569220066071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47433364391327</t>
+    <t xml:space="preserve">1.47433340549469</t>
   </si>
   <si>
     <t xml:space="preserve">1.4416264295578</t>
@@ -83,64 +83,64 @@
     <t xml:space="preserve">1.50871789455414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45923793315887</t>
+    <t xml:space="preserve">1.45923805236816</t>
   </si>
   <si>
     <t xml:space="preserve">1.40640342235565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37453496456146</t>
+    <t xml:space="preserve">1.37453508377075</t>
   </si>
   <si>
     <t xml:space="preserve">1.36698722839355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40053296089172</t>
+    <t xml:space="preserve">1.40053284168243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40891933441162</t>
+    <t xml:space="preserve">1.40891921520233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37872815132141</t>
+    <t xml:space="preserve">1.3787282705307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44581961631775</t>
+    <t xml:space="preserve">1.44581949710846</t>
   </si>
   <si>
     <t xml:space="preserve">1.52632927894592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49278342723846</t>
+    <t xml:space="preserve">1.49278366565704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57245457172394</t>
+    <t xml:space="preserve">1.57245469093323</t>
   </si>
   <si>
     <t xml:space="preserve">1.56406819820404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53639304637909</t>
+    <t xml:space="preserve">1.5363929271698</t>
   </si>
   <si>
     <t xml:space="preserve">1.55987501144409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62025725841522</t>
+    <t xml:space="preserve">1.62025713920593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.685671210289</t>
+    <t xml:space="preserve">1.68567132949829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74437630176544</t>
+    <t xml:space="preserve">1.74437618255615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74773097038269</t>
+    <t xml:space="preserve">1.74773108959198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71753990650177</t>
+    <t xml:space="preserve">1.71754002571106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61857986450195</t>
+    <t xml:space="preserve">1.61858010292053</t>
   </si>
   <si>
     <t xml:space="preserve">1.59342074394226</t>
@@ -149,19 +149,19 @@
     <t xml:space="preserve">1.57664787769318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51962029933929</t>
+    <t xml:space="preserve">1.51962006092072</t>
   </si>
   <si>
     <t xml:space="preserve">1.50116991996765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4734947681427</t>
+    <t xml:space="preserve">1.47349488735199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51932418346405</t>
+    <t xml:space="preserve">1.51932430267334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49662160873413</t>
+    <t xml:space="preserve">1.49662148952484</t>
   </si>
   <si>
     <t xml:space="preserve">1.46955323219299</t>
@@ -170,34 +170,34 @@
     <t xml:space="preserve">1.48439729213715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49312889575958</t>
+    <t xml:space="preserve">1.49312901496887</t>
   </si>
   <si>
     <t xml:space="preserve">1.49050951004028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47479236125946</t>
+    <t xml:space="preserve">1.47479224205017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46606051921844</t>
+    <t xml:space="preserve">1.46606040000916</t>
   </si>
   <si>
     <t xml:space="preserve">1.42240166664124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41454327106476</t>
+    <t xml:space="preserve">1.41454315185547</t>
   </si>
   <si>
     <t xml:space="preserve">1.43200671672821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39707970619202</t>
+    <t xml:space="preserve">1.39707982540131</t>
   </si>
   <si>
     <t xml:space="preserve">1.35953330993652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38310885429382</t>
+    <t xml:space="preserve">1.38310897350311</t>
   </si>
   <si>
     <t xml:space="preserve">1.37961626052856</t>
@@ -215,10 +215,10 @@
     <t xml:space="preserve">1.42327499389648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47391903400421</t>
+    <t xml:space="preserve">1.47391891479492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44073843955994</t>
+    <t xml:space="preserve">1.44073855876923</t>
   </si>
   <si>
     <t xml:space="preserve">1.38834798336029</t>
@@ -227,79 +227,79 @@
     <t xml:space="preserve">1.32722568511963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30714273452759</t>
+    <t xml:space="preserve">1.3071426153183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27832794189453</t>
+    <t xml:space="preserve">1.27832782268524</t>
   </si>
   <si>
     <t xml:space="preserve">1.25737178325653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26173770427704</t>
+    <t xml:space="preserve">1.26173758506775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28182053565979</t>
+    <t xml:space="preserve">1.28182065486908</t>
   </si>
   <si>
     <t xml:space="preserve">1.29229867458344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28356695175171</t>
+    <t xml:space="preserve">1.283567070961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2399080991745</t>
+    <t xml:space="preserve">1.23990821838379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19450318813324</t>
+    <t xml:space="preserve">1.19450306892395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27483534812927</t>
+    <t xml:space="preserve">1.27483522891998</t>
   </si>
   <si>
     <t xml:space="preserve">1.21895205974579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20236170291901</t>
+    <t xml:space="preserve">1.2023618221283</t>
   </si>
   <si>
     <t xml:space="preserve">1.19188356399536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22244465351105</t>
+    <t xml:space="preserve">1.22244477272034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17878603935242</t>
+    <t xml:space="preserve">1.17878592014313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16132247447968</t>
+    <t xml:space="preserve">1.16132259368896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09408795833588</t>
+    <t xml:space="preserve">1.09408819675446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07837092876434</t>
+    <t xml:space="preserve">1.07837069034576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06876587867737</t>
+    <t xml:space="preserve">1.06876599788666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08448302745819</t>
+    <t xml:space="preserve">1.08448314666748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10020017623901</t>
+    <t xml:space="preserve">1.1002002954483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1307612657547</t>
+    <t xml:space="preserve">1.13076138496399</t>
   </si>
   <si>
     <t xml:space="preserve">1.11067831516266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11766374111176</t>
+    <t xml:space="preserve">1.11766362190247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08273673057556</t>
+    <t xml:space="preserve">1.08273684978485</t>
   </si>
   <si>
     <t xml:space="preserve">1.05217564105988</t>
@@ -308,28 +308,28 @@
     <t xml:space="preserve">1.02685356140137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04344403743744</t>
+    <t xml:space="preserve">1.04344391822815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05654144287109</t>
+    <t xml:space="preserve">1.05654156208038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04780983924866</t>
+    <t xml:space="preserve">1.04780972003937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999785125255585</t>
+    <t xml:space="preserve">0.999785184860229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01200973987579</t>
+    <t xml:space="preserve">1.0120096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985814332962036</t>
+    <t xml:space="preserve">0.985814213752747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.927311718463898</t>
+    <t xml:space="preserve">0.927311658859253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903735995292664</t>
+    <t xml:space="preserve">0.903735935688019</t>
   </si>
   <si>
     <t xml:space="preserve">0.993672907352448</t>
@@ -338,19 +338,19 @@
     <t xml:space="preserve">0.951760530471802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938662946224213</t>
+    <t xml:space="preserve">0.938663005828857</t>
   </si>
   <si>
     <t xml:space="preserve">0.935170233249664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909848153591156</t>
+    <t xml:space="preserve">0.909848213195801</t>
   </si>
   <si>
     <t xml:space="preserve">0.948267817497253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991926670074463</t>
+    <t xml:space="preserve">0.991926550865173</t>
   </si>
   <si>
     <t xml:space="preserve">0.956999599933624</t>
@@ -362,25 +362,25 @@
     <t xml:space="preserve">1.00939011573792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00415086746216</t>
+    <t xml:space="preserve">1.00415110588074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10107362270355</t>
+    <t xml:space="preserve">1.10107350349426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03471219539642</t>
+    <t xml:space="preserve">1.03471207618713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03209269046783</t>
+    <t xml:space="preserve">1.03209257125854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04519021511078</t>
+    <t xml:space="preserve">1.04519033432007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03907811641693</t>
+    <t xml:space="preserve">1.03907799720764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03383910655975</t>
+    <t xml:space="preserve">1.03383898735046</t>
   </si>
   <si>
     <t xml:space="preserve">0.97795581817627</t>
@@ -389,10 +389,10 @@
     <t xml:space="preserve">1.02510726451874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982321858406067</t>
+    <t xml:space="preserve">0.982321739196777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03121936321259</t>
+    <t xml:space="preserve">1.03121948242188</t>
   </si>
   <si>
     <t xml:space="preserve">1.0146290063858</t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">0.995419323444366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10456621646881</t>
+    <t xml:space="preserve">1.10456609725952</t>
   </si>
   <si>
     <t xml:space="preserve">1.10543930530548</t>
@@ -431,13 +431,13 @@
     <t xml:space="preserve">1.09845387935638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15259087085724</t>
+    <t xml:space="preserve">1.15259075164795</t>
   </si>
   <si>
     <t xml:space="preserve">1.18577134609222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19799590110779</t>
+    <t xml:space="preserve">1.1979957818985</t>
   </si>
   <si>
     <t xml:space="preserve">1.24776685237885</t>
@@ -446,10 +446,10 @@
     <t xml:space="preserve">1.24863994121552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31063556671143</t>
+    <t xml:space="preserve">1.31063544750214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25824499130249</t>
+    <t xml:space="preserve">1.2582448720932</t>
   </si>
   <si>
     <t xml:space="preserve">1.26610350608826</t>
@@ -470,40 +470,40 @@
     <t xml:space="preserve">1.24689364433289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2049812078476</t>
+    <t xml:space="preserve">1.20498132705688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19624948501587</t>
+    <t xml:space="preserve">1.19624936580658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24340093135834</t>
+    <t xml:space="preserve">1.24340105056763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21371293067932</t>
+    <t xml:space="preserve">1.21371304988861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29142546653748</t>
+    <t xml:space="preserve">1.29142558574677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30976223945618</t>
+    <t xml:space="preserve">1.30976212024689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28967928886414</t>
+    <t xml:space="preserve">1.28967916965485</t>
   </si>
   <si>
     <t xml:space="preserve">1.21196663379669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18315196037292</t>
+    <t xml:space="preserve">1.18315184116364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18751788139343</t>
+    <t xml:space="preserve">1.18751764297485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17703986167908</t>
+    <t xml:space="preserve">1.1770396232605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17005431652069</t>
+    <t xml:space="preserve">1.1700541973114</t>
   </si>
   <si>
     <t xml:space="preserve">1.22768378257751</t>
@@ -512,67 +512,67 @@
     <t xml:space="preserve">1.46693360805511</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45645558834076</t>
+    <t xml:space="preserve">1.45645546913147</t>
   </si>
   <si>
     <t xml:space="preserve">1.45994830131531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45820188522339</t>
+    <t xml:space="preserve">1.45820200443268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52368998527527</t>
+    <t xml:space="preserve">1.52369010448456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56036329269409</t>
+    <t xml:space="preserve">1.56036341190338</t>
   </si>
   <si>
     <t xml:space="preserve">1.52019739151001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55337810516357</t>
+    <t xml:space="preserve">1.55337798595428</t>
   </si>
   <si>
     <t xml:space="preserve">1.55425119400024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53678750991821</t>
+    <t xml:space="preserve">1.5367876291275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60227572917938</t>
+    <t xml:space="preserve">1.60227596759796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64156866073608</t>
+    <t xml:space="preserve">1.64156877994537</t>
   </si>
   <si>
     <t xml:space="preserve">1.65466630458832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70269095897675</t>
+    <t xml:space="preserve">1.70269107818604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72888612747192</t>
+    <t xml:space="preserve">1.72888624668121</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73674476146698</t>
+    <t xml:space="preserve">1.73674464225769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8109644651413</t>
+    <t xml:space="preserve">1.81096434593201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83366703987122</t>
+    <t xml:space="preserve">1.83366692066193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85113048553467</t>
+    <t xml:space="preserve">1.85113036632538</t>
   </si>
   <si>
     <t xml:space="preserve">1.85986244678497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72277390956879</t>
+    <t xml:space="preserve">1.72277402877808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67038345336914</t>
+    <t xml:space="preserve">1.67038333415985</t>
   </si>
   <si>
     <t xml:space="preserve">1.74634957313538</t>
@@ -581,16 +581,16 @@
     <t xml:space="preserve">1.69046640396118</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76032042503357</t>
+    <t xml:space="preserve">1.76032054424286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68697381019592</t>
+    <t xml:space="preserve">1.68697369098663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67649555206299</t>
+    <t xml:space="preserve">1.67649579048157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7550812959671</t>
+    <t xml:space="preserve">1.75508141517639</t>
   </si>
   <si>
     <t xml:space="preserve">1.75682783126831</t>
@@ -599,10 +599,10 @@
     <t xml:space="preserve">1.7900083065033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81271076202393</t>
+    <t xml:space="preserve">1.8127110004425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82842826843262</t>
+    <t xml:space="preserve">1.82842803001404</t>
   </si>
   <si>
     <t xml:space="preserve">1.81620347499847</t>
@@ -611,46 +611,46 @@
     <t xml:space="preserve">1.79874002933502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72801303863525</t>
+    <t xml:space="preserve">1.72801291942596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81795001029968</t>
+    <t xml:space="preserve">1.81794989109039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82510721683502</t>
+    <t xml:space="preserve">1.82510709762573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92351973056793</t>
+    <t xml:space="preserve">1.9235200881958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87878656387329</t>
+    <t xml:space="preserve">1.87878668308258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8608934879303</t>
+    <t xml:space="preserve">1.86089360713959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86984014511108</t>
+    <t xml:space="preserve">1.86984026432037</t>
   </si>
   <si>
     <t xml:space="preserve">2.0398256778717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47642016410828</t>
+    <t xml:space="preserve">2.4764199256897</t>
   </si>
   <si>
     <t xml:space="preserve">2.57662224769592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9470112323761</t>
+    <t xml:space="preserve">2.94701147079468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95237922668457</t>
+    <t xml:space="preserve">2.95237946510315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85396671295166</t>
+    <t xml:space="preserve">2.85396695137024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75913286209106</t>
+    <t xml:space="preserve">2.75913310050964</t>
   </si>
   <si>
     <t xml:space="preserve">2.58556866645813</t>
@@ -659,10 +659,10 @@
     <t xml:space="preserve">2.56767535209656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50504899024963</t>
+    <t xml:space="preserve">2.50504922866821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46747303009033</t>
+    <t xml:space="preserve">2.46747326850891</t>
   </si>
   <si>
     <t xml:space="preserve">2.59809374809265</t>
@@ -671,28 +671,28 @@
     <t xml:space="preserve">2.70187449455261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9076464176178</t>
+    <t xml:space="preserve">2.90764617919922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79134035110474</t>
+    <t xml:space="preserve">2.79134011268616</t>
   </si>
   <si>
     <t xml:space="preserve">2.60882973670959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56946468353271</t>
+    <t xml:space="preserve">2.56946492195129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5784113407135</t>
+    <t xml:space="preserve">2.57841110229492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54978203773499</t>
+    <t xml:space="preserve">2.54978227615356</t>
   </si>
   <si>
     <t xml:space="preserve">2.52473163604736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55872845649719</t>
+    <t xml:space="preserve">2.55872869491577</t>
   </si>
   <si>
     <t xml:space="preserve">2.63924813270569</t>
@@ -701,22 +701,22 @@
     <t xml:space="preserve">2.68398118019104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59451508522034</t>
+    <t xml:space="preserve">2.59451532363892</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54083561897278</t>
+    <t xml:space="preserve">2.5408353805542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56230759620667</t>
+    <t xml:space="preserve">2.56230735778809</t>
   </si>
   <si>
     <t xml:space="preserve">2.56409668922424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64640522003174</t>
+    <t xml:space="preserve">2.64640545845032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56588625907898</t>
+    <t xml:space="preserve">2.5658860206604</t>
   </si>
   <si>
     <t xml:space="preserve">2.58198976516724</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">2.52294230461121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48536705970764</t>
+    <t xml:space="preserve">2.48536658287048</t>
   </si>
   <si>
     <t xml:space="preserve">2.53188896179199</t>
@@ -743,58 +743,58 @@
     <t xml:space="preserve">2.41916179656982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37979698181152</t>
+    <t xml:space="preserve">2.37979674339294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42989802360535</t>
+    <t xml:space="preserve">2.42989778518677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41379356384277</t>
+    <t xml:space="preserve">2.41379380226135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36548209190369</t>
+    <t xml:space="preserve">2.36548233032227</t>
   </si>
   <si>
     <t xml:space="preserve">2.21875786781311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21339011192322</t>
+    <t xml:space="preserve">2.21338987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15792107582092</t>
+    <t xml:space="preserve">2.15792083740234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1471848487854</t>
+    <t xml:space="preserve">2.14718508720398</t>
   </si>
   <si>
     <t xml:space="preserve">2.18654990196228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2098114490509</t>
+    <t xml:space="preserve">2.20981097221375</t>
   </si>
   <si>
     <t xml:space="preserve">2.22054719924927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17581391334534</t>
+    <t xml:space="preserve">2.17581415176392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15613174438477</t>
+    <t xml:space="preserve">2.15613150596619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17402505874634</t>
+    <t xml:space="preserve">2.17402482032776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19012856483459</t>
+    <t xml:space="preserve">2.19012880325317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09529447555542</t>
+    <t xml:space="preserve">2.095294713974</t>
   </si>
   <si>
     <t xml:space="preserve">2.14002776145935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11139845848083</t>
+    <t xml:space="preserve">2.11139869689941</t>
   </si>
   <si>
     <t xml:space="preserve">2.30285573005676</t>
@@ -803,13 +803,13 @@
     <t xml:space="preserve">2.27064824104309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17223525047302</t>
+    <t xml:space="preserve">2.1722354888916</t>
   </si>
   <si>
     <t xml:space="preserve">2.19549655914307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25275468826294</t>
+    <t xml:space="preserve">2.25275492668152</t>
   </si>
   <si>
     <t xml:space="preserve">2.2366509437561</t>
@@ -821,13 +821,13 @@
     <t xml:space="preserve">2.24738717079163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24559760093689</t>
+    <t xml:space="preserve">2.24559783935547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26349115371704</t>
+    <t xml:space="preserve">2.26349091529846</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37621784210205</t>
+    <t xml:space="preserve">2.37621808052063</t>
   </si>
   <si>
     <t xml:space="preserve">2.31717038154602</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">2.3815860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33506369590759</t>
+    <t xml:space="preserve">2.33506345748901</t>
   </si>
   <si>
     <t xml:space="preserve">2.31895995140076</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">2.28496265411377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32611680030823</t>
+    <t xml:space="preserve">2.32611703872681</t>
   </si>
   <si>
     <t xml:space="preserve">2.3440101146698</t>
@@ -860,10 +860,10 @@
     <t xml:space="preserve">2.44242310523987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35116767883301</t>
+    <t xml:space="preserve">2.35116744041443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.369060754776</t>
+    <t xml:space="preserve">2.36906051635742</t>
   </si>
   <si>
     <t xml:space="preserve">2.37085008621216</t>
@@ -878,13 +878,13 @@
     <t xml:space="preserve">2.38695406913757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29927730560303</t>
+    <t xml:space="preserve">2.29927754402161</t>
   </si>
   <si>
     <t xml:space="preserve">2.34222102165222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54262495040894</t>
+    <t xml:space="preserve">2.54262471199036</t>
   </si>
   <si>
     <t xml:space="preserve">2.6553521156311</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">2.62314438819885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61240839958191</t>
+    <t xml:space="preserve">2.61240863800049</t>
   </si>
   <si>
     <t xml:space="preserve">2.66608810424805</t>
@@ -905,34 +905,34 @@
     <t xml:space="preserve">2.60167241096497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58020067214966</t>
+    <t xml:space="preserve">2.58020043373108</t>
   </si>
   <si>
     <t xml:space="preserve">2.42095112800598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42274022102356</t>
+    <t xml:space="preserve">2.42274045944214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4710521697998</t>
+    <t xml:space="preserve">2.47105240821838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43526577949524</t>
+    <t xml:space="preserve">2.43526554107666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51936388015747</t>
+    <t xml:space="preserve">2.51936364173889</t>
   </si>
   <si>
     <t xml:space="preserve">2.45136952400208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46031618118286</t>
+    <t xml:space="preserve">2.46031594276428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50862741470337</t>
+    <t xml:space="preserve">2.50862789154053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49431324005127</t>
+    <t xml:space="preserve">2.49431347846985</t>
   </si>
   <si>
     <t xml:space="preserve">2.43705487251282</t>
@@ -947,46 +947,46 @@
     <t xml:space="preserve">2.41558313369751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29390954971313</t>
+    <t xml:space="preserve">2.29390931129456</t>
   </si>
   <si>
     <t xml:space="preserve">2.22770428657532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20623254776001</t>
+    <t xml:space="preserve">2.20623278617859</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28138399124146</t>
+    <t xml:space="preserve">2.28138422966003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19191789627075</t>
+    <t xml:space="preserve">2.19191813468933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18297171592712</t>
+    <t xml:space="preserve">2.18297123908997</t>
   </si>
   <si>
     <t xml:space="preserve">2.12929201126099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10245203971863</t>
+    <t xml:space="preserve">2.10245180130005</t>
   </si>
   <si>
     <t xml:space="preserve">2.13823843002319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98614609241486</t>
+    <t xml:space="preserve">1.98614597320557</t>
   </si>
   <si>
     <t xml:space="preserve">2.06666541099548</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0577187538147</t>
+    <t xml:space="preserve">2.05771899223328</t>
   </si>
   <si>
     <t xml:space="preserve">2.00403928756714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07561206817627</t>
+    <t xml:space="preserve">2.07561230659485</t>
   </si>
   <si>
     <t xml:space="preserve">1.99509274959564</t>
@@ -998,13 +998,13 @@
     <t xml:space="preserve">1.96825289726257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97719967365265</t>
+    <t xml:space="preserve">1.97719943523407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.950359582901</t>
+    <t xml:space="preserve">1.95035970211029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93246674537659</t>
+    <t xml:space="preserve">1.93246650695801</t>
   </si>
   <si>
     <t xml:space="preserve">2.03087902069092</t>
@@ -1013,25 +1013,25 @@
     <t xml:space="preserve">2.04877233505249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15873908996582</t>
+    <t xml:space="preserve">2.1587393283844</t>
   </si>
   <si>
     <t xml:space="preserve">2.13129758834839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0581202507019</t>
+    <t xml:space="preserve">2.05812001228333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99408972263336</t>
+    <t xml:space="preserve">1.99408960342407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93920648097992</t>
+    <t xml:space="preserve">1.93920636177063</t>
   </si>
   <si>
     <t xml:space="preserve">1.96664822101593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11300349235535</t>
+    <t xml:space="preserve">2.11300325393677</t>
   </si>
   <si>
     <t xml:space="preserve">2.08556175231934</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">2.03067851066589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01238393783569</t>
+    <t xml:space="preserve">2.01238417625427</t>
   </si>
   <si>
     <t xml:space="preserve">1.94835388660431</t>
@@ -1049,10 +1049,10 @@
     <t xml:space="preserve">1.98494267463684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95750117301941</t>
+    <t xml:space="preserve">1.95750081539154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90261769294739</t>
+    <t xml:space="preserve">1.9026175737381</t>
   </si>
   <si>
     <t xml:space="preserve">2.00323700904846</t>
@@ -1061,31 +1061,31 @@
     <t xml:space="preserve">1.93005919456482</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97579538822174</t>
+    <t xml:space="preserve">1.97579526901245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0215311050415</t>
+    <t xml:space="preserve">2.02153134346008</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07641434669495</t>
+    <t xml:space="preserve">2.07641458511353</t>
   </si>
   <si>
     <t xml:space="preserve">2.09470891952515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86602890491486</t>
+    <t xml:space="preserve">1.86602878570557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84773445129395</t>
+    <t xml:space="preserve">1.84773457050323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87517607212067</t>
+    <t xml:space="preserve">1.87517595291138</t>
   </si>
   <si>
     <t xml:space="preserve">1.83858728408813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68765842914581</t>
+    <t xml:space="preserve">1.6876585483551</t>
   </si>
   <si>
     <t xml:space="preserve">1.664790391922</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">1.73796808719635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76540958881378</t>
+    <t xml:space="preserve">1.76540970802307</t>
   </si>
   <si>
     <t xml:space="preserve">1.73339450359344</t>
@@ -1118,16 +1118,16 @@
     <t xml:space="preserve">1.6739376783371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63277530670166</t>
+    <t xml:space="preserve">1.63277518749237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66936409473419</t>
+    <t xml:space="preserve">1.66936421394348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66021680831909</t>
+    <t xml:space="preserve">1.66021692752838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74254155158997</t>
+    <t xml:space="preserve">1.74254167079926</t>
   </si>
   <si>
     <t xml:space="preserve">1.70137929916382</t>
@@ -1142,22 +1142,22 @@
     <t xml:space="preserve">1.71510004997253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6830849647522</t>
+    <t xml:space="preserve">1.68308484554291</t>
   </si>
   <si>
     <t xml:space="preserve">1.65106964111328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71052658557892</t>
+    <t xml:space="preserve">1.71052646636963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65564334392548</t>
+    <t xml:space="preserve">1.65564322471619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62362802028656</t>
+    <t xml:space="preserve">1.62362813949585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48184645175934</t>
+    <t xml:space="preserve">1.48184633255005</t>
   </si>
   <si>
     <t xml:space="preserve">1.48642003536224</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">1.38122725486755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35378575325012</t>
+    <t xml:space="preserve">1.35378563404083</t>
   </si>
   <si>
     <t xml:space="preserve">1.29890239238739</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">1.34921205043793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4406840801239</t>
+    <t xml:space="preserve">1.44068419933319</t>
   </si>
   <si>
     <t xml:space="preserve">1.47727286815643</t>
@@ -1190,13 +1190,13 @@
     <t xml:space="preserve">1.49556732177734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.449831366539</t>
+    <t xml:space="preserve">1.44983124732971</t>
   </si>
   <si>
     <t xml:space="preserve">1.44525766372681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41781604290009</t>
+    <t xml:space="preserve">1.4178159236908</t>
   </si>
   <si>
     <t xml:space="preserve">1.50014090538025</t>
@@ -1220,25 +1220,25 @@
     <t xml:space="preserve">1.4269632101059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60076010227203</t>
+    <t xml:space="preserve">1.60075998306274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57789218425751</t>
+    <t xml:space="preserve">1.57789206504822</t>
   </si>
   <si>
     <t xml:space="preserve">1.59618639945984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61448085308075</t>
+    <t xml:space="preserve">1.61448097229004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60990715026855</t>
+    <t xml:space="preserve">1.60990726947784</t>
   </si>
   <si>
     <t xml:space="preserve">1.61905443668365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62820172309875</t>
+    <t xml:space="preserve">1.62820160388947</t>
   </si>
   <si>
     <t xml:space="preserve">1.58703923225403</t>
@@ -1247,16 +1247,16 @@
     <t xml:space="preserve">1.55045056343079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58246564865112</t>
+    <t xml:space="preserve">1.58246576786041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63734877109528</t>
+    <t xml:space="preserve">1.63734889030457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5733186006546</t>
+    <t xml:space="preserve">1.57331848144531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59161281585693</t>
+    <t xml:space="preserve">1.59161293506622</t>
   </si>
   <si>
     <t xml:space="preserve">1.5641713142395</t>
@@ -1404,6 +1404,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.6940826177597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62820172309875</t>
   </si>
   <si>
     <t xml:space="preserve">1.61879014968872</t>
@@ -28897,7 +28900,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1037" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28949,7 +28952,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1039" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29053,7 +29056,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G1043" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29079,7 +29082,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1044" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29131,7 +29134,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1046" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29261,7 +29264,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1051" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29521,7 +29524,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1061" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29547,7 +29550,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1062" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29573,7 +29576,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1063" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29599,7 +29602,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29625,7 +29628,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1065" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29651,7 +29654,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1066" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29677,7 +29680,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1067" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29703,7 +29706,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1068" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29729,7 +29732,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1069" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29755,7 +29758,7 @@
         <v>1.25</v>
       </c>
       <c r="G1070" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29781,7 +29784,7 @@
         <v>1.25</v>
       </c>
       <c r="G1071" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29807,7 +29810,7 @@
         <v>1.25</v>
       </c>
       <c r="G1072" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29833,7 +29836,7 @@
         <v>1.25</v>
       </c>
       <c r="G1073" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30015,7 +30018,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1080" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -30041,7 +30044,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1081" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -30067,7 +30070,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1082" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -30119,7 +30122,7 @@
         <v>1.25</v>
       </c>
       <c r="G1084" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30223,7 +30226,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1088" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30275,7 +30278,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1090" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30327,7 +30330,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1092" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30353,7 +30356,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1093" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30379,7 +30382,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1094" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30405,7 +30408,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1095" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30431,7 +30434,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1096" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30457,7 +30460,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1097" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30483,7 +30486,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1098" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30509,7 +30512,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1099" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30535,7 +30538,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1100" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30561,7 +30564,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1101" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30587,7 +30590,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1102" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30613,7 +30616,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1103" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30639,7 +30642,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1104" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30665,7 +30668,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1105" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30691,7 +30694,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30717,7 +30720,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1107" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30743,7 +30746,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1108" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30769,7 +30772,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1109" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30795,7 +30798,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1110" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30821,7 +30824,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1111" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30847,7 +30850,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1112" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30873,7 +30876,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1113" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30899,7 +30902,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1114" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30925,7 +30928,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1115" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30951,7 +30954,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1116" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30977,7 +30980,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1117" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31003,7 +31006,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1118" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31029,7 +31032,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1119" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31055,7 +31058,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1120" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -31081,7 +31084,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1121" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31107,7 +31110,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1122" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31133,7 +31136,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1123" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31159,7 +31162,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1124" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31185,7 +31188,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1125" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31211,7 +31214,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1126" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31237,7 +31240,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1127" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31263,7 +31266,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1128" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31289,7 +31292,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1129" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31315,7 +31318,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1130" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31341,7 +31344,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1131" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31367,7 +31370,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1132" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31393,7 +31396,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1133" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31419,7 +31422,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1134" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31445,7 +31448,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1135" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31471,7 +31474,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1136" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31497,7 +31500,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1137" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31523,7 +31526,7 @@
         <v>1.25</v>
       </c>
       <c r="G1138" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31549,7 +31552,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1139" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31575,7 +31578,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1140" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31601,7 +31604,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1141" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31627,7 +31630,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1142" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31653,7 +31656,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1143" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31679,7 +31682,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31705,7 +31708,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1145" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31731,7 +31734,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1146" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31757,7 +31760,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1147" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31783,7 +31786,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1148" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31809,7 +31812,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1149" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31835,7 +31838,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1150" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31861,7 +31864,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1151" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31887,7 +31890,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1152" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31913,7 +31916,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1153" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31939,7 +31942,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1154" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31965,7 +31968,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1155" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -31991,7 +31994,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1156" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -32017,7 +32020,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1157" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32043,7 +32046,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1158" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -32069,7 +32072,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1159" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -32095,7 +32098,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1160" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -32121,7 +32124,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1161" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32147,7 +32150,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1162" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32173,7 +32176,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1163" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32199,7 +32202,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1164" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32225,7 +32228,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1165" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32251,7 +32254,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1166" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32277,7 +32280,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1167" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32303,7 +32306,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1168" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32329,7 +32332,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1169" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32355,7 +32358,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1170" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32381,7 +32384,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1171" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32407,7 +32410,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1172" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32433,7 +32436,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1173" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32459,7 +32462,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1174" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32485,7 +32488,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1175" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32511,7 +32514,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1176" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32537,7 +32540,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1177" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32563,7 +32566,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1178" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32589,7 +32592,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1179" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32615,7 +32618,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1180" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32641,7 +32644,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1181" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32667,7 +32670,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1182" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32693,7 +32696,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1183" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32719,7 +32722,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1184" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32745,7 +32748,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1185" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32771,7 +32774,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1186" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -32797,7 +32800,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1187" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -32823,7 +32826,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1188" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -32849,7 +32852,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1189" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -32875,7 +32878,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1190" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -32901,7 +32904,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1191" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -32927,7 +32930,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1192" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -32953,7 +32956,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1193" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -32979,7 +32982,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1194" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33005,7 +33008,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G1195" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33031,7 +33034,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1196" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33057,7 +33060,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33083,7 +33086,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1198" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33109,7 +33112,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1199" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -33135,7 +33138,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G1200" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -33161,7 +33164,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1201" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -33187,7 +33190,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1202" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -33213,7 +33216,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1203" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -33239,7 +33242,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1204" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -33265,7 +33268,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1205" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -33291,7 +33294,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1206" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -33317,7 +33320,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1207" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -33343,7 +33346,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1208" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -33369,7 +33372,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1209" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -33395,7 +33398,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1210" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -33421,7 +33424,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1211" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -33447,7 +33450,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1212" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -33473,7 +33476,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1213" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -33499,7 +33502,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1214" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -33525,7 +33528,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1215" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -33551,7 +33554,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1216" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -33577,7 +33580,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1217" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -33603,7 +33606,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1218" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -33629,7 +33632,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1219" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -33655,7 +33658,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1220" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -33681,7 +33684,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1221" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -33707,7 +33710,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1222" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -33733,7 +33736,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1223" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -33759,7 +33762,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1224" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -33785,7 +33788,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1225" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -33811,7 +33814,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1226" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -33837,7 +33840,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G1227" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -33863,7 +33866,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1228" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -33889,7 +33892,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1229" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -33915,7 +33918,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1230" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -33941,7 +33944,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1231" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -33967,7 +33970,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1232" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -33993,7 +33996,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1233" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34019,7 +34022,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1234" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34045,7 +34048,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1235" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -34071,7 +34074,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1236" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -34097,7 +34100,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1237" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34123,7 +34126,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1238" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -34149,7 +34152,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1239" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -34175,7 +34178,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1240" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -34201,7 +34204,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1241" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -34227,7 +34230,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1242" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -34253,7 +34256,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1243" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -34279,7 +34282,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1244" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -34305,7 +34308,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1245" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34331,7 +34334,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1246" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34357,7 +34360,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1247" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -34383,7 +34386,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1248" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -34409,7 +34412,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1249" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -34435,7 +34438,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1250" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -34461,7 +34464,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1251" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -34487,7 +34490,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1252" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -34513,7 +34516,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1253" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -34539,7 +34542,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1254" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -34565,7 +34568,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1255" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -34591,7 +34594,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1256" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -34617,7 +34620,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1257" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -34643,7 +34646,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1258" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -34669,7 +34672,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1259" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -34695,7 +34698,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1260" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -34721,7 +34724,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1261" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -34747,7 +34750,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1262" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -34773,7 +34776,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1263" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -34799,7 +34802,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1264" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -34825,7 +34828,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1265" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -34851,7 +34854,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1266" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -34877,7 +34880,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1267" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -34903,7 +34906,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1268" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -34929,7 +34932,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1269" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -34955,7 +34958,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1270" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -34981,7 +34984,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1271" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35007,7 +35010,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1272" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35033,7 +35036,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1273" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35059,7 +35062,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1274" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -35085,7 +35088,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1275" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35111,7 +35114,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1276" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -35137,7 +35140,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1277" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35163,7 +35166,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1278" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35189,7 +35192,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1279" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35215,7 +35218,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1280" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -35241,7 +35244,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1281" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -35267,7 +35270,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1282" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35293,7 +35296,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1283" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35319,7 +35322,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1284" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35345,7 +35348,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1285" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35371,7 +35374,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1286" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35397,7 +35400,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1287" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35423,7 +35426,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1288" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35449,7 +35452,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1289" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -35475,7 +35478,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1290" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35501,7 +35504,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1291" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35527,7 +35530,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1292" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -35553,7 +35556,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1293" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35579,7 +35582,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1294" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35605,7 +35608,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1295" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35631,7 +35634,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1296" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35657,7 +35660,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1297" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35683,7 +35686,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1298" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35709,7 +35712,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1299" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35735,7 +35738,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1300" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35761,7 +35764,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1301" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35787,7 +35790,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1302" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35813,7 +35816,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1303" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35839,7 +35842,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1304" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -35865,7 +35868,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1305" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -35891,7 +35894,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1306" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -35917,7 +35920,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1307" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -35943,7 +35946,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1308" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -35969,7 +35972,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1309" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -35995,7 +35998,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1310" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36021,7 +36024,7 @@
         <v>1.25</v>
       </c>
       <c r="G1311" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36047,7 +36050,7 @@
         <v>1.25</v>
       </c>
       <c r="G1312" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36073,7 +36076,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1313" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36099,7 +36102,7 @@
         <v>1.25</v>
       </c>
       <c r="G1314" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36125,7 +36128,7 @@
         <v>1.25</v>
       </c>
       <c r="G1315" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -36151,7 +36154,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1316" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -36177,7 +36180,7 @@
         <v>1.25</v>
       </c>
       <c r="G1317" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36203,7 +36206,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36255,7 +36258,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36281,7 +36284,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1321" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36307,7 +36310,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1322" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36333,7 +36336,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1323" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36359,7 +36362,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1324" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36385,7 +36388,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1325" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36411,7 +36414,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1326" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36437,7 +36440,7 @@
         <v>1.25</v>
       </c>
       <c r="G1327" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36463,7 +36466,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1328" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36489,7 +36492,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1329" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36515,7 +36518,7 @@
         <v>1.25</v>
       </c>
       <c r="G1330" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36541,7 +36544,7 @@
         <v>1.25</v>
       </c>
       <c r="G1331" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36567,7 +36570,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1332" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36593,7 +36596,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1333" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36671,7 +36674,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1336" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36879,7 +36882,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1344" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -36931,7 +36934,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1346" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37087,7 +37090,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1352" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37113,7 +37116,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1353" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37191,7 +37194,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1356" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37217,7 +37220,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1357" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37269,7 +37272,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1359" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37295,7 +37298,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1360" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37347,7 +37350,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1362" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37373,7 +37376,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1363" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37399,7 +37402,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1364" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38023,7 +38026,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1388" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38049,7 +38052,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1389" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38075,7 +38078,7 @@
         <v>1.25</v>
       </c>
       <c r="G1390" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38101,7 +38104,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1391" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38127,7 +38130,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1392" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38179,7 +38182,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1394" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38205,7 +38208,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1395" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38231,7 +38234,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1396" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38257,7 +38260,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1397" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38387,7 +38390,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1402" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38413,7 +38416,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1403" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38439,7 +38442,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38465,7 +38468,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1405" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38491,7 +38494,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1406" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38517,7 +38520,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1407" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38543,7 +38546,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1408" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38569,7 +38572,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1409" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38595,7 +38598,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1410" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38621,7 +38624,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1411" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38647,7 +38650,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1412" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38673,7 +38676,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1413" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38699,7 +38702,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1414" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38725,7 +38728,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1415" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38751,7 +38754,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1416" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38777,7 +38780,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1417" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38803,7 +38806,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1418" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38829,7 +38832,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1419" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -38881,7 +38884,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1421" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -38907,7 +38910,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1422" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -38933,7 +38936,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1423" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -38959,7 +38962,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1424" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -38985,7 +38988,7 @@
         <v>1.25</v>
       </c>
       <c r="G1425" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39011,7 +39014,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1426" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39037,7 +39040,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1427" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39063,7 +39066,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1428" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39089,7 +39092,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1429" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39115,7 +39118,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1430" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39141,7 +39144,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1431" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39167,7 +39170,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1432" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39193,7 +39196,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1433" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39297,7 +39300,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1437" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39323,7 +39326,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1438" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39349,7 +39352,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1439" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39375,7 +39378,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1440" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39401,7 +39404,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1441" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39427,7 +39430,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1442" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39453,7 +39456,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1443" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39479,7 +39482,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1444" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39505,7 +39508,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1445" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39531,7 +39534,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1446" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39557,7 +39560,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1447" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39583,7 +39586,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1448" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39609,7 +39612,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1449" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39635,7 +39638,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1450" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39661,7 +39664,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1451" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39687,7 +39690,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1452" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39713,7 +39716,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1453" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39739,7 +39742,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1454" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39765,7 +39768,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1455" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39791,7 +39794,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1456" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39817,7 +39820,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1457" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -39999,7 +40002,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1464" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40077,7 +40080,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1467" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40103,7 +40106,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1468" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40363,7 +40366,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G1478" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41039,7 +41042,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1504" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41351,7 +41354,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1516" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41429,7 +41432,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1519" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41455,7 +41458,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1520" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41481,7 +41484,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1521" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41507,7 +41510,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1522" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41611,7 +41614,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1526" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41637,7 +41640,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1527" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41741,7 +41744,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1531" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41767,7 +41770,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1532" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41949,7 +41952,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1539" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42001,7 +42004,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1541" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42105,7 +42108,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1545" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42157,7 +42160,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1547" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42183,7 +42186,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1548" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42209,7 +42212,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1549" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42235,7 +42238,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1550" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42261,7 +42264,7 @@
         <v>1.25</v>
       </c>
       <c r="G1551" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42287,7 +42290,7 @@
         <v>1.25</v>
       </c>
       <c r="G1552" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42313,7 +42316,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1553" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42339,7 +42342,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1554" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42365,7 +42368,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1555" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42391,7 +42394,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1556" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42417,7 +42420,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1557" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42443,7 +42446,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1558" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42469,7 +42472,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1559" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42495,7 +42498,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1560" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42521,7 +42524,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1561" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42547,7 +42550,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1562" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42625,7 +42628,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1565" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42651,7 +42654,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1566" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42677,7 +42680,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1567" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42703,7 +42706,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1568" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42729,7 +42732,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1569" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42755,7 +42758,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1570" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42781,7 +42784,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1571" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42807,7 +42810,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1572" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42833,7 +42836,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1573" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -42859,7 +42862,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1574" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -42885,7 +42888,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1575" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -42911,7 +42914,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1576" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -42937,7 +42940,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1577" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -42963,7 +42966,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1578" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -42989,7 +42992,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1579" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43015,7 +43018,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1580" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43041,7 +43044,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1581" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43067,7 +43070,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1582" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43093,7 +43096,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1583" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43119,7 +43122,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1584" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43145,7 +43148,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1585" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43171,7 +43174,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1586" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43197,7 +43200,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1587" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43353,7 +43356,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1593" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43379,7 +43382,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1594" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43431,7 +43434,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1596" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43457,7 +43460,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1597" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43509,7 +43512,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1599" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43613,7 +43616,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1603" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43639,7 +43642,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1604" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43665,7 +43668,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1605" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43691,7 +43694,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1606" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43717,7 +43720,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1607" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43743,7 +43746,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1608" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43769,7 +43772,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1609" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43847,7 +43850,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1612" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -43873,7 +43876,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1613" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43899,7 +43902,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1614" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43925,7 +43928,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1615" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -43951,7 +43954,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1616" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44003,7 +44006,7 @@
         <v>1.25</v>
       </c>
       <c r="G1618" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44029,7 +44032,7 @@
         <v>1.25</v>
       </c>
       <c r="G1619" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44055,7 +44058,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1620" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44081,7 +44084,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1621" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44133,7 +44136,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1623" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44263,7 +44266,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1628" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44315,7 +44318,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1630" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44445,7 +44448,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1635" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44471,7 +44474,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44497,7 +44500,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1637" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44523,7 +44526,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1638" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44549,7 +44552,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1639" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44575,7 +44578,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1640" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44601,7 +44604,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1641" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44627,7 +44630,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1642" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44835,7 +44838,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44887,7 +44890,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1652" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44913,7 +44916,7 @@
         <v>1.25</v>
       </c>
       <c r="G1653" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44939,7 +44942,7 @@
         <v>1.25</v>
       </c>
       <c r="G1654" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44965,7 +44968,7 @@
         <v>1.25</v>
       </c>
       <c r="G1655" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44991,7 +44994,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1656" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45017,7 +45020,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1657" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45043,7 +45046,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1658" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45069,7 +45072,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1659" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45095,7 +45098,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1660" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45121,7 +45124,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1661" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45147,7 +45150,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1662" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45173,7 +45176,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1663" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45199,7 +45202,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1664" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45251,7 +45254,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1666" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45277,7 +45280,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1667" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45303,7 +45306,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1668" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45329,7 +45332,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1669" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45381,7 +45384,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1671" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45407,7 +45410,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1672" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45459,7 +45462,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1674" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45511,7 +45514,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1676" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45563,7 +45566,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45641,7 +45644,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1681" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45693,7 +45696,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1683" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45719,7 +45722,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1684" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45745,7 +45748,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1685" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45823,7 +45826,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1688" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45979,7 +45982,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1694" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46005,7 +46008,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1695" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46031,7 +46034,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1696" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46057,7 +46060,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46109,7 +46112,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1699" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46161,7 +46164,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1701" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46291,7 +46294,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1706" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46343,7 +46346,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1708" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46447,7 +46450,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1712" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46499,7 +46502,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1714" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46525,7 +46528,7 @@
         <v>1.25</v>
       </c>
       <c r="G1715" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46551,7 +46554,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1716" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46577,7 +46580,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1717" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46603,7 +46606,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1718" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46629,7 +46632,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1719" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46655,7 +46658,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1720" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46681,7 +46684,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1721" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46707,7 +46710,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1722" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46733,7 +46736,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1723" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46785,7 +46788,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1725" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46811,7 +46814,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1726" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46837,7 +46840,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46967,7 +46970,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1732" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47019,7 +47022,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1734" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47045,7 +47048,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1735" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47227,7 +47230,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1742" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47253,7 +47256,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1743" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47279,7 +47282,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1744" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47305,7 +47308,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1745" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47331,7 +47334,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1746" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47357,7 +47360,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1747" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47383,7 +47386,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1748" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47409,7 +47412,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1749" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47435,7 +47438,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1750" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47461,7 +47464,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1751" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47487,7 +47490,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1752" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47513,7 +47516,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1753" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47539,7 +47542,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1754" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47565,7 +47568,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1755" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47721,7 +47724,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1761" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47773,7 +47776,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47825,7 +47828,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1765" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47851,7 +47854,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1766" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47877,7 +47880,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1767" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47903,7 +47906,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1768" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47929,7 +47932,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1769" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48059,7 +48062,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1774" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48085,7 +48088,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1775" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48215,7 +48218,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1780" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48319,7 +48322,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1784" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48345,7 +48348,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1785" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48371,7 +48374,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1786" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48397,7 +48400,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1787" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48423,7 +48426,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1788" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48449,7 +48452,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1789" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48501,7 +48504,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1791" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48527,7 +48530,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1792" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48761,7 +48764,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1801" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48787,7 +48790,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1802" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48813,7 +48816,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1803" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48839,7 +48842,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1804" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48865,7 +48868,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1805" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48891,7 +48894,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1806" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48917,7 +48920,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1807" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48943,7 +48946,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1808" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48969,7 +48972,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1809" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48995,7 +48998,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1810" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49021,7 +49024,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1811" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49047,7 +49050,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1812" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49073,7 +49076,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1813" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49151,7 +49154,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1816" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49177,7 +49180,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1817" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49203,7 +49206,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1818" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49229,7 +49232,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1819" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49255,7 +49258,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1820" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49281,7 +49284,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1821" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49307,7 +49310,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1822" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49333,7 +49336,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1823" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49359,7 +49362,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1824" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49385,7 +49388,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1825" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49411,7 +49414,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1826" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49437,7 +49440,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1827" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49463,7 +49466,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1828" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49489,7 +49492,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1829" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49515,7 +49518,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1830" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49541,7 +49544,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1831" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49567,7 +49570,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1832" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49593,7 +49596,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1833" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49619,7 +49622,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1834" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49645,7 +49648,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1835" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49671,7 +49674,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1836" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49697,7 +49700,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1837" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49723,7 +49726,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1838" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49749,7 +49752,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1839" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49775,7 +49778,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49801,7 +49804,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1841" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49827,7 +49830,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1842" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49853,7 +49856,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1843" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49879,7 +49882,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1844" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49905,7 +49908,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1845" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49931,7 +49934,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1846" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49957,7 +49960,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1847" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49983,7 +49986,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1848" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50009,7 +50012,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1849" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50035,7 +50038,7 @@
         <v>1.25</v>
       </c>
       <c r="G1850" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50061,7 +50064,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1851" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50217,7 +50220,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1857" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50269,7 +50272,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1859" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50321,7 +50324,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1861" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50477,7 +50480,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1867" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50503,7 +50506,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1868" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50685,7 +50688,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1875" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50711,7 +50714,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1876" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50737,7 +50740,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1877" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50763,7 +50766,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1878" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50789,7 +50792,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1879" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50815,7 +50818,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G1880" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50841,7 +50844,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1881" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50867,7 +50870,7 @@
         <v>1.37000000476837</v>
       </c>
       <c r="G1882" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50893,7 +50896,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1883" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50919,7 +50922,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1884" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50945,7 +50948,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1885" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50971,7 +50974,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1886" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50997,7 +51000,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1887" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51023,7 +51026,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1888" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51049,7 +51052,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1889" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51075,7 +51078,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1890" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51101,7 +51104,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1891" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51127,7 +51130,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1892" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51153,7 +51156,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1893" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51179,7 +51182,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1894" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51205,7 +51208,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1895" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51231,7 +51234,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1896" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51257,7 +51260,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1897" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51283,7 +51286,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1898" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51309,7 +51312,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1899" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51335,7 +51338,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1900" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51361,7 +51364,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1901" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51387,7 +51390,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1902" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51413,7 +51416,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G1903" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51439,7 +51442,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1904" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51465,7 +51468,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1905" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51491,7 +51494,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1906" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51517,7 +51520,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G1907" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51543,7 +51546,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1908" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51569,7 +51572,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G1909" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51595,7 +51598,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1910" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51621,7 +51624,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G1911" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51647,7 +51650,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1912" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51673,7 +51676,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1913" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51699,7 +51702,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51725,7 +51728,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1915" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51751,7 +51754,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1916" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51777,7 +51780,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1917" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51803,7 +51806,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51829,7 +51832,7 @@
         <v>1.25</v>
       </c>
       <c r="G1919" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51855,7 +51858,7 @@
         <v>1.25</v>
       </c>
       <c r="G1920" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51881,7 +51884,7 @@
         <v>1.25</v>
       </c>
       <c r="G1921" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51907,7 +51910,7 @@
         <v>1.25</v>
       </c>
       <c r="G1922" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51933,7 +51936,7 @@
         <v>1.25</v>
       </c>
       <c r="G1923" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51959,7 +51962,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1924" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51985,7 +51988,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1925" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52011,7 +52014,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1926" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52037,7 +52040,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1927" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52063,7 +52066,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1928" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52089,7 +52092,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1929" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52115,7 +52118,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1930" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52141,7 +52144,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1931" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52167,7 +52170,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1932" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52193,7 +52196,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52219,7 +52222,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1934" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52245,7 +52248,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1935" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52271,7 +52274,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1936" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52297,7 +52300,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1937" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52323,7 +52326,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1938" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52349,7 +52352,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1939" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52375,7 +52378,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1940" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52401,7 +52404,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1941" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52427,7 +52430,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1942" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52453,7 +52456,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1943" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52479,7 +52482,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1944" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52505,7 +52508,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1945" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52531,7 +52534,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1946" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52557,7 +52560,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1947" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52583,7 +52586,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1948" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52609,7 +52612,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1949" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52635,7 +52638,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1950" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52661,7 +52664,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1951" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52687,7 +52690,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1952" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52713,7 +52716,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1953" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52739,7 +52742,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1954" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52765,7 +52768,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1955" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52791,7 +52794,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1956" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52817,7 +52820,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1957" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52843,7 +52846,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1958" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52869,7 +52872,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1959" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52895,7 +52898,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1960" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52921,7 +52924,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1961" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52947,7 +52950,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1962" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52973,7 +52976,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1963" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52999,7 +53002,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53025,7 +53028,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1965" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53051,7 +53054,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1966" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53077,7 +53080,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1967" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53103,7 +53106,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1968" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53129,7 +53132,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1969" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53155,7 +53158,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1970" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53181,7 +53184,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1971" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53207,7 +53210,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1972" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53233,7 +53236,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1973" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53259,7 +53262,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1974" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53285,7 +53288,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1975" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53311,7 +53314,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1976" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53337,7 +53340,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53363,7 +53366,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53389,7 +53392,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1979" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53415,7 +53418,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53441,7 +53444,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53467,7 +53470,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1982" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53493,7 +53496,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53519,7 +53522,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1984" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53545,7 +53548,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1985" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53571,7 +53574,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1986" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53597,7 +53600,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1987" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53623,7 +53626,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1988" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53649,7 +53652,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1989" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53675,7 +53678,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1990" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53701,7 +53704,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1991" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53727,7 +53730,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1992" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53753,7 +53756,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1993" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53779,7 +53782,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1994" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53805,7 +53808,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1995" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53831,7 +53834,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1996" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53857,7 +53860,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1997" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53883,7 +53886,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1998" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53909,7 +53912,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1999" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53935,7 +53938,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2000" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53961,7 +53964,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2001" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53987,7 +53990,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2002" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54013,7 +54016,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G2003" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54039,7 +54042,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G2004" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54065,7 +54068,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2005" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54091,7 +54094,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2006" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54117,7 +54120,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54143,7 +54146,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2008" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54169,7 +54172,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2009" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54195,7 +54198,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2010" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54221,7 +54224,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2011" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54247,7 +54250,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2012" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54273,7 +54276,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2013" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54299,7 +54302,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2014" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54325,7 +54328,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2015" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54351,7 +54354,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2016" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54377,7 +54380,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54403,7 +54406,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2018" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54429,7 +54432,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2019" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54455,7 +54458,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2020" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54481,7 +54484,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2021" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54507,7 +54510,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2022" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54533,7 +54536,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2023" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54559,7 +54562,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2024" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54585,7 +54588,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2025" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54611,7 +54614,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54637,7 +54640,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54663,7 +54666,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2028" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54689,7 +54692,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G2029" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54715,7 +54718,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2030" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54741,7 +54744,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2031" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54767,7 +54770,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2032" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54793,7 +54796,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2033" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54819,7 +54822,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2034" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54845,7 +54848,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2035" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54871,7 +54874,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2036" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54897,7 +54900,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2037" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54923,7 +54926,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2038" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54949,7 +54952,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2039" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54975,7 +54978,7 @@
         <v>1.25</v>
       </c>
       <c r="G2040" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55001,7 +55004,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2041" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55027,7 +55030,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2042" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55053,7 +55056,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2043" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55079,7 +55082,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2044" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55105,7 +55108,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2045" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55131,7 +55134,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2046" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55157,7 +55160,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55183,7 +55186,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2048" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55209,7 +55212,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55235,7 +55238,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2050" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55261,7 +55264,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2051" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55287,7 +55290,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2052" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55313,7 +55316,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2053" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55339,7 +55342,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2054" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55365,7 +55368,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2055" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55391,7 +55394,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2056" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55417,7 +55420,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55443,7 +55446,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2058" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55469,7 +55472,7 @@
         <v>1.25</v>
       </c>
       <c r="G2059" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55495,7 +55498,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2060" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55521,7 +55524,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2061" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55547,7 +55550,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2062" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55573,7 +55576,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2063" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55599,7 +55602,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2064" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55625,7 +55628,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2065" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55651,7 +55654,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2066" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55677,7 +55680,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2067" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55703,7 +55706,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2068" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55729,7 +55732,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2069" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55755,7 +55758,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2070" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55781,7 +55784,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G2071" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55807,7 +55810,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2072" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55833,7 +55836,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2073" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55859,7 +55862,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G2074" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55885,7 +55888,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2075" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55911,7 +55914,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G2076" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55937,7 +55940,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2077" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55963,7 +55966,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2078" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55989,7 +55992,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2079" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56015,7 +56018,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2080" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56041,7 +56044,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56067,7 +56070,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2082" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56093,7 +56096,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2083" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56119,7 +56122,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2084" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56145,7 +56148,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2085" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56171,7 +56174,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2086" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56197,7 +56200,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56223,7 +56226,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2088" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56249,7 +56252,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2089" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56275,7 +56278,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2090" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56301,7 +56304,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2091" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56327,7 +56330,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2092" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56353,7 +56356,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2093" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56379,7 +56382,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2094" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56405,7 +56408,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2095" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56431,7 +56434,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2096" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56457,7 +56460,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2097" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56483,7 +56486,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2098" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56509,7 +56512,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2099" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56535,7 +56538,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2100" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56561,7 +56564,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2101" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56587,7 +56590,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2102" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56613,7 +56616,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2103" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56639,7 +56642,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2104" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56665,7 +56668,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2105" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56691,7 +56694,7 @@
         <v>1.25</v>
       </c>
       <c r="G2106" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56717,7 +56720,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2107" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56743,7 +56746,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2108" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56769,7 +56772,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2109" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56795,7 +56798,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2110" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56821,7 +56824,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2111" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56847,7 +56850,7 @@
         <v>1.25</v>
       </c>
       <c r="G2112" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56873,7 +56876,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2113" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56899,7 +56902,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2114" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56925,7 +56928,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2115" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56951,7 +56954,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2116" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56977,7 +56980,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2117" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57003,7 +57006,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2118" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57029,7 +57032,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2119" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57055,7 +57058,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2120" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57081,7 +57084,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2121" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57107,7 +57110,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2122" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57133,7 +57136,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2123" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57159,7 +57162,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2124" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57185,7 +57188,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57211,7 +57214,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2126" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57237,7 +57240,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2127" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57263,7 +57266,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2128" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57289,7 +57292,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2129" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57315,7 +57318,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2130" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57341,7 +57344,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2131" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57367,7 +57370,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2132" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57393,7 +57396,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2133" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57419,7 +57422,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2134" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57445,7 +57448,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2135" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57471,7 +57474,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2136" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57497,7 +57500,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2137" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57523,7 +57526,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2138" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57549,7 +57552,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G2139" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57575,7 +57578,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G2140" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57601,7 +57604,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G2141" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57627,7 +57630,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G2142" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57653,7 +57656,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G2143" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57661,7 +57664,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.5232175926</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>21600</v>
@@ -57679,9 +57682,35 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2144" t="s">
+        <v>530</v>
+      </c>
+      <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.4737037037</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>19200</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="G2145" t="s">
         <v>529</v>
       </c>
-      <c r="H2144" t="s">
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LMG.MI.xlsx
+++ b/data/LMG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53471565246582</t>
+    <t xml:space="preserve">1.5347158908844</t>
   </si>
   <si>
     <t xml:space="preserve">LMG.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">1.50033140182495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55148863792419</t>
+    <t xml:space="preserve">1.5514885187149</t>
   </si>
   <si>
     <t xml:space="preserve">1.50704061985016</t>
@@ -62,82 +62,82 @@
     <t xml:space="preserve">1.43575596809387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39214634895325</t>
+    <t xml:space="preserve">1.39214646816254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41646695137024</t>
+    <t xml:space="preserve">1.41646718978882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42569231987</t>
+    <t xml:space="preserve">1.42569220066071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47433352470398</t>
+    <t xml:space="preserve">1.47433364391327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4416264295578</t>
+    <t xml:space="preserve">1.44162631034851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46762406826019</t>
+    <t xml:space="preserve">1.46762442588806</t>
   </si>
   <si>
     <t xml:space="preserve">1.50871777534485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45923793315887</t>
+    <t xml:space="preserve">1.45923781394958</t>
   </si>
   <si>
     <t xml:space="preserve">1.40640342235565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37453508377075</t>
+    <t xml:space="preserve">1.37453496456146</t>
   </si>
   <si>
     <t xml:space="preserve">1.36698722839355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40053284168243</t>
+    <t xml:space="preserve">1.40053296089172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40891921520233</t>
+    <t xml:space="preserve">1.40891933441162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37872815132141</t>
+    <t xml:space="preserve">1.3787282705307</t>
   </si>
   <si>
     <t xml:space="preserve">1.44581961631775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52632939815521</t>
+    <t xml:space="preserve">1.52632927894592</t>
   </si>
   <si>
     <t xml:space="preserve">1.49278366565704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57245457172394</t>
+    <t xml:space="preserve">1.57245469093323</t>
   </si>
   <si>
     <t xml:space="preserve">1.56406819820404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5363929271698</t>
+    <t xml:space="preserve">1.53639304637909</t>
   </si>
   <si>
     <t xml:space="preserve">1.55987501144409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62025737762451</t>
+    <t xml:space="preserve">1.62025725841522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68567109107971</t>
+    <t xml:space="preserve">1.68567132949829</t>
   </si>
   <si>
     <t xml:space="preserve">1.74437630176544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7477308511734</t>
+    <t xml:space="preserve">1.74773097038269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71754002571106</t>
+    <t xml:space="preserve">1.71753978729248</t>
   </si>
   <si>
     <t xml:space="preserve">1.61857998371124</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">1.57664775848389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51962018013</t>
+    <t xml:space="preserve">1.51962006092072</t>
   </si>
   <si>
     <t xml:space="preserve">1.50116991996765</t>
@@ -161,22 +161,22 @@
     <t xml:space="preserve">1.51932418346405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49662148952484</t>
+    <t xml:space="preserve">1.49662172794342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4695531129837</t>
+    <t xml:space="preserve">1.46955323219299</t>
   </si>
   <si>
     <t xml:space="preserve">1.48439729213715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49312889575958</t>
+    <t xml:space="preserve">1.49312901496887</t>
   </si>
   <si>
     <t xml:space="preserve">1.49050939083099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47479236125946</t>
+    <t xml:space="preserve">1.47479212284088</t>
   </si>
   <si>
     <t xml:space="preserve">1.46606051921844</t>
@@ -188,16 +188,16 @@
     <t xml:space="preserve">1.41454315185547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43200671672821</t>
+    <t xml:space="preserve">1.43200659751892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39707982540131</t>
+    <t xml:space="preserve">1.39707970619202</t>
   </si>
   <si>
     <t xml:space="preserve">1.35953319072723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38310885429382</t>
+    <t xml:space="preserve">1.38310897350311</t>
   </si>
   <si>
     <t xml:space="preserve">1.37961626052856</t>
@@ -206,70 +206,70 @@
     <t xml:space="preserve">1.31936717033386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3534209728241</t>
+    <t xml:space="preserve">1.35342085361481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36215269565582</t>
+    <t xml:space="preserve">1.36215257644653</t>
   </si>
   <si>
     <t xml:space="preserve">1.42327499389648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47391903400421</t>
+    <t xml:space="preserve">1.4739191532135</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44073843955994</t>
+    <t xml:space="preserve">1.44073832035065</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38834810256958</t>
+    <t xml:space="preserve">1.388347864151</t>
   </si>
   <si>
     <t xml:space="preserve">1.32722568511963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3071426153183</t>
+    <t xml:space="preserve">1.30714273452759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27832794189453</t>
+    <t xml:space="preserve">1.27832782268524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25737178325653</t>
+    <t xml:space="preserve">1.25737166404724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26173782348633</t>
+    <t xml:space="preserve">1.26173770427704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28182065486908</t>
+    <t xml:space="preserve">1.28182077407837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29229879379272</t>
+    <t xml:space="preserve">1.29229867458344</t>
   </si>
   <si>
     <t xml:space="preserve">1.28356695175171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2399080991745</t>
+    <t xml:space="preserve">1.23990821838379</t>
   </si>
   <si>
     <t xml:space="preserve">1.19450318813324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27483534812927</t>
+    <t xml:space="preserve">1.27483510971069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21895205974579</t>
+    <t xml:space="preserve">1.21895217895508</t>
   </si>
   <si>
     <t xml:space="preserve">1.20236170291901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19188356399536</t>
+    <t xml:space="preserve">1.19188368320465</t>
   </si>
   <si>
     <t xml:space="preserve">1.22244465351105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17878592014313</t>
+    <t xml:space="preserve">1.17878603935242</t>
   </si>
   <si>
     <t xml:space="preserve">1.16132259368896</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">1.11067831516266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11766362190247</t>
+    <t xml:space="preserve">1.11766386032104</t>
   </si>
   <si>
     <t xml:space="preserve">1.08273684978485</t>
@@ -308,13 +308,13 @@
     <t xml:space="preserve">1.02685356140137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04344403743744</t>
+    <t xml:space="preserve">1.04344391822815</t>
   </si>
   <si>
     <t xml:space="preserve">1.05654156208038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04780983924866</t>
+    <t xml:space="preserve">1.04780995845795</t>
   </si>
   <si>
     <t xml:space="preserve">0.999785184860229</t>
@@ -323,37 +323,37 @@
     <t xml:space="preserve">1.0120096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985814213752747</t>
+    <t xml:space="preserve">0.985814332962036</t>
   </si>
   <si>
     <t xml:space="preserve">0.927311658859253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903735995292664</t>
+    <t xml:space="preserve">0.903735935688019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993672907352448</t>
+    <t xml:space="preserve">0.993672966957092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951760530471802</t>
+    <t xml:space="preserve">0.951760649681091</t>
   </si>
   <si>
     <t xml:space="preserve">0.938662946224213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935170233249664</t>
+    <t xml:space="preserve">0.935170352458954</t>
   </si>
   <si>
     <t xml:space="preserve">0.909848153591156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948267817497253</t>
+    <t xml:space="preserve">0.948267877101898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991926670074463</t>
+    <t xml:space="preserve">0.991926610469818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956999540328979</t>
+    <t xml:space="preserve">0.956999599933624</t>
   </si>
   <si>
     <t xml:space="preserve">0.960492312908173</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">1.00939011573792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00415086746216</t>
+    <t xml:space="preserve">1.00415098667145</t>
   </si>
   <si>
     <t xml:space="preserve">1.10107350349426</t>
@@ -377,73 +377,73 @@
     <t xml:space="preserve">1.04519033432007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03907799720764</t>
+    <t xml:space="preserve">1.03907811641693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03383910655975</t>
+    <t xml:space="preserve">1.03383898735046</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97795581817627</t>
+    <t xml:space="preserve">0.977955758571625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02510726451874</t>
+    <t xml:space="preserve">1.02510738372803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982321739196777</t>
+    <t xml:space="preserve">0.982321619987488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03121948242188</t>
+    <t xml:space="preserve">1.03121936321259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01462912559509</t>
+    <t xml:space="preserve">1.0146290063858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0102630853653</t>
+    <t xml:space="preserve">1.01026320457458</t>
   </si>
   <si>
     <t xml:space="preserve">1.01812183856964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02598035335541</t>
+    <t xml:space="preserve">1.02598023414612</t>
   </si>
   <si>
     <t xml:space="preserve">1.03034627437592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01113665103912</t>
+    <t xml:space="preserve">1.01113641262054</t>
   </si>
   <si>
     <t xml:space="preserve">1.03733158111572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995419204235077</t>
+    <t xml:space="preserve">0.995419323444366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10456621646881</t>
+    <t xml:space="preserve">1.10456609725952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10543918609619</t>
+    <t xml:space="preserve">1.10543930530548</t>
   </si>
   <si>
     <t xml:space="preserve">1.06963920593262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09845387935638</t>
+    <t xml:space="preserve">1.09845399856567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15259087085724</t>
+    <t xml:space="preserve">1.15259075164795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18577134609222</t>
+    <t xml:space="preserve">1.18577146530151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19799602031708</t>
+    <t xml:space="preserve">1.1979957818985</t>
   </si>
   <si>
     <t xml:space="preserve">1.24776685237885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24863994121552</t>
+    <t xml:space="preserve">1.24863982200623</t>
   </si>
   <si>
     <t xml:space="preserve">1.31063544750214</t>
@@ -455,40 +455,40 @@
     <t xml:space="preserve">1.26610350608826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27046930789948</t>
+    <t xml:space="preserve">1.27046942710876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2067277431488</t>
+    <t xml:space="preserve">1.20672750473022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20323479175568</t>
+    <t xml:space="preserve">1.20323491096497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2442741394043</t>
+    <t xml:space="preserve">1.24427402019501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24689376354218</t>
+    <t xml:space="preserve">1.24689364433289</t>
   </si>
   <si>
     <t xml:space="preserve">1.2049812078476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19624948501587</t>
+    <t xml:space="preserve">1.19624960422516</t>
   </si>
   <si>
     <t xml:space="preserve">1.24340093135834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21371304988861</t>
+    <t xml:space="preserve">1.21371293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29142546653748</t>
+    <t xml:space="preserve">1.29142558574677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30976212024689</t>
+    <t xml:space="preserve">1.30976223945618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28967916965485</t>
+    <t xml:space="preserve">1.28967905044556</t>
   </si>
   <si>
     <t xml:space="preserve">1.21196663379669</t>
@@ -503,76 +503,76 @@
     <t xml:space="preserve">1.17703974246979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17005443572998</t>
+    <t xml:space="preserve">1.17005431652069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768378257751</t>
+    <t xml:space="preserve">1.2276839017868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4669337272644</t>
+    <t xml:space="preserve">1.46693360805511</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45645546913147</t>
+    <t xml:space="preserve">1.45645558834076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45994818210602</t>
+    <t xml:space="preserve">1.4599484205246</t>
   </si>
   <si>
     <t xml:space="preserve">1.45820188522339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52369010448456</t>
+    <t xml:space="preserve">1.52368998527527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56036329269409</t>
+    <t xml:space="preserve">1.56036341190338</t>
   </si>
   <si>
     <t xml:space="preserve">1.52019739151001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55337810516357</t>
+    <t xml:space="preserve">1.55337798595428</t>
   </si>
   <si>
     <t xml:space="preserve">1.55425107479095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53678750991821</t>
+    <t xml:space="preserve">1.5367876291275</t>
   </si>
   <si>
     <t xml:space="preserve">1.60227584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64156866073608</t>
+    <t xml:space="preserve">1.64156854152679</t>
   </si>
   <si>
     <t xml:space="preserve">1.65466630458832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70269107818604</t>
+    <t xml:space="preserve">1.70269083976746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72888624668121</t>
+    <t xml:space="preserve">1.72888612747192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73674464225769</t>
+    <t xml:space="preserve">1.7367445230484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81096458435059</t>
+    <t xml:space="preserve">1.8109644651413</t>
   </si>
   <si>
     <t xml:space="preserve">1.83366703987122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85113048553467</t>
+    <t xml:space="preserve">1.85113060474396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85986244678497</t>
+    <t xml:space="preserve">1.85986220836639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72277390956879</t>
+    <t xml:space="preserve">1.72277402877808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67038333415985</t>
+    <t xml:space="preserve">1.67038345336914</t>
   </si>
   <si>
     <t xml:space="preserve">1.74634969234467</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">1.76032054424286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68697381019592</t>
+    <t xml:space="preserve">1.68697369098663</t>
   </si>
   <si>
     <t xml:space="preserve">1.67649555206299</t>
@@ -593,13 +593,13 @@
     <t xml:space="preserve">1.7550812959671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75682771205902</t>
+    <t xml:space="preserve">1.75682783126831</t>
   </si>
   <si>
     <t xml:space="preserve">1.7900083065033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8127110004425</t>
+    <t xml:space="preserve">1.81271088123322</t>
   </si>
   <si>
     <t xml:space="preserve">1.82842814922333</t>
@@ -608,31 +608,31 @@
     <t xml:space="preserve">1.81620347499847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79874002933502</t>
+    <t xml:space="preserve">1.79874014854431</t>
   </si>
   <si>
     <t xml:space="preserve">1.72801291942596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81795001029968</t>
+    <t xml:space="preserve">1.81795012950897</t>
   </si>
   <si>
     <t xml:space="preserve">1.82510721683502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92351996898651</t>
+    <t xml:space="preserve">1.92351984977722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87878668308258</t>
+    <t xml:space="preserve">1.87878680229187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8608934879303</t>
+    <t xml:space="preserve">1.86089360713959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86984014511108</t>
+    <t xml:space="preserve">1.86984038352966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0398256778717</t>
+    <t xml:space="preserve">2.03982591629028</t>
   </si>
   <si>
     <t xml:space="preserve">2.4764199256897</t>
@@ -641,10 +641,10 @@
     <t xml:space="preserve">2.57662200927734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94701147079468</t>
+    <t xml:space="preserve">2.9470112323761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95237946510315</t>
+    <t xml:space="preserve">2.95237922668457</t>
   </si>
   <si>
     <t xml:space="preserve">2.85396695137024</t>
@@ -656,16 +656,16 @@
     <t xml:space="preserve">2.58556866645813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56767559051514</t>
+    <t xml:space="preserve">2.56767535209656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50504899024963</t>
+    <t xml:space="preserve">2.50504922866821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46747303009033</t>
+    <t xml:space="preserve">2.46747326850891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59809374809265</t>
+    <t xml:space="preserve">2.59809422492981</t>
   </si>
   <si>
     <t xml:space="preserve">2.70187449455261</t>
@@ -680,10 +680,10 @@
     <t xml:space="preserve">2.60882973670959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56946468353271</t>
+    <t xml:space="preserve">2.56946492195129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57841110229492</t>
+    <t xml:space="preserve">2.5784113407135</t>
   </si>
   <si>
     <t xml:space="preserve">2.54978203773499</t>
@@ -695,10 +695,10 @@
     <t xml:space="preserve">2.55872869491577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63924789428711</t>
+    <t xml:space="preserve">2.63924813270569</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68398141860962</t>
+    <t xml:space="preserve">2.68398118019104</t>
   </si>
   <si>
     <t xml:space="preserve">2.59451508522034</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">2.5408353805542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56230735778809</t>
+    <t xml:space="preserve">2.56230759620667</t>
   </si>
   <si>
     <t xml:space="preserve">2.56409668922424</t>
@@ -716,10 +716,10 @@
     <t xml:space="preserve">2.64640545845032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56588625907898</t>
+    <t xml:space="preserve">2.56588578224182</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58198976516724</t>
+    <t xml:space="preserve">2.58199000358582</t>
   </si>
   <si>
     <t xml:space="preserve">2.6732451915741</t>
@@ -728,19 +728,19 @@
     <t xml:space="preserve">2.52294230461121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48536658287048</t>
+    <t xml:space="preserve">2.48536682128906</t>
   </si>
   <si>
     <t xml:space="preserve">2.53188896179199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48715591430664</t>
+    <t xml:space="preserve">2.48715567588806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43347668647766</t>
+    <t xml:space="preserve">2.43347644805908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41916179656982</t>
+    <t xml:space="preserve">2.4191620349884</t>
   </si>
   <si>
     <t xml:space="preserve">2.37979698181152</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">2.41379380226135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36548209190369</t>
+    <t xml:space="preserve">2.36548233032227</t>
   </si>
   <si>
     <t xml:space="preserve">2.21875786781311</t>
@@ -761,16 +761,16 @@
     <t xml:space="preserve">2.21338987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15792083740234</t>
+    <t xml:space="preserve">2.15792107582092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14718508720398</t>
+    <t xml:space="preserve">2.14718532562256</t>
   </si>
   <si>
     <t xml:space="preserve">2.18655014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20981121063232</t>
+    <t xml:space="preserve">2.2098114490509</t>
   </si>
   <si>
     <t xml:space="preserve">2.22054719924927</t>
@@ -791,46 +791,46 @@
     <t xml:space="preserve">2.095294713974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14002752304077</t>
+    <t xml:space="preserve">2.14002776145935</t>
   </si>
   <si>
     <t xml:space="preserve">2.11139869689941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30285573005676</t>
+    <t xml:space="preserve">2.30285596847534</t>
   </si>
   <si>
     <t xml:space="preserve">2.27064800262451</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1722354888916</t>
+    <t xml:space="preserve">2.17223525047302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19549655914307</t>
+    <t xml:space="preserve">2.19549679756165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25275492668152</t>
+    <t xml:space="preserve">2.25275468826294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2366509437561</t>
+    <t xml:space="preserve">2.23665118217468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21517944335938</t>
+    <t xml:space="preserve">2.2151792049408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24738717079163</t>
+    <t xml:space="preserve">2.24738693237305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24559783935547</t>
+    <t xml:space="preserve">2.24559760093689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26349091529846</t>
+    <t xml:space="preserve">2.26349067687988</t>
   </si>
   <si>
     <t xml:space="preserve">2.37621784210205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31717038154602</t>
+    <t xml:space="preserve">2.31717014312744</t>
   </si>
   <si>
     <t xml:space="preserve">2.35295701026917</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">2.3815860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33506345748901</t>
+    <t xml:space="preserve">2.33506369590759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31895971298218</t>
+    <t xml:space="preserve">2.31895995140076</t>
   </si>
   <si>
     <t xml:space="preserve">2.26528024673462</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">2.28496265411377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32611680030823</t>
+    <t xml:space="preserve">2.32611727714539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3440101146698</t>
+    <t xml:space="preserve">2.34401035308838</t>
   </si>
   <si>
     <t xml:space="preserve">2.44242310523987</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">2.35116744041443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.369060754776</t>
+    <t xml:space="preserve">2.36906051635742</t>
   </si>
   <si>
     <t xml:space="preserve">2.37085008621216</t>
@@ -872,22 +872,22 @@
     <t xml:space="preserve">2.29748797416687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3046452999115</t>
+    <t xml:space="preserve">2.30464506149292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38695406913757</t>
+    <t xml:space="preserve">2.38695383071899</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29927730560303</t>
+    <t xml:space="preserve">2.29927706718445</t>
   </si>
   <si>
     <t xml:space="preserve">2.34222102165222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54262495040894</t>
+    <t xml:space="preserve">2.54262471199036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65535187721252</t>
+    <t xml:space="preserve">2.6553521156311</t>
   </si>
   <si>
     <t xml:space="preserve">2.61419773101807</t>
@@ -896,13 +896,13 @@
     <t xml:space="preserve">2.62314438819885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61240863800049</t>
+    <t xml:space="preserve">2.61240816116333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66608810424805</t>
+    <t xml:space="preserve">2.66608786582947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60167217254639</t>
+    <t xml:space="preserve">2.60167241096497</t>
   </si>
   <si>
     <t xml:space="preserve">2.58020067214966</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">2.42274022102356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47105240821838</t>
+    <t xml:space="preserve">2.4710521697998</t>
   </si>
   <si>
     <t xml:space="preserve">2.43526554107666</t>
@@ -923,49 +923,49 @@
     <t xml:space="preserve">2.51936388015747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45136952400208</t>
+    <t xml:space="preserve">2.45136976242065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46031594276428</t>
+    <t xml:space="preserve">2.46031618118286</t>
   </si>
   <si>
     <t xml:space="preserve">2.50862765312195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49431347846985</t>
+    <t xml:space="preserve">2.49431324005127</t>
   </si>
   <si>
     <t xml:space="preserve">2.43705487251282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40663647651672</t>
+    <t xml:space="preserve">2.4066367149353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49252390861511</t>
+    <t xml:space="preserve">2.49252414703369</t>
   </si>
   <si>
     <t xml:space="preserve">2.41558313369751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29390931129456</t>
+    <t xml:space="preserve">2.29390907287598</t>
   </si>
   <si>
     <t xml:space="preserve">2.2277045249939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20623278617859</t>
+    <t xml:space="preserve">2.20623254776001</t>
   </si>
   <si>
     <t xml:space="preserve">2.28138399124146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19191813468933</t>
+    <t xml:space="preserve">2.19191789627075</t>
   </si>
   <si>
     <t xml:space="preserve">2.18297147750854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12929177284241</t>
+    <t xml:space="preserve">2.12929201126099</t>
   </si>
   <si>
     <t xml:space="preserve">2.10245180130005</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">2.13823843002319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98614621162415</t>
+    <t xml:space="preserve">1.98614609241486</t>
   </si>
   <si>
     <t xml:space="preserve">2.06666541099548</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">2.05771899223328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00403904914856</t>
+    <t xml:space="preserve">2.00403928756714</t>
   </si>
   <si>
     <t xml:space="preserve">2.07561206817627</t>
@@ -995,22 +995,22 @@
     <t xml:space="preserve">2.01298594474792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96825289726257</t>
+    <t xml:space="preserve">1.96825301647186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97719967365265</t>
+    <t xml:space="preserve">1.97719955444336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95035970211029</t>
+    <t xml:space="preserve">1.95035982131958</t>
   </si>
   <si>
     <t xml:space="preserve">1.93246674537659</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03087902069092</t>
+    <t xml:space="preserve">2.0308792591095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04877209663391</t>
+    <t xml:space="preserve">2.04877233505249</t>
   </si>
   <si>
     <t xml:space="preserve">2.1587393283844</t>
@@ -1609,6 +1609,9 @@
   <si>
     <t xml:space="preserve">1.01999998092651</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.00999999046326</t>
+  </si>
 </sst>
 </file>
 
@@ -57719,7 +57722,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6496296296</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>28400</v>
@@ -57740,6 +57743,32 @@
         <v>531</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.5683564815</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>13200</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>1.00999999046326</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>1.00999999046326</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>532</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LMG.MI.xlsx
+++ b/data/LMG.MI.xlsx
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5347158908844</t>
+    <t xml:space="preserve">1.53471577167511</t>
   </si>
   <si>
     <t xml:space="preserve">LMG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50033140182495</t>
+    <t xml:space="preserve">1.50033152103424</t>
   </si>
   <si>
     <t xml:space="preserve">1.5514885187149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704061985016</t>
+    <t xml:space="preserve">1.50704050064087</t>
   </si>
   <si>
     <t xml:space="preserve">1.48439717292786</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">1.44246518611908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43575596809387</t>
+    <t xml:space="preserve">1.43575584888458</t>
   </si>
   <si>
     <t xml:space="preserve">1.39214646816254</t>
@@ -71,19 +71,19 @@
     <t xml:space="preserve">1.42569220066071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47433364391327</t>
+    <t xml:space="preserve">1.47433352470398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44162631034851</t>
+    <t xml:space="preserve">1.4416264295578</t>
   </si>
   <si>
     <t xml:space="preserve">1.46762442588806</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50871777534485</t>
+    <t xml:space="preserve">1.50871789455414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45923781394958</t>
+    <t xml:space="preserve">1.45923793315887</t>
   </si>
   <si>
     <t xml:space="preserve">1.40640342235565</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">1.36698722839355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40053296089172</t>
+    <t xml:space="preserve">1.40053308010101</t>
   </si>
   <si>
     <t xml:space="preserve">1.40891933441162</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">1.44581961631775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52632927894592</t>
+    <t xml:space="preserve">1.52632915973663</t>
   </si>
   <si>
     <t xml:space="preserve">1.49278366565704</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">1.74437630176544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74773097038269</t>
+    <t xml:space="preserve">1.74773108959198</t>
   </si>
   <si>
     <t xml:space="preserve">1.71753978729248</t>
@@ -146,10 +146,10 @@
     <t xml:space="preserve">1.59342062473297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57664775848389</t>
+    <t xml:space="preserve">1.57664787769318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51962006092072</t>
+    <t xml:space="preserve">1.51962018013</t>
   </si>
   <si>
     <t xml:space="preserve">1.50116991996765</t>
@@ -158,13 +158,13 @@
     <t xml:space="preserve">1.4734947681427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51932418346405</t>
+    <t xml:space="preserve">1.51932430267334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49662172794342</t>
+    <t xml:space="preserve">1.49662160873413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46955323219299</t>
+    <t xml:space="preserve">1.46955335140228</t>
   </si>
   <si>
     <t xml:space="preserve">1.48439729213715</t>
@@ -182,13 +182,13 @@
     <t xml:space="preserve">1.46606051921844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42240166664124</t>
+    <t xml:space="preserve">1.42240154743195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41454315185547</t>
+    <t xml:space="preserve">1.41454303264618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43200659751892</t>
+    <t xml:space="preserve">1.43200671672821</t>
   </si>
   <si>
     <t xml:space="preserve">1.39707970619202</t>
@@ -215,10 +215,10 @@
     <t xml:space="preserve">1.42327499389648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4739191532135</t>
+    <t xml:space="preserve">1.47391903400421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44073832035065</t>
+    <t xml:space="preserve">1.44073843955994</t>
   </si>
   <si>
     <t xml:space="preserve">1.388347864151</t>
@@ -233,19 +233,19 @@
     <t xml:space="preserve">1.27832782268524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25737166404724</t>
+    <t xml:space="preserve">1.25737178325653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26173770427704</t>
+    <t xml:space="preserve">1.26173758506775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28182077407837</t>
+    <t xml:space="preserve">1.28182065486908</t>
   </si>
   <si>
     <t xml:space="preserve">1.29229867458344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28356695175171</t>
+    <t xml:space="preserve">1.283567070961</t>
   </si>
   <si>
     <t xml:space="preserve">1.23990821838379</t>
@@ -254,22 +254,22 @@
     <t xml:space="preserve">1.19450318813324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27483510971069</t>
+    <t xml:space="preserve">1.27483522891998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21895217895508</t>
+    <t xml:space="preserve">1.21895205974579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20236170291901</t>
+    <t xml:space="preserve">1.2023618221283</t>
   </si>
   <si>
     <t xml:space="preserve">1.19188368320465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22244465351105</t>
+    <t xml:space="preserve">1.22244477272034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17878603935242</t>
+    <t xml:space="preserve">1.17878592014313</t>
   </si>
   <si>
     <t xml:space="preserve">1.16132259368896</t>
@@ -278,10 +278,10 @@
     <t xml:space="preserve">1.09408807754517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07837092876434</t>
+    <t xml:space="preserve">1.07837080955505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06876587867737</t>
+    <t xml:space="preserve">1.06876599788666</t>
   </si>
   <si>
     <t xml:space="preserve">1.08448314666748</t>
@@ -290,13 +290,13 @@
     <t xml:space="preserve">1.1002002954483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1307612657547</t>
+    <t xml:space="preserve">1.13076138496399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11067831516266</t>
+    <t xml:space="preserve">1.11067843437195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11766386032104</t>
+    <t xml:space="preserve">1.11766374111176</t>
   </si>
   <si>
     <t xml:space="preserve">1.08273684978485</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">1.05654156208038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04780995845795</t>
+    <t xml:space="preserve">1.04780983924866</t>
   </si>
   <si>
     <t xml:space="preserve">0.999785184860229</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">1.0120096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985814332962036</t>
+    <t xml:space="preserve">0.985814213752747</t>
   </si>
   <si>
     <t xml:space="preserve">0.927311658859253</t>
@@ -335,16 +335,16 @@
     <t xml:space="preserve">0.993672966957092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951760649681091</t>
+    <t xml:space="preserve">0.951760530471802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938662946224213</t>
+    <t xml:space="preserve">0.938663005828857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935170352458954</t>
+    <t xml:space="preserve">0.935170233249664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909848153591156</t>
+    <t xml:space="preserve">0.909848213195801</t>
   </si>
   <si>
     <t xml:space="preserve">0.948267877101898</t>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">1.03209269046783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04519033432007</t>
+    <t xml:space="preserve">1.04519021511078</t>
   </si>
   <si>
     <t xml:space="preserve">1.03907811641693</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">0.982321619987488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03121936321259</t>
+    <t xml:space="preserve">1.03121948242188</t>
   </si>
   <si>
     <t xml:space="preserve">1.0146290063858</t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">0.995419323444366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10456609725952</t>
+    <t xml:space="preserve">1.10456621646881</t>
   </si>
   <si>
     <t xml:space="preserve">1.10543930530548</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">1.06963920593262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09845399856567</t>
+    <t xml:space="preserve">1.09845387935638</t>
   </si>
   <si>
     <t xml:space="preserve">1.15259075164795</t>
@@ -440,10 +440,10 @@
     <t xml:space="preserve">1.1979957818985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24776685237885</t>
+    <t xml:space="preserve">1.24776673316956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24863982200623</t>
+    <t xml:space="preserve">1.24863994121552</t>
   </si>
   <si>
     <t xml:space="preserve">1.31063544750214</t>
@@ -452,10 +452,10 @@
     <t xml:space="preserve">1.2582448720932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26610350608826</t>
+    <t xml:space="preserve">1.26610362529755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27046942710876</t>
+    <t xml:space="preserve">1.27046930789948</t>
   </si>
   <si>
     <t xml:space="preserve">1.20672750473022</t>
@@ -470,16 +470,16 @@
     <t xml:space="preserve">1.24689364433289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2049812078476</t>
+    <t xml:space="preserve">1.20498132705688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19624960422516</t>
+    <t xml:space="preserve">1.19624948501587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24340093135834</t>
+    <t xml:space="preserve">1.24340105056763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21371293067932</t>
+    <t xml:space="preserve">1.21371304988861</t>
   </si>
   <si>
     <t xml:space="preserve">1.29142558574677</t>
@@ -491,34 +491,34 @@
     <t xml:space="preserve">1.28967905044556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21196663379669</t>
+    <t xml:space="preserve">1.21196675300598</t>
   </si>
   <si>
     <t xml:space="preserve">1.18315196037292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18751776218414</t>
+    <t xml:space="preserve">1.18751764297485</t>
   </si>
   <si>
     <t xml:space="preserve">1.17703974246979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17005431652069</t>
+    <t xml:space="preserve">1.1700541973114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2276839017868</t>
+    <t xml:space="preserve">1.22768378257751</t>
   </si>
   <si>
     <t xml:space="preserve">1.46693360805511</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45645558834076</t>
+    <t xml:space="preserve">1.45645546913147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4599484205246</t>
+    <t xml:space="preserve">1.45994830131531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45820188522339</t>
+    <t xml:space="preserve">1.45820200443268</t>
   </si>
   <si>
     <t xml:space="preserve">1.52368998527527</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">1.52019739151001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55337798595428</t>
+    <t xml:space="preserve">1.55337810516357</t>
   </si>
   <si>
     <t xml:space="preserve">1.55425107479095</t>
@@ -539,34 +539,34 @@
     <t xml:space="preserve">1.5367876291275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60227584838867</t>
+    <t xml:space="preserve">1.60227596759796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64156854152679</t>
+    <t xml:space="preserve">1.64156866073608</t>
   </si>
   <si>
     <t xml:space="preserve">1.65466630458832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70269083976746</t>
+    <t xml:space="preserve">1.70269095897675</t>
   </si>
   <si>
     <t xml:space="preserve">1.72888612747192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7367445230484</t>
+    <t xml:space="preserve">1.73674464225769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8109644651413</t>
+    <t xml:space="preserve">1.81096434593201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83366703987122</t>
+    <t xml:space="preserve">1.83366692066193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85113060474396</t>
+    <t xml:space="preserve">1.85113048553467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85986220836639</t>
+    <t xml:space="preserve">1.85986244678497</t>
   </si>
   <si>
     <t xml:space="preserve">1.72277402877808</t>
@@ -593,10 +593,10 @@
     <t xml:space="preserve">1.7550812959671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75682783126831</t>
+    <t xml:space="preserve">1.7568279504776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7900083065033</t>
+    <t xml:space="preserve">1.79000818729401</t>
   </si>
   <si>
     <t xml:space="preserve">1.81271088123322</t>
@@ -614,16 +614,16 @@
     <t xml:space="preserve">1.72801291942596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81795012950897</t>
+    <t xml:space="preserve">1.81795001029968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82510721683502</t>
+    <t xml:space="preserve">1.82510709762573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92351984977722</t>
+    <t xml:space="preserve">1.92351996898651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87878680229187</t>
+    <t xml:space="preserve">1.87878668308258</t>
   </si>
   <si>
     <t xml:space="preserve">1.86089360713959</t>
@@ -638,13 +638,13 @@
     <t xml:space="preserve">2.4764199256897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57662200927734</t>
+    <t xml:space="preserve">2.57662224769592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9470112323761</t>
+    <t xml:space="preserve">2.94701147079468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95237922668457</t>
+    <t xml:space="preserve">2.95237946510315</t>
   </si>
   <si>
     <t xml:space="preserve">2.85396695137024</t>
@@ -653,19 +653,19 @@
     <t xml:space="preserve">2.75913286209106</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58556866645813</t>
+    <t xml:space="preserve">2.58556842803955</t>
   </si>
   <si>
     <t xml:space="preserve">2.56767535209656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50504922866821</t>
+    <t xml:space="preserve">2.50504946708679</t>
   </si>
   <si>
     <t xml:space="preserve">2.46747326850891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59809422492981</t>
+    <t xml:space="preserve">2.59809398651123</t>
   </si>
   <si>
     <t xml:space="preserve">2.70187449455261</t>
@@ -689,10 +689,10 @@
     <t xml:space="preserve">2.54978203773499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52473163604736</t>
+    <t xml:space="preserve">2.52473187446594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55872869491577</t>
+    <t xml:space="preserve">2.55872893333435</t>
   </si>
   <si>
     <t xml:space="preserve">2.63924813270569</t>
@@ -701,13 +701,13 @@
     <t xml:space="preserve">2.68398118019104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59451508522034</t>
+    <t xml:space="preserve">2.59451532363892</t>
   </si>
   <si>
     <t xml:space="preserve">2.5408353805542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56230759620667</t>
+    <t xml:space="preserve">2.56230735778809</t>
   </si>
   <si>
     <t xml:space="preserve">2.56409668922424</t>
@@ -734,13 +734,13 @@
     <t xml:space="preserve">2.53188896179199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48715567588806</t>
+    <t xml:space="preserve">2.48715591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43347644805908</t>
+    <t xml:space="preserve">2.4334762096405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4191620349884</t>
+    <t xml:space="preserve">2.41916179656982</t>
   </si>
   <si>
     <t xml:space="preserve">2.37979698181152</t>
@@ -764,13 +764,13 @@
     <t xml:space="preserve">2.15792107582092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14718532562256</t>
+    <t xml:space="preserve">2.14718508720398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18655014038086</t>
+    <t xml:space="preserve">2.18654990196228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2098114490509</t>
+    <t xml:space="preserve">2.20981121063232</t>
   </si>
   <si>
     <t xml:space="preserve">2.22054719924927</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">2.17402482032776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19012856483459</t>
+    <t xml:space="preserve">2.19012880325317</t>
   </si>
   <si>
     <t xml:space="preserve">2.095294713974</t>
@@ -797,19 +797,19 @@
     <t xml:space="preserve">2.11139869689941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30285596847534</t>
+    <t xml:space="preserve">2.30285573005676</t>
   </si>
   <si>
     <t xml:space="preserve">2.27064800262451</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17223525047302</t>
+    <t xml:space="preserve">2.1722354888916</t>
   </si>
   <si>
     <t xml:space="preserve">2.19549679756165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25275468826294</t>
+    <t xml:space="preserve">2.25275492668152</t>
   </si>
   <si>
     <t xml:space="preserve">2.23665118217468</t>
@@ -824,13 +824,13 @@
     <t xml:space="preserve">2.24559760093689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26349067687988</t>
+    <t xml:space="preserve">2.26349091529846</t>
   </si>
   <si>
     <t xml:space="preserve">2.37621784210205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31717014312744</t>
+    <t xml:space="preserve">2.31717038154602</t>
   </si>
   <si>
     <t xml:space="preserve">2.35295701026917</t>
@@ -848,13 +848,13 @@
     <t xml:space="preserve">2.26528024673462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28496265411377</t>
+    <t xml:space="preserve">2.28496241569519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32611727714539</t>
+    <t xml:space="preserve">2.32611703872681</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34401035308838</t>
+    <t xml:space="preserve">2.3440101146698</t>
   </si>
   <si>
     <t xml:space="preserve">2.44242310523987</t>
@@ -872,13 +872,13 @@
     <t xml:space="preserve">2.29748797416687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30464506149292</t>
+    <t xml:space="preserve">2.3046452999115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38695383071899</t>
+    <t xml:space="preserve">2.38695406913757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29927706718445</t>
+    <t xml:space="preserve">2.29927730560303</t>
   </si>
   <si>
     <t xml:space="preserve">2.34222102165222</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">2.62314438819885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61240816116333</t>
+    <t xml:space="preserve">2.61240839958191</t>
   </si>
   <si>
     <t xml:space="preserve">2.66608786582947</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">2.60167241096497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58020067214966</t>
+    <t xml:space="preserve">2.58020043373108</t>
   </si>
   <si>
     <t xml:space="preserve">2.42095112800598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42274022102356</t>
+    <t xml:space="preserve">2.42274045944214</t>
   </si>
   <si>
     <t xml:space="preserve">2.4710521697998</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">2.51936388015747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45136976242065</t>
+    <t xml:space="preserve">2.45136952400208</t>
   </si>
   <si>
     <t xml:space="preserve">2.46031618118286</t>
@@ -941,22 +941,22 @@
     <t xml:space="preserve">2.4066367149353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49252414703369</t>
+    <t xml:space="preserve">2.49252390861511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41558313369751</t>
+    <t xml:space="preserve">2.41558289527893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29390907287598</t>
+    <t xml:space="preserve">2.29390931129456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2277045249939</t>
+    <t xml:space="preserve">2.22770428657532</t>
   </si>
   <si>
     <t xml:space="preserve">2.20623254776001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28138399124146</t>
+    <t xml:space="preserve">2.28138422966003</t>
   </si>
   <si>
     <t xml:space="preserve">2.19191789627075</t>
@@ -1001,10 +1001,10 @@
     <t xml:space="preserve">1.97719955444336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95035982131958</t>
+    <t xml:space="preserve">1.950359582901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93246674537659</t>
+    <t xml:space="preserve">1.93246650695801</t>
   </si>
   <si>
     <t xml:space="preserve">2.0308792591095</t>
@@ -1022,13 +1022,13 @@
     <t xml:space="preserve">2.05812001228333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99408984184265</t>
+    <t xml:space="preserve">1.99408960342407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93920648097992</t>
+    <t xml:space="preserve">1.93920636177063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96664810180664</t>
+    <t xml:space="preserve">1.96664822101593</t>
   </si>
   <si>
     <t xml:space="preserve">2.11300325393677</t>
@@ -1043,25 +1043,25 @@
     <t xml:space="preserve">2.01238417625427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94835364818573</t>
+    <t xml:space="preserve">1.94835388660431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98494243621826</t>
+    <t xml:space="preserve">1.98494267463684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95750105381012</t>
+    <t xml:space="preserve">1.95750081539154</t>
   </si>
   <si>
     <t xml:space="preserve">1.9026175737381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00323677062988</t>
+    <t xml:space="preserve">2.00323700904846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93005907535553</t>
+    <t xml:space="preserve">1.93005919456482</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97579550743103</t>
+    <t xml:space="preserve">1.97579526901245</t>
   </si>
   <si>
     <t xml:space="preserve">2.02153134346008</t>
@@ -1073,22 +1073,22 @@
     <t xml:space="preserve">2.09470891952515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86602890491486</t>
+    <t xml:space="preserve">1.86602878570557</t>
   </si>
   <si>
     <t xml:space="preserve">1.84773457050323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87517607212067</t>
+    <t xml:space="preserve">1.87517595291138</t>
   </si>
   <si>
     <t xml:space="preserve">1.83858728408813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68765842914581</t>
+    <t xml:space="preserve">1.6876585483551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66479051113129</t>
+    <t xml:space="preserve">1.664790391922</t>
   </si>
   <si>
     <t xml:space="preserve">1.69223201274872</t>
@@ -1115,10 +1115,10 @@
     <t xml:space="preserve">1.64649605751038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67393779754639</t>
+    <t xml:space="preserve">1.6739376783371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63277530670166</t>
+    <t xml:space="preserve">1.63277518749237</t>
   </si>
   <si>
     <t xml:space="preserve">1.66936421394348</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">1.66021692752838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74254155158997</t>
+    <t xml:space="preserve">1.74254167079926</t>
   </si>
   <si>
     <t xml:space="preserve">1.70137929916382</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">1.71510004997253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6830849647522</t>
+    <t xml:space="preserve">1.68308484554291</t>
   </si>
   <si>
     <t xml:space="preserve">1.65106964111328</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">1.62362813949585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48184645175934</t>
+    <t xml:space="preserve">1.48184633255005</t>
   </si>
   <si>
     <t xml:space="preserve">1.48642003536224</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">1.29890239238739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26231360435486</t>
+    <t xml:space="preserve">1.26231372356415</t>
   </si>
   <si>
     <t xml:space="preserve">1.34921205043793</t>
@@ -1199,16 +1199,16 @@
     <t xml:space="preserve">1.4178159236908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50014078617096</t>
+    <t xml:space="preserve">1.50014090538025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50928795337677</t>
+    <t xml:space="preserve">1.50928807258606</t>
   </si>
   <si>
     <t xml:space="preserve">1.50471448898315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51386165618896</t>
+    <t xml:space="preserve">1.51386153697968</t>
   </si>
   <si>
     <t xml:space="preserve">1.45440483093262</t>
@@ -1223,10 +1223,10 @@
     <t xml:space="preserve">1.60075998306274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57789218425751</t>
+    <t xml:space="preserve">1.57789206504822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59618651866913</t>
+    <t xml:space="preserve">1.59618639945984</t>
   </si>
   <si>
     <t xml:space="preserve">1.61448097229004</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">1.62820160388947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58703935146332</t>
+    <t xml:space="preserve">1.58703923225403</t>
   </si>
   <si>
     <t xml:space="preserve">1.55045056343079</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">1.57331848144531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59161281585693</t>
+    <t xml:space="preserve">1.59161293506622</t>
   </si>
   <si>
     <t xml:space="preserve">1.5641713142395</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">1.67525947093964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6376131772995</t>
+    <t xml:space="preserve">1.63761329650879</t>
   </si>
   <si>
     <t xml:space="preserve">1.60937857627869</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">1.58114373683929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55290901660919</t>
+    <t xml:space="preserve">1.55290913581848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52467441558838</t>
+    <t xml:space="preserve">1.52467429637909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57173216342926</t>
+    <t xml:space="preserve">1.57173228263855</t>
   </si>
   <si>
     <t xml:space="preserve">1.53408598899841</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">1.46820485591888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44938170909882</t>
+    <t xml:space="preserve">1.44938182830811</t>
   </si>
   <si>
     <t xml:space="preserve">1.43055868148804</t>
@@ -1322,67 +1322,67 @@
     <t xml:space="preserve">1.40232396125793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37408924102783</t>
+    <t xml:space="preserve">1.37408936023712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34585440158844</t>
+    <t xml:space="preserve">1.34585452079773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31761980056763</t>
+    <t xml:space="preserve">1.31761991977692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29879665374756</t>
+    <t xml:space="preserve">1.29879677295685</t>
   </si>
   <si>
     <t xml:space="preserve">1.24232733249664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23291575908661</t>
+    <t xml:space="preserve">1.23291563987732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22350418567657</t>
+    <t xml:space="preserve">1.22350406646729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27997362613678</t>
+    <t xml:space="preserve">1.27997350692749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27056205272675</t>
+    <t xml:space="preserve">1.27056193351746</t>
   </si>
   <si>
     <t xml:space="preserve">1.3364429473877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35526609420776</t>
+    <t xml:space="preserve">1.35526621341705</t>
   </si>
   <si>
     <t xml:space="preserve">1.421147108078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43997013568878</t>
+    <t xml:space="preserve">1.43997025489807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3646776676178</t>
+    <t xml:space="preserve">1.36467778682709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38350081443787</t>
+    <t xml:space="preserve">1.38350093364716</t>
   </si>
   <si>
     <t xml:space="preserve">1.32703137397766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28938519954681</t>
+    <t xml:space="preserve">1.28938508033752</t>
   </si>
   <si>
     <t xml:space="preserve">1.51526284217834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7223174571991</t>
+    <t xml:space="preserve">1.72231733798981</t>
   </si>
   <si>
     <t xml:space="preserve">1.74114048480988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71290588378906</t>
+    <t xml:space="preserve">1.71290576457977</t>
   </si>
   <si>
     <t xml:space="preserve">1.70349419116974</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">1.65643632411957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76937520503998</t>
+    <t xml:space="preserve">1.76937532424927</t>
   </si>
   <si>
     <t xml:space="preserve">1.18585789203644</t>
@@ -1424,10 +1424,10 @@
     <t xml:space="preserve">1.16703474521637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21409261226654</t>
+    <t xml:space="preserve">1.21409249305725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20468103885651</t>
+    <t xml:space="preserve">1.20468091964722</t>
   </si>
   <si>
     <t xml:space="preserve">1.1764463186264</t>
@@ -1436,10 +1436,10 @@
     <t xml:space="preserve">1.25173890590668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30820822715759</t>
+    <t xml:space="preserve">1.30820834636688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19526946544647</t>
+    <t xml:space="preserve">1.19526934623718</t>
   </si>
   <si>
     <t xml:space="preserve">1.1482115983963</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">1.13880002498627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12938857078552</t>
+    <t xml:space="preserve">1.12938845157623</t>
   </si>
   <si>
     <t xml:space="preserve">1.0917421579361</t>
@@ -1472,19 +1472,19 @@
     <t xml:space="preserve">1.07291901111603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03527283668518</t>
+    <t xml:space="preserve">1.03527271747589</t>
   </si>
   <si>
     <t xml:space="preserve">1.05409586429596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01644968986511</t>
+    <t xml:space="preserve">1.01644957065582</t>
   </si>
   <si>
     <t xml:space="preserve">1.04468429088593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00703811645508</t>
+    <t xml:space="preserve">1.00703799724579</t>
   </si>
   <si>
     <t xml:space="preserve">0.969391703605652</t>
@@ -1493,10 +1493,10 @@
     <t xml:space="preserve">0.978803277015686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959980189800262</t>
+    <t xml:space="preserve">0.959980130195618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98821485042572</t>
+    <t xml:space="preserve">0.988214790821075</t>
   </si>
   <si>
     <t xml:space="preserve">0.936451256275177</t>
@@ -1505,19 +1505,19 @@
     <t xml:space="preserve">0.950568616390228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02586126327515</t>
+    <t xml:space="preserve">1.02586114406586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06350743770599</t>
+    <t xml:space="preserve">1.06350755691528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.997626423835754</t>
+    <t xml:space="preserve">0.99762636423111</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26115047931671</t>
+    <t xml:space="preserve">1.26115036010742</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54349744319916</t>
+    <t xml:space="preserve">1.54349756240845</t>
   </si>
   <si>
     <t xml:space="preserve">1.30537188053131</t>
@@ -57748,7 +57748,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.5683564815</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>13200</v>
@@ -57769,6 +57769,32 @@
         <v>532</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.3423842593</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>1.02999997138977</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>1.02999997138977</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>530</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LMG.MI.xlsx
+++ b/data/LMG.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53471577167511</t>
+    <t xml:space="preserve">1.53471565246582</t>
   </si>
   <si>
     <t xml:space="preserve">LMG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50033152103424</t>
+    <t xml:space="preserve">1.50033140182495</t>
   </si>
   <si>
     <t xml:space="preserve">1.5514885187149</t>
@@ -53,31 +53,31 @@
     <t xml:space="preserve">1.50704050064087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439717292786</t>
+    <t xml:space="preserve">1.48439705371857</t>
   </si>
   <si>
     <t xml:space="preserve">1.44246518611908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43575584888458</t>
+    <t xml:space="preserve">1.43575596809387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39214646816254</t>
+    <t xml:space="preserve">1.39214658737183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41646718978882</t>
+    <t xml:space="preserve">1.41646707057953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42569220066071</t>
+    <t xml:space="preserve">1.42569231987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47433352470398</t>
+    <t xml:space="preserve">1.47433340549469</t>
   </si>
   <si>
     <t xml:space="preserve">1.4416264295578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46762442588806</t>
+    <t xml:space="preserve">1.46762430667877</t>
   </si>
   <si>
     <t xml:space="preserve">1.50871789455414</t>
@@ -92,10 +92,10 @@
     <t xml:space="preserve">1.37453496456146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36698722839355</t>
+    <t xml:space="preserve">1.36698734760284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40053308010101</t>
+    <t xml:space="preserve">1.40053284168243</t>
   </si>
   <si>
     <t xml:space="preserve">1.40891933441162</t>
@@ -110,19 +110,19 @@
     <t xml:space="preserve">1.52632915973663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49278366565704</t>
+    <t xml:space="preserve">1.49278354644775</t>
   </si>
   <si>
     <t xml:space="preserve">1.57245469093323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56406819820404</t>
+    <t xml:space="preserve">1.56406831741333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53639304637909</t>
+    <t xml:space="preserve">1.5363929271698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55987501144409</t>
+    <t xml:space="preserve">1.5598748922348</t>
   </si>
   <si>
     <t xml:space="preserve">1.62025725841522</t>
@@ -134,16 +134,16 @@
     <t xml:space="preserve">1.74437630176544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74773108959198</t>
+    <t xml:space="preserve">1.74773097038269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71753978729248</t>
+    <t xml:space="preserve">1.71753990650177</t>
   </si>
   <si>
     <t xml:space="preserve">1.61857998371124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59342062473297</t>
+    <t xml:space="preserve">1.59342074394226</t>
   </si>
   <si>
     <t xml:space="preserve">1.57664787769318</t>
@@ -152,13 +152,13 @@
     <t xml:space="preserve">1.51962018013</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50116991996765</t>
+    <t xml:space="preserve">1.50117003917694</t>
   </si>
   <si>
     <t xml:space="preserve">1.4734947681427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51932430267334</t>
+    <t xml:space="preserve">1.51932418346405</t>
   </si>
   <si>
     <t xml:space="preserve">1.49662160873413</t>
@@ -170,13 +170,13 @@
     <t xml:space="preserve">1.48439729213715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49312901496887</t>
+    <t xml:space="preserve">1.49312889575958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49050939083099</t>
+    <t xml:space="preserve">1.49050951004028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47479212284088</t>
+    <t xml:space="preserve">1.47479224205017</t>
   </si>
   <si>
     <t xml:space="preserve">1.46606051921844</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">1.42240154743195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41454303264618</t>
+    <t xml:space="preserve">1.41454315185547</t>
   </si>
   <si>
     <t xml:space="preserve">1.43200671672821</t>
@@ -200,19 +200,19 @@
     <t xml:space="preserve">1.38310897350311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37961626052856</t>
+    <t xml:space="preserve">1.37961614131927</t>
   </si>
   <si>
     <t xml:space="preserve">1.31936717033386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35342085361481</t>
+    <t xml:space="preserve">1.3534209728241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36215257644653</t>
+    <t xml:space="preserve">1.36215269565582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42327499389648</t>
+    <t xml:space="preserve">1.42327511310577</t>
   </si>
   <si>
     <t xml:space="preserve">1.47391903400421</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">1.44073843955994</t>
   </si>
   <si>
-    <t xml:space="preserve">1.388347864151</t>
+    <t xml:space="preserve">1.38834798336029</t>
   </si>
   <si>
     <t xml:space="preserve">1.32722568511963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30714273452759</t>
+    <t xml:space="preserve">1.3071426153183</t>
   </si>
   <si>
     <t xml:space="preserve">1.27832782268524</t>
@@ -236,22 +236,22 @@
     <t xml:space="preserve">1.25737178325653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26173758506775</t>
+    <t xml:space="preserve">1.26173770427704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28182065486908</t>
+    <t xml:space="preserve">1.28182077407837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29229867458344</t>
+    <t xml:space="preserve">1.29229879379272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.283567070961</t>
+    <t xml:space="preserve">1.28356683254242</t>
   </si>
   <si>
     <t xml:space="preserve">1.23990821838379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19450318813324</t>
+    <t xml:space="preserve">1.19450306892395</t>
   </si>
   <si>
     <t xml:space="preserve">1.27483522891998</t>
@@ -260,25 +260,25 @@
     <t xml:space="preserve">1.21895205974579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2023618221283</t>
+    <t xml:space="preserve">1.20236170291901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19188368320465</t>
+    <t xml:space="preserve">1.19188356399536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22244477272034</t>
+    <t xml:space="preserve">1.22244465351105</t>
   </si>
   <si>
     <t xml:space="preserve">1.17878592014313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16132259368896</t>
+    <t xml:space="preserve">1.16132247447968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09408807754517</t>
+    <t xml:space="preserve">1.09408819675446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07837080955505</t>
+    <t xml:space="preserve">1.07837092876434</t>
   </si>
   <si>
     <t xml:space="preserve">1.06876599788666</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">1.13076138496399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11067843437195</t>
+    <t xml:space="preserve">1.11067831516266</t>
   </si>
   <si>
     <t xml:space="preserve">1.11766374111176</t>
@@ -314,16 +314,16 @@
     <t xml:space="preserve">1.05654156208038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04780983924866</t>
+    <t xml:space="preserve">1.04780972003937</t>
   </si>
   <si>
     <t xml:space="preserve">0.999785184860229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0120096206665</t>
+    <t xml:space="preserve">1.01200950145721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985814213752747</t>
+    <t xml:space="preserve">0.985814332962036</t>
   </si>
   <si>
     <t xml:space="preserve">0.927311658859253</t>
@@ -332,46 +332,46 @@
     <t xml:space="preserve">0.903735935688019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993672966957092</t>
+    <t xml:space="preserve">0.993672907352448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951760530471802</t>
+    <t xml:space="preserve">0.951760470867157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938663005828857</t>
+    <t xml:space="preserve">0.938662946224213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935170233249664</t>
+    <t xml:space="preserve">0.935170292854309</t>
   </si>
   <si>
     <t xml:space="preserve">0.909848213195801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948267877101898</t>
+    <t xml:space="preserve">0.948267698287964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991926610469818</t>
+    <t xml:space="preserve">0.991926550865173</t>
   </si>
   <si>
     <t xml:space="preserve">0.956999599933624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960492312908173</t>
+    <t xml:space="preserve">0.960492253303528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00939011573792</t>
+    <t xml:space="preserve">1.00938999652863</t>
   </si>
   <si>
     <t xml:space="preserve">1.00415098667145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10107350349426</t>
+    <t xml:space="preserve">1.10107338428497</t>
   </si>
   <si>
     <t xml:space="preserve">1.03471207618713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03209269046783</t>
+    <t xml:space="preserve">1.03209257125854</t>
   </si>
   <si>
     <t xml:space="preserve">1.04519021511078</t>
@@ -383,28 +383,28 @@
     <t xml:space="preserve">1.03383898735046</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977955758571625</t>
+    <t xml:space="preserve">0.97795581817627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02510738372803</t>
+    <t xml:space="preserve">1.02510726451874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982321619987488</t>
+    <t xml:space="preserve">0.982321739196777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03121948242188</t>
+    <t xml:space="preserve">1.03121960163116</t>
   </si>
   <si>
     <t xml:space="preserve">1.0146290063858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01026320457458</t>
+    <t xml:space="preserve">1.01026332378387</t>
   </si>
   <si>
     <t xml:space="preserve">1.01812183856964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02598023414612</t>
+    <t xml:space="preserve">1.02598035335541</t>
   </si>
   <si>
     <t xml:space="preserve">1.03034627437592</t>
@@ -422,28 +422,28 @@
     <t xml:space="preserve">1.10456621646881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10543930530548</t>
+    <t xml:space="preserve">1.10543918609619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06963920593262</t>
+    <t xml:space="preserve">1.06963908672333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09845387935638</t>
+    <t xml:space="preserve">1.09845376014709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15259075164795</t>
+    <t xml:space="preserve">1.15259087085724</t>
   </si>
   <si>
     <t xml:space="preserve">1.18577146530151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1979957818985</t>
+    <t xml:space="preserve">1.19799590110779</t>
   </si>
   <si>
     <t xml:space="preserve">1.24776673316956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24863994121552</t>
+    <t xml:space="preserve">1.2486400604248</t>
   </si>
   <si>
     <t xml:space="preserve">1.31063544750214</t>
@@ -452,13 +452,13 @@
     <t xml:space="preserve">1.2582448720932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26610362529755</t>
+    <t xml:space="preserve">1.26610350608826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27046930789948</t>
+    <t xml:space="preserve">1.27046942710876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20672750473022</t>
+    <t xml:space="preserve">1.20672762393951</t>
   </si>
   <si>
     <t xml:space="preserve">1.20323491096497</t>
@@ -470,61 +470,61 @@
     <t xml:space="preserve">1.24689364433289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20498132705688</t>
+    <t xml:space="preserve">1.2049812078476</t>
   </si>
   <si>
     <t xml:space="preserve">1.19624948501587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24340105056763</t>
+    <t xml:space="preserve">1.24340093135834</t>
   </si>
   <si>
     <t xml:space="preserve">1.21371304988861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29142558574677</t>
+    <t xml:space="preserve">1.29142570495605</t>
   </si>
   <si>
     <t xml:space="preserve">1.30976223945618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28967905044556</t>
+    <t xml:space="preserve">1.28967916965485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21196675300598</t>
+    <t xml:space="preserve">1.2119665145874</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18315196037292</t>
+    <t xml:space="preserve">1.18315184116364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18751764297485</t>
+    <t xml:space="preserve">1.18751776218414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17703974246979</t>
+    <t xml:space="preserve">1.1770396232605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1700541973114</t>
+    <t xml:space="preserve">1.17005431652069</t>
   </si>
   <si>
     <t xml:space="preserve">1.22768378257751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46693360805511</t>
+    <t xml:space="preserve">1.4669337272644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45645546913147</t>
+    <t xml:space="preserve">1.45645558834076</t>
   </si>
   <si>
     <t xml:space="preserve">1.45994830131531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45820200443268</t>
+    <t xml:space="preserve">1.45820188522339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52368998527527</t>
+    <t xml:space="preserve">1.52369010448456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56036341190338</t>
+    <t xml:space="preserve">1.56036329269409</t>
   </si>
   <si>
     <t xml:space="preserve">1.52019739151001</t>
@@ -539,7 +539,7 @@
     <t xml:space="preserve">1.5367876291275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60227596759796</t>
+    <t xml:space="preserve">1.60227584838867</t>
   </si>
   <si>
     <t xml:space="preserve">1.64156866073608</t>
@@ -557,10 +557,10 @@
     <t xml:space="preserve">1.73674464225769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81096434593201</t>
+    <t xml:space="preserve">1.8109644651413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83366692066193</t>
+    <t xml:space="preserve">1.83366703987122</t>
   </si>
   <si>
     <t xml:space="preserve">1.85113048553467</t>
@@ -569,70 +569,70 @@
     <t xml:space="preserve">1.85986244678497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72277402877808</t>
+    <t xml:space="preserve">1.72277414798737</t>
   </si>
   <si>
     <t xml:space="preserve">1.67038345336914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74634969234467</t>
+    <t xml:space="preserve">1.74634957313538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69046640396118</t>
+    <t xml:space="preserve">1.69046652317047</t>
   </si>
   <si>
     <t xml:space="preserve">1.76032054424286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68697369098663</t>
+    <t xml:space="preserve">1.68697381019592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67649555206299</t>
+    <t xml:space="preserve">1.67649567127228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7550812959671</t>
+    <t xml:space="preserve">1.75508141517639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7568279504776</t>
+    <t xml:space="preserve">1.75682771205902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79000818729401</t>
+    <t xml:space="preserve">1.7900083065033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81271088123322</t>
+    <t xml:space="preserve">1.8127110004425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82842814922333</t>
+    <t xml:space="preserve">1.82842791080475</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81620347499847</t>
+    <t xml:space="preserve">1.81620359420776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79874014854431</t>
+    <t xml:space="preserve">1.79874002933502</t>
   </si>
   <si>
     <t xml:space="preserve">1.72801291942596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81795001029968</t>
+    <t xml:space="preserve">1.8179497718811</t>
   </si>
   <si>
     <t xml:space="preserve">1.82510709762573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92351996898651</t>
+    <t xml:space="preserve">1.9235200881958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87878668308258</t>
+    <t xml:space="preserve">1.87878680229187</t>
   </si>
   <si>
     <t xml:space="preserve">1.86089360713959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86984038352966</t>
+    <t xml:space="preserve">1.86984026432037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03982591629028</t>
+    <t xml:space="preserve">2.0398256778717</t>
   </si>
   <si>
     <t xml:space="preserve">2.4764199256897</t>
@@ -641,31 +641,31 @@
     <t xml:space="preserve">2.57662224769592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94701147079468</t>
+    <t xml:space="preserve">2.94701170921326</t>
   </si>
   <si>
     <t xml:space="preserve">2.95237946510315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85396695137024</t>
+    <t xml:space="preserve">2.85396671295166</t>
   </si>
   <si>
     <t xml:space="preserve">2.75913286209106</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58556842803955</t>
+    <t xml:space="preserve">2.58556890487671</t>
   </si>
   <si>
     <t xml:space="preserve">2.56767535209656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50504946708679</t>
+    <t xml:space="preserve">2.50504899024963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46747326850891</t>
+    <t xml:space="preserve">2.46747303009033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59809398651123</t>
+    <t xml:space="preserve">2.59809374809265</t>
   </si>
   <si>
     <t xml:space="preserve">2.70187449455261</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">2.90764617919922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79134035110474</t>
+    <t xml:space="preserve">2.79134011268616</t>
   </si>
   <si>
     <t xml:space="preserve">2.60882973670959</t>
@@ -686,10 +686,10 @@
     <t xml:space="preserve">2.5784113407135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54978203773499</t>
+    <t xml:space="preserve">2.54978227615356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52473187446594</t>
+    <t xml:space="preserve">2.52473163604736</t>
   </si>
   <si>
     <t xml:space="preserve">2.55872893333435</t>
@@ -698,13 +698,13 @@
     <t xml:space="preserve">2.63924813270569</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68398118019104</t>
+    <t xml:space="preserve">2.68398141860962</t>
   </si>
   <si>
     <t xml:space="preserve">2.59451532363892</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5408353805542</t>
+    <t xml:space="preserve">2.54083561897278</t>
   </si>
   <si>
     <t xml:space="preserve">2.56230735778809</t>
@@ -713,10 +713,10 @@
     <t xml:space="preserve">2.56409668922424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64640545845032</t>
+    <t xml:space="preserve">2.6464056968689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56588578224182</t>
+    <t xml:space="preserve">2.56588625907898</t>
   </si>
   <si>
     <t xml:space="preserve">2.58199000358582</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">2.52294230461121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48536682128906</t>
+    <t xml:space="preserve">2.48536658287048</t>
   </si>
   <si>
     <t xml:space="preserve">2.53188896179199</t>
@@ -743,16 +743,16 @@
     <t xml:space="preserve">2.41916179656982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37979698181152</t>
+    <t xml:space="preserve">2.37979674339294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42989778518677</t>
+    <t xml:space="preserve">2.42989754676819</t>
   </si>
   <si>
     <t xml:space="preserve">2.41379380226135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36548233032227</t>
+    <t xml:space="preserve">2.36548209190369</t>
   </si>
   <si>
     <t xml:space="preserve">2.21875786781311</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">2.14718508720398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18654990196228</t>
+    <t xml:space="preserve">2.18655014038086</t>
   </si>
   <si>
     <t xml:space="preserve">2.20981121063232</t>
@@ -791,16 +791,16 @@
     <t xml:space="preserve">2.095294713974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14002776145935</t>
+    <t xml:space="preserve">2.14002752304077</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11139869689941</t>
+    <t xml:space="preserve">2.11139845848083</t>
   </si>
   <si>
     <t xml:space="preserve">2.30285573005676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27064800262451</t>
+    <t xml:space="preserve">2.27064824104309</t>
   </si>
   <si>
     <t xml:space="preserve">2.1722354888916</t>
@@ -812,22 +812,22 @@
     <t xml:space="preserve">2.25275492668152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23665118217468</t>
+    <t xml:space="preserve">2.2366509437561</t>
   </si>
   <si>
     <t xml:space="preserve">2.2151792049408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24738693237305</t>
+    <t xml:space="preserve">2.24738717079163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24559760093689</t>
+    <t xml:space="preserve">2.24559783935547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26349091529846</t>
+    <t xml:space="preserve">2.26349115371704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37621784210205</t>
+    <t xml:space="preserve">2.37621808052063</t>
   </si>
   <si>
     <t xml:space="preserve">2.31717038154602</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">2.3815860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33506369590759</t>
+    <t xml:space="preserve">2.33506345748901</t>
   </si>
   <si>
     <t xml:space="preserve">2.31895995140076</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">2.26528024673462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28496241569519</t>
+    <t xml:space="preserve">2.28496265411377</t>
   </si>
   <si>
     <t xml:space="preserve">2.32611703872681</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">2.3440101146698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44242310523987</t>
+    <t xml:space="preserve">2.44242286682129</t>
   </si>
   <si>
     <t xml:space="preserve">2.35116744041443</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">2.34222102165222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54262471199036</t>
+    <t xml:space="preserve">2.54262495040894</t>
   </si>
   <si>
     <t xml:space="preserve">2.6553521156311</t>
@@ -893,19 +893,19 @@
     <t xml:space="preserve">2.61419773101807</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62314438819885</t>
+    <t xml:space="preserve">2.62314462661743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61240839958191</t>
+    <t xml:space="preserve">2.61240863800049</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66608786582947</t>
+    <t xml:space="preserve">2.66608810424805</t>
   </si>
   <si>
     <t xml:space="preserve">2.60167241096497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58020043373108</t>
+    <t xml:space="preserve">2.58020067214966</t>
   </si>
   <si>
     <t xml:space="preserve">2.42095112800598</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">2.43526554107666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51936388015747</t>
+    <t xml:space="preserve">2.51936364173889</t>
   </si>
   <si>
     <t xml:space="preserve">2.45136952400208</t>
@@ -938,28 +938,28 @@
     <t xml:space="preserve">2.43705487251282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4066367149353</t>
+    <t xml:space="preserve">2.40663647651672</t>
   </si>
   <si>
     <t xml:space="preserve">2.49252390861511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41558289527893</t>
+    <t xml:space="preserve">2.41558313369751</t>
   </si>
   <si>
     <t xml:space="preserve">2.29390931129456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22770428657532</t>
+    <t xml:space="preserve">2.2277045249939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20623254776001</t>
+    <t xml:space="preserve">2.20623278617859</t>
   </si>
   <si>
     <t xml:space="preserve">2.28138422966003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19191789627075</t>
+    <t xml:space="preserve">2.19191813468933</t>
   </si>
   <si>
     <t xml:space="preserve">2.18297147750854</t>
@@ -971,10 +971,10 @@
     <t xml:space="preserve">2.10245180130005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13823843002319</t>
+    <t xml:space="preserve">2.13823819160461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98614609241486</t>
+    <t xml:space="preserve">1.98614597320557</t>
   </si>
   <si>
     <t xml:space="preserve">2.06666541099548</t>
@@ -995,22 +995,22 @@
     <t xml:space="preserve">2.01298594474792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96825301647186</t>
+    <t xml:space="preserve">1.96825289726257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97719955444336</t>
+    <t xml:space="preserve">1.97719943523407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.950359582901</t>
+    <t xml:space="preserve">1.95035970211029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93246650695801</t>
+    <t xml:space="preserve">1.9324666261673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0308792591095</t>
+    <t xml:space="preserve">2.03087902069092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04877233505249</t>
+    <t xml:space="preserve">2.04877209663391</t>
   </si>
   <si>
     <t xml:space="preserve">2.1587393283844</t>
@@ -57774,7 +57774,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.3423842593</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>4000</v>
@@ -57795,6 +57795,32 @@
         <v>530</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.4269675926</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>530</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LMG.MI.xlsx
+++ b/data/LMG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,67 +38,67 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53471577167511</t>
+    <t xml:space="preserve">1.53471565246582</t>
   </si>
   <si>
     <t xml:space="preserve">LMG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50033140182495</t>
+    <t xml:space="preserve">1.50033152103424</t>
   </si>
   <si>
     <t xml:space="preserve">1.5514885187149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704050064087</t>
+    <t xml:space="preserve">1.50704038143158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439717292786</t>
+    <t xml:space="preserve">1.48439705371857</t>
   </si>
   <si>
     <t xml:space="preserve">1.44246518611908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43575596809387</t>
+    <t xml:space="preserve">1.43575584888458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39214658737183</t>
+    <t xml:space="preserve">1.39214646816254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41646718978882</t>
+    <t xml:space="preserve">1.41646707057953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42569231987</t>
+    <t xml:space="preserve">1.42569220066071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47433340549469</t>
+    <t xml:space="preserve">1.47433352470398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44162631034851</t>
+    <t xml:space="preserve">1.4416264295578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46762442588806</t>
+    <t xml:space="preserve">1.46762430667877</t>
   </si>
   <si>
     <t xml:space="preserve">1.50871789455414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45923793315887</t>
+    <t xml:space="preserve">1.45923805236816</t>
   </si>
   <si>
     <t xml:space="preserve">1.40640342235565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37453496456146</t>
+    <t xml:space="preserve">1.37453508377075</t>
   </si>
   <si>
     <t xml:space="preserve">1.36698722839355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40053296089172</t>
+    <t xml:space="preserve">1.40053284168243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40891933441162</t>
+    <t xml:space="preserve">1.40891921520233</t>
   </si>
   <si>
     <t xml:space="preserve">1.3787282705307</t>
@@ -116,13 +116,13 @@
     <t xml:space="preserve">1.57245469093323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56406807899475</t>
+    <t xml:space="preserve">1.56406819820404</t>
   </si>
   <si>
     <t xml:space="preserve">1.53639304637909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55987501144409</t>
+    <t xml:space="preserve">1.5598748922348</t>
   </si>
   <si>
     <t xml:space="preserve">1.62025725841522</t>
@@ -137,37 +137,37 @@
     <t xml:space="preserve">1.74773108959198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71753978729248</t>
+    <t xml:space="preserve">1.71753990650177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61857986450195</t>
+    <t xml:space="preserve">1.61857998371124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59342062473297</t>
+    <t xml:space="preserve">1.59342074394226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57664799690247</t>
+    <t xml:space="preserve">1.57664787769318</t>
   </si>
   <si>
     <t xml:space="preserve">1.51962018013</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50117003917694</t>
+    <t xml:space="preserve">1.50116991996765</t>
   </si>
   <si>
     <t xml:space="preserve">1.4734947681427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51932418346405</t>
+    <t xml:space="preserve">1.51932430267334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49662160873413</t>
+    <t xml:space="preserve">1.49662148952484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4695531129837</t>
+    <t xml:space="preserve">1.46955335140228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439729213715</t>
+    <t xml:space="preserve">1.48439717292786</t>
   </si>
   <si>
     <t xml:space="preserve">1.49312901496887</t>
@@ -182,28 +182,28 @@
     <t xml:space="preserve">1.46606051921844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42240178585052</t>
+    <t xml:space="preserve">1.42240166664124</t>
   </si>
   <si>
     <t xml:space="preserve">1.41454315185547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43200659751892</t>
+    <t xml:space="preserve">1.43200671672821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39707970619202</t>
+    <t xml:space="preserve">1.39707982540131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35953319072723</t>
+    <t xml:space="preserve">1.35953330993652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38310885429382</t>
+    <t xml:space="preserve">1.38310897350311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37961626052856</t>
+    <t xml:space="preserve">1.37961637973785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31936728954315</t>
+    <t xml:space="preserve">1.31936717033386</t>
   </si>
   <si>
     <t xml:space="preserve">1.3534209728241</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">1.47391903400421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44073832035065</t>
+    <t xml:space="preserve">1.44073843955994</t>
   </si>
   <si>
     <t xml:space="preserve">1.38834798336029</t>
@@ -227,64 +227,64 @@
     <t xml:space="preserve">1.32722568511963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30714273452759</t>
+    <t xml:space="preserve">1.3071426153183</t>
   </si>
   <si>
     <t xml:space="preserve">1.27832782268524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25737178325653</t>
+    <t xml:space="preserve">1.25737190246582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26173770427704</t>
+    <t xml:space="preserve">1.26173758506775</t>
   </si>
   <si>
     <t xml:space="preserve">1.28182065486908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29229879379272</t>
+    <t xml:space="preserve">1.29229867458344</t>
   </si>
   <si>
     <t xml:space="preserve">1.28356695175171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23990833759308</t>
+    <t xml:space="preserve">1.2399080991745</t>
   </si>
   <si>
     <t xml:space="preserve">1.19450318813324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27483522891998</t>
+    <t xml:space="preserve">1.27483534812927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2189519405365</t>
+    <t xml:space="preserve">1.21895205974579</t>
   </si>
   <si>
     <t xml:space="preserve">1.2023618221283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19188356399536</t>
+    <t xml:space="preserve">1.19188368320465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22244453430176</t>
+    <t xml:space="preserve">1.22244477272034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17878603935242</t>
+    <t xml:space="preserve">1.17878592014313</t>
   </si>
   <si>
     <t xml:space="preserve">1.16132247447968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09408795833588</t>
+    <t xml:space="preserve">1.09408807754517</t>
   </si>
   <si>
     <t xml:space="preserve">1.07837080955505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06876587867737</t>
+    <t xml:space="preserve">1.06876599788666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08448314666748</t>
+    <t xml:space="preserve">1.08448302745819</t>
   </si>
   <si>
     <t xml:space="preserve">1.1002002954483</t>
@@ -299,76 +299,76 @@
     <t xml:space="preserve">1.11766374111176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08273673057556</t>
+    <t xml:space="preserve">1.08273684978485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05217576026917</t>
+    <t xml:space="preserve">1.05217564105988</t>
   </si>
   <si>
     <t xml:space="preserve">1.02685356140137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04344403743744</t>
+    <t xml:space="preserve">1.04344391822815</t>
   </si>
   <si>
     <t xml:space="preserve">1.05654156208038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04780983924866</t>
+    <t xml:space="preserve">1.04780972003937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999785125255585</t>
+    <t xml:space="preserve">0.999785184860229</t>
   </si>
   <si>
     <t xml:space="preserve">1.0120096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985814332962036</t>
+    <t xml:space="preserve">0.985814213752747</t>
   </si>
   <si>
     <t xml:space="preserve">0.927311658859253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903735876083374</t>
+    <t xml:space="preserve">0.903735935688019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993672966957092</t>
+    <t xml:space="preserve">0.993672907352448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951760590076447</t>
+    <t xml:space="preserve">0.951760530471802</t>
   </si>
   <si>
     <t xml:space="preserve">0.938663005828857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935170292854309</t>
+    <t xml:space="preserve">0.93517017364502</t>
   </si>
   <si>
     <t xml:space="preserve">0.909848213195801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948267757892609</t>
+    <t xml:space="preserve">0.948267817497253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991926729679108</t>
+    <t xml:space="preserve">0.991926550865173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956999480724335</t>
+    <t xml:space="preserve">0.956999540328979</t>
   </si>
   <si>
     <t xml:space="preserve">0.960492312908173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00939011573792</t>
+    <t xml:space="preserve">1.00938999652863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00415086746216</t>
+    <t xml:space="preserve">1.00415098667145</t>
   </si>
   <si>
     <t xml:space="preserve">1.10107350349426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03471195697784</t>
+    <t xml:space="preserve">1.03471207618713</t>
   </si>
   <si>
     <t xml:space="preserve">1.03209269046783</t>
@@ -377,25 +377,25 @@
     <t xml:space="preserve">1.04519033432007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03907811641693</t>
+    <t xml:space="preserve">1.03907799720764</t>
   </si>
   <si>
     <t xml:space="preserve">1.03383898735046</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977955877780914</t>
+    <t xml:space="preserve">0.977955758571625</t>
   </si>
   <si>
     <t xml:space="preserve">1.02510738372803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982321739196777</t>
+    <t xml:space="preserve">0.982321619987488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03121936321259</t>
+    <t xml:space="preserve">1.03121948242188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01462912559509</t>
+    <t xml:space="preserve">1.0146290063858</t>
   </si>
   <si>
     <t xml:space="preserve">1.01026320457458</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">1.02598035335541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03034615516663</t>
+    <t xml:space="preserve">1.03034627437592</t>
   </si>
   <si>
     <t xml:space="preserve">1.01113653182983</t>
@@ -428,19 +428,19 @@
     <t xml:space="preserve">1.06963920593262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09845399856567</t>
+    <t xml:space="preserve">1.09845376014709</t>
   </si>
   <si>
     <t xml:space="preserve">1.15259087085724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18577134609222</t>
+    <t xml:space="preserve">1.18577146530151</t>
   </si>
   <si>
     <t xml:space="preserve">1.19799590110779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24776685237885</t>
+    <t xml:space="preserve">1.24776673316956</t>
   </si>
   <si>
     <t xml:space="preserve">1.24863994121552</t>
@@ -449,34 +449,34 @@
     <t xml:space="preserve">1.31063544750214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25824499130249</t>
+    <t xml:space="preserve">1.2582448720932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26610374450684</t>
+    <t xml:space="preserve">1.26610350608826</t>
   </si>
   <si>
     <t xml:space="preserve">1.27046942710876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20672762393951</t>
+    <t xml:space="preserve">1.20672750473022</t>
   </si>
   <si>
     <t xml:space="preserve">1.20323491096497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24427402019501</t>
+    <t xml:space="preserve">1.2442741394043</t>
   </si>
   <si>
     <t xml:space="preserve">1.24689364433289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2049812078476</t>
+    <t xml:space="preserve">1.20498132705688</t>
   </si>
   <si>
     <t xml:space="preserve">1.19624948501587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24340093135834</t>
+    <t xml:space="preserve">1.24340105056763</t>
   </si>
   <si>
     <t xml:space="preserve">1.21371304988861</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">1.29142546653748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30976223945618</t>
+    <t xml:space="preserve">1.30976212024689</t>
   </si>
   <si>
     <t xml:space="preserve">1.28967916965485</t>
@@ -494,37 +494,37 @@
     <t xml:space="preserve">1.21196675300598</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18315196037292</t>
+    <t xml:space="preserve">1.18315184116364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18751788139343</t>
+    <t xml:space="preserve">1.18751764297485</t>
   </si>
   <si>
     <t xml:space="preserve">1.1770396232605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17005431652069</t>
+    <t xml:space="preserve">1.1700541973114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2276839017868</t>
+    <t xml:space="preserve">1.22768378257751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4669337272644</t>
+    <t xml:space="preserve">1.46693360805511</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45645546913147</t>
+    <t xml:space="preserve">1.45645558834076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45994818210602</t>
+    <t xml:space="preserve">1.45994830131531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45820188522339</t>
+    <t xml:space="preserve">1.45820200443268</t>
   </si>
   <si>
     <t xml:space="preserve">1.52368998527527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56036341190338</t>
+    <t xml:space="preserve">1.56036329269409</t>
   </si>
   <si>
     <t xml:space="preserve">1.52019739151001</t>
@@ -551,7 +551,7 @@
     <t xml:space="preserve">1.70269095897675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72888600826263</t>
+    <t xml:space="preserve">1.72888612747192</t>
   </si>
   <si>
     <t xml:space="preserve">1.73674464225769</t>
@@ -560,37 +560,37 @@
     <t xml:space="preserve">1.8109644651413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83366703987122</t>
+    <t xml:space="preserve">1.83366692066193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85113048553467</t>
+    <t xml:space="preserve">1.85113036632538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85986232757568</t>
+    <t xml:space="preserve">1.85986256599426</t>
   </si>
   <si>
     <t xml:space="preserve">1.72277390956879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67038345336914</t>
+    <t xml:space="preserve">1.67038333415985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74634981155396</t>
+    <t xml:space="preserve">1.74634969234467</t>
   </si>
   <si>
     <t xml:space="preserve">1.69046640396118</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76032054424286</t>
+    <t xml:space="preserve">1.76032042503357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68697381019592</t>
+    <t xml:space="preserve">1.68697369098663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67649555206299</t>
+    <t xml:space="preserve">1.67649567127228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7550812959671</t>
+    <t xml:space="preserve">1.75508141517639</t>
   </si>
   <si>
     <t xml:space="preserve">1.75682783126831</t>
@@ -599,28 +599,28 @@
     <t xml:space="preserve">1.7900083065033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81271088123322</t>
+    <t xml:space="preserve">1.8127110004425</t>
   </si>
   <si>
     <t xml:space="preserve">1.82842814922333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81620347499847</t>
+    <t xml:space="preserve">1.81620359420776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79874014854431</t>
+    <t xml:space="preserve">1.79874002933502</t>
   </si>
   <si>
     <t xml:space="preserve">1.72801291942596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81795012950897</t>
+    <t xml:space="preserve">1.81794989109039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82510721683502</t>
+    <t xml:space="preserve">1.82510709762573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92351996898651</t>
+    <t xml:space="preserve">1.9235200881958</t>
   </si>
   <si>
     <t xml:space="preserve">1.87878668308258</t>
@@ -629,10 +629,10 @@
     <t xml:space="preserve">1.86089360713959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86984014511108</t>
+    <t xml:space="preserve">1.86984026432037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03982591629028</t>
+    <t xml:space="preserve">2.0398256778717</t>
   </si>
   <si>
     <t xml:space="preserve">2.4764199256897</t>
@@ -641,19 +641,19 @@
     <t xml:space="preserve">2.57662224769592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9470112323761</t>
+    <t xml:space="preserve">2.94701147079468</t>
   </si>
   <si>
     <t xml:space="preserve">2.95237946510315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85396671295166</t>
+    <t xml:space="preserve">2.85396695137024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75913286209106</t>
+    <t xml:space="preserve">2.75913310050964</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58556842803955</t>
+    <t xml:space="preserve">2.58556866645813</t>
   </si>
   <si>
     <t xml:space="preserve">2.56767535209656</t>
@@ -662,10 +662,10 @@
     <t xml:space="preserve">2.50504922866821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46747303009033</t>
+    <t xml:space="preserve">2.46747326850891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59809398651123</t>
+    <t xml:space="preserve">2.59809374809265</t>
   </si>
   <si>
     <t xml:space="preserve">2.70187449455261</t>
@@ -674,22 +674,22 @@
     <t xml:space="preserve">2.90764617919922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79134035110474</t>
+    <t xml:space="preserve">2.79134011268616</t>
   </si>
   <si>
     <t xml:space="preserve">2.60882973670959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56946468353271</t>
+    <t xml:space="preserve">2.56946492195129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57841157913208</t>
+    <t xml:space="preserve">2.57841110229492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54978203773499</t>
+    <t xml:space="preserve">2.54978227615356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52473187446594</t>
+    <t xml:space="preserve">2.52473163604736</t>
   </si>
   <si>
     <t xml:space="preserve">2.55872869491577</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">2.5408353805542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56230759620667</t>
+    <t xml:space="preserve">2.56230735778809</t>
   </si>
   <si>
     <t xml:space="preserve">2.56409668922424</t>
@@ -719,28 +719,28 @@
     <t xml:space="preserve">2.5658860206604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58199000358582</t>
+    <t xml:space="preserve">2.58198976516724</t>
   </si>
   <si>
     <t xml:space="preserve">2.6732451915741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52294254302979</t>
+    <t xml:space="preserve">2.52294230461121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48536682128906</t>
+    <t xml:space="preserve">2.48536658287048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53188872337341</t>
+    <t xml:space="preserve">2.53188896179199</t>
   </si>
   <si>
     <t xml:space="preserve">2.48715591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43347644805908</t>
+    <t xml:space="preserve">2.4334762096405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41916155815125</t>
+    <t xml:space="preserve">2.41916179656982</t>
   </si>
   <si>
     <t xml:space="preserve">2.37979674339294</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">2.21338987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15792107582092</t>
+    <t xml:space="preserve">2.15792083740234</t>
   </si>
   <si>
     <t xml:space="preserve">2.14718508720398</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">2.18654990196228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2098114490509</t>
+    <t xml:space="preserve">2.20981097221375</t>
   </si>
   <si>
     <t xml:space="preserve">2.22054719924927</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">2.17581415176392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15613174438477</t>
+    <t xml:space="preserve">2.15613150596619</t>
   </si>
   <si>
     <t xml:space="preserve">2.17402482032776</t>
@@ -788,13 +788,13 @@
     <t xml:space="preserve">2.19012880325317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09529447555542</t>
+    <t xml:space="preserve">2.095294713974</t>
   </si>
   <si>
     <t xml:space="preserve">2.14002776145935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11139845848083</t>
+    <t xml:space="preserve">2.11139869689941</t>
   </si>
   <si>
     <t xml:space="preserve">2.30285573005676</t>
@@ -803,10 +803,10 @@
     <t xml:space="preserve">2.27064824104309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17223525047302</t>
+    <t xml:space="preserve">2.1722354888916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19549679756165</t>
+    <t xml:space="preserve">2.19549655914307</t>
   </si>
   <si>
     <t xml:space="preserve">2.25275492668152</t>
@@ -818,16 +818,16 @@
     <t xml:space="preserve">2.2151792049408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24738693237305</t>
+    <t xml:space="preserve">2.24738717079163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24559736251831</t>
+    <t xml:space="preserve">2.24559783935547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26349067687988</t>
+    <t xml:space="preserve">2.26349091529846</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37621784210205</t>
+    <t xml:space="preserve">2.37621808052063</t>
   </si>
   <si>
     <t xml:space="preserve">2.31717038154602</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">2.3815860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33506369590759</t>
+    <t xml:space="preserve">2.33506345748901</t>
   </si>
   <si>
     <t xml:space="preserve">2.31895995140076</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">2.26528024673462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28496241569519</t>
+    <t xml:space="preserve">2.28496265411377</t>
   </si>
   <si>
     <t xml:space="preserve">2.32611703872681</t>
@@ -857,46 +857,46 @@
     <t xml:space="preserve">2.3440101146698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44242286682129</t>
+    <t xml:space="preserve">2.44242310523987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35116767883301</t>
+    <t xml:space="preserve">2.35116744041443</t>
   </si>
   <si>
     <t xml:space="preserve">2.36906051635742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37085032463074</t>
+    <t xml:space="preserve">2.37085008621216</t>
   </si>
   <si>
     <t xml:space="preserve">2.29748797416687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30464506149292</t>
+    <t xml:space="preserve">2.3046452999115</t>
   </si>
   <si>
     <t xml:space="preserve">2.38695406913757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29927706718445</t>
+    <t xml:space="preserve">2.29927754402161</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34222078323364</t>
+    <t xml:space="preserve">2.34222102165222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54262495040894</t>
+    <t xml:space="preserve">2.54262471199036</t>
   </si>
   <si>
     <t xml:space="preserve">2.6553521156311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61419749259949</t>
+    <t xml:space="preserve">2.61419773101807</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62314414978027</t>
+    <t xml:space="preserve">2.62314438819885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61240839958191</t>
+    <t xml:space="preserve">2.61240863800049</t>
   </si>
   <si>
     <t xml:space="preserve">2.66608810424805</t>
@@ -914,25 +914,25 @@
     <t xml:space="preserve">2.42274045944214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4710521697998</t>
+    <t xml:space="preserve">2.47105240821838</t>
   </si>
   <si>
     <t xml:space="preserve">2.43526554107666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51936388015747</t>
+    <t xml:space="preserve">2.51936364173889</t>
   </si>
   <si>
     <t xml:space="preserve">2.45136952400208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46031618118286</t>
+    <t xml:space="preserve">2.46031594276428</t>
   </si>
   <si>
     <t xml:space="preserve">2.50862789154053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49431324005127</t>
+    <t xml:space="preserve">2.49431347846985</t>
   </si>
   <si>
     <t xml:space="preserve">2.43705487251282</t>
@@ -941,31 +941,31 @@
     <t xml:space="preserve">2.40663647651672</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49252414703369</t>
+    <t xml:space="preserve">2.49252390861511</t>
   </si>
   <si>
     <t xml:space="preserve">2.41558313369751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29390907287598</t>
+    <t xml:space="preserve">2.29390931129456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2277045249939</t>
+    <t xml:space="preserve">2.22770428657532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20623254776001</t>
+    <t xml:space="preserve">2.20623278617859</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28138399124146</t>
+    <t xml:space="preserve">2.28138422966003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19191789627075</t>
+    <t xml:space="preserve">2.19191813468933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18297147750854</t>
+    <t xml:space="preserve">2.18297123908997</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12929177284241</t>
+    <t xml:space="preserve">2.12929201126099</t>
   </si>
   <si>
     <t xml:space="preserve">2.10245180130005</t>
@@ -974,10 +974,10 @@
     <t xml:space="preserve">2.13823843002319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98614609241486</t>
+    <t xml:space="preserve">1.98614597320557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06666564941406</t>
+    <t xml:space="preserve">2.06666541099548</t>
   </si>
   <si>
     <t xml:space="preserve">2.05771899223328</t>
@@ -986,25 +986,25 @@
     <t xml:space="preserve">2.00403928756714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07561206817627</t>
+    <t xml:space="preserve">2.07561230659485</t>
   </si>
   <si>
     <t xml:space="preserve">1.99509274959564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0129861831665</t>
+    <t xml:space="preserve">2.01298594474792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96825277805328</t>
+    <t xml:space="preserve">1.96825289726257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97719931602478</t>
+    <t xml:space="preserve">1.97719943523407</t>
   </si>
   <si>
     <t xml:space="preserve">1.95035970211029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9324666261673</t>
+    <t xml:space="preserve">1.93246650695801</t>
   </si>
   <si>
     <t xml:space="preserve">2.03087902069092</t>
@@ -1013,25 +1013,25 @@
     <t xml:space="preserve">2.04877233505249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15873908996582</t>
+    <t xml:space="preserve">2.1587393283844</t>
   </si>
   <si>
     <t xml:space="preserve">2.13129758834839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0581202507019</t>
+    <t xml:space="preserve">2.05812001228333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99408972263336</t>
+    <t xml:space="preserve">1.99408960342407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93920648097992</t>
+    <t xml:space="preserve">1.93920636177063</t>
   </si>
   <si>
     <t xml:space="preserve">1.96664822101593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11300349235535</t>
+    <t xml:space="preserve">2.11300325393677</t>
   </si>
   <si>
     <t xml:space="preserve">2.08556175231934</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">2.03067851066589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01238393783569</t>
+    <t xml:space="preserve">2.01238417625427</t>
   </si>
   <si>
     <t xml:space="preserve">1.94835388660431</t>
@@ -1049,10 +1049,10 @@
     <t xml:space="preserve">1.98494267463684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95750117301941</t>
+    <t xml:space="preserve">1.95750081539154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90261769294739</t>
+    <t xml:space="preserve">1.9026175737381</t>
   </si>
   <si>
     <t xml:space="preserve">2.00323700904846</t>
@@ -1061,31 +1061,31 @@
     <t xml:space="preserve">1.93005919456482</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97579538822174</t>
+    <t xml:space="preserve">1.97579526901245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0215311050415</t>
+    <t xml:space="preserve">2.02153134346008</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07641434669495</t>
+    <t xml:space="preserve">2.07641458511353</t>
   </si>
   <si>
     <t xml:space="preserve">2.09470891952515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86602890491486</t>
+    <t xml:space="preserve">1.86602878570557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84773445129395</t>
+    <t xml:space="preserve">1.84773457050323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87517607212067</t>
+    <t xml:space="preserve">1.87517595291138</t>
   </si>
   <si>
     <t xml:space="preserve">1.83858728408813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68765842914581</t>
+    <t xml:space="preserve">1.6876585483551</t>
   </si>
   <si>
     <t xml:space="preserve">1.664790391922</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">1.73796808719635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76540958881378</t>
+    <t xml:space="preserve">1.76540970802307</t>
   </si>
   <si>
     <t xml:space="preserve">1.73339450359344</t>
@@ -1118,16 +1118,16 @@
     <t xml:space="preserve">1.6739376783371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63277530670166</t>
+    <t xml:space="preserve">1.63277518749237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66936409473419</t>
+    <t xml:space="preserve">1.66936421394348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66021680831909</t>
+    <t xml:space="preserve">1.66021692752838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74254155158997</t>
+    <t xml:space="preserve">1.74254167079926</t>
   </si>
   <si>
     <t xml:space="preserve">1.70137929916382</t>
@@ -1142,22 +1142,22 @@
     <t xml:space="preserve">1.71510004997253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6830849647522</t>
+    <t xml:space="preserve">1.68308484554291</t>
   </si>
   <si>
     <t xml:space="preserve">1.65106964111328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71052658557892</t>
+    <t xml:space="preserve">1.71052646636963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65564334392548</t>
+    <t xml:space="preserve">1.65564322471619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62362802028656</t>
+    <t xml:space="preserve">1.62362813949585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48184645175934</t>
+    <t xml:space="preserve">1.48184633255005</t>
   </si>
   <si>
     <t xml:space="preserve">1.48642003536224</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">1.38122725486755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35378575325012</t>
+    <t xml:space="preserve">1.35378563404083</t>
   </si>
   <si>
     <t xml:space="preserve">1.29890239238739</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">1.34921205043793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4406840801239</t>
+    <t xml:space="preserve">1.44068419933319</t>
   </si>
   <si>
     <t xml:space="preserve">1.47727286815643</t>
@@ -1190,13 +1190,13 @@
     <t xml:space="preserve">1.49556732177734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.449831366539</t>
+    <t xml:space="preserve">1.44983124732971</t>
   </si>
   <si>
     <t xml:space="preserve">1.44525766372681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41781604290009</t>
+    <t xml:space="preserve">1.4178159236908</t>
   </si>
   <si>
     <t xml:space="preserve">1.50014090538025</t>
@@ -1220,25 +1220,25 @@
     <t xml:space="preserve">1.4269632101059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60076010227203</t>
+    <t xml:space="preserve">1.60075998306274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57789218425751</t>
+    <t xml:space="preserve">1.57789206504822</t>
   </si>
   <si>
     <t xml:space="preserve">1.59618639945984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61448085308075</t>
+    <t xml:space="preserve">1.61448097229004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60990715026855</t>
+    <t xml:space="preserve">1.60990726947784</t>
   </si>
   <si>
     <t xml:space="preserve">1.61905443668365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62820172309875</t>
+    <t xml:space="preserve">1.62820160388947</t>
   </si>
   <si>
     <t xml:space="preserve">1.58703923225403</t>
@@ -1247,16 +1247,16 @@
     <t xml:space="preserve">1.55045056343079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58246564865112</t>
+    <t xml:space="preserve">1.58246576786041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63734877109528</t>
+    <t xml:space="preserve">1.63734889030457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5733186006546</t>
+    <t xml:space="preserve">1.57331848144531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59161281585693</t>
+    <t xml:space="preserve">1.59161293506622</t>
   </si>
   <si>
     <t xml:space="preserve">1.5641713142395</t>
@@ -1404,6 +1404,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.6940826177597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62820172309875</t>
   </si>
   <si>
     <t xml:space="preserve">1.61879014968872</t>
@@ -28906,7 +28909,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1037" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28958,7 +28961,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1039" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29062,7 +29065,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G1043" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29088,7 +29091,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1044" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29140,7 +29143,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1046" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29270,7 +29273,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1051" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29530,7 +29533,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1061" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29556,7 +29559,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1062" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29582,7 +29585,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1063" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29608,7 +29611,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29634,7 +29637,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1065" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29660,7 +29663,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1066" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29686,7 +29689,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1067" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29712,7 +29715,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1068" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29738,7 +29741,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1069" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29764,7 +29767,7 @@
         <v>1.25</v>
       </c>
       <c r="G1070" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29790,7 +29793,7 @@
         <v>1.25</v>
       </c>
       <c r="G1071" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29816,7 +29819,7 @@
         <v>1.25</v>
       </c>
       <c r="G1072" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29842,7 +29845,7 @@
         <v>1.25</v>
       </c>
       <c r="G1073" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30024,7 +30027,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1080" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -30050,7 +30053,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1081" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -30076,7 +30079,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1082" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -30128,7 +30131,7 @@
         <v>1.25</v>
       </c>
       <c r="G1084" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30232,7 +30235,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1088" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30284,7 +30287,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1090" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30336,7 +30339,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1092" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30362,7 +30365,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1093" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30388,7 +30391,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1094" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30414,7 +30417,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1095" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30440,7 +30443,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1096" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30466,7 +30469,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1097" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30492,7 +30495,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1098" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30518,7 +30521,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1099" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30544,7 +30547,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1100" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30570,7 +30573,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1101" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30596,7 +30599,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1102" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30622,7 +30625,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1103" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30648,7 +30651,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1104" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30674,7 +30677,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1105" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30700,7 +30703,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30726,7 +30729,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1107" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30752,7 +30755,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1108" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30778,7 +30781,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1109" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30804,7 +30807,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1110" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30830,7 +30833,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1111" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30856,7 +30859,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1112" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30882,7 +30885,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1113" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30908,7 +30911,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1114" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30934,7 +30937,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1115" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30960,7 +30963,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1116" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30986,7 +30989,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1117" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31012,7 +31015,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1118" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31038,7 +31041,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1119" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31064,7 +31067,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1120" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -31090,7 +31093,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1121" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31116,7 +31119,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1122" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31142,7 +31145,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1123" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31168,7 +31171,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1124" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31194,7 +31197,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1125" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31220,7 +31223,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1126" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31246,7 +31249,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1127" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31272,7 +31275,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1128" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31298,7 +31301,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1129" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31324,7 +31327,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1130" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31350,7 +31353,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1131" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31376,7 +31379,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1132" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31402,7 +31405,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1133" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31428,7 +31431,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1134" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31454,7 +31457,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1135" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31480,7 +31483,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1136" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31506,7 +31509,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1137" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31532,7 +31535,7 @@
         <v>1.25</v>
       </c>
       <c r="G1138" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31558,7 +31561,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1139" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31584,7 +31587,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1140" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31610,7 +31613,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1141" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31636,7 +31639,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1142" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31662,7 +31665,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1143" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31688,7 +31691,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31714,7 +31717,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1145" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31740,7 +31743,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1146" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31766,7 +31769,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1147" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31792,7 +31795,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1148" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31818,7 +31821,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1149" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31844,7 +31847,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1150" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31870,7 +31873,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1151" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31896,7 +31899,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1152" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31922,7 +31925,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1153" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31948,7 +31951,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1154" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31974,7 +31977,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1155" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32000,7 +32003,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1156" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -32026,7 +32029,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1157" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32052,7 +32055,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1158" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -32078,7 +32081,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1159" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -32104,7 +32107,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1160" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -32130,7 +32133,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1161" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32156,7 +32159,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1162" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32182,7 +32185,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1163" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32208,7 +32211,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1164" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32234,7 +32237,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1165" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32260,7 +32263,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1166" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32286,7 +32289,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1167" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32312,7 +32315,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1168" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32338,7 +32341,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1169" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32364,7 +32367,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1170" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32390,7 +32393,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1171" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32416,7 +32419,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1172" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32442,7 +32445,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1173" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32468,7 +32471,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1174" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32494,7 +32497,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1175" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32520,7 +32523,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1176" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32546,7 +32549,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1177" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32572,7 +32575,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1178" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32598,7 +32601,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1179" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32624,7 +32627,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1180" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32650,7 +32653,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1181" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32676,7 +32679,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1182" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32702,7 +32705,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1183" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32728,7 +32731,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1184" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32754,7 +32757,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1185" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32780,7 +32783,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1186" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -32806,7 +32809,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1187" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -32832,7 +32835,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1188" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -32858,7 +32861,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1189" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -32884,7 +32887,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1190" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -32910,7 +32913,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1191" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -32936,7 +32939,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1192" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -32962,7 +32965,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1193" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -32988,7 +32991,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1194" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33014,7 +33017,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G1195" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33040,7 +33043,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1196" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33066,7 +33069,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33092,7 +33095,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1198" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33118,7 +33121,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1199" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -33144,7 +33147,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G1200" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -33170,7 +33173,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1201" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -33196,7 +33199,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1202" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -33222,7 +33225,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1203" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -33248,7 +33251,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1204" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -33274,7 +33277,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1205" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -33300,7 +33303,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1206" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -33326,7 +33329,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1207" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -33352,7 +33355,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1208" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -33378,7 +33381,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1209" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -33404,7 +33407,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1210" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -33430,7 +33433,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1211" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -33456,7 +33459,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1212" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -33482,7 +33485,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1213" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -33508,7 +33511,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1214" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -33534,7 +33537,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1215" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -33560,7 +33563,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1216" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -33586,7 +33589,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1217" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -33612,7 +33615,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1218" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -33638,7 +33641,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1219" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -33664,7 +33667,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1220" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -33690,7 +33693,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1221" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -33716,7 +33719,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1222" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -33742,7 +33745,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1223" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -33768,7 +33771,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1224" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -33794,7 +33797,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1225" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -33820,7 +33823,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1226" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -33846,7 +33849,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G1227" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -33872,7 +33875,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1228" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -33898,7 +33901,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1229" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -33924,7 +33927,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1230" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -33950,7 +33953,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1231" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -33976,7 +33979,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1232" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34002,7 +34005,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1233" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34028,7 +34031,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1234" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34054,7 +34057,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1235" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -34080,7 +34083,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1236" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -34106,7 +34109,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1237" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34132,7 +34135,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1238" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -34158,7 +34161,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1239" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -34184,7 +34187,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1240" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -34210,7 +34213,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1241" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -34236,7 +34239,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1242" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -34262,7 +34265,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1243" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -34288,7 +34291,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1244" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -34314,7 +34317,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1245" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34340,7 +34343,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1246" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34366,7 +34369,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1247" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -34392,7 +34395,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1248" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -34418,7 +34421,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1249" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -34444,7 +34447,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1250" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -34470,7 +34473,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1251" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -34496,7 +34499,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1252" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -34522,7 +34525,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1253" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -34548,7 +34551,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1254" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -34574,7 +34577,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1255" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -34600,7 +34603,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1256" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -34626,7 +34629,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1257" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -34652,7 +34655,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1258" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -34678,7 +34681,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1259" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -34704,7 +34707,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1260" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -34730,7 +34733,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1261" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -34756,7 +34759,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1262" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -34782,7 +34785,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1263" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -34808,7 +34811,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1264" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -34834,7 +34837,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1265" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -34860,7 +34863,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1266" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -34886,7 +34889,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1267" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -34912,7 +34915,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1268" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -34938,7 +34941,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1269" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -34964,7 +34967,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1270" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -34990,7 +34993,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1271" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35016,7 +35019,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1272" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35042,7 +35045,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1273" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35068,7 +35071,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1274" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -35094,7 +35097,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1275" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35120,7 +35123,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1276" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -35146,7 +35149,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1277" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35172,7 +35175,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1278" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35198,7 +35201,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1279" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35224,7 +35227,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1280" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -35250,7 +35253,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1281" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -35276,7 +35279,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1282" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35302,7 +35305,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1283" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35328,7 +35331,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1284" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35354,7 +35357,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1285" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35380,7 +35383,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1286" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35406,7 +35409,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1287" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35432,7 +35435,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1288" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35458,7 +35461,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1289" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -35484,7 +35487,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1290" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35510,7 +35513,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1291" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35536,7 +35539,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1292" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -35562,7 +35565,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1293" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35588,7 +35591,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1294" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35614,7 +35617,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1295" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35640,7 +35643,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1296" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35666,7 +35669,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1297" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35692,7 +35695,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1298" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35718,7 +35721,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1299" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35744,7 +35747,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1300" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35770,7 +35773,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1301" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35796,7 +35799,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1302" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35822,7 +35825,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1303" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35848,7 +35851,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1304" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -35874,7 +35877,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1305" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -35900,7 +35903,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1306" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -35926,7 +35929,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1307" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -35952,7 +35955,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1308" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -35978,7 +35981,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1309" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36004,7 +36007,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1310" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36030,7 +36033,7 @@
         <v>1.25</v>
       </c>
       <c r="G1311" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36056,7 +36059,7 @@
         <v>1.25</v>
       </c>
       <c r="G1312" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36082,7 +36085,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1313" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36108,7 +36111,7 @@
         <v>1.25</v>
       </c>
       <c r="G1314" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36134,7 +36137,7 @@
         <v>1.25</v>
       </c>
       <c r="G1315" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -36160,7 +36163,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1316" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -36186,7 +36189,7 @@
         <v>1.25</v>
       </c>
       <c r="G1317" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36212,7 +36215,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36264,7 +36267,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36290,7 +36293,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1321" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36316,7 +36319,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1322" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36342,7 +36345,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1323" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36368,7 +36371,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1324" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36394,7 +36397,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1325" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36420,7 +36423,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1326" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36446,7 +36449,7 @@
         <v>1.25</v>
       </c>
       <c r="G1327" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36472,7 +36475,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1328" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36498,7 +36501,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1329" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36524,7 +36527,7 @@
         <v>1.25</v>
       </c>
       <c r="G1330" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36550,7 +36553,7 @@
         <v>1.25</v>
       </c>
       <c r="G1331" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36576,7 +36579,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1332" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36602,7 +36605,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1333" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36680,7 +36683,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1336" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36888,7 +36891,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1344" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -36940,7 +36943,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1346" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37096,7 +37099,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1352" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37122,7 +37125,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1353" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37200,7 +37203,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1356" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37226,7 +37229,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1357" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37278,7 +37281,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1359" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37304,7 +37307,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1360" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37356,7 +37359,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1362" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37382,7 +37385,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1363" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37408,7 +37411,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1364" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38032,7 +38035,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1388" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38058,7 +38061,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1389" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38084,7 +38087,7 @@
         <v>1.25</v>
       </c>
       <c r="G1390" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38110,7 +38113,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1391" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38136,7 +38139,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1392" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38188,7 +38191,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1394" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38214,7 +38217,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1395" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38240,7 +38243,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1396" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38266,7 +38269,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1397" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38396,7 +38399,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1402" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38422,7 +38425,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1403" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38448,7 +38451,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38474,7 +38477,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1405" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38500,7 +38503,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1406" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38526,7 +38529,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1407" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38552,7 +38555,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1408" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38578,7 +38581,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1409" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38604,7 +38607,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1410" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38630,7 +38633,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1411" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38656,7 +38659,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1412" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38682,7 +38685,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1413" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38708,7 +38711,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1414" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38734,7 +38737,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1415" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38760,7 +38763,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1416" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38786,7 +38789,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1417" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38812,7 +38815,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1418" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38838,7 +38841,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1419" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -38890,7 +38893,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1421" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -38916,7 +38919,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1422" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -38942,7 +38945,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1423" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -38968,7 +38971,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1424" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -38994,7 +38997,7 @@
         <v>1.25</v>
       </c>
       <c r="G1425" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39020,7 +39023,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1426" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39046,7 +39049,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1427" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39072,7 +39075,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1428" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39098,7 +39101,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1429" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39124,7 +39127,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1430" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39150,7 +39153,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1431" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39176,7 +39179,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1432" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39202,7 +39205,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1433" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39306,7 +39309,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1437" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39332,7 +39335,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1438" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39358,7 +39361,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1439" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39384,7 +39387,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1440" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39410,7 +39413,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1441" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39436,7 +39439,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1442" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39462,7 +39465,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1443" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39488,7 +39491,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1444" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39514,7 +39517,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1445" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39540,7 +39543,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1446" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39566,7 +39569,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1447" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39592,7 +39595,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1448" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39618,7 +39621,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1449" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39644,7 +39647,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1450" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39670,7 +39673,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1451" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39696,7 +39699,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1452" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39722,7 +39725,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1453" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39748,7 +39751,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1454" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39774,7 +39777,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1455" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39800,7 +39803,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1456" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39826,7 +39829,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1457" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40008,7 +40011,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1464" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40086,7 +40089,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1467" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40112,7 +40115,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1468" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40372,7 +40375,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G1478" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41048,7 +41051,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1504" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41360,7 +41363,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1516" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41438,7 +41441,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1519" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41464,7 +41467,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1520" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41490,7 +41493,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1521" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41516,7 +41519,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1522" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41620,7 +41623,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1526" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41646,7 +41649,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1527" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41750,7 +41753,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1531" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41776,7 +41779,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1532" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41958,7 +41961,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1539" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42010,7 +42013,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1541" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42114,7 +42117,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1545" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42166,7 +42169,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1547" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42192,7 +42195,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1548" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42218,7 +42221,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1549" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42244,7 +42247,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1550" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42270,7 +42273,7 @@
         <v>1.25</v>
       </c>
       <c r="G1551" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42296,7 +42299,7 @@
         <v>1.25</v>
       </c>
       <c r="G1552" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42322,7 +42325,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1553" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42348,7 +42351,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1554" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42374,7 +42377,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1555" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42400,7 +42403,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1556" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42426,7 +42429,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1557" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42452,7 +42455,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1558" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42478,7 +42481,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1559" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42504,7 +42507,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1560" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42530,7 +42533,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1561" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42556,7 +42559,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1562" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42634,7 +42637,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1565" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42660,7 +42663,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1566" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42686,7 +42689,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1567" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42712,7 +42715,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1568" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42738,7 +42741,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1569" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42764,7 +42767,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1570" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42790,7 +42793,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1571" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42816,7 +42819,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1572" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42842,7 +42845,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1573" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -42868,7 +42871,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1574" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -42894,7 +42897,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1575" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -42920,7 +42923,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1576" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -42946,7 +42949,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1577" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -42972,7 +42975,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1578" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -42998,7 +43001,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1579" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43024,7 +43027,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1580" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43050,7 +43053,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1581" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43076,7 +43079,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1582" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43102,7 +43105,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1583" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43128,7 +43131,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1584" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43154,7 +43157,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1585" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43180,7 +43183,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1586" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43206,7 +43209,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1587" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43362,7 +43365,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1593" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43388,7 +43391,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1594" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43440,7 +43443,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1596" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43466,7 +43469,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1597" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43518,7 +43521,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1599" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43622,7 +43625,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1603" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43648,7 +43651,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1604" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43674,7 +43677,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1605" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43700,7 +43703,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1606" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43726,7 +43729,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1607" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43752,7 +43755,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1608" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43778,7 +43781,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1609" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43856,7 +43859,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1612" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -43882,7 +43885,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1613" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43908,7 +43911,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1614" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43934,7 +43937,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1615" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -43960,7 +43963,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1616" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44012,7 +44015,7 @@
         <v>1.25</v>
       </c>
       <c r="G1618" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44038,7 +44041,7 @@
         <v>1.25</v>
       </c>
       <c r="G1619" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44064,7 +44067,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1620" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44090,7 +44093,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1621" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44142,7 +44145,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1623" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44272,7 +44275,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1628" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44324,7 +44327,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1630" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44454,7 +44457,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1635" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44480,7 +44483,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44506,7 +44509,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1637" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44532,7 +44535,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1638" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44558,7 +44561,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1639" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44584,7 +44587,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1640" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44610,7 +44613,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1641" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44636,7 +44639,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1642" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44844,7 +44847,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44896,7 +44899,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1652" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44922,7 +44925,7 @@
         <v>1.25</v>
       </c>
       <c r="G1653" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44948,7 +44951,7 @@
         <v>1.25</v>
       </c>
       <c r="G1654" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44974,7 +44977,7 @@
         <v>1.25</v>
       </c>
       <c r="G1655" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45000,7 +45003,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1656" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45026,7 +45029,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1657" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45052,7 +45055,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1658" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45078,7 +45081,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1659" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45104,7 +45107,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1660" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45130,7 +45133,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1661" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45156,7 +45159,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1662" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45182,7 +45185,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1663" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45208,7 +45211,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1664" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45260,7 +45263,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1666" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45286,7 +45289,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1667" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45312,7 +45315,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1668" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45338,7 +45341,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1669" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45390,7 +45393,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1671" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45416,7 +45419,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1672" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45468,7 +45471,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1674" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45520,7 +45523,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1676" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45572,7 +45575,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45650,7 +45653,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1681" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45702,7 +45705,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1683" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45728,7 +45731,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1684" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45754,7 +45757,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1685" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45832,7 +45835,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1688" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45988,7 +45991,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1694" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46014,7 +46017,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1695" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46040,7 +46043,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1696" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46066,7 +46069,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46118,7 +46121,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1699" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46170,7 +46173,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1701" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46300,7 +46303,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1706" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46352,7 +46355,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1708" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46456,7 +46459,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1712" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46508,7 +46511,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1714" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46534,7 +46537,7 @@
         <v>1.25</v>
       </c>
       <c r="G1715" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46560,7 +46563,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1716" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46586,7 +46589,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1717" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46612,7 +46615,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1718" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46638,7 +46641,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1719" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46664,7 +46667,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1720" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46690,7 +46693,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1721" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46716,7 +46719,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1722" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46742,7 +46745,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1723" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46794,7 +46797,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1725" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46820,7 +46823,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1726" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46846,7 +46849,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46976,7 +46979,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1732" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47028,7 +47031,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1734" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47054,7 +47057,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1735" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47236,7 +47239,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1742" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47262,7 +47265,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1743" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47288,7 +47291,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1744" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47314,7 +47317,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1745" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47340,7 +47343,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1746" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47366,7 +47369,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1747" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47392,7 +47395,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1748" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47418,7 +47421,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1749" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47444,7 +47447,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1750" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47470,7 +47473,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1751" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47496,7 +47499,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1752" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47522,7 +47525,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1753" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47548,7 +47551,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1754" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47574,7 +47577,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1755" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47730,7 +47733,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1761" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47782,7 +47785,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47834,7 +47837,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1765" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47860,7 +47863,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1766" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47886,7 +47889,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1767" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47912,7 +47915,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1768" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47938,7 +47941,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1769" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48068,7 +48071,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1774" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48094,7 +48097,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1775" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48224,7 +48227,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1780" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48328,7 +48331,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1784" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48354,7 +48357,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1785" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48380,7 +48383,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1786" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48406,7 +48409,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1787" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48432,7 +48435,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1788" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48458,7 +48461,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1789" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48510,7 +48513,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1791" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48536,7 +48539,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1792" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48770,7 +48773,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1801" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48796,7 +48799,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1802" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48822,7 +48825,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1803" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48848,7 +48851,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1804" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48874,7 +48877,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1805" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48900,7 +48903,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1806" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48926,7 +48929,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1807" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48952,7 +48955,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1808" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48978,7 +48981,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1809" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49004,7 +49007,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1810" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49030,7 +49033,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1811" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49056,7 +49059,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1812" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49082,7 +49085,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1813" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49160,7 +49163,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1816" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49186,7 +49189,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1817" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49212,7 +49215,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1818" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49238,7 +49241,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1819" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49264,7 +49267,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1820" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49290,7 +49293,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1821" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49316,7 +49319,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1822" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49342,7 +49345,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1823" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49368,7 +49371,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1824" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49394,7 +49397,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1825" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49420,7 +49423,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1826" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49446,7 +49449,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1827" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49472,7 +49475,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1828" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49498,7 +49501,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1829" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49524,7 +49527,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1830" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49550,7 +49553,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1831" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49576,7 +49579,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1832" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49602,7 +49605,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1833" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49628,7 +49631,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1834" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49654,7 +49657,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1835" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49680,7 +49683,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1836" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49706,7 +49709,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1837" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49732,7 +49735,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1838" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49758,7 +49761,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1839" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49784,7 +49787,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49810,7 +49813,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1841" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49836,7 +49839,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1842" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49862,7 +49865,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1843" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49888,7 +49891,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1844" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49914,7 +49917,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1845" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49940,7 +49943,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1846" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49966,7 +49969,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1847" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49992,7 +49995,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1848" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50018,7 +50021,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1849" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50044,7 +50047,7 @@
         <v>1.25</v>
       </c>
       <c r="G1850" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50070,7 +50073,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1851" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50226,7 +50229,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1857" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50278,7 +50281,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1859" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50330,7 +50333,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1861" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50486,7 +50489,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1867" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50512,7 +50515,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1868" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50694,7 +50697,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1875" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50720,7 +50723,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1876" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50746,7 +50749,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1877" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50772,7 +50775,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1878" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50798,7 +50801,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1879" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50824,7 +50827,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G1880" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50850,7 +50853,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1881" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50876,7 +50879,7 @@
         <v>1.37000000476837</v>
       </c>
       <c r="G1882" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50902,7 +50905,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1883" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50928,7 +50931,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1884" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50954,7 +50957,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1885" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50980,7 +50983,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1886" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51006,7 +51009,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1887" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51032,7 +51035,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1888" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51058,7 +51061,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1889" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51084,7 +51087,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1890" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51110,7 +51113,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1891" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51136,7 +51139,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1892" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51162,7 +51165,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1893" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51188,7 +51191,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1894" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51214,7 +51217,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1895" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51240,7 +51243,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1896" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51266,7 +51269,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1897" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51292,7 +51295,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1898" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51318,7 +51321,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1899" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51344,7 +51347,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1900" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51370,7 +51373,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1901" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51396,7 +51399,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1902" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51422,7 +51425,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G1903" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51448,7 +51451,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1904" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51474,7 +51477,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1905" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51500,7 +51503,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1906" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51526,7 +51529,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G1907" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51552,7 +51555,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1908" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51578,7 +51581,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G1909" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51604,7 +51607,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1910" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51630,7 +51633,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G1911" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51656,7 +51659,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1912" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51682,7 +51685,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1913" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51708,7 +51711,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51734,7 +51737,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1915" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51760,7 +51763,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1916" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51786,7 +51789,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1917" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51812,7 +51815,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51838,7 +51841,7 @@
         <v>1.25</v>
       </c>
       <c r="G1919" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51864,7 +51867,7 @@
         <v>1.25</v>
       </c>
       <c r="G1920" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51890,7 +51893,7 @@
         <v>1.25</v>
       </c>
       <c r="G1921" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51916,7 +51919,7 @@
         <v>1.25</v>
       </c>
       <c r="G1922" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51942,7 +51945,7 @@
         <v>1.25</v>
       </c>
       <c r="G1923" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51968,7 +51971,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1924" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51994,7 +51997,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1925" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52020,7 +52023,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1926" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52046,7 +52049,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1927" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52072,7 +52075,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1928" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52098,7 +52101,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1929" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52124,7 +52127,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1930" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52150,7 +52153,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1931" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52176,7 +52179,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1932" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52202,7 +52205,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52228,7 +52231,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1934" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52254,7 +52257,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1935" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52280,7 +52283,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1936" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52306,7 +52309,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1937" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52332,7 +52335,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1938" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52358,7 +52361,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1939" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52384,7 +52387,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1940" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52410,7 +52413,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1941" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52436,7 +52439,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1942" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52462,7 +52465,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1943" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52488,7 +52491,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1944" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52514,7 +52517,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1945" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52540,7 +52543,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1946" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52566,7 +52569,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1947" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52592,7 +52595,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1948" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52618,7 +52621,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1949" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52644,7 +52647,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1950" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52670,7 +52673,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1951" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52696,7 +52699,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1952" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52722,7 +52725,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1953" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52748,7 +52751,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1954" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52774,7 +52777,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1955" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52800,7 +52803,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1956" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52826,7 +52829,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1957" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52852,7 +52855,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1958" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52878,7 +52881,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1959" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52904,7 +52907,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1960" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52930,7 +52933,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1961" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52956,7 +52959,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1962" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52982,7 +52985,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1963" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53008,7 +53011,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53034,7 +53037,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1965" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53060,7 +53063,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1966" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53086,7 +53089,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1967" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53112,7 +53115,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1968" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53138,7 +53141,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1969" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53164,7 +53167,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1970" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53190,7 +53193,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1971" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53216,7 +53219,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1972" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53242,7 +53245,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1973" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53268,7 +53271,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1974" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53294,7 +53297,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1975" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53320,7 +53323,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1976" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53346,7 +53349,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53372,7 +53375,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53398,7 +53401,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1979" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53424,7 +53427,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53450,7 +53453,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53476,7 +53479,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1982" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53502,7 +53505,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53528,7 +53531,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1984" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53554,7 +53557,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1985" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53580,7 +53583,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1986" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53606,7 +53609,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1987" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53632,7 +53635,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1988" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53658,7 +53661,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1989" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53684,7 +53687,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1990" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53710,7 +53713,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1991" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53736,7 +53739,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1992" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53762,7 +53765,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1993" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53788,7 +53791,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1994" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53814,7 +53817,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1995" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53840,7 +53843,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1996" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53866,7 +53869,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1997" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53892,7 +53895,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1998" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53918,7 +53921,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1999" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53944,7 +53947,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2000" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53970,7 +53973,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2001" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53996,7 +53999,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2002" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54022,7 +54025,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G2003" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54048,7 +54051,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G2004" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54074,7 +54077,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2005" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54100,7 +54103,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2006" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54126,7 +54129,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54152,7 +54155,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2008" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54178,7 +54181,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2009" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54204,7 +54207,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2010" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54230,7 +54233,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2011" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54256,7 +54259,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2012" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54282,7 +54285,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2013" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54308,7 +54311,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2014" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54334,7 +54337,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2015" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54360,7 +54363,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2016" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54386,7 +54389,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54412,7 +54415,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2018" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54438,7 +54441,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2019" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54464,7 +54467,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2020" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54490,7 +54493,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2021" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54516,7 +54519,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2022" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54542,7 +54545,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2023" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54568,7 +54571,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2024" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54594,7 +54597,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2025" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54620,7 +54623,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54646,7 +54649,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54672,7 +54675,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2028" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54698,7 +54701,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G2029" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54724,7 +54727,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2030" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54750,7 +54753,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2031" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54776,7 +54779,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2032" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54802,7 +54805,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2033" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54828,7 +54831,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2034" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54854,7 +54857,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2035" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54880,7 +54883,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2036" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54906,7 +54909,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2037" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54932,7 +54935,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2038" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54958,7 +54961,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2039" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54984,7 +54987,7 @@
         <v>1.25</v>
       </c>
       <c r="G2040" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55010,7 +55013,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2041" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55036,7 +55039,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2042" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55062,7 +55065,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2043" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55088,7 +55091,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2044" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55114,7 +55117,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2045" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55140,7 +55143,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2046" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55166,7 +55169,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55192,7 +55195,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2048" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55218,7 +55221,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55244,7 +55247,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2050" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55270,7 +55273,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2051" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55296,7 +55299,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2052" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55322,7 +55325,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2053" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55348,7 +55351,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2054" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55374,7 +55377,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2055" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55400,7 +55403,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2056" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55426,7 +55429,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55452,7 +55455,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2058" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55478,7 +55481,7 @@
         <v>1.25</v>
       </c>
       <c r="G2059" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55504,7 +55507,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2060" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55530,7 +55533,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2061" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55556,7 +55559,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2062" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55582,7 +55585,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2063" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55608,7 +55611,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2064" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55634,7 +55637,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2065" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55660,7 +55663,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2066" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55686,7 +55689,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2067" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55712,7 +55715,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2068" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55738,7 +55741,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2069" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55764,7 +55767,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2070" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55790,7 +55793,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G2071" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55816,7 +55819,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2072" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55842,7 +55845,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2073" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55868,7 +55871,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G2074" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55894,7 +55897,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2075" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55920,7 +55923,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G2076" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55946,7 +55949,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2077" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55972,7 +55975,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2078" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55998,7 +56001,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2079" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56024,7 +56027,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2080" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56050,7 +56053,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56076,7 +56079,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2082" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56102,7 +56105,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2083" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56128,7 +56131,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2084" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56154,7 +56157,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2085" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56180,7 +56183,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2086" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56206,7 +56209,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56232,7 +56235,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2088" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56258,7 +56261,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2089" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56284,7 +56287,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2090" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56310,7 +56313,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2091" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56336,7 +56339,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2092" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56362,7 +56365,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2093" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56388,7 +56391,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2094" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56414,7 +56417,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2095" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56440,7 +56443,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2096" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56466,7 +56469,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2097" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56492,7 +56495,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2098" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56518,7 +56521,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2099" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56544,7 +56547,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2100" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56570,7 +56573,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2101" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56596,7 +56599,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2102" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56622,7 +56625,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2103" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56648,7 +56651,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2104" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56674,7 +56677,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2105" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56700,7 +56703,7 @@
         <v>1.25</v>
       </c>
       <c r="G2106" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56726,7 +56729,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2107" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56752,7 +56755,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2108" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56778,7 +56781,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2109" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56804,7 +56807,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2110" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56830,7 +56833,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2111" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56856,7 +56859,7 @@
         <v>1.25</v>
       </c>
       <c r="G2112" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56882,7 +56885,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2113" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56908,7 +56911,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2114" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56934,7 +56937,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2115" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56960,7 +56963,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2116" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56986,7 +56989,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2117" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57012,7 +57015,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2118" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57038,7 +57041,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2119" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57064,7 +57067,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2120" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57090,7 +57093,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2121" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57116,7 +57119,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2122" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57142,7 +57145,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2123" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57168,7 +57171,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2124" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57194,7 +57197,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57220,7 +57223,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2126" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57246,7 +57249,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2127" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57272,7 +57275,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2128" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57298,7 +57301,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2129" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57324,7 +57327,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2130" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57350,7 +57353,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2131" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57376,7 +57379,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2132" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57402,7 +57405,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2133" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57428,7 +57431,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2134" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57454,7 +57457,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2135" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57480,7 +57483,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2136" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57506,7 +57509,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2137" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57532,7 +57535,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2138" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57558,7 +57561,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G2139" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57584,7 +57587,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G2140" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57610,7 +57613,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G2141" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57636,7 +57639,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G2142" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57662,7 +57665,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G2143" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57688,7 +57691,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2144" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57714,7 +57717,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G2145" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57740,7 +57743,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2146" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57766,7 +57769,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G2147" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57792,7 +57795,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2148" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57818,7 +57821,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G2149" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57844,7 +57847,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2150" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57870,7 +57873,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G2151" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57896,9 +57899,61 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2152" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.2916666667</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>531</v>
+      </c>
+      <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.5167708333</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>1.00999999046326</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>1.00999999046326</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>532</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LMG.MI.xlsx
+++ b/data/LMG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="535">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53471565246582</t>
+    <t xml:space="preserve">1.53471577167511</t>
   </si>
   <si>
     <t xml:space="preserve">LMG.MI</t>
@@ -50,13 +50,13 @@
     <t xml:space="preserve">1.5514885187149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704038143158</t>
+    <t xml:space="preserve">1.50704061985016</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439705371857</t>
+    <t xml:space="preserve">1.48439717292786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44246518611908</t>
+    <t xml:space="preserve">1.44246506690979</t>
   </si>
   <si>
     <t xml:space="preserve">1.43575584888458</t>
@@ -68,22 +68,22 @@
     <t xml:space="preserve">1.41646707057953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42569220066071</t>
+    <t xml:space="preserve">1.42569231987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47433352470398</t>
+    <t xml:space="preserve">1.47433340549469</t>
   </si>
   <si>
     <t xml:space="preserve">1.4416264295578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46762430667877</t>
+    <t xml:space="preserve">1.46762418746948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50871789455414</t>
+    <t xml:space="preserve">1.50871777534485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45923805236816</t>
+    <t xml:space="preserve">1.45923781394958</t>
   </si>
   <si>
     <t xml:space="preserve">1.40640342235565</t>
@@ -98,16 +98,16 @@
     <t xml:space="preserve">1.40053284168243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40891921520233</t>
+    <t xml:space="preserve">1.40891933441162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3787282705307</t>
+    <t xml:space="preserve">1.37872838973999</t>
   </si>
   <si>
     <t xml:space="preserve">1.44581961631775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52632927894592</t>
+    <t xml:space="preserve">1.5263295173645</t>
   </si>
   <si>
     <t xml:space="preserve">1.49278354644775</t>
@@ -119,34 +119,34 @@
     <t xml:space="preserve">1.56406819820404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53639304637909</t>
+    <t xml:space="preserve">1.5363929271698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5598748922348</t>
+    <t xml:space="preserve">1.55987501144409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62025725841522</t>
+    <t xml:space="preserve">1.62025713920593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68567132949829</t>
+    <t xml:space="preserve">1.685671210289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74437618255615</t>
+    <t xml:space="preserve">1.74437630176544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74773108959198</t>
+    <t xml:space="preserve">1.74773097038269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71753990650177</t>
+    <t xml:space="preserve">1.71753978729248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61857998371124</t>
+    <t xml:space="preserve">1.61857986450195</t>
   </si>
   <si>
     <t xml:space="preserve">1.59342074394226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57664787769318</t>
+    <t xml:space="preserve">1.57664775848389</t>
   </si>
   <si>
     <t xml:space="preserve">1.51962018013</t>
@@ -158,22 +158,22 @@
     <t xml:space="preserve">1.4734947681427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51932430267334</t>
+    <t xml:space="preserve">1.51932406425476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49662148952484</t>
+    <t xml:space="preserve">1.49662160873413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46955335140228</t>
+    <t xml:space="preserve">1.46955323219299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439717292786</t>
+    <t xml:space="preserve">1.48439729213715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49312901496887</t>
+    <t xml:space="preserve">1.49312889575958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49050939083099</t>
+    <t xml:space="preserve">1.49050951004028</t>
   </si>
   <si>
     <t xml:space="preserve">1.47479224205017</t>
@@ -182,10 +182,10 @@
     <t xml:space="preserve">1.46606051921844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42240166664124</t>
+    <t xml:space="preserve">1.42240178585052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41454315185547</t>
+    <t xml:space="preserve">1.41454327106476</t>
   </si>
   <si>
     <t xml:space="preserve">1.43200671672821</t>
@@ -194,13 +194,13 @@
     <t xml:space="preserve">1.39707982540131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35953330993652</t>
+    <t xml:space="preserve">1.35953319072723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38310897350311</t>
+    <t xml:space="preserve">1.38310885429382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37961637973785</t>
+    <t xml:space="preserve">1.37961626052856</t>
   </si>
   <si>
     <t xml:space="preserve">1.31936717033386</t>
@@ -209,37 +209,37 @@
     <t xml:space="preserve">1.3534209728241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36215257644653</t>
+    <t xml:space="preserve">1.36215281486511</t>
   </si>
   <si>
     <t xml:space="preserve">1.42327499389648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47391903400421</t>
+    <t xml:space="preserve">1.4739191532135</t>
   </si>
   <si>
     <t xml:space="preserve">1.44073843955994</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38834798336029</t>
+    <t xml:space="preserve">1.38834810256958</t>
   </si>
   <si>
     <t xml:space="preserve">1.32722568511963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3071426153183</t>
+    <t xml:space="preserve">1.30714273452759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27832782268524</t>
+    <t xml:space="preserve">1.27832794189453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25737190246582</t>
+    <t xml:space="preserve">1.25737166404724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26173758506775</t>
+    <t xml:space="preserve">1.26173770427704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28182065486908</t>
+    <t xml:space="preserve">1.28182077407837</t>
   </si>
   <si>
     <t xml:space="preserve">1.29229867458344</t>
@@ -248,19 +248,19 @@
     <t xml:space="preserve">1.28356695175171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2399080991745</t>
+    <t xml:space="preserve">1.23990833759308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19450318813324</t>
+    <t xml:space="preserve">1.19450306892395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27483534812927</t>
+    <t xml:space="preserve">1.27483522891998</t>
   </si>
   <si>
     <t xml:space="preserve">1.21895205974579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2023618221283</t>
+    <t xml:space="preserve">1.20236170291901</t>
   </si>
   <si>
     <t xml:space="preserve">1.19188368320465</t>
@@ -269,31 +269,31 @@
     <t xml:space="preserve">1.22244477272034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17878592014313</t>
+    <t xml:space="preserve">1.17878603935242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16132247447968</t>
+    <t xml:space="preserve">1.16132259368896</t>
   </si>
   <si>
     <t xml:space="preserve">1.09408807754517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07837080955505</t>
+    <t xml:space="preserve">1.07837092876434</t>
   </si>
   <si>
     <t xml:space="preserve">1.06876599788666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08448302745819</t>
+    <t xml:space="preserve">1.08448326587677</t>
   </si>
   <si>
     <t xml:space="preserve">1.1002002954483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13076138496399</t>
+    <t xml:space="preserve">1.1307612657547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11067831516266</t>
+    <t xml:space="preserve">1.11067819595337</t>
   </si>
   <si>
     <t xml:space="preserve">1.11766374111176</t>
@@ -314,37 +314,37 @@
     <t xml:space="preserve">1.05654156208038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04780972003937</t>
+    <t xml:space="preserve">1.04780983924866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999785184860229</t>
+    <t xml:space="preserve">0.999785304069519</t>
   </si>
   <si>
     <t xml:space="preserve">1.0120096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985814213752747</t>
+    <t xml:space="preserve">0.985814332962036</t>
   </si>
   <si>
     <t xml:space="preserve">0.927311658859253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903735935688019</t>
+    <t xml:space="preserve">0.903735995292664</t>
   </si>
   <si>
     <t xml:space="preserve">0.993672907352448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951760530471802</t>
+    <t xml:space="preserve">0.951760649681091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938663005828857</t>
+    <t xml:space="preserve">0.938662946224213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93517017364502</t>
+    <t xml:space="preserve">0.935170292854309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909848213195801</t>
+    <t xml:space="preserve">0.909848153591156</t>
   </si>
   <si>
     <t xml:space="preserve">0.948267817497253</t>
@@ -356,22 +356,22 @@
     <t xml:space="preserve">0.956999540328979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960492312908173</t>
+    <t xml:space="preserve">0.960492432117462</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00938999652863</t>
+    <t xml:space="preserve">1.00939011573792</t>
   </si>
   <si>
     <t xml:space="preserve">1.00415098667145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10107350349426</t>
+    <t xml:space="preserve">1.10107338428497</t>
   </si>
   <si>
     <t xml:space="preserve">1.03471207618713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03209269046783</t>
+    <t xml:space="preserve">1.03209257125854</t>
   </si>
   <si>
     <t xml:space="preserve">1.04519033432007</t>
@@ -380,16 +380,16 @@
     <t xml:space="preserve">1.03907799720764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03383898735046</t>
+    <t xml:space="preserve">1.03383910655975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977955758571625</t>
+    <t xml:space="preserve">0.97795581817627</t>
   </si>
   <si>
     <t xml:space="preserve">1.02510738372803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982321619987488</t>
+    <t xml:space="preserve">0.982321739196777</t>
   </si>
   <si>
     <t xml:space="preserve">1.03121948242188</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">1.0146290063858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01026320457458</t>
+    <t xml:space="preserve">1.0102630853653</t>
   </si>
   <si>
     <t xml:space="preserve">1.01812183856964</t>
@@ -407,13 +407,13 @@
     <t xml:space="preserve">1.02598035335541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03034627437592</t>
+    <t xml:space="preserve">1.03034615516663</t>
   </si>
   <si>
     <t xml:space="preserve">1.01113653182983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03733158111572</t>
+    <t xml:space="preserve">1.03733170032501</t>
   </si>
   <si>
     <t xml:space="preserve">0.995419323444366</t>
@@ -428,37 +428,37 @@
     <t xml:space="preserve">1.06963920593262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09845376014709</t>
+    <t xml:space="preserve">1.09845399856567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15259087085724</t>
+    <t xml:space="preserve">1.15259075164795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18577146530151</t>
+    <t xml:space="preserve">1.18577134609222</t>
   </si>
   <si>
     <t xml:space="preserve">1.19799590110779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24776673316956</t>
+    <t xml:space="preserve">1.24776685237885</t>
   </si>
   <si>
     <t xml:space="preserve">1.24863994121552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31063544750214</t>
+    <t xml:space="preserve">1.31063532829285</t>
   </si>
   <si>
     <t xml:space="preserve">1.2582448720932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26610350608826</t>
+    <t xml:space="preserve">1.26610338687897</t>
   </si>
   <si>
     <t xml:space="preserve">1.27046942710876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20672750473022</t>
+    <t xml:space="preserve">1.20672762393951</t>
   </si>
   <si>
     <t xml:space="preserve">1.20323491096497</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">1.2442741394043</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24689364433289</t>
+    <t xml:space="preserve">1.24689376354218</t>
   </si>
   <si>
     <t xml:space="preserve">1.20498132705688</t>
@@ -476,13 +476,13 @@
     <t xml:space="preserve">1.19624948501587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24340105056763</t>
+    <t xml:space="preserve">1.24340093135834</t>
   </si>
   <si>
     <t xml:space="preserve">1.21371304988861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29142546653748</t>
+    <t xml:space="preserve">1.29142558574677</t>
   </si>
   <si>
     <t xml:space="preserve">1.30976212024689</t>
@@ -491,25 +491,25 @@
     <t xml:space="preserve">1.28967916965485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21196675300598</t>
+    <t xml:space="preserve">1.2119665145874</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18315184116364</t>
+    <t xml:space="preserve">1.18315196037292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18751764297485</t>
+    <t xml:space="preserve">1.18751776218414</t>
   </si>
   <si>
     <t xml:space="preserve">1.1770396232605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1700541973114</t>
+    <t xml:space="preserve">1.17005431652069</t>
   </si>
   <si>
     <t xml:space="preserve">1.22768378257751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46693360805511</t>
+    <t xml:space="preserve">1.4669337272644</t>
   </si>
   <si>
     <t xml:space="preserve">1.45645558834076</t>
@@ -518,31 +518,31 @@
     <t xml:space="preserve">1.45994830131531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45820200443268</t>
+    <t xml:space="preserve">1.45820188522339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52368998527527</t>
+    <t xml:space="preserve">1.52369010448456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56036329269409</t>
+    <t xml:space="preserve">1.56036341190338</t>
   </si>
   <si>
     <t xml:space="preserve">1.52019739151001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55337810516357</t>
+    <t xml:space="preserve">1.55337798595428</t>
   </si>
   <si>
     <t xml:space="preserve">1.55425107479095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5367876291275</t>
+    <t xml:space="preserve">1.53678750991821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60227584838867</t>
+    <t xml:space="preserve">1.60227596759796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64156866073608</t>
+    <t xml:space="preserve">1.64156854152679</t>
   </si>
   <si>
     <t xml:space="preserve">1.65466630458832</t>
@@ -551,7 +551,7 @@
     <t xml:space="preserve">1.70269095897675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72888612747192</t>
+    <t xml:space="preserve">1.72888624668121</t>
   </si>
   <si>
     <t xml:space="preserve">1.73674464225769</t>
@@ -560,28 +560,28 @@
     <t xml:space="preserve">1.8109644651413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83366692066193</t>
+    <t xml:space="preserve">1.83366703987122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85113036632538</t>
+    <t xml:space="preserve">1.85113048553467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85986256599426</t>
+    <t xml:space="preserve">1.85986220836639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72277390956879</t>
+    <t xml:space="preserve">1.72277402877808</t>
   </si>
   <si>
     <t xml:space="preserve">1.67038333415985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74634969234467</t>
+    <t xml:space="preserve">1.74634957313538</t>
   </si>
   <si>
     <t xml:space="preserve">1.69046640396118</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76032042503357</t>
+    <t xml:space="preserve">1.76032054424286</t>
   </si>
   <si>
     <t xml:space="preserve">1.68697369098663</t>
@@ -590,13 +590,13 @@
     <t xml:space="preserve">1.67649567127228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75508141517639</t>
+    <t xml:space="preserve">1.7550812959671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75682783126831</t>
+    <t xml:space="preserve">1.75682771205902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7900083065033</t>
+    <t xml:space="preserve">1.79000842571259</t>
   </si>
   <si>
     <t xml:space="preserve">1.8127110004425</t>
@@ -614,22 +614,22 @@
     <t xml:space="preserve">1.72801291942596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81794989109039</t>
+    <t xml:space="preserve">1.81795012950897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82510709762573</t>
+    <t xml:space="preserve">1.82510721683502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9235200881958</t>
+    <t xml:space="preserve">1.92351996898651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87878668308258</t>
+    <t xml:space="preserve">1.87878680229187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86089360713959</t>
+    <t xml:space="preserve">1.8608934879303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86984026432037</t>
+    <t xml:space="preserve">1.86984038352966</t>
   </si>
   <si>
     <t xml:space="preserve">2.0398256778717</t>
@@ -638,28 +638,28 @@
     <t xml:space="preserve">2.4764199256897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57662224769592</t>
+    <t xml:space="preserve">2.57662200927734</t>
   </si>
   <si>
     <t xml:space="preserve">2.94701147079468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95237946510315</t>
+    <t xml:space="preserve">2.95237922668457</t>
   </si>
   <si>
     <t xml:space="preserve">2.85396695137024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75913310050964</t>
+    <t xml:space="preserve">2.75913286209106</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58556866645813</t>
+    <t xml:space="preserve">2.58556890487671</t>
   </si>
   <si>
     <t xml:space="preserve">2.56767535209656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50504922866821</t>
+    <t xml:space="preserve">2.50504899024963</t>
   </si>
   <si>
     <t xml:space="preserve">2.46747326850891</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">2.90764617919922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79134011268616</t>
+    <t xml:space="preserve">2.79134035110474</t>
   </si>
   <si>
     <t xml:space="preserve">2.60882973670959</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">2.57841110229492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54978227615356</t>
+    <t xml:space="preserve">2.54978203773499</t>
   </si>
   <si>
     <t xml:space="preserve">2.52473163604736</t>
@@ -695,22 +695,22 @@
     <t xml:space="preserve">2.55872869491577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63924813270569</t>
+    <t xml:space="preserve">2.63924789428711</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68398118019104</t>
+    <t xml:space="preserve">2.68398141860962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59451532363892</t>
+    <t xml:space="preserve">2.59451508522034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5408353805542</t>
+    <t xml:space="preserve">2.54083561897278</t>
   </si>
   <si>
     <t xml:space="preserve">2.56230735778809</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56409668922424</t>
+    <t xml:space="preserve">2.56409645080566</t>
   </si>
   <si>
     <t xml:space="preserve">2.64640545845032</t>
@@ -719,10 +719,10 @@
     <t xml:space="preserve">2.5658860206604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58198976516724</t>
+    <t xml:space="preserve">2.58198952674866</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6732451915741</t>
+    <t xml:space="preserve">2.67324542999268</t>
   </si>
   <si>
     <t xml:space="preserve">2.52294230461121</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">2.48715591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4334762096405</t>
+    <t xml:space="preserve">2.43347644805908</t>
   </si>
   <si>
     <t xml:space="preserve">2.41916179656982</t>
@@ -758,19 +758,19 @@
     <t xml:space="preserve">2.21875786781311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21338987350464</t>
+    <t xml:space="preserve">2.21338963508606</t>
   </si>
   <si>
     <t xml:space="preserve">2.15792083740234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14718508720398</t>
+    <t xml:space="preserve">2.14718532562256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18654990196228</t>
+    <t xml:space="preserve">2.18655037879944</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20981097221375</t>
+    <t xml:space="preserve">2.20981121063232</t>
   </si>
   <si>
     <t xml:space="preserve">2.22054719924927</t>
@@ -779,13 +779,13 @@
     <t xml:space="preserve">2.17581415176392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15613150596619</t>
+    <t xml:space="preserve">2.15613174438477</t>
   </si>
   <si>
     <t xml:space="preserve">2.17402482032776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19012880325317</t>
+    <t xml:space="preserve">2.19012856483459</t>
   </si>
   <si>
     <t xml:space="preserve">2.095294713974</t>
@@ -797,10 +797,10 @@
     <t xml:space="preserve">2.11139869689941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30285573005676</t>
+    <t xml:space="preserve">2.30285596847534</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27064824104309</t>
+    <t xml:space="preserve">2.27064800262451</t>
   </si>
   <si>
     <t xml:space="preserve">2.1722354888916</t>
@@ -809,13 +809,13 @@
     <t xml:space="preserve">2.19549655914307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25275492668152</t>
+    <t xml:space="preserve">2.25275468826294</t>
   </si>
   <si>
     <t xml:space="preserve">2.2366509437561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2151792049408</t>
+    <t xml:space="preserve">2.21517944335938</t>
   </si>
   <si>
     <t xml:space="preserve">2.24738717079163</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">2.26349091529846</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37621808052063</t>
+    <t xml:space="preserve">2.37621784210205</t>
   </si>
   <si>
     <t xml:space="preserve">2.31717038154602</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">2.35116744041443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36906051635742</t>
+    <t xml:space="preserve">2.369060754776</t>
   </si>
   <si>
     <t xml:space="preserve">2.37085008621216</t>
@@ -875,19 +875,19 @@
     <t xml:space="preserve">2.3046452999115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38695406913757</t>
+    <t xml:space="preserve">2.38695383071899</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29927754402161</t>
+    <t xml:space="preserve">2.29927706718445</t>
   </si>
   <si>
     <t xml:space="preserve">2.34222102165222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54262471199036</t>
+    <t xml:space="preserve">2.54262495040894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6553521156311</t>
+    <t xml:space="preserve">2.65535187721252</t>
   </si>
   <si>
     <t xml:space="preserve">2.61419773101807</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">2.62314438819885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61240863800049</t>
+    <t xml:space="preserve">2.61240839958191</t>
   </si>
   <si>
     <t xml:space="preserve">2.66608810424805</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">2.60167241096497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58020043373108</t>
+    <t xml:space="preserve">2.58020067214966</t>
   </si>
   <si>
     <t xml:space="preserve">2.42095112800598</t>
@@ -923,13 +923,13 @@
     <t xml:space="preserve">2.51936364173889</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45136952400208</t>
+    <t xml:space="preserve">2.45136976242065</t>
   </si>
   <si>
     <t xml:space="preserve">2.46031594276428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50862789154053</t>
+    <t xml:space="preserve">2.50862765312195</t>
   </si>
   <si>
     <t xml:space="preserve">2.49431347846985</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">2.43705487251282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40663647651672</t>
+    <t xml:space="preserve">2.4066367149353</t>
   </si>
   <si>
     <t xml:space="preserve">2.49252390861511</t>
@@ -947,16 +947,16 @@
     <t xml:space="preserve">2.41558313369751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29390931129456</t>
+    <t xml:space="preserve">2.29390907287598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22770428657532</t>
+    <t xml:space="preserve">2.2277045249939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20623278617859</t>
+    <t xml:space="preserve">2.20623254776001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28138422966003</t>
+    <t xml:space="preserve">2.28138399124146</t>
   </si>
   <si>
     <t xml:space="preserve">2.19191813468933</t>
@@ -977,31 +977,31 @@
     <t xml:space="preserve">1.98614597320557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06666541099548</t>
+    <t xml:space="preserve">2.06666564941406</t>
   </si>
   <si>
     <t xml:space="preserve">2.05771899223328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00403928756714</t>
+    <t xml:space="preserve">2.00403904914856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07561230659485</t>
+    <t xml:space="preserve">2.07561206817627</t>
   </si>
   <si>
     <t xml:space="preserve">1.99509274959564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01298594474792</t>
+    <t xml:space="preserve">2.0129861831665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96825289726257</t>
+    <t xml:space="preserve">1.96825313568115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97719943523407</t>
+    <t xml:space="preserve">1.97719967365265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95035970211029</t>
+    <t xml:space="preserve">1.95035982131958</t>
   </si>
   <si>
     <t xml:space="preserve">1.93246650695801</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">2.03087902069092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04877233505249</t>
+    <t xml:space="preserve">2.04877209663391</t>
   </si>
   <si>
     <t xml:space="preserve">2.1587393283844</t>
@@ -1022,13 +1022,13 @@
     <t xml:space="preserve">2.05812001228333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99408960342407</t>
+    <t xml:space="preserve">1.99408984184265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93920636177063</t>
+    <t xml:space="preserve">1.93920648097992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96664822101593</t>
+    <t xml:space="preserve">1.96664810180664</t>
   </si>
   <si>
     <t xml:space="preserve">2.11300325393677</t>
@@ -1043,25 +1043,25 @@
     <t xml:space="preserve">2.01238417625427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94835388660431</t>
+    <t xml:space="preserve">1.94835364818573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98494267463684</t>
+    <t xml:space="preserve">1.98494243621826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95750081539154</t>
+    <t xml:space="preserve">1.95750105381012</t>
   </si>
   <si>
     <t xml:space="preserve">1.9026175737381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00323700904846</t>
+    <t xml:space="preserve">2.00323677062988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93005919456482</t>
+    <t xml:space="preserve">1.93005907535553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97579526901245</t>
+    <t xml:space="preserve">1.97579550743103</t>
   </si>
   <si>
     <t xml:space="preserve">2.02153134346008</t>
@@ -1073,22 +1073,22 @@
     <t xml:space="preserve">2.09470891952515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86602878570557</t>
+    <t xml:space="preserve">1.86602890491486</t>
   </si>
   <si>
     <t xml:space="preserve">1.84773457050323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87517595291138</t>
+    <t xml:space="preserve">1.87517607212067</t>
   </si>
   <si>
     <t xml:space="preserve">1.83858728408813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6876585483551</t>
+    <t xml:space="preserve">1.68765842914581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.664790391922</t>
+    <t xml:space="preserve">1.66479051113129</t>
   </si>
   <si>
     <t xml:space="preserve">1.69223201274872</t>
@@ -1115,10 +1115,10 @@
     <t xml:space="preserve">1.64649605751038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6739376783371</t>
+    <t xml:space="preserve">1.67393779754639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63277518749237</t>
+    <t xml:space="preserve">1.63277530670166</t>
   </si>
   <si>
     <t xml:space="preserve">1.66936421394348</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">1.66021692752838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74254167079926</t>
+    <t xml:space="preserve">1.74254155158997</t>
   </si>
   <si>
     <t xml:space="preserve">1.70137929916382</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">1.71510004997253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68308484554291</t>
+    <t xml:space="preserve">1.6830849647522</t>
   </si>
   <si>
     <t xml:space="preserve">1.65106964111328</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">1.62362813949585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48184633255005</t>
+    <t xml:space="preserve">1.48184645175934</t>
   </si>
   <si>
     <t xml:space="preserve">1.48642003536224</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">1.29890239238739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26231372356415</t>
+    <t xml:space="preserve">1.26231360435486</t>
   </si>
   <si>
     <t xml:space="preserve">1.34921205043793</t>
@@ -1199,16 +1199,16 @@
     <t xml:space="preserve">1.4178159236908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50014090538025</t>
+    <t xml:space="preserve">1.50014078617096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50928807258606</t>
+    <t xml:space="preserve">1.50928795337677</t>
   </si>
   <si>
     <t xml:space="preserve">1.50471448898315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51386153697968</t>
+    <t xml:space="preserve">1.51386165618896</t>
   </si>
   <si>
     <t xml:space="preserve">1.45440483093262</t>
@@ -1223,10 +1223,10 @@
     <t xml:space="preserve">1.60075998306274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57789206504822</t>
+    <t xml:space="preserve">1.57789218425751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59618639945984</t>
+    <t xml:space="preserve">1.59618651866913</t>
   </si>
   <si>
     <t xml:space="preserve">1.61448097229004</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">1.62820160388947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58703923225403</t>
+    <t xml:space="preserve">1.58703935146332</t>
   </si>
   <si>
     <t xml:space="preserve">1.55045056343079</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">1.57331848144531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59161293506622</t>
+    <t xml:space="preserve">1.59161281585693</t>
   </si>
   <si>
     <t xml:space="preserve">1.5641713142395</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">1.67525947093964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63761329650879</t>
+    <t xml:space="preserve">1.6376131772995</t>
   </si>
   <si>
     <t xml:space="preserve">1.60937857627869</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">1.58114373683929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55290913581848</t>
+    <t xml:space="preserve">1.55290901660919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52467429637909</t>
+    <t xml:space="preserve">1.52467441558838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57173228263855</t>
+    <t xml:space="preserve">1.57173216342926</t>
   </si>
   <si>
     <t xml:space="preserve">1.53408598899841</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">1.46820485591888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44938182830811</t>
+    <t xml:space="preserve">1.44938170909882</t>
   </si>
   <si>
     <t xml:space="preserve">1.43055868148804</t>
@@ -1322,67 +1322,67 @@
     <t xml:space="preserve">1.40232396125793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37408936023712</t>
+    <t xml:space="preserve">1.37408924102783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34585452079773</t>
+    <t xml:space="preserve">1.34585440158844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31761991977692</t>
+    <t xml:space="preserve">1.31761980056763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29879677295685</t>
+    <t xml:space="preserve">1.29879665374756</t>
   </si>
   <si>
     <t xml:space="preserve">1.24232733249664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23291563987732</t>
+    <t xml:space="preserve">1.23291575908661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22350406646729</t>
+    <t xml:space="preserve">1.22350418567657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27997350692749</t>
+    <t xml:space="preserve">1.27997362613678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27056193351746</t>
+    <t xml:space="preserve">1.27056205272675</t>
   </si>
   <si>
     <t xml:space="preserve">1.3364429473877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35526621341705</t>
+    <t xml:space="preserve">1.35526609420776</t>
   </si>
   <si>
     <t xml:space="preserve">1.421147108078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43997025489807</t>
+    <t xml:space="preserve">1.43997013568878</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36467778682709</t>
+    <t xml:space="preserve">1.3646776676178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38350093364716</t>
+    <t xml:space="preserve">1.38350081443787</t>
   </si>
   <si>
     <t xml:space="preserve">1.32703137397766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28938508033752</t>
+    <t xml:space="preserve">1.28938519954681</t>
   </si>
   <si>
     <t xml:space="preserve">1.51526284217834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72231733798981</t>
+    <t xml:space="preserve">1.7223174571991</t>
   </si>
   <si>
     <t xml:space="preserve">1.74114048480988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71290576457977</t>
+    <t xml:space="preserve">1.71290588378906</t>
   </si>
   <si>
     <t xml:space="preserve">1.70349419116974</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">1.65643632411957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76937532424927</t>
+    <t xml:space="preserve">1.76937520503998</t>
   </si>
   <si>
     <t xml:space="preserve">1.18585789203644</t>
@@ -1424,10 +1424,10 @@
     <t xml:space="preserve">1.16703474521637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21409249305725</t>
+    <t xml:space="preserve">1.21409261226654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20468091964722</t>
+    <t xml:space="preserve">1.20468103885651</t>
   </si>
   <si>
     <t xml:space="preserve">1.1764463186264</t>
@@ -1436,10 +1436,10 @@
     <t xml:space="preserve">1.25173890590668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30820834636688</t>
+    <t xml:space="preserve">1.30820822715759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19526934623718</t>
+    <t xml:space="preserve">1.19526946544647</t>
   </si>
   <si>
     <t xml:space="preserve">1.1482115983963</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">1.13880002498627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12938845157623</t>
+    <t xml:space="preserve">1.12938857078552</t>
   </si>
   <si>
     <t xml:space="preserve">1.0917421579361</t>
@@ -1472,19 +1472,19 @@
     <t xml:space="preserve">1.07291901111603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03527271747589</t>
+    <t xml:space="preserve">1.03527283668518</t>
   </si>
   <si>
     <t xml:space="preserve">1.05409586429596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01644957065582</t>
+    <t xml:space="preserve">1.01644968986511</t>
   </si>
   <si>
     <t xml:space="preserve">1.04468429088593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00703799724579</t>
+    <t xml:space="preserve">1.00703811645508</t>
   </si>
   <si>
     <t xml:space="preserve">0.969391703605652</t>
@@ -1493,10 +1493,10 @@
     <t xml:space="preserve">0.978803277015686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959980130195618</t>
+    <t xml:space="preserve">0.959980189800262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988214790821075</t>
+    <t xml:space="preserve">0.98821485042572</t>
   </si>
   <si>
     <t xml:space="preserve">0.936451256275177</t>
@@ -1505,19 +1505,19 @@
     <t xml:space="preserve">0.950568616390228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02586114406586</t>
+    <t xml:space="preserve">1.02586126327515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06350755691528</t>
+    <t xml:space="preserve">1.06350743770599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99762636423111</t>
+    <t xml:space="preserve">0.997626423835754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26115036010742</t>
+    <t xml:space="preserve">1.26115047931671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54349756240845</t>
+    <t xml:space="preserve">1.54349744319916</t>
   </si>
   <si>
     <t xml:space="preserve">1.30537188053131</t>
@@ -1614,6 +1614,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.08000004291534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995000004768372</t>
   </si>
 </sst>
 </file>
@@ -57933,7 +57936,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.5167708333</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>3600</v>
@@ -57954,6 +57957,32 @@
         <v>532</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.555625</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>35200</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>0.995000004768372</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>0.939999997615814</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>0.995000004768372</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>534</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LMG.MI.xlsx
+++ b/data/LMG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,58 +44,58 @@
     <t xml:space="preserve">LMG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50033152103424</t>
+    <t xml:space="preserve">1.50033140182495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5514885187149</t>
+    <t xml:space="preserve">1.55148863792419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704061985016</t>
+    <t xml:space="preserve">1.50704050064087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439717292786</t>
+    <t xml:space="preserve">1.48439729213715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44246506690979</t>
+    <t xml:space="preserve">1.44246518611908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43575584888458</t>
+    <t xml:space="preserve">1.43575596809387</t>
   </si>
   <si>
     <t xml:space="preserve">1.39214646816254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41646707057953</t>
+    <t xml:space="preserve">1.41646718978882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42569231987</t>
+    <t xml:space="preserve">1.42569220066071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47433340549469</t>
+    <t xml:space="preserve">1.47433352470398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4416264295578</t>
+    <t xml:space="preserve">1.44162631034851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46762418746948</t>
+    <t xml:space="preserve">1.46762430667877</t>
   </si>
   <si>
     <t xml:space="preserve">1.50871777534485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45923781394958</t>
+    <t xml:space="preserve">1.45923793315887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40640342235565</t>
+    <t xml:space="preserve">1.40640354156494</t>
   </si>
   <si>
     <t xml:space="preserve">1.37453508377075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36698722839355</t>
+    <t xml:space="preserve">1.36698734760284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40053284168243</t>
+    <t xml:space="preserve">1.40053296089172</t>
   </si>
   <si>
     <t xml:space="preserve">1.40891933441162</t>
@@ -107,13 +107,13 @@
     <t xml:space="preserve">1.44581961631775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5263295173645</t>
+    <t xml:space="preserve">1.52632939815521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49278354644775</t>
+    <t xml:space="preserve">1.49278366565704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57245469093323</t>
+    <t xml:space="preserve">1.57245457172394</t>
   </si>
   <si>
     <t xml:space="preserve">1.56406819820404</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">1.55987501144409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62025713920593</t>
+    <t xml:space="preserve">1.62025737762451</t>
   </si>
   <si>
     <t xml:space="preserve">1.685671210289</t>
@@ -134,64 +134,64 @@
     <t xml:space="preserve">1.74437630176544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74773097038269</t>
+    <t xml:space="preserve">1.7477308511734</t>
   </si>
   <si>
     <t xml:space="preserve">1.71753978729248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61857986450195</t>
+    <t xml:space="preserve">1.61858010292053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59342074394226</t>
+    <t xml:space="preserve">1.59342062473297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57664775848389</t>
+    <t xml:space="preserve">1.57664787769318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51962018013</t>
+    <t xml:space="preserve">1.51962029933929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50116991996765</t>
+    <t xml:space="preserve">1.50117003917694</t>
   </si>
   <si>
     <t xml:space="preserve">1.4734947681427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51932406425476</t>
+    <t xml:space="preserve">1.51932430267334</t>
   </si>
   <si>
     <t xml:space="preserve">1.49662160873413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46955323219299</t>
+    <t xml:space="preserve">1.4695531129837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439729213715</t>
+    <t xml:space="preserve">1.48439741134644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49312889575958</t>
+    <t xml:space="preserve">1.49312901496887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49050951004028</t>
+    <t xml:space="preserve">1.49050939083099</t>
   </si>
   <si>
     <t xml:space="preserve">1.47479224205017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46606051921844</t>
+    <t xml:space="preserve">1.46606063842773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42240178585052</t>
+    <t xml:space="preserve">1.42240166664124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41454327106476</t>
+    <t xml:space="preserve">1.41454315185547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43200671672821</t>
+    <t xml:space="preserve">1.43200659751892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39707982540131</t>
+    <t xml:space="preserve">1.39707958698273</t>
   </si>
   <si>
     <t xml:space="preserve">1.35953319072723</t>
@@ -203,37 +203,37 @@
     <t xml:space="preserve">1.37961626052856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31936717033386</t>
+    <t xml:space="preserve">1.31936728954315</t>
   </si>
   <si>
     <t xml:space="preserve">1.3534209728241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36215281486511</t>
+    <t xml:space="preserve">1.36215257644653</t>
   </si>
   <si>
     <t xml:space="preserve">1.42327499389648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4739191532135</t>
+    <t xml:space="preserve">1.47391903400421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44073843955994</t>
+    <t xml:space="preserve">1.44073832035065</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38834810256958</t>
+    <t xml:space="preserve">1.38834798336029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32722568511963</t>
+    <t xml:space="preserve">1.32722580432892</t>
   </si>
   <si>
     <t xml:space="preserve">1.30714273452759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27832794189453</t>
+    <t xml:space="preserve">1.27832782268524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25737166404724</t>
+    <t xml:space="preserve">1.25737178325653</t>
   </si>
   <si>
     <t xml:space="preserve">1.26173770427704</t>
@@ -242,70 +242,70 @@
     <t xml:space="preserve">1.28182077407837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29229867458344</t>
+    <t xml:space="preserve">1.29229879379272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28356695175171</t>
+    <t xml:space="preserve">1.28356683254242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23990833759308</t>
+    <t xml:space="preserve">1.23990821838379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19450306892395</t>
+    <t xml:space="preserve">1.19450318813324</t>
   </si>
   <si>
     <t xml:space="preserve">1.27483522891998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21895205974579</t>
+    <t xml:space="preserve">1.2189519405365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20236170291901</t>
+    <t xml:space="preserve">1.2023618221283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19188368320465</t>
+    <t xml:space="preserve">1.19188356399536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22244477272034</t>
+    <t xml:space="preserve">1.22244465351105</t>
   </si>
   <si>
     <t xml:space="preserve">1.17878603935242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16132259368896</t>
+    <t xml:space="preserve">1.16132247447968</t>
   </si>
   <si>
     <t xml:space="preserve">1.09408807754517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07837092876434</t>
+    <t xml:space="preserve">1.07837080955505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06876599788666</t>
+    <t xml:space="preserve">1.06876587867737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08448326587677</t>
+    <t xml:space="preserve">1.08448314666748</t>
   </si>
   <si>
     <t xml:space="preserve">1.1002002954483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1307612657547</t>
+    <t xml:space="preserve">1.13076138496399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11067819595337</t>
+    <t xml:space="preserve">1.11067831516266</t>
   </si>
   <si>
     <t xml:space="preserve">1.11766374111176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08273684978485</t>
+    <t xml:space="preserve">1.08273673057556</t>
   </si>
   <si>
     <t xml:space="preserve">1.05217564105988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02685356140137</t>
+    <t xml:space="preserve">1.02685344219208</t>
   </si>
   <si>
     <t xml:space="preserve">1.04344391822815</t>
@@ -317,25 +317,25 @@
     <t xml:space="preserve">1.04780983924866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999785304069519</t>
+    <t xml:space="preserve">0.999785125255585</t>
   </si>
   <si>
     <t xml:space="preserve">1.0120096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985814332962036</t>
+    <t xml:space="preserve">0.985814452171326</t>
   </si>
   <si>
     <t xml:space="preserve">0.927311658859253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903735995292664</t>
+    <t xml:space="preserve">0.903735876083374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993672907352448</t>
+    <t xml:space="preserve">0.993672966957092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951760649681091</t>
+    <t xml:space="preserve">0.951760530471802</t>
   </si>
   <si>
     <t xml:space="preserve">0.938662946224213</t>
@@ -350,13 +350,13 @@
     <t xml:space="preserve">0.948267817497253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991926550865173</t>
+    <t xml:space="preserve">0.991926610469818</t>
   </si>
   <si>
     <t xml:space="preserve">0.956999540328979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960492432117462</t>
+    <t xml:space="preserve">0.960492312908173</t>
   </si>
   <si>
     <t xml:space="preserve">1.00939011573792</t>
@@ -371,34 +371,34 @@
     <t xml:space="preserve">1.03471207618713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03209257125854</t>
+    <t xml:space="preserve">1.03209269046783</t>
   </si>
   <si>
     <t xml:space="preserve">1.04519033432007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03907799720764</t>
+    <t xml:space="preserve">1.03907811641693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03383910655975</t>
+    <t xml:space="preserve">1.03383898735046</t>
   </si>
   <si>
     <t xml:space="preserve">0.97795581817627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02510738372803</t>
+    <t xml:space="preserve">1.02510726451874</t>
   </si>
   <si>
     <t xml:space="preserve">0.982321739196777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03121948242188</t>
+    <t xml:space="preserve">1.03121936321259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0146290063858</t>
+    <t xml:space="preserve">1.01462912559509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0102630853653</t>
+    <t xml:space="preserve">1.01026320457458</t>
   </si>
   <si>
     <t xml:space="preserve">1.01812183856964</t>
@@ -407,13 +407,13 @@
     <t xml:space="preserve">1.02598035335541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03034615516663</t>
+    <t xml:space="preserve">1.03034627437592</t>
   </si>
   <si>
     <t xml:space="preserve">1.01113653182983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03733170032501</t>
+    <t xml:space="preserve">1.03733158111572</t>
   </si>
   <si>
     <t xml:space="preserve">0.995419323444366</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">1.10456609725952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10543930530548</t>
+    <t xml:space="preserve">1.10543918609619</t>
   </si>
   <si>
     <t xml:space="preserve">1.06963920593262</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">1.09845399856567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15259075164795</t>
+    <t xml:space="preserve">1.15259087085724</t>
   </si>
   <si>
     <t xml:space="preserve">1.18577134609222</t>
@@ -446,13 +446,13 @@
     <t xml:space="preserve">1.24863994121552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31063532829285</t>
+    <t xml:space="preserve">1.31063544750214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2582448720932</t>
+    <t xml:space="preserve">1.25824499130249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26610338687897</t>
+    <t xml:space="preserve">1.26610362529755</t>
   </si>
   <si>
     <t xml:space="preserve">1.27046942710876</t>
@@ -464,40 +464,40 @@
     <t xml:space="preserve">1.20323491096497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2442741394043</t>
+    <t xml:space="preserve">1.24427402019501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24689376354218</t>
+    <t xml:space="preserve">1.24689364433289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20498132705688</t>
+    <t xml:space="preserve">1.2049812078476</t>
   </si>
   <si>
     <t xml:space="preserve">1.19624948501587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24340093135834</t>
+    <t xml:space="preserve">1.24340105056763</t>
   </si>
   <si>
     <t xml:space="preserve">1.21371304988861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29142558574677</t>
+    <t xml:space="preserve">1.29142546653748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30976212024689</t>
+    <t xml:space="preserve">1.30976223945618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28967916965485</t>
+    <t xml:space="preserve">1.28967905044556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2119665145874</t>
+    <t xml:space="preserve">1.21196663379669</t>
   </si>
   <si>
     <t xml:space="preserve">1.18315196037292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18751776218414</t>
+    <t xml:space="preserve">1.18751788139343</t>
   </si>
   <si>
     <t xml:space="preserve">1.1770396232605</t>
@@ -506,13 +506,13 @@
     <t xml:space="preserve">1.17005431652069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768378257751</t>
+    <t xml:space="preserve">1.2276839017868</t>
   </si>
   <si>
     <t xml:space="preserve">1.4669337272644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45645558834076</t>
+    <t xml:space="preserve">1.45645546913147</t>
   </si>
   <si>
     <t xml:space="preserve">1.45994830131531</t>
@@ -521,37 +521,37 @@
     <t xml:space="preserve">1.45820188522339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52369010448456</t>
+    <t xml:space="preserve">1.52368998527527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56036341190338</t>
+    <t xml:space="preserve">1.56036329269409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52019739151001</t>
+    <t xml:space="preserve">1.5201975107193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55337798595428</t>
+    <t xml:space="preserve">1.55337810516357</t>
   </si>
   <si>
     <t xml:space="preserve">1.55425107479095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53678750991821</t>
+    <t xml:space="preserve">1.5367876291275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60227596759796</t>
+    <t xml:space="preserve">1.60227584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64156854152679</t>
+    <t xml:space="preserve">1.64156866073608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65466630458832</t>
+    <t xml:space="preserve">1.65466618537903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70269095897675</t>
+    <t xml:space="preserve">1.70269107818604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72888624668121</t>
+    <t xml:space="preserve">1.72888600826263</t>
   </si>
   <si>
     <t xml:space="preserve">1.73674464225769</t>
@@ -566,40 +566,40 @@
     <t xml:space="preserve">1.85113048553467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85986220836639</t>
+    <t xml:space="preserve">1.85986232757568</t>
   </si>
   <si>
     <t xml:space="preserve">1.72277402877808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67038333415985</t>
+    <t xml:space="preserve">1.67038357257843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74634957313538</t>
+    <t xml:space="preserve">1.74634969234467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69046640396118</t>
+    <t xml:space="preserve">1.69046628475189</t>
   </si>
   <si>
     <t xml:space="preserve">1.76032054424286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68697369098663</t>
+    <t xml:space="preserve">1.68697381019592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67649567127228</t>
+    <t xml:space="preserve">1.67649555206299</t>
   </si>
   <si>
     <t xml:space="preserve">1.7550812959671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75682771205902</t>
+    <t xml:space="preserve">1.7568279504776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79000842571259</t>
+    <t xml:space="preserve">1.7900083065033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8127110004425</t>
+    <t xml:space="preserve">1.81271088123322</t>
   </si>
   <si>
     <t xml:space="preserve">1.82842814922333</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">1.81620359420776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79874002933502</t>
+    <t xml:space="preserve">1.79874014854431</t>
   </si>
   <si>
     <t xml:space="preserve">1.72801291942596</t>
@@ -620,28 +620,28 @@
     <t xml:space="preserve">1.82510721683502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92351996898651</t>
+    <t xml:space="preserve">1.92351984977722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87878680229187</t>
+    <t xml:space="preserve">1.87878668308258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8608934879303</t>
+    <t xml:space="preserve">1.86089372634888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86984038352966</t>
+    <t xml:space="preserve">1.86984002590179</t>
   </si>
   <si>
     <t xml:space="preserve">2.0398256778717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4764199256897</t>
+    <t xml:space="preserve">2.47641968727112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57662200927734</t>
+    <t xml:space="preserve">2.57662224769592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94701147079468</t>
+    <t xml:space="preserve">2.9470112323761</t>
   </si>
   <si>
     <t xml:space="preserve">2.95237922668457</t>
@@ -653,19 +653,19 @@
     <t xml:space="preserve">2.75913286209106</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58556890487671</t>
+    <t xml:space="preserve">2.58556866645813</t>
   </si>
   <si>
     <t xml:space="preserve">2.56767535209656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50504899024963</t>
+    <t xml:space="preserve">2.50504922866821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46747326850891</t>
+    <t xml:space="preserve">2.46747303009033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59809374809265</t>
+    <t xml:space="preserve">2.59809398651123</t>
   </si>
   <si>
     <t xml:space="preserve">2.70187449455261</t>
@@ -680,10 +680,10 @@
     <t xml:space="preserve">2.60882973670959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56946492195129</t>
+    <t xml:space="preserve">2.56946468353271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57841110229492</t>
+    <t xml:space="preserve">2.5784113407135</t>
   </si>
   <si>
     <t xml:space="preserve">2.54978203773499</t>
@@ -692,49 +692,49 @@
     <t xml:space="preserve">2.52473163604736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55872869491577</t>
+    <t xml:space="preserve">2.55872893333435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63924789428711</t>
+    <t xml:space="preserve">2.63924813270569</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68398141860962</t>
+    <t xml:space="preserve">2.68398118019104</t>
   </si>
   <si>
     <t xml:space="preserve">2.59451508522034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54083561897278</t>
+    <t xml:space="preserve">2.5408353805542</t>
   </si>
   <si>
     <t xml:space="preserve">2.56230735778809</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56409645080566</t>
+    <t xml:space="preserve">2.56409668922424</t>
   </si>
   <si>
     <t xml:space="preserve">2.64640545845032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5658860206604</t>
+    <t xml:space="preserve">2.56588578224182</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58198952674866</t>
+    <t xml:space="preserve">2.58199000358582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67324542999268</t>
+    <t xml:space="preserve">2.6732451915741</t>
   </si>
   <si>
     <t xml:space="preserve">2.52294230461121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48536658287048</t>
+    <t xml:space="preserve">2.48536682128906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53188896179199</t>
+    <t xml:space="preserve">2.53188872337341</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48715591430664</t>
+    <t xml:space="preserve">2.48715567588806</t>
   </si>
   <si>
     <t xml:space="preserve">2.43347644805908</t>
@@ -758,19 +758,19 @@
     <t xml:space="preserve">2.21875786781311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21338963508606</t>
+    <t xml:space="preserve">2.21338987350464</t>
   </si>
   <si>
     <t xml:space="preserve">2.15792083740234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14718532562256</t>
+    <t xml:space="preserve">2.14718508720398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18655037879944</t>
+    <t xml:space="preserve">2.18655014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20981121063232</t>
+    <t xml:space="preserve">2.2098114490509</t>
   </si>
   <si>
     <t xml:space="preserve">2.22054719924927</t>
@@ -782,13 +782,13 @@
     <t xml:space="preserve">2.15613174438477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17402482032776</t>
+    <t xml:space="preserve">2.17402458190918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19012856483459</t>
+    <t xml:space="preserve">2.19012880325317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.095294713974</t>
+    <t xml:space="preserve">2.09529447555542</t>
   </si>
   <si>
     <t xml:space="preserve">2.14002776145935</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">2.11139869689941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30285596847534</t>
+    <t xml:space="preserve">2.30285573005676</t>
   </si>
   <si>
     <t xml:space="preserve">2.27064800262451</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">2.1722354888916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19549655914307</t>
+    <t xml:space="preserve">2.19549679756165</t>
   </si>
   <si>
     <t xml:space="preserve">2.25275468826294</t>
@@ -815,19 +815,19 @@
     <t xml:space="preserve">2.2366509437561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21517944335938</t>
+    <t xml:space="preserve">2.2151792049408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24738717079163</t>
+    <t xml:space="preserve">2.24738693237305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24559783935547</t>
+    <t xml:space="preserve">2.24559760093689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26349091529846</t>
+    <t xml:space="preserve">2.26349067687988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37621784210205</t>
+    <t xml:space="preserve">2.37621808052063</t>
   </si>
   <si>
     <t xml:space="preserve">2.31717038154602</t>
@@ -839,16 +839,16 @@
     <t xml:space="preserve">2.3815860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33506345748901</t>
+    <t xml:space="preserve">2.33506369590759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31895995140076</t>
+    <t xml:space="preserve">2.31895971298218</t>
   </si>
   <si>
     <t xml:space="preserve">2.26528024673462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28496265411377</t>
+    <t xml:space="preserve">2.28496241569519</t>
   </si>
   <si>
     <t xml:space="preserve">2.32611703872681</t>
@@ -857,40 +857,40 @@
     <t xml:space="preserve">2.3440101146698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44242310523987</t>
+    <t xml:space="preserve">2.44242286682129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35116744041443</t>
+    <t xml:space="preserve">2.35116767883301</t>
   </si>
   <si>
     <t xml:space="preserve">2.369060754776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37085008621216</t>
+    <t xml:space="preserve">2.37085032463074</t>
   </si>
   <si>
     <t xml:space="preserve">2.29748797416687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3046452999115</t>
+    <t xml:space="preserve">2.30464506149292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38695383071899</t>
+    <t xml:space="preserve">2.38695406913757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29927706718445</t>
+    <t xml:space="preserve">2.29927730560303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34222102165222</t>
+    <t xml:space="preserve">2.34222078323364</t>
   </si>
   <si>
     <t xml:space="preserve">2.54262495040894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65535187721252</t>
+    <t xml:space="preserve">2.6553521156311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61419773101807</t>
+    <t xml:space="preserve">2.61419749259949</t>
   </si>
   <si>
     <t xml:space="preserve">2.62314438819885</t>
@@ -899,40 +899,40 @@
     <t xml:space="preserve">2.61240839958191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66608810424805</t>
+    <t xml:space="preserve">2.66608786582947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60167241096497</t>
+    <t xml:space="preserve">2.60167264938354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58020067214966</t>
+    <t xml:space="preserve">2.58020043373108</t>
   </si>
   <si>
     <t xml:space="preserve">2.42095112800598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42274045944214</t>
+    <t xml:space="preserve">2.42274022102356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47105240821838</t>
+    <t xml:space="preserve">2.4710521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43526554107666</t>
+    <t xml:space="preserve">2.43526530265808</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51936364173889</t>
+    <t xml:space="preserve">2.51936388015747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45136976242065</t>
+    <t xml:space="preserve">2.45136952400208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46031594276428</t>
+    <t xml:space="preserve">2.46031618118286</t>
   </si>
   <si>
     <t xml:space="preserve">2.50862765312195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49431347846985</t>
+    <t xml:space="preserve">2.49431324005127</t>
   </si>
   <si>
     <t xml:space="preserve">2.43705487251282</t>
@@ -959,31 +959,31 @@
     <t xml:space="preserve">2.28138399124146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19191813468933</t>
+    <t xml:space="preserve">2.19191789627075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18297123908997</t>
+    <t xml:space="preserve">2.18297147750854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12929201126099</t>
+    <t xml:space="preserve">2.12929177284241</t>
   </si>
   <si>
     <t xml:space="preserve">2.10245180130005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13823843002319</t>
+    <t xml:space="preserve">2.13823866844177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98614597320557</t>
+    <t xml:space="preserve">1.98614609241486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06666564941406</t>
+    <t xml:space="preserve">2.06666541099548</t>
   </si>
   <si>
     <t xml:space="preserve">2.05771899223328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00403904914856</t>
+    <t xml:space="preserve">2.00403952598572</t>
   </si>
   <si>
     <t xml:space="preserve">2.07561206817627</t>
@@ -995,13 +995,13 @@
     <t xml:space="preserve">2.0129861831665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96825313568115</t>
+    <t xml:space="preserve">1.96825277805328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97719967365265</t>
+    <t xml:space="preserve">1.97719955444336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95035982131958</t>
+    <t xml:space="preserve">1.95035970211029</t>
   </si>
   <si>
     <t xml:space="preserve">1.93246650695801</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">2.03087902069092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04877209663391</t>
+    <t xml:space="preserve">2.04877233505249</t>
   </si>
   <si>
     <t xml:space="preserve">2.1587393283844</t>
@@ -1019,10 +1019,10 @@
     <t xml:space="preserve">2.13129758834839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05812001228333</t>
+    <t xml:space="preserve">2.0581202507019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99408984184265</t>
+    <t xml:space="preserve">1.99408972263336</t>
   </si>
   <si>
     <t xml:space="preserve">1.93920648097992</t>
@@ -1034,40 +1034,40 @@
     <t xml:space="preserve">2.11300325393677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08556175231934</t>
+    <t xml:space="preserve">2.08556151390076</t>
   </si>
   <si>
     <t xml:space="preserve">2.03067851066589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01238417625427</t>
+    <t xml:space="preserve">2.01238393783569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94835364818573</t>
+    <t xml:space="preserve">1.94835376739502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98494243621826</t>
+    <t xml:space="preserve">1.98494255542755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95750105381012</t>
+    <t xml:space="preserve">1.95750117301941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9026175737381</t>
+    <t xml:space="preserve">1.90261781215668</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00323677062988</t>
+    <t xml:space="preserve">2.00323700904846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93005907535553</t>
+    <t xml:space="preserve">1.93005919456482</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97579550743103</t>
+    <t xml:space="preserve">1.97579526901245</t>
   </si>
   <si>
     <t xml:space="preserve">2.02153134346008</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07641458511353</t>
+    <t xml:space="preserve">2.07641434669495</t>
   </si>
   <si>
     <t xml:space="preserve">2.09470891952515</t>
@@ -1076,10 +1076,10 @@
     <t xml:space="preserve">1.86602890491486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84773457050323</t>
+    <t xml:space="preserve">1.84773445129395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87517607212067</t>
+    <t xml:space="preserve">1.87517595291138</t>
   </si>
   <si>
     <t xml:space="preserve">1.83858728408813</t>
@@ -1094,10 +1094,10 @@
     <t xml:space="preserve">1.69223201274872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72882091999054</t>
+    <t xml:space="preserve">1.72882080078125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75626242160797</t>
+    <t xml:space="preserve">1.75626254081726</t>
   </si>
   <si>
     <t xml:space="preserve">1.70595288276672</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">1.73796808719635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76540970802307</t>
+    <t xml:space="preserve">1.76540958881378</t>
   </si>
   <si>
     <t xml:space="preserve">1.73339450359344</t>
@@ -1121,13 +1121,13 @@
     <t xml:space="preserve">1.63277530670166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66936421394348</t>
+    <t xml:space="preserve">1.66936409473419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66021692752838</t>
+    <t xml:space="preserve">1.66021680831909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74254155158997</t>
+    <t xml:space="preserve">1.74254167079926</t>
   </si>
   <si>
     <t xml:space="preserve">1.70137929916382</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">1.64192247390747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77455699443817</t>
+    <t xml:space="preserve">1.77455687522888</t>
   </si>
   <si>
     <t xml:space="preserve">1.71510004997253</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">1.65106964111328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71052646636963</t>
+    <t xml:space="preserve">1.71052658557892</t>
   </si>
   <si>
     <t xml:space="preserve">1.65564322471619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62362813949585</t>
+    <t xml:space="preserve">1.62362802028656</t>
   </si>
   <si>
     <t xml:space="preserve">1.48184645175934</t>
@@ -1166,22 +1166,22 @@
     <t xml:space="preserve">1.38122725486755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35378563404083</t>
+    <t xml:space="preserve">1.35378575325012</t>
   </si>
   <si>
     <t xml:space="preserve">1.29890239238739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26231360435486</t>
+    <t xml:space="preserve">1.26231372356415</t>
   </si>
   <si>
     <t xml:space="preserve">1.34921205043793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44068419933319</t>
+    <t xml:space="preserve">1.4406840801239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47727286815643</t>
+    <t xml:space="preserve">1.47727274894714</t>
   </si>
   <si>
     <t xml:space="preserve">1.46355211734772</t>
@@ -1190,16 +1190,16 @@
     <t xml:space="preserve">1.49556732177734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44983124732971</t>
+    <t xml:space="preserve">1.449831366539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44525766372681</t>
+    <t xml:space="preserve">1.4452577829361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4178159236908</t>
+    <t xml:space="preserve">1.41781604290009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50014078617096</t>
+    <t xml:space="preserve">1.50014090538025</t>
   </si>
   <si>
     <t xml:space="preserve">1.50928795337677</t>
@@ -1220,16 +1220,16 @@
     <t xml:space="preserve">1.4269632101059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60075998306274</t>
+    <t xml:space="preserve">1.60076010227203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57789218425751</t>
+    <t xml:space="preserve">1.57789206504822</t>
   </si>
   <si>
     <t xml:space="preserve">1.59618651866913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61448097229004</t>
+    <t xml:space="preserve">1.61448085308075</t>
   </si>
   <si>
     <t xml:space="preserve">1.60990726947784</t>
@@ -1238,22 +1238,22 @@
     <t xml:space="preserve">1.61905443668365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62820160388947</t>
+    <t xml:space="preserve">1.62820172309875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58703935146332</t>
+    <t xml:space="preserve">1.58703923225403</t>
   </si>
   <si>
     <t xml:space="preserve">1.55045056343079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58246576786041</t>
+    <t xml:space="preserve">1.58246564865112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63734889030457</t>
+    <t xml:space="preserve">1.63734877109528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57331848144531</t>
+    <t xml:space="preserve">1.5733186006546</t>
   </si>
   <si>
     <t xml:space="preserve">1.59161281585693</t>
@@ -1404,9 +1404,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.6940826177597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62820172309875</t>
   </si>
   <si>
     <t xml:space="preserve">1.61879014968872</t>
@@ -28912,7 +28909,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1037" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28964,7 +28961,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1039" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29068,7 +29065,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G1043" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29094,7 +29091,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1044" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29146,7 +29143,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1046" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29276,7 +29273,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1051" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29536,7 +29533,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1061" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29562,7 +29559,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1062" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29588,7 +29585,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1063" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29614,7 +29611,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29640,7 +29637,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1065" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29666,7 +29663,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1066" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29692,7 +29689,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1067" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29718,7 +29715,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1068" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29744,7 +29741,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1069" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29770,7 +29767,7 @@
         <v>1.25</v>
       </c>
       <c r="G1070" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29796,7 +29793,7 @@
         <v>1.25</v>
       </c>
       <c r="G1071" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29822,7 +29819,7 @@
         <v>1.25</v>
       </c>
       <c r="G1072" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29848,7 +29845,7 @@
         <v>1.25</v>
       </c>
       <c r="G1073" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30030,7 +30027,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1080" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -30056,7 +30053,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1081" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -30082,7 +30079,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1082" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -30134,7 +30131,7 @@
         <v>1.25</v>
       </c>
       <c r="G1084" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30238,7 +30235,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1088" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30290,7 +30287,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1090" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30342,7 +30339,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1092" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30368,7 +30365,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1093" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30394,7 +30391,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1094" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30420,7 +30417,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1095" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30446,7 +30443,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1096" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30472,7 +30469,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1097" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30498,7 +30495,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1098" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30524,7 +30521,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1099" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30550,7 +30547,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30576,7 +30573,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1101" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30602,7 +30599,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1102" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30628,7 +30625,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1103" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30654,7 +30651,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1104" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30680,7 +30677,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1105" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30706,7 +30703,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30732,7 +30729,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1107" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30758,7 +30755,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1108" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30784,7 +30781,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1109" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30810,7 +30807,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1110" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30836,7 +30833,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1111" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30862,7 +30859,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1112" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30888,7 +30885,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1113" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30914,7 +30911,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1114" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30940,7 +30937,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1115" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30966,7 +30963,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1116" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30992,7 +30989,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1117" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31018,7 +31015,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1118" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31044,7 +31041,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1119" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31070,7 +31067,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1120" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -31096,7 +31093,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1121" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31122,7 +31119,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1122" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31148,7 +31145,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1123" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31174,7 +31171,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1124" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31200,7 +31197,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1125" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31226,7 +31223,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1126" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31252,7 +31249,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1127" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31278,7 +31275,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1128" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31304,7 +31301,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1129" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31330,7 +31327,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1130" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31356,7 +31353,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1131" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31382,7 +31379,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1132" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31408,7 +31405,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1133" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31434,7 +31431,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1134" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31460,7 +31457,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1135" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31486,7 +31483,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1136" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31512,7 +31509,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1137" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31538,7 +31535,7 @@
         <v>1.25</v>
       </c>
       <c r="G1138" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31564,7 +31561,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1139" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31590,7 +31587,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1140" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31616,7 +31613,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1141" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31642,7 +31639,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1142" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31668,7 +31665,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1143" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31694,7 +31691,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31720,7 +31717,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1145" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31746,7 +31743,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1146" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31772,7 +31769,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1147" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31798,7 +31795,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1148" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31824,7 +31821,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1149" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31850,7 +31847,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1150" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31876,7 +31873,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1151" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31902,7 +31899,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1152" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31928,7 +31925,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1153" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31954,7 +31951,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1154" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31980,7 +31977,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1155" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32006,7 +32003,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1156" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -32032,7 +32029,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1157" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32058,7 +32055,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1158" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -32084,7 +32081,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1159" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -32110,7 +32107,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1160" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -32136,7 +32133,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1161" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32162,7 +32159,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1162" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32188,7 +32185,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1163" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32214,7 +32211,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1164" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32240,7 +32237,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1165" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32266,7 +32263,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1166" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32292,7 +32289,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1167" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32318,7 +32315,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1168" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32344,7 +32341,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1169" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32370,7 +32367,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1170" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32396,7 +32393,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1171" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32422,7 +32419,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1172" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32448,7 +32445,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1173" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32474,7 +32471,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1174" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32500,7 +32497,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1175" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32526,7 +32523,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1176" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32552,7 +32549,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1177" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32578,7 +32575,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1178" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32604,7 +32601,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1179" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32630,7 +32627,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1180" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32656,7 +32653,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1181" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32682,7 +32679,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1182" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32708,7 +32705,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1183" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32734,7 +32731,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1184" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32760,7 +32757,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1185" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32786,7 +32783,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1186" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -32812,7 +32809,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1187" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -32838,7 +32835,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1188" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -32864,7 +32861,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1189" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -32890,7 +32887,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1190" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -32916,7 +32913,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1191" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -32942,7 +32939,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1192" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -32968,7 +32965,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1193" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -32994,7 +32991,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1194" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33020,7 +33017,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G1195" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33046,7 +33043,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1196" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33072,7 +33069,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33098,7 +33095,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1198" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33124,7 +33121,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1199" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -33150,7 +33147,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G1200" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -33176,7 +33173,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1201" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -33202,7 +33199,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1202" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -33228,7 +33225,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1203" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -33254,7 +33251,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1204" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -33280,7 +33277,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1205" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -33306,7 +33303,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1206" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -33332,7 +33329,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1207" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -33358,7 +33355,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1208" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -33384,7 +33381,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1209" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -33410,7 +33407,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1210" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -33436,7 +33433,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1211" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -33462,7 +33459,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1212" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -33488,7 +33485,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1213" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -33514,7 +33511,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1214" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -33540,7 +33537,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1215" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -33566,7 +33563,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1216" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -33592,7 +33589,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1217" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -33618,7 +33615,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1218" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -33644,7 +33641,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1219" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -33670,7 +33667,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1220" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -33696,7 +33693,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1221" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -33722,7 +33719,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1222" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -33748,7 +33745,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1223" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -33774,7 +33771,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1224" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -33800,7 +33797,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1225" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -33826,7 +33823,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1226" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -33852,7 +33849,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G1227" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -33878,7 +33875,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1228" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -33904,7 +33901,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1229" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -33930,7 +33927,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1230" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -33956,7 +33953,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1231" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -33982,7 +33979,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1232" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34008,7 +34005,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1233" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34034,7 +34031,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1234" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34060,7 +34057,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1235" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -34086,7 +34083,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1236" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -34112,7 +34109,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1237" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34138,7 +34135,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1238" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -34164,7 +34161,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1239" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -34190,7 +34187,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1240" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -34216,7 +34213,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1241" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -34242,7 +34239,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1242" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -34268,7 +34265,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1243" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -34294,7 +34291,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1244" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -34320,7 +34317,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1245" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34346,7 +34343,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1246" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34372,7 +34369,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1247" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -34398,7 +34395,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1248" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -34424,7 +34421,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1249" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -34450,7 +34447,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1250" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -34476,7 +34473,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1251" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -34502,7 +34499,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1252" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -34528,7 +34525,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1253" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -34554,7 +34551,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1254" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -34580,7 +34577,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1255" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -34606,7 +34603,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1256" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -34632,7 +34629,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1257" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -34658,7 +34655,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1258" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -34684,7 +34681,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1259" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -34710,7 +34707,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1260" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -34736,7 +34733,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1261" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -34762,7 +34759,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1262" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -34788,7 +34785,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1263" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -34814,7 +34811,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1264" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -34840,7 +34837,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1265" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -34866,7 +34863,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1266" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -34892,7 +34889,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1267" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -34918,7 +34915,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1268" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -34944,7 +34941,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1269" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -34970,7 +34967,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1270" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -34996,7 +34993,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1271" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35022,7 +35019,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1272" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35048,7 +35045,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1273" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35074,7 +35071,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1274" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -35100,7 +35097,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1275" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35126,7 +35123,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1276" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -35152,7 +35149,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1277" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35178,7 +35175,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1278" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35204,7 +35201,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1279" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35230,7 +35227,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1280" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -35256,7 +35253,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1281" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -35282,7 +35279,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1282" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35308,7 +35305,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1283" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35334,7 +35331,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1284" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35360,7 +35357,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1285" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35386,7 +35383,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1286" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35412,7 +35409,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1287" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35438,7 +35435,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1288" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35464,7 +35461,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1289" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -35490,7 +35487,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1290" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35516,7 +35513,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1291" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35542,7 +35539,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1292" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -35568,7 +35565,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1293" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35594,7 +35591,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1294" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35620,7 +35617,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1295" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35646,7 +35643,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1296" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35672,7 +35669,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1297" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35698,7 +35695,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1298" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35724,7 +35721,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1299" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35750,7 +35747,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1300" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35776,7 +35773,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1301" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35802,7 +35799,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1302" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35828,7 +35825,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1303" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35854,7 +35851,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1304" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -35880,7 +35877,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1305" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -35906,7 +35903,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1306" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -35932,7 +35929,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1307" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -35958,7 +35955,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1308" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -35984,7 +35981,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1309" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36010,7 +36007,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1310" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36036,7 +36033,7 @@
         <v>1.25</v>
       </c>
       <c r="G1311" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36062,7 +36059,7 @@
         <v>1.25</v>
       </c>
       <c r="G1312" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36088,7 +36085,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1313" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36114,7 +36111,7 @@
         <v>1.25</v>
       </c>
       <c r="G1314" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36140,7 +36137,7 @@
         <v>1.25</v>
       </c>
       <c r="G1315" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -36166,7 +36163,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1316" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -36192,7 +36189,7 @@
         <v>1.25</v>
       </c>
       <c r="G1317" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36218,7 +36215,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36270,7 +36267,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36296,7 +36293,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1321" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36322,7 +36319,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1322" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36348,7 +36345,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1323" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36374,7 +36371,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1324" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36400,7 +36397,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1325" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36426,7 +36423,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1326" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36452,7 +36449,7 @@
         <v>1.25</v>
       </c>
       <c r="G1327" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36478,7 +36475,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1328" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36504,7 +36501,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1329" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36530,7 +36527,7 @@
         <v>1.25</v>
       </c>
       <c r="G1330" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36556,7 +36553,7 @@
         <v>1.25</v>
       </c>
       <c r="G1331" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36582,7 +36579,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1332" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36608,7 +36605,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1333" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36686,7 +36683,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1336" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36894,7 +36891,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1344" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -36946,7 +36943,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1346" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37102,7 +37099,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1352" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37128,7 +37125,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1353" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37206,7 +37203,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1356" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37232,7 +37229,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1357" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37284,7 +37281,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1359" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37310,7 +37307,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1360" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37362,7 +37359,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1362" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37388,7 +37385,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1363" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37414,7 +37411,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1364" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38038,7 +38035,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1388" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38064,7 +38061,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1389" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38090,7 +38087,7 @@
         <v>1.25</v>
       </c>
       <c r="G1390" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38116,7 +38113,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1391" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38142,7 +38139,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1392" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38194,7 +38191,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1394" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38220,7 +38217,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1395" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38246,7 +38243,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1396" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38272,7 +38269,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1397" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38402,7 +38399,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1402" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38428,7 +38425,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1403" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38454,7 +38451,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38480,7 +38477,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1405" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38506,7 +38503,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1406" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38532,7 +38529,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1407" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38558,7 +38555,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1408" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38584,7 +38581,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1409" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38610,7 +38607,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1410" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38636,7 +38633,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1411" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38662,7 +38659,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1412" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38688,7 +38685,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1413" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38714,7 +38711,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1414" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38740,7 +38737,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1415" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38766,7 +38763,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1416" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38792,7 +38789,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1417" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38818,7 +38815,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1418" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38844,7 +38841,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1419" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -38896,7 +38893,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1421" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -38922,7 +38919,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1422" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -38948,7 +38945,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1423" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -38974,7 +38971,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1424" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39000,7 +38997,7 @@
         <v>1.25</v>
       </c>
       <c r="G1425" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39026,7 +39023,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1426" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39052,7 +39049,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1427" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39078,7 +39075,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1428" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39104,7 +39101,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1429" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39130,7 +39127,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1430" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39156,7 +39153,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1431" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39182,7 +39179,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1432" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39208,7 +39205,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1433" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39312,7 +39309,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1437" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39338,7 +39335,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1438" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39364,7 +39361,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1439" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39390,7 +39387,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1440" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39416,7 +39413,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1441" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39442,7 +39439,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1442" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39468,7 +39465,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1443" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39494,7 +39491,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1444" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39520,7 +39517,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1445" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39546,7 +39543,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1446" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39572,7 +39569,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1447" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39598,7 +39595,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1448" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39624,7 +39621,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1449" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39650,7 +39647,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1450" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39676,7 +39673,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1451" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39702,7 +39699,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1452" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39728,7 +39725,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1453" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39754,7 +39751,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1454" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39780,7 +39777,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1455" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39806,7 +39803,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1456" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39832,7 +39829,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1457" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40014,7 +40011,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1464" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40092,7 +40089,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1467" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40118,7 +40115,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1468" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40378,7 +40375,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G1478" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41054,7 +41051,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1504" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41366,7 +41363,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1516" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41444,7 +41441,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1519" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41470,7 +41467,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1520" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41496,7 +41493,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1521" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41522,7 +41519,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1522" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41626,7 +41623,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1526" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41652,7 +41649,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1527" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41756,7 +41753,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1531" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41782,7 +41779,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1532" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41964,7 +41961,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1539" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42016,7 +42013,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1541" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42120,7 +42117,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1545" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42172,7 +42169,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1547" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42198,7 +42195,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1548" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42224,7 +42221,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1549" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42250,7 +42247,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1550" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42276,7 +42273,7 @@
         <v>1.25</v>
       </c>
       <c r="G1551" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42302,7 +42299,7 @@
         <v>1.25</v>
       </c>
       <c r="G1552" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42328,7 +42325,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1553" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42354,7 +42351,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1554" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42380,7 +42377,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1555" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42406,7 +42403,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1556" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42432,7 +42429,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1557" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42458,7 +42455,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1558" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42484,7 +42481,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1559" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42510,7 +42507,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1560" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42536,7 +42533,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1561" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42562,7 +42559,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1562" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42640,7 +42637,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1565" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42666,7 +42663,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1566" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42692,7 +42689,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1567" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42718,7 +42715,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1568" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42744,7 +42741,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1569" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42770,7 +42767,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1570" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42796,7 +42793,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1571" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42822,7 +42819,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1572" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42848,7 +42845,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1573" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -42874,7 +42871,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1574" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -42900,7 +42897,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1575" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -42926,7 +42923,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1576" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -42952,7 +42949,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1577" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -42978,7 +42975,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1578" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43004,7 +43001,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1579" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43030,7 +43027,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1580" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43056,7 +43053,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1581" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43082,7 +43079,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1582" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43108,7 +43105,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1583" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43134,7 +43131,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1584" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43160,7 +43157,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1585" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43186,7 +43183,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1586" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43212,7 +43209,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1587" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43368,7 +43365,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1593" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43394,7 +43391,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1594" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43446,7 +43443,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1596" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43472,7 +43469,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1597" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43524,7 +43521,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1599" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43628,7 +43625,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1603" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43654,7 +43651,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1604" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43680,7 +43677,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1605" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43706,7 +43703,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1606" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43732,7 +43729,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1607" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43758,7 +43755,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1608" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43784,7 +43781,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1609" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43862,7 +43859,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1612" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -43888,7 +43885,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1613" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43914,7 +43911,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1614" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43940,7 +43937,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1615" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -43966,7 +43963,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1616" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44018,7 +44015,7 @@
         <v>1.25</v>
       </c>
       <c r="G1618" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44044,7 +44041,7 @@
         <v>1.25</v>
       </c>
       <c r="G1619" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44070,7 +44067,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1620" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44096,7 +44093,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1621" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44148,7 +44145,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1623" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44278,7 +44275,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1628" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44330,7 +44327,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1630" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44460,7 +44457,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1635" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44486,7 +44483,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44512,7 +44509,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1637" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44538,7 +44535,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1638" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44564,7 +44561,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1639" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44590,7 +44587,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1640" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44616,7 +44613,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1641" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44642,7 +44639,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1642" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44850,7 +44847,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44902,7 +44899,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1652" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44928,7 +44925,7 @@
         <v>1.25</v>
       </c>
       <c r="G1653" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44954,7 +44951,7 @@
         <v>1.25</v>
       </c>
       <c r="G1654" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44980,7 +44977,7 @@
         <v>1.25</v>
       </c>
       <c r="G1655" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45006,7 +45003,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1656" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45032,7 +45029,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1657" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45058,7 +45055,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1658" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45084,7 +45081,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1659" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45110,7 +45107,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1660" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45136,7 +45133,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1661" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45162,7 +45159,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1662" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45188,7 +45185,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1663" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45214,7 +45211,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1664" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45266,7 +45263,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1666" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45292,7 +45289,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1667" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45318,7 +45315,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1668" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45344,7 +45341,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1669" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45396,7 +45393,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1671" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45422,7 +45419,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1672" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45474,7 +45471,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1674" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45526,7 +45523,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1676" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45578,7 +45575,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45656,7 +45653,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1681" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45708,7 +45705,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1683" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45734,7 +45731,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1684" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45760,7 +45757,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1685" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45838,7 +45835,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1688" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45994,7 +45991,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1694" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46020,7 +46017,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1695" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46046,7 +46043,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1696" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46072,7 +46069,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46124,7 +46121,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1699" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46176,7 +46173,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1701" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46306,7 +46303,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1706" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46358,7 +46355,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1708" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46462,7 +46459,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1712" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46514,7 +46511,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1714" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46540,7 +46537,7 @@
         <v>1.25</v>
       </c>
       <c r="G1715" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46566,7 +46563,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1716" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46592,7 +46589,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1717" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46618,7 +46615,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1718" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46644,7 +46641,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1719" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46670,7 +46667,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1720" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46696,7 +46693,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1721" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46722,7 +46719,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1722" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46748,7 +46745,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1723" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46800,7 +46797,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1725" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46826,7 +46823,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1726" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46852,7 +46849,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46982,7 +46979,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1732" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47034,7 +47031,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1734" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47060,7 +47057,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1735" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47242,7 +47239,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1742" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47268,7 +47265,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1743" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47294,7 +47291,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1744" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47320,7 +47317,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1745" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47346,7 +47343,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1746" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47372,7 +47369,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1747" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47398,7 +47395,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1748" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47424,7 +47421,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1749" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47450,7 +47447,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1750" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47476,7 +47473,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1751" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47502,7 +47499,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1752" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47528,7 +47525,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1753" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47554,7 +47551,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1754" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47580,7 +47577,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1755" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47736,7 +47733,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1761" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47788,7 +47785,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47840,7 +47837,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1765" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47866,7 +47863,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1766" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47892,7 +47889,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1767" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47918,7 +47915,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1768" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47944,7 +47941,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1769" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48074,7 +48071,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1774" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48100,7 +48097,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1775" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48230,7 +48227,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1780" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48334,7 +48331,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1784" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48360,7 +48357,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1785" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48386,7 +48383,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1786" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48412,7 +48409,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1787" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48438,7 +48435,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1788" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48464,7 +48461,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1789" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48516,7 +48513,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1791" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48542,7 +48539,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1792" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48776,7 +48773,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1801" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48802,7 +48799,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1802" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48828,7 +48825,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1803" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48854,7 +48851,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1804" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48880,7 +48877,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1805" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48906,7 +48903,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1806" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48932,7 +48929,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1807" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48958,7 +48955,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1808" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48984,7 +48981,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1809" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49010,7 +49007,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1810" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49036,7 +49033,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1811" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49062,7 +49059,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1812" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49088,7 +49085,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1813" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49166,7 +49163,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1816" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49192,7 +49189,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1817" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49218,7 +49215,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1818" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49244,7 +49241,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1819" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49270,7 +49267,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1820" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49296,7 +49293,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1821" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49322,7 +49319,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1822" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49348,7 +49345,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1823" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49374,7 +49371,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1824" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49400,7 +49397,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1825" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49426,7 +49423,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1826" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49452,7 +49449,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1827" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49478,7 +49475,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1828" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49504,7 +49501,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1829" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49530,7 +49527,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1830" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49556,7 +49553,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1831" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49582,7 +49579,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1832" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49608,7 +49605,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1833" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49634,7 +49631,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1834" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49660,7 +49657,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1835" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49686,7 +49683,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1836" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49712,7 +49709,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1837" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49738,7 +49735,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1838" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49764,7 +49761,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1839" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49790,7 +49787,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49816,7 +49813,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1841" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49842,7 +49839,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1842" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49868,7 +49865,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1843" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49894,7 +49891,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1844" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49920,7 +49917,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1845" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49946,7 +49943,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1846" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49972,7 +49969,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1847" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49998,7 +49995,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1848" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50024,7 +50021,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1849" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50050,7 +50047,7 @@
         <v>1.25</v>
       </c>
       <c r="G1850" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50076,7 +50073,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1851" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50232,7 +50229,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1857" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50284,7 +50281,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1859" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50336,7 +50333,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1861" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50492,7 +50489,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1867" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50518,7 +50515,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1868" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50700,7 +50697,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1875" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50726,7 +50723,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1876" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50752,7 +50749,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1877" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50778,7 +50775,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1878" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50804,7 +50801,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1879" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50830,7 +50827,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G1880" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50856,7 +50853,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1881" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50882,7 +50879,7 @@
         <v>1.37000000476837</v>
       </c>
       <c r="G1882" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50908,7 +50905,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1883" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50934,7 +50931,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1884" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50960,7 +50957,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1885" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50986,7 +50983,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1886" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51012,7 +51009,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1887" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51038,7 +51035,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1888" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51064,7 +51061,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1889" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51090,7 +51087,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1890" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51116,7 +51113,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1891" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51142,7 +51139,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1892" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51168,7 +51165,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1893" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51194,7 +51191,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1894" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51220,7 +51217,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1895" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51246,7 +51243,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1896" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51272,7 +51269,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1897" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51298,7 +51295,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1898" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51324,7 +51321,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1899" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51350,7 +51347,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1900" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51376,7 +51373,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1901" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51402,7 +51399,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1902" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51428,7 +51425,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G1903" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51454,7 +51451,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1904" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51480,7 +51477,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1905" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51506,7 +51503,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1906" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51532,7 +51529,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G1907" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51558,7 +51555,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1908" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51584,7 +51581,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G1909" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51610,7 +51607,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1910" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51636,7 +51633,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G1911" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51662,7 +51659,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1912" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51688,7 +51685,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1913" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51714,7 +51711,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51740,7 +51737,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1915" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51766,7 +51763,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1916" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51792,7 +51789,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1917" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51818,7 +51815,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51844,7 +51841,7 @@
         <v>1.25</v>
       </c>
       <c r="G1919" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51870,7 +51867,7 @@
         <v>1.25</v>
       </c>
       <c r="G1920" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51896,7 +51893,7 @@
         <v>1.25</v>
       </c>
       <c r="G1921" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51922,7 +51919,7 @@
         <v>1.25</v>
       </c>
       <c r="G1922" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51948,7 +51945,7 @@
         <v>1.25</v>
       </c>
       <c r="G1923" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51974,7 +51971,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1924" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52000,7 +51997,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1925" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52026,7 +52023,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1926" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52052,7 +52049,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1927" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52078,7 +52075,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1928" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52104,7 +52101,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1929" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52130,7 +52127,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1930" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52156,7 +52153,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1931" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52182,7 +52179,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1932" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52208,7 +52205,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52234,7 +52231,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1934" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52260,7 +52257,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1935" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52286,7 +52283,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1936" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52312,7 +52309,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1937" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52338,7 +52335,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1938" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52364,7 +52361,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1939" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52390,7 +52387,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1940" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52416,7 +52413,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1941" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52442,7 +52439,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1942" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52468,7 +52465,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1943" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52494,7 +52491,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1944" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52520,7 +52517,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1945" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52546,7 +52543,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1946" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52572,7 +52569,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1947" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52598,7 +52595,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1948" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52624,7 +52621,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1949" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52650,7 +52647,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1950" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52676,7 +52673,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1951" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52702,7 +52699,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1952" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52728,7 +52725,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1953" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52754,7 +52751,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1954" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52780,7 +52777,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1955" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52806,7 +52803,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1956" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52832,7 +52829,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1957" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52858,7 +52855,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1958" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52884,7 +52881,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1959" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52910,7 +52907,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1960" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52936,7 +52933,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1961" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52962,7 +52959,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1962" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52988,7 +52985,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1963" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53014,7 +53011,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53040,7 +53037,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1965" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53066,7 +53063,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1966" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53092,7 +53089,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1967" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53118,7 +53115,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1968" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53144,7 +53141,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1969" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53170,7 +53167,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1970" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53196,7 +53193,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1971" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53222,7 +53219,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1972" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53248,7 +53245,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1973" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53274,7 +53271,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1974" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53300,7 +53297,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1975" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53326,7 +53323,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1976" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53352,7 +53349,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53378,7 +53375,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53404,7 +53401,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1979" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53430,7 +53427,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53456,7 +53453,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53482,7 +53479,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1982" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53508,7 +53505,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53534,7 +53531,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1984" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53560,7 +53557,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1985" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53586,7 +53583,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1986" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53612,7 +53609,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1987" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53638,7 +53635,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1988" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53664,7 +53661,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1989" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53690,7 +53687,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1990" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53716,7 +53713,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1991" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53742,7 +53739,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1992" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53768,7 +53765,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1993" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53794,7 +53791,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1994" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53820,7 +53817,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1995" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53846,7 +53843,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1996" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53872,7 +53869,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1997" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53898,7 +53895,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1998" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53924,7 +53921,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1999" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53950,7 +53947,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2000" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53976,7 +53973,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2001" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54002,7 +53999,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2002" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54028,7 +54025,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G2003" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54054,7 +54051,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G2004" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54080,7 +54077,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2005" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54106,7 +54103,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2006" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54132,7 +54129,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54158,7 +54155,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2008" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54184,7 +54181,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2009" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54210,7 +54207,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2010" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54236,7 +54233,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2011" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54262,7 +54259,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2012" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54288,7 +54285,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2013" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54314,7 +54311,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2014" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54340,7 +54337,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2015" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54366,7 +54363,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2016" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54392,7 +54389,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54418,7 +54415,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2018" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54444,7 +54441,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2019" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54470,7 +54467,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2020" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54496,7 +54493,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2021" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54522,7 +54519,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2022" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54548,7 +54545,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2023" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54574,7 +54571,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2024" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54600,7 +54597,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2025" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54626,7 +54623,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54652,7 +54649,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54678,7 +54675,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2028" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54704,7 +54701,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G2029" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54730,7 +54727,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2030" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54756,7 +54753,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2031" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54782,7 +54779,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2032" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54808,7 +54805,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2033" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54834,7 +54831,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2034" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54860,7 +54857,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2035" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54886,7 +54883,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2036" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54912,7 +54909,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2037" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54938,7 +54935,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2038" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54964,7 +54961,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2039" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54990,7 +54987,7 @@
         <v>1.25</v>
       </c>
       <c r="G2040" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55016,7 +55013,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2041" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55042,7 +55039,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2042" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55068,7 +55065,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2043" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55094,7 +55091,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2044" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55120,7 +55117,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2045" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55146,7 +55143,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2046" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55172,7 +55169,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55198,7 +55195,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2048" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55224,7 +55221,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55250,7 +55247,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2050" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55276,7 +55273,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2051" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55302,7 +55299,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2052" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55328,7 +55325,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2053" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55354,7 +55351,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2054" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55380,7 +55377,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2055" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55406,7 +55403,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2056" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55432,7 +55429,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55458,7 +55455,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2058" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55484,7 +55481,7 @@
         <v>1.25</v>
       </c>
       <c r="G2059" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55510,7 +55507,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2060" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55536,7 +55533,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2061" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55562,7 +55559,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2062" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55588,7 +55585,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2063" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55614,7 +55611,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2064" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55640,7 +55637,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2065" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55666,7 +55663,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2066" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55692,7 +55689,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2067" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55718,7 +55715,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2068" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55744,7 +55741,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2069" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55770,7 +55767,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2070" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55796,7 +55793,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G2071" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55822,7 +55819,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2072" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55848,7 +55845,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2073" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55874,7 +55871,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G2074" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55900,7 +55897,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2075" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55926,7 +55923,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G2076" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55952,7 +55949,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2077" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55978,7 +55975,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2078" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56004,7 +56001,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2079" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56030,7 +56027,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2080" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56056,7 +56053,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56082,7 +56079,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2082" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56108,7 +56105,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2083" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56134,7 +56131,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2084" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56160,7 +56157,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2085" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56186,7 +56183,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2086" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56212,7 +56209,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56238,7 +56235,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2088" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56264,7 +56261,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2089" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56290,7 +56287,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2090" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56316,7 +56313,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2091" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56342,7 +56339,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2092" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56368,7 +56365,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2093" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56394,7 +56391,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2094" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56420,7 +56417,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2095" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56446,7 +56443,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2096" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56472,7 +56469,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2097" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56498,7 +56495,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2098" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56524,7 +56521,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2099" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56550,7 +56547,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2100" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56576,7 +56573,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2101" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56602,7 +56599,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2102" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56628,7 +56625,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2103" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56654,7 +56651,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2104" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56680,7 +56677,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2105" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56706,7 +56703,7 @@
         <v>1.25</v>
       </c>
       <c r="G2106" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56732,7 +56729,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2107" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56758,7 +56755,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2108" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56784,7 +56781,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2109" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56810,7 +56807,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2110" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56836,7 +56833,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2111" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56862,7 +56859,7 @@
         <v>1.25</v>
       </c>
       <c r="G2112" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56888,7 +56885,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2113" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56914,7 +56911,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2114" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56940,7 +56937,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2115" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56966,7 +56963,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2116" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56992,7 +56989,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2117" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57018,7 +57015,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2118" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57044,7 +57041,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2119" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57070,7 +57067,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2120" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57096,7 +57093,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2121" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57122,7 +57119,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2122" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57148,7 +57145,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2123" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57174,7 +57171,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2124" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57200,7 +57197,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57226,7 +57223,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2126" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57252,7 +57249,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2127" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57278,7 +57275,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2128" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57304,7 +57301,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2129" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57330,7 +57327,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2130" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57356,7 +57353,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2131" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57382,7 +57379,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2132" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57408,7 +57405,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2133" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57434,7 +57431,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2134" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57460,7 +57457,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2135" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57486,7 +57483,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2136" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57512,7 +57509,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2137" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57538,7 +57535,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2138" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57564,7 +57561,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G2139" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57590,7 +57587,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G2140" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57616,7 +57613,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G2141" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57642,7 +57639,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G2142" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57668,7 +57665,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G2143" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57694,7 +57691,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2144" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57720,7 +57717,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G2145" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57746,7 +57743,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2146" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57772,7 +57769,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G2147" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57798,7 +57795,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2148" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57824,7 +57821,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G2149" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57850,7 +57847,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2150" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57876,7 +57873,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G2151" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57902,7 +57899,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2152" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -57928,7 +57925,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2153" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -57954,7 +57951,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G2154" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -57962,7 +57959,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.555625</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>35200</v>
@@ -57974,13 +57971,13 @@
         <v>0.939999997615814</v>
       </c>
       <c r="E2155" t="n">
-        <v>1</v>
+        <v>0.990000009536743</v>
       </c>
       <c r="F2155" t="n">
         <v>0.995000004768372</v>
       </c>
       <c r="G2155" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>

--- a/data/LMG.MI.xlsx
+++ b/data/LMG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,70 +38,70 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53471577167511</t>
+    <t xml:space="preserve">1.53471553325653</t>
   </si>
   <si>
     <t xml:space="preserve">LMG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50033140182495</t>
+    <t xml:space="preserve">1.50033152103424</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55148863792419</t>
+    <t xml:space="preserve">1.55148839950562</t>
   </si>
   <si>
     <t xml:space="preserve">1.50704050064087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439729213715</t>
+    <t xml:space="preserve">1.48439717292786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44246518611908</t>
+    <t xml:space="preserve">1.44246506690979</t>
   </si>
   <si>
     <t xml:space="preserve">1.43575596809387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39214646816254</t>
+    <t xml:space="preserve">1.39214658737183</t>
   </si>
   <si>
     <t xml:space="preserve">1.41646718978882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42569220066071</t>
+    <t xml:space="preserve">1.42569231987</t>
   </si>
   <si>
     <t xml:space="preserve">1.47433352470398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44162631034851</t>
+    <t xml:space="preserve">1.4416264295578</t>
   </si>
   <si>
     <t xml:space="preserve">1.46762430667877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50871777534485</t>
+    <t xml:space="preserve">1.50871789455414</t>
   </si>
   <si>
     <t xml:space="preserve">1.45923793315887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40640354156494</t>
+    <t xml:space="preserve">1.40640342235565</t>
   </si>
   <si>
     <t xml:space="preserve">1.37453508377075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36698734760284</t>
+    <t xml:space="preserve">1.36698722839355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40053296089172</t>
+    <t xml:space="preserve">1.40053284168243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40891933441162</t>
+    <t xml:space="preserve">1.40891921520233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37872838973999</t>
+    <t xml:space="preserve">1.3787282705307</t>
   </si>
   <si>
     <t xml:space="preserve">1.44581961631775</t>
@@ -110,13 +110,13 @@
     <t xml:space="preserve">1.52632939815521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49278366565704</t>
+    <t xml:space="preserve">1.49278354644775</t>
   </si>
   <si>
     <t xml:space="preserve">1.57245457172394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56406819820404</t>
+    <t xml:space="preserve">1.56406831741333</t>
   </si>
   <si>
     <t xml:space="preserve">1.5363929271698</t>
@@ -125,49 +125,49 @@
     <t xml:space="preserve">1.55987501144409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62025737762451</t>
+    <t xml:space="preserve">1.62025713920593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.685671210289</t>
+    <t xml:space="preserve">1.68567132949829</t>
   </si>
   <si>
     <t xml:space="preserve">1.74437630176544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7477308511734</t>
+    <t xml:space="preserve">1.74773108959198</t>
   </si>
   <si>
     <t xml:space="preserve">1.71753978729248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61858010292053</t>
+    <t xml:space="preserve">1.61857974529266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59342062473297</t>
+    <t xml:space="preserve">1.59342074394226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57664787769318</t>
+    <t xml:space="preserve">1.57664775848389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51962029933929</t>
+    <t xml:space="preserve">1.51962018013</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50117003917694</t>
+    <t xml:space="preserve">1.50116991996765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4734947681427</t>
+    <t xml:space="preserve">1.47349464893341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51932430267334</t>
+    <t xml:space="preserve">1.51932418346405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49662160873413</t>
+    <t xml:space="preserve">1.49662172794342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4695531129837</t>
+    <t xml:space="preserve">1.46955323219299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439741134644</t>
+    <t xml:space="preserve">1.48439729213715</t>
   </si>
   <si>
     <t xml:space="preserve">1.49312901496887</t>
@@ -176,28 +176,28 @@
     <t xml:space="preserve">1.49050939083099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47479224205017</t>
+    <t xml:space="preserve">1.47479236125946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46606063842773</t>
+    <t xml:space="preserve">1.46606051921844</t>
   </si>
   <si>
     <t xml:space="preserve">1.42240166664124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41454315185547</t>
+    <t xml:space="preserve">1.41454327106476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43200659751892</t>
+    <t xml:space="preserve">1.43200671672821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39707958698273</t>
+    <t xml:space="preserve">1.39707970619202</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35953319072723</t>
+    <t xml:space="preserve">1.35953307151794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38310885429382</t>
+    <t xml:space="preserve">1.38310897350311</t>
   </si>
   <si>
     <t xml:space="preserve">1.37961626052856</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">1.3534209728241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36215257644653</t>
+    <t xml:space="preserve">1.36215269565582</t>
   </si>
   <si>
     <t xml:space="preserve">1.42327499389648</t>
@@ -218,13 +218,13 @@
     <t xml:space="preserve">1.47391903400421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44073832035065</t>
+    <t xml:space="preserve">1.44073843955994</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38834798336029</t>
+    <t xml:space="preserve">1.38834810256958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32722580432892</t>
+    <t xml:space="preserve">1.32722568511963</t>
   </si>
   <si>
     <t xml:space="preserve">1.30714273452759</t>
@@ -242,10 +242,10 @@
     <t xml:space="preserve">1.28182077407837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29229879379272</t>
+    <t xml:space="preserve">1.29229867458344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28356683254242</t>
+    <t xml:space="preserve">1.28356695175171</t>
   </si>
   <si>
     <t xml:space="preserve">1.23990821838379</t>
@@ -257,10 +257,10 @@
     <t xml:space="preserve">1.27483522891998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2189519405365</t>
+    <t xml:space="preserve">1.21895205974579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2023618221283</t>
+    <t xml:space="preserve">1.20236158370972</t>
   </si>
   <si>
     <t xml:space="preserve">1.19188356399536</t>
@@ -269,43 +269,43 @@
     <t xml:space="preserve">1.22244465351105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17878603935242</t>
+    <t xml:space="preserve">1.17878592014313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16132247447968</t>
+    <t xml:space="preserve">1.16132259368896</t>
   </si>
   <si>
     <t xml:space="preserve">1.09408807754517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07837080955505</t>
+    <t xml:space="preserve">1.07837092876434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06876587867737</t>
+    <t xml:space="preserve">1.06876599788666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08448314666748</t>
+    <t xml:space="preserve">1.08448302745819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1002002954483</t>
+    <t xml:space="preserve">1.10020041465759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13076138496399</t>
+    <t xml:space="preserve">1.1307612657547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11067831516266</t>
+    <t xml:space="preserve">1.11067819595337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11766374111176</t>
+    <t xml:space="preserve">1.11766386032104</t>
   </si>
   <si>
     <t xml:space="preserve">1.08273673057556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05217564105988</t>
+    <t xml:space="preserve">1.05217576026917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02685344219208</t>
+    <t xml:space="preserve">1.02685356140137</t>
   </si>
   <si>
     <t xml:space="preserve">1.04344391822815</t>
@@ -314,10 +314,10 @@
     <t xml:space="preserve">1.05654156208038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04780983924866</t>
+    <t xml:space="preserve">1.04780972003937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999785125255585</t>
+    <t xml:space="preserve">0.999785184860229</t>
   </si>
   <si>
     <t xml:space="preserve">1.0120096206665</t>
@@ -332,40 +332,40 @@
     <t xml:space="preserve">0.903735876083374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993672966957092</t>
+    <t xml:space="preserve">0.993672907352448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951760530471802</t>
+    <t xml:space="preserve">0.951760590076447</t>
   </si>
   <si>
     <t xml:space="preserve">0.938662946224213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935170292854309</t>
+    <t xml:space="preserve">0.935170233249664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909848153591156</t>
+    <t xml:space="preserve">0.909848213195801</t>
   </si>
   <si>
     <t xml:space="preserve">0.948267817497253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991926610469818</t>
+    <t xml:space="preserve">0.991926550865173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956999540328979</t>
+    <t xml:space="preserve">0.956999480724335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960492312908173</t>
+    <t xml:space="preserve">0.960492253303528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00939011573792</t>
+    <t xml:space="preserve">1.00938999652863</t>
   </si>
   <si>
     <t xml:space="preserve">1.00415098667145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10107338428497</t>
+    <t xml:space="preserve">1.10107350349426</t>
   </si>
   <si>
     <t xml:space="preserve">1.03471207618713</t>
@@ -374,10 +374,10 @@
     <t xml:space="preserve">1.03209269046783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04519033432007</t>
+    <t xml:space="preserve">1.04519021511078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03907811641693</t>
+    <t xml:space="preserve">1.03907799720764</t>
   </si>
   <si>
     <t xml:space="preserve">1.03383898735046</t>
@@ -392,10 +392,10 @@
     <t xml:space="preserve">0.982321739196777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03121936321259</t>
+    <t xml:space="preserve">1.03121960163116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01462912559509</t>
+    <t xml:space="preserve">1.0146290063858</t>
   </si>
   <si>
     <t xml:space="preserve">1.01026320457458</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">1.03034627437592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01113653182983</t>
+    <t xml:space="preserve">1.01113641262054</t>
   </si>
   <si>
     <t xml:space="preserve">1.03733158111572</t>
@@ -425,43 +425,43 @@
     <t xml:space="preserve">1.10543918609619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06963920593262</t>
+    <t xml:space="preserve">1.06963908672333</t>
   </si>
   <si>
     <t xml:space="preserve">1.09845399856567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15259087085724</t>
+    <t xml:space="preserve">1.15259075164795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18577134609222</t>
+    <t xml:space="preserve">1.18577146530151</t>
   </si>
   <si>
     <t xml:space="preserve">1.19799590110779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24776685237885</t>
+    <t xml:space="preserve">1.24776673316956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24863994121552</t>
+    <t xml:space="preserve">1.24863982200623</t>
   </si>
   <si>
     <t xml:space="preserve">1.31063544750214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25824499130249</t>
+    <t xml:space="preserve">1.2582448720932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26610362529755</t>
+    <t xml:space="preserve">1.26610350608826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27046942710876</t>
+    <t xml:space="preserve">1.27046930789948</t>
   </si>
   <si>
     <t xml:space="preserve">1.20672762393951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20323491096497</t>
+    <t xml:space="preserve">1.20323479175568</t>
   </si>
   <si>
     <t xml:space="preserve">1.24427402019501</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">1.19624948501587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24340105056763</t>
+    <t xml:space="preserve">1.24340093135834</t>
   </si>
   <si>
     <t xml:space="preserve">1.21371304988861</t>
@@ -500,19 +500,19 @@
     <t xml:space="preserve">1.18751788139343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1770396232605</t>
+    <t xml:space="preserve">1.17703950405121</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17005431652069</t>
+    <t xml:space="preserve">1.17005443572998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2276839017868</t>
+    <t xml:space="preserve">1.22768378257751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4669337272644</t>
+    <t xml:space="preserve">1.46693360805511</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45645546913147</t>
+    <t xml:space="preserve">1.45645558834076</t>
   </si>
   <si>
     <t xml:space="preserve">1.45994830131531</t>
@@ -521,37 +521,37 @@
     <t xml:space="preserve">1.45820188522339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52368998527527</t>
+    <t xml:space="preserve">1.52369010448456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56036329269409</t>
+    <t xml:space="preserve">1.56036341190338</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5201975107193</t>
+    <t xml:space="preserve">1.52019739151001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55337810516357</t>
+    <t xml:space="preserve">1.55337798595428</t>
   </si>
   <si>
     <t xml:space="preserve">1.55425107479095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5367876291275</t>
+    <t xml:space="preserve">1.53678774833679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60227584838867</t>
+    <t xml:space="preserve">1.60227572917938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64156866073608</t>
+    <t xml:space="preserve">1.64156854152679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65466618537903</t>
+    <t xml:space="preserve">1.65466630458832</t>
   </si>
   <si>
     <t xml:space="preserve">1.70269107818604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72888600826263</t>
+    <t xml:space="preserve">1.72888624668121</t>
   </si>
   <si>
     <t xml:space="preserve">1.73674464225769</t>
@@ -566,13 +566,13 @@
     <t xml:space="preserve">1.85113048553467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85986232757568</t>
+    <t xml:space="preserve">1.85986244678497</t>
   </si>
   <si>
     <t xml:space="preserve">1.72277402877808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67038357257843</t>
+    <t xml:space="preserve">1.67038345336914</t>
   </si>
   <si>
     <t xml:space="preserve">1.74634969234467</t>
@@ -584,25 +584,25 @@
     <t xml:space="preserve">1.76032054424286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68697381019592</t>
+    <t xml:space="preserve">1.68697369098663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67649555206299</t>
+    <t xml:space="preserve">1.67649567127228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7550812959671</t>
+    <t xml:space="preserve">1.75508141517639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7568279504776</t>
+    <t xml:space="preserve">1.75682759284973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7900083065033</t>
+    <t xml:space="preserve">1.79000818729401</t>
   </si>
   <si>
     <t xml:space="preserve">1.81271088123322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82842814922333</t>
+    <t xml:space="preserve">1.82842791080475</t>
   </si>
   <si>
     <t xml:space="preserve">1.81620359420776</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">1.72801291942596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81795012950897</t>
+    <t xml:space="preserve">1.81795001029968</t>
   </si>
   <si>
     <t xml:space="preserve">1.82510721683502</t>
@@ -626,49 +626,49 @@
     <t xml:space="preserve">1.87878668308258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86089372634888</t>
+    <t xml:space="preserve">1.86089360713959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86984002590179</t>
+    <t xml:space="preserve">1.86984014511108</t>
   </si>
   <si>
     <t xml:space="preserve">2.0398256778717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47641968727112</t>
+    <t xml:space="preserve">2.4764199256897</t>
   </si>
   <si>
     <t xml:space="preserve">2.57662224769592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9470112323761</t>
+    <t xml:space="preserve">2.94701147079468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95237922668457</t>
+    <t xml:space="preserve">2.95237946510315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85396695137024</t>
+    <t xml:space="preserve">2.85396671295166</t>
   </si>
   <si>
     <t xml:space="preserve">2.75913286209106</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58556866645813</t>
+    <t xml:space="preserve">2.58556890487671</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56767535209656</t>
+    <t xml:space="preserve">2.56767559051514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50504922866821</t>
+    <t xml:space="preserve">2.50504875183105</t>
   </si>
   <si>
     <t xml:space="preserve">2.46747303009033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59809398651123</t>
+    <t xml:space="preserve">2.59809374809265</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70187449455261</t>
+    <t xml:space="preserve">2.70187473297119</t>
   </si>
   <si>
     <t xml:space="preserve">2.90764617919922</t>
@@ -677,22 +677,22 @@
     <t xml:space="preserve">2.79134035110474</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60882973670959</t>
+    <t xml:space="preserve">2.60882997512817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56946468353271</t>
+    <t xml:space="preserve">2.56946492195129</t>
   </si>
   <si>
     <t xml:space="preserve">2.5784113407135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54978203773499</t>
+    <t xml:space="preserve">2.54978227615356</t>
   </si>
   <si>
     <t xml:space="preserve">2.52473163604736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55872893333435</t>
+    <t xml:space="preserve">2.55872869491577</t>
   </si>
   <si>
     <t xml:space="preserve">2.63924813270569</t>
@@ -701,13 +701,13 @@
     <t xml:space="preserve">2.68398118019104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59451508522034</t>
+    <t xml:space="preserve">2.59451532363892</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5408353805542</t>
+    <t xml:space="preserve">2.54083561897278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56230735778809</t>
+    <t xml:space="preserve">2.56230759620667</t>
   </si>
   <si>
     <t xml:space="preserve">2.56409668922424</t>
@@ -716,10 +716,10 @@
     <t xml:space="preserve">2.64640545845032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56588578224182</t>
+    <t xml:space="preserve">2.56588649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58199000358582</t>
+    <t xml:space="preserve">2.58198976516724</t>
   </si>
   <si>
     <t xml:space="preserve">2.6732451915741</t>
@@ -728,10 +728,10 @@
     <t xml:space="preserve">2.52294230461121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48536682128906</t>
+    <t xml:space="preserve">2.48536658287048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53188872337341</t>
+    <t xml:space="preserve">2.53188896179199</t>
   </si>
   <si>
     <t xml:space="preserve">2.48715567588806</t>
@@ -740,10 +740,10 @@
     <t xml:space="preserve">2.43347644805908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41916179656982</t>
+    <t xml:space="preserve">2.41916155815125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37979674339294</t>
+    <t xml:space="preserve">2.37979698181152</t>
   </si>
   <si>
     <t xml:space="preserve">2.42989778518677</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">2.41379380226135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36548233032227</t>
+    <t xml:space="preserve">2.36548209190369</t>
   </si>
   <si>
     <t xml:space="preserve">2.21875786781311</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">2.21338987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15792083740234</t>
+    <t xml:space="preserve">2.15792107582092</t>
   </si>
   <si>
     <t xml:space="preserve">2.14718508720398</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">2.15613174438477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17402458190918</t>
+    <t xml:space="preserve">2.17402505874634</t>
   </si>
   <si>
     <t xml:space="preserve">2.19012880325317</t>
@@ -791,25 +791,25 @@
     <t xml:space="preserve">2.09529447555542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14002776145935</t>
+    <t xml:space="preserve">2.14002752304077</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11139869689941</t>
+    <t xml:space="preserve">2.11139845848083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30285573005676</t>
+    <t xml:space="preserve">2.30285596847534</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27064800262451</t>
+    <t xml:space="preserve">2.27064824104309</t>
   </si>
   <si>
     <t xml:space="preserve">2.1722354888916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19549679756165</t>
+    <t xml:space="preserve">2.19549655914307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25275468826294</t>
+    <t xml:space="preserve">2.25275492668152</t>
   </si>
   <si>
     <t xml:space="preserve">2.2366509437561</t>
@@ -818,16 +818,16 @@
     <t xml:space="preserve">2.2151792049408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24738693237305</t>
+    <t xml:space="preserve">2.24738717079163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24559760093689</t>
+    <t xml:space="preserve">2.24559783935547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26349067687988</t>
+    <t xml:space="preserve">2.26349091529846</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37621808052063</t>
+    <t xml:space="preserve">2.37621784210205</t>
   </si>
   <si>
     <t xml:space="preserve">2.31717038154602</t>
@@ -842,37 +842,37 @@
     <t xml:space="preserve">2.33506369590759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31895971298218</t>
+    <t xml:space="preserve">2.31895995140076</t>
   </si>
   <si>
     <t xml:space="preserve">2.26528024673462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28496241569519</t>
+    <t xml:space="preserve">2.28496265411377</t>
   </si>
   <si>
     <t xml:space="preserve">2.32611703872681</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3440101146698</t>
+    <t xml:space="preserve">2.34401035308838</t>
   </si>
   <si>
     <t xml:space="preserve">2.44242286682129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35116767883301</t>
+    <t xml:space="preserve">2.35116744041443</t>
   </si>
   <si>
     <t xml:space="preserve">2.369060754776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37085032463074</t>
+    <t xml:space="preserve">2.37085008621216</t>
   </si>
   <si>
     <t xml:space="preserve">2.29748797416687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30464506149292</t>
+    <t xml:space="preserve">2.3046452999115</t>
   </si>
   <si>
     <t xml:space="preserve">2.38695406913757</t>
@@ -881,7 +881,7 @@
     <t xml:space="preserve">2.29927730560303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34222078323364</t>
+    <t xml:space="preserve">2.34222102165222</t>
   </si>
   <si>
     <t xml:space="preserve">2.54262495040894</t>
@@ -890,22 +890,22 @@
     <t xml:space="preserve">2.6553521156311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61419749259949</t>
+    <t xml:space="preserve">2.61419773101807</t>
   </si>
   <si>
     <t xml:space="preserve">2.62314438819885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61240839958191</t>
+    <t xml:space="preserve">2.61240863800049</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66608786582947</t>
+    <t xml:space="preserve">2.66608810424805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60167264938354</t>
+    <t xml:space="preserve">2.60167241096497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58020043373108</t>
+    <t xml:space="preserve">2.58020067214966</t>
   </si>
   <si>
     <t xml:space="preserve">2.42095112800598</t>
@@ -917,16 +917,16 @@
     <t xml:space="preserve">2.4710521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43526530265808</t>
+    <t xml:space="preserve">2.43526554107666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51936388015747</t>
+    <t xml:space="preserve">2.51936364173889</t>
   </si>
   <si>
     <t xml:space="preserve">2.45136952400208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46031618118286</t>
+    <t xml:space="preserve">2.46031594276428</t>
   </si>
   <si>
     <t xml:space="preserve">2.50862765312195</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">2.43705487251282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4066367149353</t>
+    <t xml:space="preserve">2.40663647651672</t>
   </si>
   <si>
     <t xml:space="preserve">2.49252390861511</t>
@@ -947,19 +947,19 @@
     <t xml:space="preserve">2.41558313369751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29390907287598</t>
+    <t xml:space="preserve">2.29390931129456</t>
   </si>
   <si>
     <t xml:space="preserve">2.2277045249939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20623254776001</t>
+    <t xml:space="preserve">2.20623278617859</t>
   </si>
   <si>
     <t xml:space="preserve">2.28138399124146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19191789627075</t>
+    <t xml:space="preserve">2.19191813468933</t>
   </si>
   <si>
     <t xml:space="preserve">2.18297147750854</t>
@@ -968,22 +968,22 @@
     <t xml:space="preserve">2.12929177284241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10245180130005</t>
+    <t xml:space="preserve">2.10245156288147</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13823866844177</t>
+    <t xml:space="preserve">2.13823819160461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98614609241486</t>
+    <t xml:space="preserve">1.98614621162415</t>
   </si>
   <si>
     <t xml:space="preserve">2.06666541099548</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05771899223328</t>
+    <t xml:space="preserve">2.0577187538147</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00403952598572</t>
+    <t xml:space="preserve">2.00403928756714</t>
   </si>
   <si>
     <t xml:space="preserve">2.07561206817627</t>
@@ -992,25 +992,25 @@
     <t xml:space="preserve">1.99509274959564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0129861831665</t>
+    <t xml:space="preserve">2.01298594474792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96825277805328</t>
+    <t xml:space="preserve">1.96825289726257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97719955444336</t>
+    <t xml:space="preserve">1.97719967365265</t>
   </si>
   <si>
     <t xml:space="preserve">1.95035970211029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93246650695801</t>
+    <t xml:space="preserve">1.9324666261673</t>
   </si>
   <si>
     <t xml:space="preserve">2.03087902069092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04877233505249</t>
+    <t xml:space="preserve">2.04877209663391</t>
   </si>
   <si>
     <t xml:space="preserve">2.1587393283844</t>
@@ -1019,40 +1019,40 @@
     <t xml:space="preserve">2.13129758834839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0581202507019</t>
+    <t xml:space="preserve">2.05812001228333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99408972263336</t>
+    <t xml:space="preserve">1.99408960342407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93920648097992</t>
+    <t xml:space="preserve">1.93920636177063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96664810180664</t>
+    <t xml:space="preserve">1.96664822101593</t>
   </si>
   <si>
     <t xml:space="preserve">2.11300325393677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08556151390076</t>
+    <t xml:space="preserve">2.08556175231934</t>
   </si>
   <si>
     <t xml:space="preserve">2.03067851066589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01238393783569</t>
+    <t xml:space="preserve">2.01238417625427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94835376739502</t>
+    <t xml:space="preserve">1.94835388660431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98494255542755</t>
+    <t xml:space="preserve">1.98494267463684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95750117301941</t>
+    <t xml:space="preserve">1.95750081539154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90261781215668</t>
+    <t xml:space="preserve">1.9026175737381</t>
   </si>
   <si>
     <t xml:space="preserve">2.00323700904846</t>
@@ -1067,16 +1067,16 @@
     <t xml:space="preserve">2.02153134346008</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07641434669495</t>
+    <t xml:space="preserve">2.07641458511353</t>
   </si>
   <si>
     <t xml:space="preserve">2.09470891952515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86602890491486</t>
+    <t xml:space="preserve">1.86602878570557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84773445129395</t>
+    <t xml:space="preserve">1.84773457050323</t>
   </si>
   <si>
     <t xml:space="preserve">1.87517595291138</t>
@@ -1085,19 +1085,19 @@
     <t xml:space="preserve">1.83858728408813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68765842914581</t>
+    <t xml:space="preserve">1.6876585483551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66479051113129</t>
+    <t xml:space="preserve">1.664790391922</t>
   </si>
   <si>
     <t xml:space="preserve">1.69223201274872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72882080078125</t>
+    <t xml:space="preserve">1.72882091999054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75626254081726</t>
+    <t xml:space="preserve">1.75626242160797</t>
   </si>
   <si>
     <t xml:space="preserve">1.70595288276672</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">1.73796808719635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76540958881378</t>
+    <t xml:space="preserve">1.76540970802307</t>
   </si>
   <si>
     <t xml:space="preserve">1.73339450359344</t>
@@ -1115,16 +1115,16 @@
     <t xml:space="preserve">1.64649605751038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67393779754639</t>
+    <t xml:space="preserve">1.6739376783371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63277530670166</t>
+    <t xml:space="preserve">1.63277518749237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66936409473419</t>
+    <t xml:space="preserve">1.66936421394348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66021680831909</t>
+    <t xml:space="preserve">1.66021692752838</t>
   </si>
   <si>
     <t xml:space="preserve">1.74254167079926</t>
@@ -1136,28 +1136,28 @@
     <t xml:space="preserve">1.64192247390747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77455687522888</t>
+    <t xml:space="preserve">1.77455699443817</t>
   </si>
   <si>
     <t xml:space="preserve">1.71510004997253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6830849647522</t>
+    <t xml:space="preserve">1.68308484554291</t>
   </si>
   <si>
     <t xml:space="preserve">1.65106964111328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71052658557892</t>
+    <t xml:space="preserve">1.71052646636963</t>
   </si>
   <si>
     <t xml:space="preserve">1.65564322471619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62362802028656</t>
+    <t xml:space="preserve">1.62362813949585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48184645175934</t>
+    <t xml:space="preserve">1.48184633255005</t>
   </si>
   <si>
     <t xml:space="preserve">1.48642003536224</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">1.38122725486755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35378575325012</t>
+    <t xml:space="preserve">1.35378563404083</t>
   </si>
   <si>
     <t xml:space="preserve">1.29890239238739</t>
@@ -1178,10 +1178,10 @@
     <t xml:space="preserve">1.34921205043793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4406840801239</t>
+    <t xml:space="preserve">1.44068419933319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47727274894714</t>
+    <t xml:space="preserve">1.47727286815643</t>
   </si>
   <si>
     <t xml:space="preserve">1.46355211734772</t>
@@ -1190,25 +1190,25 @@
     <t xml:space="preserve">1.49556732177734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.449831366539</t>
+    <t xml:space="preserve">1.44983124732971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4452577829361</t>
+    <t xml:space="preserve">1.44525766372681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41781604290009</t>
+    <t xml:space="preserve">1.4178159236908</t>
   </si>
   <si>
     <t xml:space="preserve">1.50014090538025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50928795337677</t>
+    <t xml:space="preserve">1.50928807258606</t>
   </si>
   <si>
     <t xml:space="preserve">1.50471448898315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51386165618896</t>
+    <t xml:space="preserve">1.51386153697968</t>
   </si>
   <si>
     <t xml:space="preserve">1.45440483093262</t>
@@ -1220,16 +1220,16 @@
     <t xml:space="preserve">1.4269632101059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60076010227203</t>
+    <t xml:space="preserve">1.60075998306274</t>
   </si>
   <si>
     <t xml:space="preserve">1.57789206504822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59618651866913</t>
+    <t xml:space="preserve">1.59618639945984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61448085308075</t>
+    <t xml:space="preserve">1.61448097229004</t>
   </si>
   <si>
     <t xml:space="preserve">1.60990726947784</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">1.61905443668365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62820172309875</t>
+    <t xml:space="preserve">1.62820160388947</t>
   </si>
   <si>
     <t xml:space="preserve">1.58703923225403</t>
@@ -1247,16 +1247,16 @@
     <t xml:space="preserve">1.55045056343079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58246564865112</t>
+    <t xml:space="preserve">1.58246576786041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63734877109528</t>
+    <t xml:space="preserve">1.63734889030457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5733186006546</t>
+    <t xml:space="preserve">1.57331848144531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59161281585693</t>
+    <t xml:space="preserve">1.59161293506622</t>
   </si>
   <si>
     <t xml:space="preserve">1.5641713142395</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">1.67525947093964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6376131772995</t>
+    <t xml:space="preserve">1.63761329650879</t>
   </si>
   <si>
     <t xml:space="preserve">1.60937857627869</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">1.58114373683929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55290901660919</t>
+    <t xml:space="preserve">1.55290913581848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52467441558838</t>
+    <t xml:space="preserve">1.52467429637909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57173216342926</t>
+    <t xml:space="preserve">1.57173228263855</t>
   </si>
   <si>
     <t xml:space="preserve">1.53408598899841</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">1.46820485591888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44938170909882</t>
+    <t xml:space="preserve">1.44938182830811</t>
   </si>
   <si>
     <t xml:space="preserve">1.43055868148804</t>
@@ -1322,67 +1322,67 @@
     <t xml:space="preserve">1.40232396125793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37408924102783</t>
+    <t xml:space="preserve">1.37408936023712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34585440158844</t>
+    <t xml:space="preserve">1.34585452079773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31761980056763</t>
+    <t xml:space="preserve">1.31761991977692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29879665374756</t>
+    <t xml:space="preserve">1.29879677295685</t>
   </si>
   <si>
     <t xml:space="preserve">1.24232733249664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23291575908661</t>
+    <t xml:space="preserve">1.23291563987732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22350418567657</t>
+    <t xml:space="preserve">1.22350406646729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27997362613678</t>
+    <t xml:space="preserve">1.27997350692749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27056205272675</t>
+    <t xml:space="preserve">1.27056193351746</t>
   </si>
   <si>
     <t xml:space="preserve">1.3364429473877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35526609420776</t>
+    <t xml:space="preserve">1.35526621341705</t>
   </si>
   <si>
     <t xml:space="preserve">1.421147108078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43997013568878</t>
+    <t xml:space="preserve">1.43997025489807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3646776676178</t>
+    <t xml:space="preserve">1.36467778682709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38350081443787</t>
+    <t xml:space="preserve">1.38350093364716</t>
   </si>
   <si>
     <t xml:space="preserve">1.32703137397766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28938519954681</t>
+    <t xml:space="preserve">1.28938508033752</t>
   </si>
   <si>
     <t xml:space="preserve">1.51526284217834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7223174571991</t>
+    <t xml:space="preserve">1.72231733798981</t>
   </si>
   <si>
     <t xml:space="preserve">1.74114048480988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71290588378906</t>
+    <t xml:space="preserve">1.71290576457977</t>
   </si>
   <si>
     <t xml:space="preserve">1.70349419116974</t>
@@ -1406,13 +1406,16 @@
     <t xml:space="preserve">1.6940826177597</t>
   </si>
   <si>
+    <t xml:space="preserve">1.62820172309875</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.61879014968872</t>
   </si>
   <si>
     <t xml:space="preserve">1.65643632411957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76937520503998</t>
+    <t xml:space="preserve">1.76937532424927</t>
   </si>
   <si>
     <t xml:space="preserve">1.18585789203644</t>
@@ -1421,10 +1424,10 @@
     <t xml:space="preserve">1.16703474521637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21409261226654</t>
+    <t xml:space="preserve">1.21409249305725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20468103885651</t>
+    <t xml:space="preserve">1.20468091964722</t>
   </si>
   <si>
     <t xml:space="preserve">1.1764463186264</t>
@@ -1433,10 +1436,10 @@
     <t xml:space="preserve">1.25173890590668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30820822715759</t>
+    <t xml:space="preserve">1.30820834636688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19526946544647</t>
+    <t xml:space="preserve">1.19526934623718</t>
   </si>
   <si>
     <t xml:space="preserve">1.1482115983963</t>
@@ -1448,7 +1451,7 @@
     <t xml:space="preserve">1.13880002498627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12938857078552</t>
+    <t xml:space="preserve">1.12938845157623</t>
   </si>
   <si>
     <t xml:space="preserve">1.0917421579361</t>
@@ -1469,19 +1472,19 @@
     <t xml:space="preserve">1.07291901111603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03527283668518</t>
+    <t xml:space="preserve">1.03527271747589</t>
   </si>
   <si>
     <t xml:space="preserve">1.05409586429596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01644968986511</t>
+    <t xml:space="preserve">1.01644957065582</t>
   </si>
   <si>
     <t xml:space="preserve">1.04468429088593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00703811645508</t>
+    <t xml:space="preserve">1.00703799724579</t>
   </si>
   <si>
     <t xml:space="preserve">0.969391703605652</t>
@@ -1490,10 +1493,10 @@
     <t xml:space="preserve">0.978803277015686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959980189800262</t>
+    <t xml:space="preserve">0.959980130195618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98821485042572</t>
+    <t xml:space="preserve">0.988214790821075</t>
   </si>
   <si>
     <t xml:space="preserve">0.936451256275177</t>
@@ -1502,19 +1505,19 @@
     <t xml:space="preserve">0.950568616390228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02586126327515</t>
+    <t xml:space="preserve">1.02586114406586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06350743770599</t>
+    <t xml:space="preserve">1.06350755691528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.997626423835754</t>
+    <t xml:space="preserve">0.99762636423111</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26115047931671</t>
+    <t xml:space="preserve">1.26115036010742</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54349744319916</t>
+    <t xml:space="preserve">1.54349756240845</t>
   </si>
   <si>
     <t xml:space="preserve">1.30537188053131</t>
@@ -1614,6 +1617,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.995000004768372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
 </sst>
 </file>
@@ -28909,7 +28915,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1037" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28961,7 +28967,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1039" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29065,7 +29071,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G1043" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29091,7 +29097,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1044" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29143,7 +29149,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1046" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29273,7 +29279,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1051" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29533,7 +29539,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1061" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29559,7 +29565,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1062" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29585,7 +29591,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1063" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29611,7 +29617,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29637,7 +29643,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1065" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29663,7 +29669,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1066" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29689,7 +29695,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1067" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29715,7 +29721,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1068" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29741,7 +29747,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1069" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29767,7 +29773,7 @@
         <v>1.25</v>
       </c>
       <c r="G1070" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29793,7 +29799,7 @@
         <v>1.25</v>
       </c>
       <c r="G1071" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29819,7 +29825,7 @@
         <v>1.25</v>
       </c>
       <c r="G1072" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29845,7 +29851,7 @@
         <v>1.25</v>
       </c>
       <c r="G1073" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30027,7 +30033,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1080" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -30053,7 +30059,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1081" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -30079,7 +30085,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1082" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -30131,7 +30137,7 @@
         <v>1.25</v>
       </c>
       <c r="G1084" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30235,7 +30241,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1088" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30287,7 +30293,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1090" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30339,7 +30345,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1092" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30365,7 +30371,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1093" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30391,7 +30397,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1094" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30417,7 +30423,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1095" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30443,7 +30449,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1096" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30469,7 +30475,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1097" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30495,7 +30501,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1098" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30521,7 +30527,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1099" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30547,7 +30553,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1100" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30573,7 +30579,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1101" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30599,7 +30605,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1102" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30625,7 +30631,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1103" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30651,7 +30657,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1104" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30677,7 +30683,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1105" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30703,7 +30709,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30729,7 +30735,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1107" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30755,7 +30761,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1108" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30781,7 +30787,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1109" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30807,7 +30813,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1110" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30833,7 +30839,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1111" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30859,7 +30865,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1112" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30885,7 +30891,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1113" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30911,7 +30917,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1114" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30937,7 +30943,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1115" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30963,7 +30969,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1116" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30989,7 +30995,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1117" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31015,7 +31021,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1118" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31041,7 +31047,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1119" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31067,7 +31073,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1120" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -31093,7 +31099,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1121" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31119,7 +31125,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1122" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31145,7 +31151,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1123" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31171,7 +31177,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1124" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31197,7 +31203,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1125" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31223,7 +31229,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1126" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31249,7 +31255,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1127" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31275,7 +31281,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1128" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31301,7 +31307,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1129" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31327,7 +31333,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1130" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31353,7 +31359,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1131" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31379,7 +31385,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1132" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31405,7 +31411,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1133" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31431,7 +31437,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1134" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31457,7 +31463,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1135" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31483,7 +31489,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1136" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31509,7 +31515,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1137" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31535,7 +31541,7 @@
         <v>1.25</v>
       </c>
       <c r="G1138" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31561,7 +31567,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1139" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31587,7 +31593,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1140" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31613,7 +31619,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1141" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31639,7 +31645,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1142" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31665,7 +31671,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1143" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31691,7 +31697,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31717,7 +31723,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1145" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31743,7 +31749,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1146" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31769,7 +31775,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1147" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31795,7 +31801,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1148" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31821,7 +31827,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1149" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31847,7 +31853,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1150" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31873,7 +31879,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1151" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31899,7 +31905,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1152" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31925,7 +31931,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1153" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31951,7 +31957,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1154" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31977,7 +31983,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1155" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32003,7 +32009,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1156" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -32029,7 +32035,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1157" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32055,7 +32061,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1158" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -32081,7 +32087,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1159" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -32107,7 +32113,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1160" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -32133,7 +32139,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1161" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32159,7 +32165,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1162" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32185,7 +32191,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1163" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32211,7 +32217,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1164" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32237,7 +32243,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1165" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32263,7 +32269,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1166" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32289,7 +32295,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1167" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32315,7 +32321,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1168" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32341,7 +32347,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1169" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32367,7 +32373,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1170" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32393,7 +32399,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1171" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32419,7 +32425,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1172" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32445,7 +32451,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1173" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32471,7 +32477,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1174" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32497,7 +32503,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1175" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32523,7 +32529,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1176" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32549,7 +32555,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1177" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32575,7 +32581,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1178" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32601,7 +32607,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1179" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32627,7 +32633,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1180" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32653,7 +32659,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1181" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32679,7 +32685,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1182" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32705,7 +32711,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1183" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32731,7 +32737,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1184" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32757,7 +32763,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1185" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32783,7 +32789,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1186" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -32809,7 +32815,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1187" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -32835,7 +32841,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1188" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -32861,7 +32867,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1189" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -32887,7 +32893,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1190" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -32913,7 +32919,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1191" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -32939,7 +32945,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1192" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -32965,7 +32971,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1193" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -32991,7 +32997,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1194" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33017,7 +33023,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G1195" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33043,7 +33049,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1196" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33069,7 +33075,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33095,7 +33101,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1198" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33121,7 +33127,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1199" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -33147,7 +33153,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G1200" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -33173,7 +33179,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1201" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -33199,7 +33205,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1202" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -33225,7 +33231,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1203" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -33251,7 +33257,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1204" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -33277,7 +33283,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1205" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -33303,7 +33309,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1206" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -33329,7 +33335,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1207" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -33355,7 +33361,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1208" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -33381,7 +33387,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1209" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -33407,7 +33413,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1210" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -33433,7 +33439,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1211" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -33459,7 +33465,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1212" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -33485,7 +33491,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1213" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -33511,7 +33517,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1214" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -33537,7 +33543,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1215" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -33563,7 +33569,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1216" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -33589,7 +33595,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1217" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -33615,7 +33621,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1218" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -33641,7 +33647,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1219" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -33667,7 +33673,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1220" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -33693,7 +33699,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1221" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -33719,7 +33725,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1222" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -33745,7 +33751,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1223" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -33771,7 +33777,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1224" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -33797,7 +33803,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1225" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -33823,7 +33829,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1226" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -33849,7 +33855,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G1227" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -33875,7 +33881,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1228" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -33901,7 +33907,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1229" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -33927,7 +33933,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1230" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -33953,7 +33959,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1231" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -33979,7 +33985,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1232" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34005,7 +34011,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1233" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34031,7 +34037,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1234" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34057,7 +34063,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1235" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -34083,7 +34089,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1236" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -34109,7 +34115,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1237" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34135,7 +34141,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1238" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -34161,7 +34167,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1239" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -34187,7 +34193,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1240" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -34213,7 +34219,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1241" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -34239,7 +34245,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1242" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -34265,7 +34271,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1243" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -34291,7 +34297,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1244" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -34317,7 +34323,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1245" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34343,7 +34349,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1246" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34369,7 +34375,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1247" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -34395,7 +34401,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1248" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -34421,7 +34427,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1249" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -34447,7 +34453,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1250" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -34473,7 +34479,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1251" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -34499,7 +34505,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1252" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -34525,7 +34531,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1253" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -34551,7 +34557,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1254" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -34577,7 +34583,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1255" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -34603,7 +34609,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1256" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -34629,7 +34635,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1257" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -34655,7 +34661,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1258" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -34681,7 +34687,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1259" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -34707,7 +34713,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1260" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -34733,7 +34739,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1261" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -34759,7 +34765,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1262" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -34785,7 +34791,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1263" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -34811,7 +34817,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1264" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -34837,7 +34843,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1265" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -34863,7 +34869,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1266" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -34889,7 +34895,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1267" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -34915,7 +34921,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1268" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -34941,7 +34947,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1269" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -34967,7 +34973,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1270" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -34993,7 +34999,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1271" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35019,7 +35025,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1272" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35045,7 +35051,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1273" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35071,7 +35077,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1274" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -35097,7 +35103,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1275" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35123,7 +35129,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1276" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -35149,7 +35155,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1277" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35175,7 +35181,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1278" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35201,7 +35207,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1279" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35227,7 +35233,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1280" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -35253,7 +35259,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1281" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -35279,7 +35285,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1282" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35305,7 +35311,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1283" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35331,7 +35337,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1284" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35357,7 +35363,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1285" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35383,7 +35389,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1286" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35409,7 +35415,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1287" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35435,7 +35441,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1288" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35461,7 +35467,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1289" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -35487,7 +35493,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1290" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35513,7 +35519,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1291" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35539,7 +35545,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1292" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -35565,7 +35571,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1293" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35591,7 +35597,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1294" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35617,7 +35623,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1295" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35643,7 +35649,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1296" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35669,7 +35675,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1297" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35695,7 +35701,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1298" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35721,7 +35727,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1299" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35747,7 +35753,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1300" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35773,7 +35779,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1301" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35799,7 +35805,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1302" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35825,7 +35831,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1303" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35851,7 +35857,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1304" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -35877,7 +35883,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1305" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -35903,7 +35909,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1306" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -35929,7 +35935,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1307" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -35955,7 +35961,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1308" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -35981,7 +35987,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1309" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36007,7 +36013,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1310" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36033,7 +36039,7 @@
         <v>1.25</v>
       </c>
       <c r="G1311" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36059,7 +36065,7 @@
         <v>1.25</v>
       </c>
       <c r="G1312" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36085,7 +36091,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1313" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36111,7 +36117,7 @@
         <v>1.25</v>
       </c>
       <c r="G1314" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36137,7 +36143,7 @@
         <v>1.25</v>
       </c>
       <c r="G1315" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -36163,7 +36169,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1316" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -36189,7 +36195,7 @@
         <v>1.25</v>
       </c>
       <c r="G1317" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36215,7 +36221,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36267,7 +36273,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36293,7 +36299,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1321" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36319,7 +36325,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1322" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36345,7 +36351,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1323" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36371,7 +36377,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1324" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36397,7 +36403,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1325" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36423,7 +36429,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1326" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36449,7 +36455,7 @@
         <v>1.25</v>
       </c>
       <c r="G1327" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36475,7 +36481,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1328" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36501,7 +36507,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1329" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36527,7 +36533,7 @@
         <v>1.25</v>
       </c>
       <c r="G1330" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36553,7 +36559,7 @@
         <v>1.25</v>
       </c>
       <c r="G1331" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36579,7 +36585,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1332" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36605,7 +36611,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1333" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36683,7 +36689,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1336" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36891,7 +36897,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1344" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -36943,7 +36949,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1346" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37099,7 +37105,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1352" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37125,7 +37131,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1353" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37203,7 +37209,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1356" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37229,7 +37235,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1357" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37281,7 +37287,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1359" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37307,7 +37313,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1360" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37359,7 +37365,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1362" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37385,7 +37391,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1363" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37411,7 +37417,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1364" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38035,7 +38041,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1388" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38061,7 +38067,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1389" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38087,7 +38093,7 @@
         <v>1.25</v>
       </c>
       <c r="G1390" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38113,7 +38119,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1391" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38139,7 +38145,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1392" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38191,7 +38197,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1394" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38217,7 +38223,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1395" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38243,7 +38249,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1396" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38269,7 +38275,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1397" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38399,7 +38405,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1402" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38425,7 +38431,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1403" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38451,7 +38457,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38477,7 +38483,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1405" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38503,7 +38509,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1406" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38529,7 +38535,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1407" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38555,7 +38561,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1408" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38581,7 +38587,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1409" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38607,7 +38613,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1410" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38633,7 +38639,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1411" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38659,7 +38665,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1412" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38685,7 +38691,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1413" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38711,7 +38717,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1414" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38737,7 +38743,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1415" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38763,7 +38769,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1416" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38789,7 +38795,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1417" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38815,7 +38821,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1418" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38841,7 +38847,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1419" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -38893,7 +38899,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1421" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -38919,7 +38925,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1422" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -38945,7 +38951,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1423" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -38971,7 +38977,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1424" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -38997,7 +39003,7 @@
         <v>1.25</v>
       </c>
       <c r="G1425" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39023,7 +39029,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1426" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39049,7 +39055,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1427" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39075,7 +39081,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1428" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39101,7 +39107,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1429" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39127,7 +39133,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1430" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39153,7 +39159,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1431" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39179,7 +39185,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1432" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39205,7 +39211,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1433" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39309,7 +39315,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1437" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39335,7 +39341,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1438" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39361,7 +39367,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1439" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39387,7 +39393,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1440" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39413,7 +39419,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1441" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39439,7 +39445,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1442" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39465,7 +39471,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1443" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39491,7 +39497,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1444" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39517,7 +39523,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1445" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39543,7 +39549,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1446" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39569,7 +39575,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1447" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39595,7 +39601,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1448" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39621,7 +39627,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1449" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39647,7 +39653,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1450" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39673,7 +39679,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1451" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39699,7 +39705,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1452" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39725,7 +39731,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1453" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39751,7 +39757,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1454" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39777,7 +39783,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1455" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39803,7 +39809,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1456" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39829,7 +39835,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1457" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40011,7 +40017,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1464" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40089,7 +40095,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1467" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40115,7 +40121,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1468" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40375,7 +40381,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G1478" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41051,7 +41057,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1504" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41363,7 +41369,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1516" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41441,7 +41447,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1519" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41467,7 +41473,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1520" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41493,7 +41499,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1521" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41519,7 +41525,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1522" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41623,7 +41629,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1526" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41649,7 +41655,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1527" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41753,7 +41759,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1531" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41779,7 +41785,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1532" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41961,7 +41967,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1539" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42013,7 +42019,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1541" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42117,7 +42123,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1545" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42169,7 +42175,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1547" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42195,7 +42201,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1548" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42221,7 +42227,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1549" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42247,7 +42253,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1550" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42273,7 +42279,7 @@
         <v>1.25</v>
       </c>
       <c r="G1551" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42299,7 +42305,7 @@
         <v>1.25</v>
       </c>
       <c r="G1552" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42325,7 +42331,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1553" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42351,7 +42357,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1554" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42377,7 +42383,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1555" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42403,7 +42409,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1556" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42429,7 +42435,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1557" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42455,7 +42461,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1558" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42481,7 +42487,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1559" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42507,7 +42513,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1560" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42533,7 +42539,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1561" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42559,7 +42565,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1562" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42637,7 +42643,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1565" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42663,7 +42669,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1566" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42689,7 +42695,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1567" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42715,7 +42721,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1568" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42741,7 +42747,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1569" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42767,7 +42773,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1570" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42793,7 +42799,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1571" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42819,7 +42825,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1572" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42845,7 +42851,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1573" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -42871,7 +42877,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1574" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -42897,7 +42903,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1575" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -42923,7 +42929,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1576" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -42949,7 +42955,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1577" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -42975,7 +42981,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1578" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43001,7 +43007,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1579" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43027,7 +43033,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1580" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43053,7 +43059,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1581" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43079,7 +43085,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1582" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43105,7 +43111,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1583" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43131,7 +43137,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1584" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43157,7 +43163,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1585" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43183,7 +43189,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1586" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43209,7 +43215,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1587" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43365,7 +43371,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1593" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43391,7 +43397,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1594" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43443,7 +43449,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1596" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43469,7 +43475,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1597" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43521,7 +43527,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1599" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43625,7 +43631,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1603" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43651,7 +43657,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1604" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43677,7 +43683,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1605" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43703,7 +43709,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1606" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43729,7 +43735,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1607" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43755,7 +43761,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1608" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43781,7 +43787,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1609" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43859,7 +43865,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1612" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -43885,7 +43891,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1613" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43911,7 +43917,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1614" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43937,7 +43943,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1615" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -43963,7 +43969,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1616" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44015,7 +44021,7 @@
         <v>1.25</v>
       </c>
       <c r="G1618" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44041,7 +44047,7 @@
         <v>1.25</v>
       </c>
       <c r="G1619" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44067,7 +44073,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1620" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44093,7 +44099,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1621" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44145,7 +44151,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1623" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44275,7 +44281,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1628" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44327,7 +44333,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1630" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44457,7 +44463,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1635" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44483,7 +44489,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44509,7 +44515,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1637" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44535,7 +44541,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1638" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44561,7 +44567,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1639" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44587,7 +44593,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1640" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44613,7 +44619,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1641" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44639,7 +44645,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1642" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44847,7 +44853,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44899,7 +44905,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1652" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44925,7 +44931,7 @@
         <v>1.25</v>
       </c>
       <c r="G1653" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44951,7 +44957,7 @@
         <v>1.25</v>
       </c>
       <c r="G1654" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44977,7 +44983,7 @@
         <v>1.25</v>
       </c>
       <c r="G1655" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45003,7 +45009,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1656" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45029,7 +45035,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1657" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45055,7 +45061,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1658" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45081,7 +45087,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1659" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45107,7 +45113,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1660" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45133,7 +45139,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1661" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45159,7 +45165,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1662" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45185,7 +45191,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1663" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45211,7 +45217,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1664" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45263,7 +45269,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1666" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45289,7 +45295,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1667" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45315,7 +45321,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1668" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45341,7 +45347,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1669" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45393,7 +45399,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1671" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45419,7 +45425,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1672" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45471,7 +45477,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1674" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45523,7 +45529,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1676" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45575,7 +45581,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45653,7 +45659,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1681" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45705,7 +45711,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1683" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45731,7 +45737,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1684" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45757,7 +45763,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1685" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45835,7 +45841,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1688" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45991,7 +45997,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1694" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46017,7 +46023,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1695" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46043,7 +46049,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1696" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46069,7 +46075,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46121,7 +46127,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1699" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46173,7 +46179,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1701" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46303,7 +46309,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1706" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46355,7 +46361,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1708" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46459,7 +46465,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1712" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46511,7 +46517,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1714" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46537,7 +46543,7 @@
         <v>1.25</v>
       </c>
       <c r="G1715" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46563,7 +46569,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1716" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46589,7 +46595,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1717" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46615,7 +46621,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1718" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46641,7 +46647,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1719" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46667,7 +46673,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1720" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46693,7 +46699,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1721" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46719,7 +46725,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1722" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46745,7 +46751,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1723" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46797,7 +46803,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1725" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46823,7 +46829,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1726" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46849,7 +46855,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46979,7 +46985,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1732" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47031,7 +47037,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1734" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47057,7 +47063,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1735" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47239,7 +47245,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1742" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47265,7 +47271,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1743" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47291,7 +47297,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1744" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47317,7 +47323,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1745" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47343,7 +47349,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1746" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47369,7 +47375,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1747" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47395,7 +47401,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1748" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47421,7 +47427,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1749" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47447,7 +47453,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1750" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47473,7 +47479,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1751" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47499,7 +47505,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1752" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47525,7 +47531,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1753" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47551,7 +47557,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1754" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47577,7 +47583,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1755" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47733,7 +47739,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1761" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47785,7 +47791,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47837,7 +47843,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1765" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47863,7 +47869,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1766" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47889,7 +47895,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1767" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47915,7 +47921,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1768" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47941,7 +47947,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1769" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48071,7 +48077,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1774" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48097,7 +48103,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1775" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48227,7 +48233,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1780" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48331,7 +48337,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1784" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48357,7 +48363,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1785" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48383,7 +48389,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1786" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48409,7 +48415,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1787" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48435,7 +48441,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1788" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48461,7 +48467,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1789" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48513,7 +48519,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1791" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48539,7 +48545,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1792" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48773,7 +48779,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1801" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48799,7 +48805,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1802" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48825,7 +48831,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1803" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48851,7 +48857,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1804" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48877,7 +48883,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1805" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48903,7 +48909,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1806" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48929,7 +48935,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1807" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48955,7 +48961,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1808" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48981,7 +48987,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1809" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49007,7 +49013,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1810" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49033,7 +49039,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1811" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49059,7 +49065,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1812" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49085,7 +49091,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1813" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49163,7 +49169,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1816" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49189,7 +49195,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1817" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49215,7 +49221,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1818" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49241,7 +49247,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1819" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49267,7 +49273,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1820" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49293,7 +49299,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1821" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49319,7 +49325,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1822" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49345,7 +49351,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1823" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49371,7 +49377,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1824" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49397,7 +49403,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1825" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49423,7 +49429,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1826" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49449,7 +49455,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1827" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49475,7 +49481,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1828" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49501,7 +49507,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1829" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49527,7 +49533,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1830" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49553,7 +49559,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1831" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49579,7 +49585,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1832" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49605,7 +49611,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1833" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49631,7 +49637,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1834" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49657,7 +49663,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1835" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49683,7 +49689,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1836" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49709,7 +49715,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1837" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49735,7 +49741,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1838" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49761,7 +49767,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1839" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49787,7 +49793,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49813,7 +49819,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1841" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49839,7 +49845,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1842" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49865,7 +49871,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1843" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49891,7 +49897,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1844" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49917,7 +49923,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1845" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49943,7 +49949,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1846" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49969,7 +49975,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1847" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49995,7 +50001,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1848" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50021,7 +50027,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1849" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50047,7 +50053,7 @@
         <v>1.25</v>
       </c>
       <c r="G1850" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50073,7 +50079,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1851" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50229,7 +50235,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1857" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50281,7 +50287,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1859" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50333,7 +50339,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1861" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50489,7 +50495,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1867" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50515,7 +50521,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1868" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50697,7 +50703,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1875" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50723,7 +50729,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1876" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50749,7 +50755,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1877" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50775,7 +50781,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1878" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50801,7 +50807,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1879" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50827,7 +50833,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G1880" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50853,7 +50859,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1881" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50879,7 +50885,7 @@
         <v>1.37000000476837</v>
       </c>
       <c r="G1882" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50905,7 +50911,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1883" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50931,7 +50937,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1884" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50957,7 +50963,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1885" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50983,7 +50989,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1886" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51009,7 +51015,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1887" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51035,7 +51041,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1888" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51061,7 +51067,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1889" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51087,7 +51093,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1890" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51113,7 +51119,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1891" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51139,7 +51145,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1892" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51165,7 +51171,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1893" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51191,7 +51197,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1894" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51217,7 +51223,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1895" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51243,7 +51249,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1896" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51269,7 +51275,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1897" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51295,7 +51301,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1898" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51321,7 +51327,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1899" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51347,7 +51353,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1900" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51373,7 +51379,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1901" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51399,7 +51405,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1902" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51425,7 +51431,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G1903" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51451,7 +51457,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1904" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51477,7 +51483,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1905" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51503,7 +51509,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1906" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51529,7 +51535,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G1907" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51555,7 +51561,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1908" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51581,7 +51587,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G1909" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51607,7 +51613,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1910" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51633,7 +51639,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G1911" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51659,7 +51665,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1912" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51685,7 +51691,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1913" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51711,7 +51717,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51737,7 +51743,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1915" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51763,7 +51769,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1916" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51789,7 +51795,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1917" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51815,7 +51821,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51841,7 +51847,7 @@
         <v>1.25</v>
       </c>
       <c r="G1919" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51867,7 +51873,7 @@
         <v>1.25</v>
       </c>
       <c r="G1920" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51893,7 +51899,7 @@
         <v>1.25</v>
       </c>
       <c r="G1921" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51919,7 +51925,7 @@
         <v>1.25</v>
       </c>
       <c r="G1922" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51945,7 +51951,7 @@
         <v>1.25</v>
       </c>
       <c r="G1923" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51971,7 +51977,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1924" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51997,7 +52003,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1925" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52023,7 +52029,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1926" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52049,7 +52055,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1927" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52075,7 +52081,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1928" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52101,7 +52107,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1929" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52127,7 +52133,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1930" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52153,7 +52159,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1931" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52179,7 +52185,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1932" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52205,7 +52211,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52231,7 +52237,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1934" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52257,7 +52263,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1935" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52283,7 +52289,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1936" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52309,7 +52315,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1937" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52335,7 +52341,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1938" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52361,7 +52367,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1939" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52387,7 +52393,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1940" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52413,7 +52419,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1941" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52439,7 +52445,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1942" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52465,7 +52471,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1943" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52491,7 +52497,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1944" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52517,7 +52523,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1945" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52543,7 +52549,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1946" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52569,7 +52575,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1947" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52595,7 +52601,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1948" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52621,7 +52627,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1949" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52647,7 +52653,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1950" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52673,7 +52679,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1951" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52699,7 +52705,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1952" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52725,7 +52731,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1953" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52751,7 +52757,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1954" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52777,7 +52783,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1955" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52803,7 +52809,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1956" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52829,7 +52835,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1957" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52855,7 +52861,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1958" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52881,7 +52887,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1959" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52907,7 +52913,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1960" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52933,7 +52939,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1961" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52959,7 +52965,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1962" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52985,7 +52991,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1963" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53011,7 +53017,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53037,7 +53043,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1965" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53063,7 +53069,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1966" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53089,7 +53095,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1967" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53115,7 +53121,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1968" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53141,7 +53147,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1969" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53167,7 +53173,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1970" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53193,7 +53199,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1971" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53219,7 +53225,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1972" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53245,7 +53251,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1973" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53271,7 +53277,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1974" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53297,7 +53303,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1975" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53323,7 +53329,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1976" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53349,7 +53355,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53375,7 +53381,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53401,7 +53407,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1979" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53427,7 +53433,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53453,7 +53459,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53479,7 +53485,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1982" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53505,7 +53511,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53531,7 +53537,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1984" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53557,7 +53563,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1985" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53583,7 +53589,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1986" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53609,7 +53615,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1987" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53635,7 +53641,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1988" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53661,7 +53667,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1989" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53687,7 +53693,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1990" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53713,7 +53719,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1991" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53739,7 +53745,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1992" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53765,7 +53771,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1993" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53791,7 +53797,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1994" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53817,7 +53823,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1995" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53843,7 +53849,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1996" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53869,7 +53875,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1997" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53895,7 +53901,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1998" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53921,7 +53927,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1999" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53947,7 +53953,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2000" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53973,7 +53979,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2001" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53999,7 +54005,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2002" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54025,7 +54031,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G2003" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54051,7 +54057,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G2004" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54077,7 +54083,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2005" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54103,7 +54109,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2006" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54129,7 +54135,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54155,7 +54161,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2008" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54181,7 +54187,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2009" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54207,7 +54213,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2010" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54233,7 +54239,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2011" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54259,7 +54265,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2012" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54285,7 +54291,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2013" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54311,7 +54317,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2014" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54337,7 +54343,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2015" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54363,7 +54369,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2016" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54389,7 +54395,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54415,7 +54421,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2018" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54441,7 +54447,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2019" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54467,7 +54473,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2020" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54493,7 +54499,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2021" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54519,7 +54525,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2022" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54545,7 +54551,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2023" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54571,7 +54577,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2024" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54597,7 +54603,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2025" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54623,7 +54629,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54649,7 +54655,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54675,7 +54681,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2028" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54701,7 +54707,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G2029" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54727,7 +54733,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2030" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54753,7 +54759,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2031" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54779,7 +54785,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2032" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54805,7 +54811,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2033" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54831,7 +54837,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2034" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54857,7 +54863,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2035" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54883,7 +54889,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2036" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54909,7 +54915,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2037" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54935,7 +54941,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2038" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54961,7 +54967,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2039" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54987,7 +54993,7 @@
         <v>1.25</v>
       </c>
       <c r="G2040" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55013,7 +55019,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2041" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55039,7 +55045,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2042" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55065,7 +55071,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2043" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55091,7 +55097,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2044" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55117,7 +55123,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2045" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55143,7 +55149,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2046" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55169,7 +55175,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55195,7 +55201,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2048" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55221,7 +55227,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55247,7 +55253,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2050" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55273,7 +55279,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2051" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55299,7 +55305,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2052" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55325,7 +55331,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2053" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55351,7 +55357,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2054" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55377,7 +55383,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2055" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55403,7 +55409,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2056" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55429,7 +55435,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55455,7 +55461,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2058" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55481,7 +55487,7 @@
         <v>1.25</v>
       </c>
       <c r="G2059" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55507,7 +55513,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2060" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55533,7 +55539,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2061" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55559,7 +55565,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2062" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55585,7 +55591,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2063" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55611,7 +55617,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2064" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55637,7 +55643,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2065" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55663,7 +55669,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2066" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55689,7 +55695,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2067" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55715,7 +55721,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2068" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55741,7 +55747,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2069" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55767,7 +55773,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2070" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55793,7 +55799,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G2071" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55819,7 +55825,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2072" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55845,7 +55851,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2073" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55871,7 +55877,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G2074" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55897,7 +55903,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2075" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55923,7 +55929,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G2076" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55949,7 +55955,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2077" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55975,7 +55981,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2078" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56001,7 +56007,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2079" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56027,7 +56033,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2080" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56053,7 +56059,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56079,7 +56085,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2082" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56105,7 +56111,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2083" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56131,7 +56137,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2084" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56157,7 +56163,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2085" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56183,7 +56189,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2086" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56209,7 +56215,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56235,7 +56241,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2088" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56261,7 +56267,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2089" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56287,7 +56293,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2090" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56313,7 +56319,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2091" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56339,7 +56345,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2092" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56365,7 +56371,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2093" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56391,7 +56397,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2094" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56417,7 +56423,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2095" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56443,7 +56449,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2096" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56469,7 +56475,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2097" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56495,7 +56501,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2098" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56521,7 +56527,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2099" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56547,7 +56553,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2100" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56573,7 +56579,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2101" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56599,7 +56605,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2102" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56625,7 +56631,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2103" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56651,7 +56657,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2104" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56677,7 +56683,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2105" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56703,7 +56709,7 @@
         <v>1.25</v>
       </c>
       <c r="G2106" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56729,7 +56735,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2107" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56755,7 +56761,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2108" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56781,7 +56787,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2109" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56807,7 +56813,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2110" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56833,7 +56839,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2111" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56859,7 +56865,7 @@
         <v>1.25</v>
       </c>
       <c r="G2112" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56885,7 +56891,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2113" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56911,7 +56917,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2114" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56937,7 +56943,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2115" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56963,7 +56969,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2116" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56989,7 +56995,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2117" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57015,7 +57021,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2118" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57041,7 +57047,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2119" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57067,7 +57073,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2120" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57093,7 +57099,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2121" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57119,7 +57125,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2122" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57145,7 +57151,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2123" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57171,7 +57177,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2124" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57197,7 +57203,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57223,7 +57229,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2126" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57249,7 +57255,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2127" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57275,7 +57281,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2128" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57301,7 +57307,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2129" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57327,7 +57333,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2130" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57353,7 +57359,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2131" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57379,7 +57385,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2132" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57405,7 +57411,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2133" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57431,7 +57437,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2134" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57457,7 +57463,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2135" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57483,7 +57489,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2136" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57509,7 +57515,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2137" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57535,7 +57541,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2138" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57561,7 +57567,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G2139" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57587,7 +57593,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G2140" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57613,7 +57619,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G2141" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57639,7 +57645,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G2142" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57665,7 +57671,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G2143" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57691,7 +57697,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2144" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57717,7 +57723,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G2145" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57743,7 +57749,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2146" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57769,7 +57775,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G2147" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57795,7 +57801,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2148" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57821,7 +57827,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G2149" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57847,7 +57853,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2150" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57873,7 +57879,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G2151" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57899,7 +57905,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2152" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -57925,7 +57931,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2153" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -57951,7 +57957,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G2154" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -57977,9 +57983,61 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G2155" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.2916666667</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>0.995000004768372</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>0.995000004768372</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>0.995000004768372</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>0.995000004768372</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>534</v>
+      </c>
+      <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6218055556</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>5600</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>1.00999999046326</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>535</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LMG.MI.xlsx
+++ b/data/LMG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="537">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53471553325653</t>
+    <t xml:space="preserve">1.53471565246582</t>
   </si>
   <si>
     <t xml:space="preserve">LMG.MI</t>
@@ -47,31 +47,31 @@
     <t xml:space="preserve">1.50033152103424</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55148839950562</t>
+    <t xml:space="preserve">1.5514885187149</t>
   </si>
   <si>
     <t xml:space="preserve">1.50704050064087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439717292786</t>
+    <t xml:space="preserve">1.48439705371857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44246506690979</t>
+    <t xml:space="preserve">1.4424649477005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43575596809387</t>
+    <t xml:space="preserve">1.43575608730316</t>
   </si>
   <si>
     <t xml:space="preserve">1.39214658737183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41646718978882</t>
+    <t xml:space="preserve">1.41646707057953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42569231987</t>
+    <t xml:space="preserve">1.42569220066071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47433352470398</t>
+    <t xml:space="preserve">1.47433340549469</t>
   </si>
   <si>
     <t xml:space="preserve">1.4416264295578</t>
@@ -83,16 +83,16 @@
     <t xml:space="preserve">1.50871789455414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45923793315887</t>
+    <t xml:space="preserve">1.45923805236816</t>
   </si>
   <si>
     <t xml:space="preserve">1.40640342235565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37453508377075</t>
+    <t xml:space="preserve">1.37453496456146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36698722839355</t>
+    <t xml:space="preserve">1.36698710918427</t>
   </si>
   <si>
     <t xml:space="preserve">1.40053284168243</t>
@@ -113,10 +113,10 @@
     <t xml:space="preserve">1.49278354644775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57245457172394</t>
+    <t xml:space="preserve">1.57245445251465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56406831741333</t>
+    <t xml:space="preserve">1.56406819820404</t>
   </si>
   <si>
     <t xml:space="preserve">1.5363929271698</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">1.55987501144409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62025713920593</t>
+    <t xml:space="preserve">1.62025725841522</t>
   </si>
   <si>
     <t xml:space="preserve">1.68567132949829</t>
@@ -134,40 +134,40 @@
     <t xml:space="preserve">1.74437630176544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74773108959198</t>
+    <t xml:space="preserve">1.74773097038269</t>
   </si>
   <si>
     <t xml:space="preserve">1.71753978729248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61857974529266</t>
+    <t xml:space="preserve">1.61857986450195</t>
   </si>
   <si>
     <t xml:space="preserve">1.59342074394226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57664775848389</t>
+    <t xml:space="preserve">1.57664787769318</t>
   </si>
   <si>
     <t xml:space="preserve">1.51962018013</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50116991996765</t>
+    <t xml:space="preserve">1.50117003917694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47349464893341</t>
+    <t xml:space="preserve">1.4734947681427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51932418346405</t>
+    <t xml:space="preserve">1.51932430267334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49662172794342</t>
+    <t xml:space="preserve">1.49662160873413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46955323219299</t>
+    <t xml:space="preserve">1.4695531129837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439729213715</t>
+    <t xml:space="preserve">1.48439717292786</t>
   </si>
   <si>
     <t xml:space="preserve">1.49312901496887</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">1.49050939083099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47479236125946</t>
+    <t xml:space="preserve">1.47479224205017</t>
   </si>
   <si>
     <t xml:space="preserve">1.46606051921844</t>
@@ -185,25 +185,25 @@
     <t xml:space="preserve">1.42240166664124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41454327106476</t>
+    <t xml:space="preserve">1.41454315185547</t>
   </si>
   <si>
     <t xml:space="preserve">1.43200671672821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39707970619202</t>
+    <t xml:space="preserve">1.39707982540131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35953307151794</t>
+    <t xml:space="preserve">1.35953319072723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38310897350311</t>
+    <t xml:space="preserve">1.38310885429382</t>
   </si>
   <si>
     <t xml:space="preserve">1.37961626052856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31936728954315</t>
+    <t xml:space="preserve">1.31936717033386</t>
   </si>
   <si>
     <t xml:space="preserve">1.3534209728241</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">1.36215269565582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42327499389648</t>
+    <t xml:space="preserve">1.42327487468719</t>
   </si>
   <si>
     <t xml:space="preserve">1.47391903400421</t>
@@ -221,37 +221,37 @@
     <t xml:space="preserve">1.44073843955994</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38834810256958</t>
+    <t xml:space="preserve">1.38834798336029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32722568511963</t>
+    <t xml:space="preserve">1.32722580432892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30714273452759</t>
+    <t xml:space="preserve">1.3071426153183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27832782268524</t>
+    <t xml:space="preserve">1.27832794189453</t>
   </si>
   <si>
     <t xml:space="preserve">1.25737178325653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26173770427704</t>
+    <t xml:space="preserve">1.26173782348633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28182077407837</t>
+    <t xml:space="preserve">1.28182065486908</t>
   </si>
   <si>
     <t xml:space="preserve">1.29229867458344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28356695175171</t>
+    <t xml:space="preserve">1.283567070961</t>
   </si>
   <si>
     <t xml:space="preserve">1.23990821838379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19450318813324</t>
+    <t xml:space="preserve">1.19450330734253</t>
   </si>
   <si>
     <t xml:space="preserve">1.27483522891998</t>
@@ -260,10 +260,10 @@
     <t xml:space="preserve">1.21895205974579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20236158370972</t>
+    <t xml:space="preserve">1.20236170291901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19188356399536</t>
+    <t xml:space="preserve">1.19188380241394</t>
   </si>
   <si>
     <t xml:space="preserve">1.22244465351105</t>
@@ -278,13 +278,13 @@
     <t xml:space="preserve">1.09408807754517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07837092876434</t>
+    <t xml:space="preserve">1.07837104797363</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06876599788666</t>
+    <t xml:space="preserve">1.06876587867737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08448302745819</t>
+    <t xml:space="preserve">1.08448314666748</t>
   </si>
   <si>
     <t xml:space="preserve">1.10020041465759</t>
@@ -293,10 +293,10 @@
     <t xml:space="preserve">1.1307612657547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11067819595337</t>
+    <t xml:space="preserve">1.11067831516266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11766386032104</t>
+    <t xml:space="preserve">1.11766374111176</t>
   </si>
   <si>
     <t xml:space="preserve">1.08273673057556</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">1.05217576026917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02685356140137</t>
+    <t xml:space="preserve">1.02685368061066</t>
   </si>
   <si>
     <t xml:space="preserve">1.04344391822815</t>
@@ -314,16 +314,16 @@
     <t xml:space="preserve">1.05654156208038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04780972003937</t>
+    <t xml:space="preserve">1.04780983924866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999785184860229</t>
+    <t xml:space="preserve">0.999785125255585</t>
   </si>
   <si>
     <t xml:space="preserve">1.0120096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985814452171326</t>
+    <t xml:space="preserve">0.985814392566681</t>
   </si>
   <si>
     <t xml:space="preserve">0.927311658859253</t>
@@ -353,16 +353,16 @@
     <t xml:space="preserve">0.991926550865173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956999480724335</t>
+    <t xml:space="preserve">0.956999599933624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960492253303528</t>
+    <t xml:space="preserve">0.960492312908173</t>
   </si>
   <si>
     <t xml:space="preserve">1.00938999652863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00415098667145</t>
+    <t xml:space="preserve">1.00415086746216</t>
   </si>
   <si>
     <t xml:space="preserve">1.10107350349426</t>
@@ -371,28 +371,28 @@
     <t xml:space="preserve">1.03471207618713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03209269046783</t>
+    <t xml:space="preserve">1.03209280967712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04519021511078</t>
+    <t xml:space="preserve">1.04519033432007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03907799720764</t>
+    <t xml:space="preserve">1.03907811641693</t>
   </si>
   <si>
     <t xml:space="preserve">1.03383898735046</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97795581817627</t>
+    <t xml:space="preserve">0.977955758571625</t>
   </si>
   <si>
     <t xml:space="preserve">1.02510726451874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982321739196777</t>
+    <t xml:space="preserve">0.982321679592133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03121960163116</t>
+    <t xml:space="preserve">1.03121948242188</t>
   </si>
   <si>
     <t xml:space="preserve">1.0146290063858</t>
@@ -404,28 +404,28 @@
     <t xml:space="preserve">1.01812183856964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02598035335541</t>
+    <t xml:space="preserve">1.02598023414612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03034627437592</t>
+    <t xml:space="preserve">1.03034639358521</t>
   </si>
   <si>
     <t xml:space="preserve">1.01113641262054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03733158111572</t>
+    <t xml:space="preserve">1.03733170032501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995419323444366</t>
+    <t xml:space="preserve">0.995419144630432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10456609725952</t>
+    <t xml:space="preserve">1.10456597805023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10543918609619</t>
+    <t xml:space="preserve">1.10543930530548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06963908672333</t>
+    <t xml:space="preserve">1.06963920593262</t>
   </si>
   <si>
     <t xml:space="preserve">1.09845399856567</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">1.18577146530151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19799590110779</t>
+    <t xml:space="preserve">1.1979957818985</t>
   </si>
   <si>
     <t xml:space="preserve">1.24776673316956</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">1.2582448720932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26610350608826</t>
+    <t xml:space="preserve">1.26610338687897</t>
   </si>
   <si>
     <t xml:space="preserve">1.27046930789948</t>
@@ -467,13 +467,13 @@
     <t xml:space="preserve">1.24427402019501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24689364433289</t>
+    <t xml:space="preserve">1.2468935251236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2049812078476</t>
+    <t xml:space="preserve">1.20498132705688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19624948501587</t>
+    <t xml:space="preserve">1.19624936580658</t>
   </si>
   <si>
     <t xml:space="preserve">1.24340093135834</t>
@@ -485,10 +485,10 @@
     <t xml:space="preserve">1.29142546653748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30976223945618</t>
+    <t xml:space="preserve">1.30976212024689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28967905044556</t>
+    <t xml:space="preserve">1.28967916965485</t>
   </si>
   <si>
     <t xml:space="preserve">1.21196663379669</t>
@@ -497,10 +497,10 @@
     <t xml:space="preserve">1.18315196037292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18751788139343</t>
+    <t xml:space="preserve">1.18751776218414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17703950405121</t>
+    <t xml:space="preserve">1.1770396232605</t>
   </si>
   <si>
     <t xml:space="preserve">1.17005443572998</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">1.45820188522339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52369010448456</t>
+    <t xml:space="preserve">1.52368998527527</t>
   </si>
   <si>
     <t xml:space="preserve">1.56036341190338</t>
@@ -536,13 +536,13 @@
     <t xml:space="preserve">1.55425107479095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53678774833679</t>
+    <t xml:space="preserve">1.5367876291275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60227572917938</t>
+    <t xml:space="preserve">1.60227584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64156854152679</t>
+    <t xml:space="preserve">1.64156866073608</t>
   </si>
   <si>
     <t xml:space="preserve">1.65466630458832</t>
@@ -551,7 +551,7 @@
     <t xml:space="preserve">1.70269107818604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72888624668121</t>
+    <t xml:space="preserve">1.72888612747192</t>
   </si>
   <si>
     <t xml:space="preserve">1.73674464225769</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">1.85986244678497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72277402877808</t>
+    <t xml:space="preserve">1.72277390956879</t>
   </si>
   <si>
     <t xml:space="preserve">1.67038345336914</t>
@@ -578,22 +578,22 @@
     <t xml:space="preserve">1.74634969234467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69046628475189</t>
+    <t xml:space="preserve">1.69046640396118</t>
   </si>
   <si>
     <t xml:space="preserve">1.76032054424286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68697369098663</t>
+    <t xml:space="preserve">1.68697381019592</t>
   </si>
   <si>
     <t xml:space="preserve">1.67649567127228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75508141517639</t>
+    <t xml:space="preserve">1.7550812959671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75682759284973</t>
+    <t xml:space="preserve">1.75682771205902</t>
   </si>
   <si>
     <t xml:space="preserve">1.79000818729401</t>
@@ -602,25 +602,25 @@
     <t xml:space="preserve">1.81271088123322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82842791080475</t>
+    <t xml:space="preserve">1.82842803001404</t>
   </si>
   <si>
     <t xml:space="preserve">1.81620359420776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79874014854431</t>
+    <t xml:space="preserve">1.79874002933502</t>
   </si>
   <si>
     <t xml:space="preserve">1.72801291942596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81795001029968</t>
+    <t xml:space="preserve">1.81794989109039</t>
   </si>
   <si>
     <t xml:space="preserve">1.82510721683502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92351984977722</t>
+    <t xml:space="preserve">1.92351996898651</t>
   </si>
   <si>
     <t xml:space="preserve">1.87878668308258</t>
@@ -638,13 +638,13 @@
     <t xml:space="preserve">2.4764199256897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57662224769592</t>
+    <t xml:space="preserve">2.57662200927734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94701147079468</t>
+    <t xml:space="preserve">2.9470112323761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95237946510315</t>
+    <t xml:space="preserve">2.95237922668457</t>
   </si>
   <si>
     <t xml:space="preserve">2.85396671295166</t>
@@ -653,40 +653,40 @@
     <t xml:space="preserve">2.75913286209106</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58556890487671</t>
+    <t xml:space="preserve">2.58556842803955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56767559051514</t>
+    <t xml:space="preserve">2.56767535209656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50504875183105</t>
+    <t xml:space="preserve">2.50504922866821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46747303009033</t>
+    <t xml:space="preserve">2.46747326850891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59809374809265</t>
+    <t xml:space="preserve">2.59809398651123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70187473297119</t>
+    <t xml:space="preserve">2.70187425613403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90764617919922</t>
+    <t xml:space="preserve">2.9076464176178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79134035110474</t>
+    <t xml:space="preserve">2.79134058952332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60882997512817</t>
+    <t xml:space="preserve">2.60882949829102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56946492195129</t>
+    <t xml:space="preserve">2.56946468353271</t>
   </si>
   <si>
     <t xml:space="preserve">2.5784113407135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54978227615356</t>
+    <t xml:space="preserve">2.54978203773499</t>
   </si>
   <si>
     <t xml:space="preserve">2.52473163604736</t>
@@ -701,25 +701,25 @@
     <t xml:space="preserve">2.68398118019104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59451532363892</t>
+    <t xml:space="preserve">2.59451508522034</t>
   </si>
   <si>
     <t xml:space="preserve">2.54083561897278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56230759620667</t>
+    <t xml:space="preserve">2.56230735778809</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56409668922424</t>
+    <t xml:space="preserve">2.56409692764282</t>
   </si>
   <si>
     <t xml:space="preserve">2.64640545845032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56588649749756</t>
+    <t xml:space="preserve">2.56588625907898</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58198976516724</t>
+    <t xml:space="preserve">2.58199000358582</t>
   </si>
   <si>
     <t xml:space="preserve">2.6732451915741</t>
@@ -728,19 +728,19 @@
     <t xml:space="preserve">2.52294230461121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48536658287048</t>
+    <t xml:space="preserve">2.48536682128906</t>
   </si>
   <si>
     <t xml:space="preserve">2.53188896179199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48715567588806</t>
+    <t xml:space="preserve">2.48715591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43347644805908</t>
+    <t xml:space="preserve">2.43347668647766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41916155815125</t>
+    <t xml:space="preserve">2.41916179656982</t>
   </si>
   <si>
     <t xml:space="preserve">2.37979698181152</t>
@@ -749,31 +749,31 @@
     <t xml:space="preserve">2.42989778518677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41379380226135</t>
+    <t xml:space="preserve">2.41379356384277</t>
   </si>
   <si>
     <t xml:space="preserve">2.36548209190369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21875786781311</t>
+    <t xml:space="preserve">2.21875762939453</t>
   </si>
   <si>
     <t xml:space="preserve">2.21338987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15792107582092</t>
+    <t xml:space="preserve">2.15792083740234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14718508720398</t>
+    <t xml:space="preserve">2.1471848487854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18655014038086</t>
+    <t xml:space="preserve">2.18654990196228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2098114490509</t>
+    <t xml:space="preserve">2.20981121063232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22054719924927</t>
+    <t xml:space="preserve">2.22054743766785</t>
   </si>
   <si>
     <t xml:space="preserve">2.17581415176392</t>
@@ -785,10 +785,10 @@
     <t xml:space="preserve">2.17402505874634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19012880325317</t>
+    <t xml:space="preserve">2.19012856483459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09529447555542</t>
+    <t xml:space="preserve">2.095294713974</t>
   </si>
   <si>
     <t xml:space="preserve">2.14002752304077</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">2.11139845848083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30285596847534</t>
+    <t xml:space="preserve">2.30285573005676</t>
   </si>
   <si>
     <t xml:space="preserve">2.27064824104309</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">2.2366509437561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2151792049408</t>
+    <t xml:space="preserve">2.21517944335938</t>
   </si>
   <si>
     <t xml:space="preserve">2.24738717079163</t>
@@ -824,43 +824,43 @@
     <t xml:space="preserve">2.24559783935547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26349091529846</t>
+    <t xml:space="preserve">2.26349067687988</t>
   </si>
   <si>
     <t xml:space="preserve">2.37621784210205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31717038154602</t>
+    <t xml:space="preserve">2.3171706199646</t>
   </si>
   <si>
     <t xml:space="preserve">2.35295701026917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3815860748291</t>
+    <t xml:space="preserve">2.38158583641052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33506369590759</t>
+    <t xml:space="preserve">2.33506345748901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31895995140076</t>
+    <t xml:space="preserve">2.31895971298218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26528024673462</t>
+    <t xml:space="preserve">2.26528000831604</t>
   </si>
   <si>
     <t xml:space="preserve">2.28496265411377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32611703872681</t>
+    <t xml:space="preserve">2.32611680030823</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34401035308838</t>
+    <t xml:space="preserve">2.3440101146698</t>
   </si>
   <si>
     <t xml:space="preserve">2.44242286682129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35116744041443</t>
+    <t xml:space="preserve">2.35116767883301</t>
   </si>
   <si>
     <t xml:space="preserve">2.369060754776</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">2.3046452999115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38695406913757</t>
+    <t xml:space="preserve">2.38695430755615</t>
   </si>
   <si>
     <t xml:space="preserve">2.29927730560303</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">2.54262495040894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6553521156311</t>
+    <t xml:space="preserve">2.65535187721252</t>
   </si>
   <si>
     <t xml:space="preserve">2.61419773101807</t>
@@ -914,16 +914,16 @@
     <t xml:space="preserve">2.42274022102356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4710521697998</t>
+    <t xml:space="preserve">2.47105240821838</t>
   </si>
   <si>
     <t xml:space="preserve">2.43526554107666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51936364173889</t>
+    <t xml:space="preserve">2.51936388015747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45136952400208</t>
+    <t xml:space="preserve">2.4513692855835</t>
   </si>
   <si>
     <t xml:space="preserve">2.46031594276428</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">2.50862765312195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49431324005127</t>
+    <t xml:space="preserve">2.49431347846985</t>
   </si>
   <si>
     <t xml:space="preserve">2.43705487251282</t>
@@ -947,10 +947,10 @@
     <t xml:space="preserve">2.41558313369751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29390931129456</t>
+    <t xml:space="preserve">2.29390954971313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2277045249939</t>
+    <t xml:space="preserve">2.22770428657532</t>
   </si>
   <si>
     <t xml:space="preserve">2.20623278617859</t>
@@ -968,34 +968,34 @@
     <t xml:space="preserve">2.12929177284241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10245156288147</t>
+    <t xml:space="preserve">2.10245180130005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13823819160461</t>
+    <t xml:space="preserve">2.13823843002319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98614621162415</t>
+    <t xml:space="preserve">1.98614633083344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06666541099548</t>
+    <t xml:space="preserve">2.06666564941406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0577187538147</t>
+    <t xml:space="preserve">2.05771899223328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00403928756714</t>
+    <t xml:space="preserve">2.00403904914856</t>
   </si>
   <si>
     <t xml:space="preserve">2.07561206817627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99509274959564</t>
+    <t xml:space="preserve">1.99509286880493</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01298594474792</t>
+    <t xml:space="preserve">2.01298570632935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96825289726257</t>
+    <t xml:space="preserve">1.96825277805328</t>
   </si>
   <si>
     <t xml:space="preserve">1.97719967365265</t>
@@ -1004,37 +1004,37 @@
     <t xml:space="preserve">1.95035970211029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9324666261673</t>
+    <t xml:space="preserve">1.93246674537659</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03087902069092</t>
+    <t xml:space="preserve">2.0308792591095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04877209663391</t>
+    <t xml:space="preserve">2.04877233505249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1587393283844</t>
+    <t xml:space="preserve">2.15873908996582</t>
   </si>
   <si>
     <t xml:space="preserve">2.13129758834839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05812001228333</t>
+    <t xml:space="preserve">2.0581202507019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99408960342407</t>
+    <t xml:space="preserve">1.99408972263336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93920636177063</t>
+    <t xml:space="preserve">1.93920648097992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96664822101593</t>
+    <t xml:space="preserve">1.96664810180664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11300325393677</t>
+    <t xml:space="preserve">2.11300349235535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08556175231934</t>
+    <t xml:space="preserve">2.08556151390076</t>
   </si>
   <si>
     <t xml:space="preserve">2.03067851066589</t>
@@ -1043,61 +1043,61 @@
     <t xml:space="preserve">2.01238417625427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94835388660431</t>
+    <t xml:space="preserve">1.94835376739502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98494267463684</t>
+    <t xml:space="preserve">1.98494255542755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95750081539154</t>
+    <t xml:space="preserve">1.95750093460083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9026175737381</t>
+    <t xml:space="preserve">1.90261769294739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00323700904846</t>
+    <t xml:space="preserve">2.00323677062988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93005919456482</t>
+    <t xml:space="preserve">1.93005907535553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97579526901245</t>
+    <t xml:space="preserve">1.97579538822174</t>
   </si>
   <si>
     <t xml:space="preserve">2.02153134346008</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07641458511353</t>
+    <t xml:space="preserve">2.07641434669495</t>
   </si>
   <si>
     <t xml:space="preserve">2.09470891952515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86602878570557</t>
+    <t xml:space="preserve">1.86602890491486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84773457050323</t>
+    <t xml:space="preserve">1.84773445129395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87517595291138</t>
+    <t xml:space="preserve">1.87517607212067</t>
   </si>
   <si>
     <t xml:space="preserve">1.83858728408813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6876585483551</t>
+    <t xml:space="preserve">1.68765842914581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.664790391922</t>
+    <t xml:space="preserve">1.66479051113129</t>
   </si>
   <si>
     <t xml:space="preserve">1.69223201274872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72882091999054</t>
+    <t xml:space="preserve">1.72882080078125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75626242160797</t>
+    <t xml:space="preserve">1.75626254081726</t>
   </si>
   <si>
     <t xml:space="preserve">1.70595288276672</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">1.73796808719635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76540970802307</t>
+    <t xml:space="preserve">1.76540958881378</t>
   </si>
   <si>
     <t xml:space="preserve">1.73339450359344</t>
@@ -1115,13 +1115,13 @@
     <t xml:space="preserve">1.64649605751038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6739376783371</t>
+    <t xml:space="preserve">1.67393779754639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63277518749237</t>
+    <t xml:space="preserve">1.63277530670166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66936421394348</t>
+    <t xml:space="preserve">1.66936409473419</t>
   </si>
   <si>
     <t xml:space="preserve">1.66021692752838</t>
@@ -1139,10 +1139,10 @@
     <t xml:space="preserve">1.77455699443817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71510004997253</t>
+    <t xml:space="preserve">1.71510016918182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68308484554291</t>
+    <t xml:space="preserve">1.6830849647522</t>
   </si>
   <si>
     <t xml:space="preserve">1.65106964111328</t>
@@ -1154,10 +1154,10 @@
     <t xml:space="preserve">1.65564322471619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62362813949585</t>
+    <t xml:space="preserve">1.62362802028656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48184633255005</t>
+    <t xml:space="preserve">1.48184645175934</t>
   </si>
   <si>
     <t xml:space="preserve">1.48642003536224</t>
@@ -1166,19 +1166,19 @@
     <t xml:space="preserve">1.38122725486755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35378563404083</t>
+    <t xml:space="preserve">1.35378575325012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29890239238739</t>
+    <t xml:space="preserve">1.29890251159668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26231372356415</t>
+    <t xml:space="preserve">1.26231360435486</t>
   </si>
   <si>
     <t xml:space="preserve">1.34921205043793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44068419933319</t>
+    <t xml:space="preserve">1.4406840801239</t>
   </si>
   <si>
     <t xml:space="preserve">1.47727286815643</t>
@@ -1196,22 +1196,22 @@
     <t xml:space="preserve">1.44525766372681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4178159236908</t>
+    <t xml:space="preserve">1.41781604290009</t>
   </si>
   <si>
     <t xml:space="preserve">1.50014090538025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50928807258606</t>
+    <t xml:space="preserve">1.50928795337677</t>
   </si>
   <si>
     <t xml:space="preserve">1.50471448898315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51386153697968</t>
+    <t xml:space="preserve">1.51386165618896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45440483093262</t>
+    <t xml:space="preserve">1.45440495014191</t>
   </si>
   <si>
     <t xml:space="preserve">1.47269928455353</t>
@@ -1220,16 +1220,16 @@
     <t xml:space="preserve">1.4269632101059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60075998306274</t>
+    <t xml:space="preserve">1.60076010227203</t>
   </si>
   <si>
     <t xml:space="preserve">1.57789206504822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59618639945984</t>
+    <t xml:space="preserve">1.59618651866913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61448097229004</t>
+    <t xml:space="preserve">1.61448085308075</t>
   </si>
   <si>
     <t xml:space="preserve">1.60990726947784</t>
@@ -1244,19 +1244,19 @@
     <t xml:space="preserve">1.58703923225403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55045056343079</t>
+    <t xml:space="preserve">1.5504504442215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58246576786041</t>
+    <t xml:space="preserve">1.58246564865112</t>
   </si>
   <si>
     <t xml:space="preserve">1.63734889030457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57331848144531</t>
+    <t xml:space="preserve">1.5733186006546</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59161293506622</t>
+    <t xml:space="preserve">1.59161281585693</t>
   </si>
   <si>
     <t xml:space="preserve">1.5641713142395</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">1.67525947093964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63761329650879</t>
+    <t xml:space="preserve">1.6376131772995</t>
   </si>
   <si>
     <t xml:space="preserve">1.60937857627869</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">1.58114373683929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55290913581848</t>
+    <t xml:space="preserve">1.55290901660919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52467429637909</t>
+    <t xml:space="preserve">1.52467441558838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57173228263855</t>
+    <t xml:space="preserve">1.57173216342926</t>
   </si>
   <si>
     <t xml:space="preserve">1.53408598899841</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">1.46820485591888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44938182830811</t>
+    <t xml:space="preserve">1.44938170909882</t>
   </si>
   <si>
     <t xml:space="preserve">1.43055868148804</t>
@@ -1322,67 +1322,67 @@
     <t xml:space="preserve">1.40232396125793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37408936023712</t>
+    <t xml:space="preserve">1.37408924102783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34585452079773</t>
+    <t xml:space="preserve">1.34585440158844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31761991977692</t>
+    <t xml:space="preserve">1.31761980056763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29879677295685</t>
+    <t xml:space="preserve">1.29879665374756</t>
   </si>
   <si>
     <t xml:space="preserve">1.24232733249664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23291563987732</t>
+    <t xml:space="preserve">1.23291575908661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22350406646729</t>
+    <t xml:space="preserve">1.22350418567657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27997350692749</t>
+    <t xml:space="preserve">1.27997362613678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27056193351746</t>
+    <t xml:space="preserve">1.27056205272675</t>
   </si>
   <si>
     <t xml:space="preserve">1.3364429473877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35526621341705</t>
+    <t xml:space="preserve">1.35526609420776</t>
   </si>
   <si>
     <t xml:space="preserve">1.421147108078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43997025489807</t>
+    <t xml:space="preserve">1.43997013568878</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36467778682709</t>
+    <t xml:space="preserve">1.3646776676178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38350093364716</t>
+    <t xml:space="preserve">1.38350081443787</t>
   </si>
   <si>
     <t xml:space="preserve">1.32703137397766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28938508033752</t>
+    <t xml:space="preserve">1.28938519954681</t>
   </si>
   <si>
     <t xml:space="preserve">1.51526284217834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72231733798981</t>
+    <t xml:space="preserve">1.7223174571991</t>
   </si>
   <si>
     <t xml:space="preserve">1.74114048480988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71290576457977</t>
+    <t xml:space="preserve">1.71290588378906</t>
   </si>
   <si>
     <t xml:space="preserve">1.70349419116974</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">1.65643632411957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76937532424927</t>
+    <t xml:space="preserve">1.76937520503998</t>
   </si>
   <si>
     <t xml:space="preserve">1.18585789203644</t>
@@ -1424,10 +1424,10 @@
     <t xml:space="preserve">1.16703474521637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21409249305725</t>
+    <t xml:space="preserve">1.21409261226654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20468091964722</t>
+    <t xml:space="preserve">1.20468103885651</t>
   </si>
   <si>
     <t xml:space="preserve">1.1764463186264</t>
@@ -1436,10 +1436,10 @@
     <t xml:space="preserve">1.25173890590668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30820834636688</t>
+    <t xml:space="preserve">1.30820822715759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19526934623718</t>
+    <t xml:space="preserve">1.19526946544647</t>
   </si>
   <si>
     <t xml:space="preserve">1.1482115983963</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">1.13880002498627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12938845157623</t>
+    <t xml:space="preserve">1.12938857078552</t>
   </si>
   <si>
     <t xml:space="preserve">1.0917421579361</t>
@@ -1472,19 +1472,19 @@
     <t xml:space="preserve">1.07291901111603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03527271747589</t>
+    <t xml:space="preserve">1.03527283668518</t>
   </si>
   <si>
     <t xml:space="preserve">1.05409586429596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01644957065582</t>
+    <t xml:space="preserve">1.01644968986511</t>
   </si>
   <si>
     <t xml:space="preserve">1.04468429088593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00703799724579</t>
+    <t xml:space="preserve">1.00703811645508</t>
   </si>
   <si>
     <t xml:space="preserve">0.969391703605652</t>
@@ -1493,10 +1493,10 @@
     <t xml:space="preserve">0.978803277015686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959980130195618</t>
+    <t xml:space="preserve">0.959980189800262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988214790821075</t>
+    <t xml:space="preserve">0.98821485042572</t>
   </si>
   <si>
     <t xml:space="preserve">0.936451256275177</t>
@@ -1505,19 +1505,19 @@
     <t xml:space="preserve">0.950568616390228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02586114406586</t>
+    <t xml:space="preserve">1.02586126327515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06350755691528</t>
+    <t xml:space="preserve">1.06350743770599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99762636423111</t>
+    <t xml:space="preserve">0.997626423835754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26115036010742</t>
+    <t xml:space="preserve">1.26115047931671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54349756240845</t>
+    <t xml:space="preserve">1.54349744319916</t>
   </si>
   <si>
     <t xml:space="preserve">1.30537188053131</t>
@@ -1620,6 +1620,9 @@
   </si>
   <si>
     <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980000019073486</t>
   </si>
 </sst>
 </file>
@@ -58017,7 +58020,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6218055556</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>5600</v>
@@ -58038,6 +58041,32 @@
         <v>535</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.2941550926</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>0.980000019073486</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>0.964999973773956</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>1.00999999046326</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>0.980000019073486</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LMG.MI.xlsx
+++ b/data/LMG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53471565246582</t>
+    <t xml:space="preserve">1.53471577167511</t>
   </si>
   <si>
     <t xml:space="preserve">LMG.MI</t>
@@ -47,19 +47,19 @@
     <t xml:space="preserve">1.50033152103424</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5514885187149</t>
+    <t xml:space="preserve">1.55148839950562</t>
   </si>
   <si>
     <t xml:space="preserve">1.50704050064087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439705371857</t>
+    <t xml:space="preserve">1.48439717292786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4424649477005</t>
+    <t xml:space="preserve">1.44246506690979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43575608730316</t>
+    <t xml:space="preserve">1.43575596809387</t>
   </si>
   <si>
     <t xml:space="preserve">1.39214658737183</t>
@@ -68,76 +68,76 @@
     <t xml:space="preserve">1.41646707057953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42569220066071</t>
+    <t xml:space="preserve">1.42569231987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47433340549469</t>
+    <t xml:space="preserve">1.47433352470398</t>
   </si>
   <si>
     <t xml:space="preserve">1.4416264295578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46762430667877</t>
+    <t xml:space="preserve">1.46762442588806</t>
   </si>
   <si>
     <t xml:space="preserve">1.50871789455414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45923805236816</t>
+    <t xml:space="preserve">1.45923781394958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40640342235565</t>
+    <t xml:space="preserve">1.40640330314636</t>
   </si>
   <si>
     <t xml:space="preserve">1.37453496456146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36698710918427</t>
+    <t xml:space="preserve">1.36698722839355</t>
   </si>
   <si>
     <t xml:space="preserve">1.40053284168243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40891921520233</t>
+    <t xml:space="preserve">1.40891933441162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3787282705307</t>
+    <t xml:space="preserve">1.37872815132141</t>
   </si>
   <si>
     <t xml:space="preserve">1.44581961631775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52632939815521</t>
+    <t xml:space="preserve">1.52632927894592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49278354644775</t>
+    <t xml:space="preserve">1.49278342723846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57245445251465</t>
+    <t xml:space="preserve">1.57245469093323</t>
   </si>
   <si>
     <t xml:space="preserve">1.56406819820404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5363929271698</t>
+    <t xml:space="preserve">1.53639316558838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55987501144409</t>
+    <t xml:space="preserve">1.5598748922348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62025725841522</t>
+    <t xml:space="preserve">1.62025737762451</t>
   </si>
   <si>
     <t xml:space="preserve">1.68567132949829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74437630176544</t>
+    <t xml:space="preserve">1.74437618255615</t>
   </si>
   <si>
     <t xml:space="preserve">1.74773097038269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71753978729248</t>
+    <t xml:space="preserve">1.71753966808319</t>
   </si>
   <si>
     <t xml:space="preserve">1.61857986450195</t>
@@ -146,19 +146,19 @@
     <t xml:space="preserve">1.59342074394226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57664787769318</t>
+    <t xml:space="preserve">1.57664799690247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51962018013</t>
+    <t xml:space="preserve">1.51962029933929</t>
   </si>
   <si>
     <t xml:space="preserve">1.50117003917694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4734947681427</t>
+    <t xml:space="preserve">1.47349488735199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51932430267334</t>
+    <t xml:space="preserve">1.51932418346405</t>
   </si>
   <si>
     <t xml:space="preserve">1.49662160873413</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">1.4695531129837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439717292786</t>
+    <t xml:space="preserve">1.48439729213715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49312901496887</t>
+    <t xml:space="preserve">1.49312889575958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49050939083099</t>
+    <t xml:space="preserve">1.49050951004028</t>
   </si>
   <si>
     <t xml:space="preserve">1.47479224205017</t>
@@ -182,16 +182,16 @@
     <t xml:space="preserve">1.46606051921844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42240166664124</t>
+    <t xml:space="preserve">1.42240178585052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41454315185547</t>
+    <t xml:space="preserve">1.41454327106476</t>
   </si>
   <si>
     <t xml:space="preserve">1.43200671672821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39707982540131</t>
+    <t xml:space="preserve">1.39707958698273</t>
   </si>
   <si>
     <t xml:space="preserve">1.35953319072723</t>
@@ -209,52 +209,52 @@
     <t xml:space="preserve">1.3534209728241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36215269565582</t>
+    <t xml:space="preserve">1.36215257644653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42327487468719</t>
+    <t xml:space="preserve">1.42327499389648</t>
   </si>
   <si>
     <t xml:space="preserve">1.47391903400421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44073843955994</t>
+    <t xml:space="preserve">1.44073832035065</t>
   </si>
   <si>
     <t xml:space="preserve">1.38834798336029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32722580432892</t>
+    <t xml:space="preserve">1.32722568511963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3071426153183</t>
+    <t xml:space="preserve">1.30714273452759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27832794189453</t>
+    <t xml:space="preserve">1.27832782268524</t>
   </si>
   <si>
     <t xml:space="preserve">1.25737178325653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26173782348633</t>
+    <t xml:space="preserve">1.26173770427704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28182065486908</t>
+    <t xml:space="preserve">1.28182053565979</t>
   </si>
   <si>
     <t xml:space="preserve">1.29229867458344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.283567070961</t>
+    <t xml:space="preserve">1.28356695175171</t>
   </si>
   <si>
     <t xml:space="preserve">1.23990821838379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19450330734253</t>
+    <t xml:space="preserve">1.19450318813324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27483522891998</t>
+    <t xml:space="preserve">1.27483534812927</t>
   </si>
   <si>
     <t xml:space="preserve">1.21895205974579</t>
@@ -263,22 +263,22 @@
     <t xml:space="preserve">1.20236170291901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19188380241394</t>
+    <t xml:space="preserve">1.19188356399536</t>
   </si>
   <si>
     <t xml:space="preserve">1.22244465351105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17878592014313</t>
+    <t xml:space="preserve">1.17878603935242</t>
   </si>
   <si>
     <t xml:space="preserve">1.16132259368896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09408807754517</t>
+    <t xml:space="preserve">1.09408795833588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07837104797363</t>
+    <t xml:space="preserve">1.07837080955505</t>
   </si>
   <si>
     <t xml:space="preserve">1.06876587867737</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">1.08448314666748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10020041465759</t>
+    <t xml:space="preserve">1.10020017623901</t>
   </si>
   <si>
     <t xml:space="preserve">1.1307612657547</t>
@@ -299,16 +299,16 @@
     <t xml:space="preserve">1.11766374111176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08273673057556</t>
+    <t xml:space="preserve">1.08273684978485</t>
   </si>
   <si>
     <t xml:space="preserve">1.05217576026917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02685368061066</t>
+    <t xml:space="preserve">1.02685356140137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04344391822815</t>
+    <t xml:space="preserve">1.04344403743744</t>
   </si>
   <si>
     <t xml:space="preserve">1.05654156208038</t>
@@ -317,19 +317,19 @@
     <t xml:space="preserve">1.04780983924866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999785125255585</t>
+    <t xml:space="preserve">0.999785006046295</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0120096206665</t>
+    <t xml:space="preserve">1.01200973987579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985814392566681</t>
+    <t xml:space="preserve">0.985814332962036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.927311658859253</t>
+    <t xml:space="preserve">0.927311599254608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903735876083374</t>
+    <t xml:space="preserve">0.903735935688019</t>
   </si>
   <si>
     <t xml:space="preserve">0.993672907352448</t>
@@ -341,25 +341,25 @@
     <t xml:space="preserve">0.938662946224213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935170233249664</t>
+    <t xml:space="preserve">0.935170292854309</t>
   </si>
   <si>
     <t xml:space="preserve">0.909848213195801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948267817497253</t>
+    <t xml:space="preserve">0.948267757892609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991926550865173</t>
+    <t xml:space="preserve">0.991926670074463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956999599933624</t>
+    <t xml:space="preserve">0.956999540328979</t>
   </si>
   <si>
     <t xml:space="preserve">0.960492312908173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00938999652863</t>
+    <t xml:space="preserve">1.00939011573792</t>
   </si>
   <si>
     <t xml:space="preserve">1.00415086746216</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">1.03471207618713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03209280967712</t>
+    <t xml:space="preserve">1.03209269046783</t>
   </si>
   <si>
     <t xml:space="preserve">1.04519033432007</t>
@@ -383,43 +383,43 @@
     <t xml:space="preserve">1.03383898735046</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977955758571625</t>
+    <t xml:space="preserve">0.97795581817627</t>
   </si>
   <si>
     <t xml:space="preserve">1.02510726451874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982321679592133</t>
+    <t xml:space="preserve">0.982321739196777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03121948242188</t>
+    <t xml:space="preserve">1.03121936321259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0146290063858</t>
+    <t xml:space="preserve">1.01462912559509</t>
   </si>
   <si>
     <t xml:space="preserve">1.01026320457458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01812183856964</t>
+    <t xml:space="preserve">1.01812195777893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02598023414612</t>
+    <t xml:space="preserve">1.02598035335541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03034639358521</t>
+    <t xml:space="preserve">1.03034627437592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01113641262054</t>
+    <t xml:space="preserve">1.01113653182983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03733170032501</t>
+    <t xml:space="preserve">1.03733158111572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995419144630432</t>
+    <t xml:space="preserve">0.995419323444366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10456597805023</t>
+    <t xml:space="preserve">1.10456609725952</t>
   </si>
   <si>
     <t xml:space="preserve">1.10543930530548</t>
@@ -434,64 +434,64 @@
     <t xml:space="preserve">1.15259075164795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18577146530151</t>
+    <t xml:space="preserve">1.18577122688293</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1979957818985</t>
+    <t xml:space="preserve">1.19799590110779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24776673316956</t>
+    <t xml:space="preserve">1.24776685237885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24863982200623</t>
+    <t xml:space="preserve">1.24863994121552</t>
   </si>
   <si>
     <t xml:space="preserve">1.31063544750214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2582448720932</t>
+    <t xml:space="preserve">1.25824499130249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26610338687897</t>
+    <t xml:space="preserve">1.26610362529755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27046930789948</t>
+    <t xml:space="preserve">1.27046942710876</t>
   </si>
   <si>
     <t xml:space="preserve">1.20672762393951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20323479175568</t>
+    <t xml:space="preserve">1.20323491096497</t>
   </si>
   <si>
     <t xml:space="preserve">1.24427402019501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2468935251236</t>
+    <t xml:space="preserve">1.24689364433289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20498132705688</t>
+    <t xml:space="preserve">1.2049812078476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19624936580658</t>
+    <t xml:space="preserve">1.19624948501587</t>
   </si>
   <si>
     <t xml:space="preserve">1.24340093135834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21371304988861</t>
+    <t xml:space="preserve">1.21371293067932</t>
   </si>
   <si>
     <t xml:space="preserve">1.29142546653748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30976212024689</t>
+    <t xml:space="preserve">1.30976223945618</t>
   </si>
   <si>
     <t xml:space="preserve">1.28967916965485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21196663379669</t>
+    <t xml:space="preserve">1.21196675300598</t>
   </si>
   <si>
     <t xml:space="preserve">1.18315196037292</t>
@@ -500,16 +500,16 @@
     <t xml:space="preserve">1.18751776218414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1770396232605</t>
+    <t xml:space="preserve">1.17703974246979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17005443572998</t>
+    <t xml:space="preserve">1.17005431652069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768378257751</t>
+    <t xml:space="preserve">1.2276839017868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46693360805511</t>
+    <t xml:space="preserve">1.4669337272644</t>
   </si>
   <si>
     <t xml:space="preserve">1.45645558834076</t>
@@ -521,10 +521,10 @@
     <t xml:space="preserve">1.45820188522339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52368998527527</t>
+    <t xml:space="preserve">1.52369010448456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56036341190338</t>
+    <t xml:space="preserve">1.56036329269409</t>
   </si>
   <si>
     <t xml:space="preserve">1.52019739151001</t>
@@ -542,16 +542,16 @@
     <t xml:space="preserve">1.60227584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64156866073608</t>
+    <t xml:space="preserve">1.64156877994537</t>
   </si>
   <si>
     <t xml:space="preserve">1.65466630458832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70269107818604</t>
+    <t xml:space="preserve">1.70269095897675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72888612747192</t>
+    <t xml:space="preserve">1.72888600826263</t>
   </si>
   <si>
     <t xml:space="preserve">1.73674464225769</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">1.69046640396118</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76032054424286</t>
+    <t xml:space="preserve">1.76032042503357</t>
   </si>
   <si>
     <t xml:space="preserve">1.68697381019592</t>
@@ -590,31 +590,31 @@
     <t xml:space="preserve">1.67649567127228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7550812959671</t>
+    <t xml:space="preserve">1.75508141517639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75682771205902</t>
+    <t xml:space="preserve">1.75682783126831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79000818729401</t>
+    <t xml:space="preserve">1.7900083065033</t>
   </si>
   <si>
     <t xml:space="preserve">1.81271088123322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82842803001404</t>
+    <t xml:space="preserve">1.82842814922333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81620359420776</t>
+    <t xml:space="preserve">1.81620347499847</t>
   </si>
   <si>
     <t xml:space="preserve">1.79874002933502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72801291942596</t>
+    <t xml:space="preserve">1.72801303863525</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81794989109039</t>
+    <t xml:space="preserve">1.81795012950897</t>
   </si>
   <si>
     <t xml:space="preserve">1.82510721683502</t>
@@ -629,7 +629,7 @@
     <t xml:space="preserve">1.86089360713959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86984014511108</t>
+    <t xml:space="preserve">1.86984002590179</t>
   </si>
   <si>
     <t xml:space="preserve">2.0398256778717</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">2.4764199256897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57662200927734</t>
+    <t xml:space="preserve">2.57662224769592</t>
   </si>
   <si>
     <t xml:space="preserve">2.9470112323761</t>
@@ -662,10 +662,10 @@
     <t xml:space="preserve">2.50504922866821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46747326850891</t>
+    <t xml:space="preserve">2.46747303009033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59809398651123</t>
+    <t xml:space="preserve">2.59809374809265</t>
   </si>
   <si>
     <t xml:space="preserve">2.70187425613403</t>
@@ -674,10 +674,10 @@
     <t xml:space="preserve">2.9076464176178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79134058952332</t>
+    <t xml:space="preserve">2.79134035110474</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60882949829102</t>
+    <t xml:space="preserve">2.60882973670959</t>
   </si>
   <si>
     <t xml:space="preserve">2.56946468353271</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">2.55872869491577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63924813270569</t>
+    <t xml:space="preserve">2.63924837112427</t>
   </si>
   <si>
     <t xml:space="preserve">2.68398118019104</t>
@@ -704,13 +704,13 @@
     <t xml:space="preserve">2.59451508522034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54083561897278</t>
+    <t xml:space="preserve">2.5408353805542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56230735778809</t>
+    <t xml:space="preserve">2.56230759620667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56409692764282</t>
+    <t xml:space="preserve">2.56409668922424</t>
   </si>
   <si>
     <t xml:space="preserve">2.64640545845032</t>
@@ -731,49 +731,49 @@
     <t xml:space="preserve">2.48536682128906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53188896179199</t>
+    <t xml:space="preserve">2.53188872337341</t>
   </si>
   <si>
     <t xml:space="preserve">2.48715591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43347668647766</t>
+    <t xml:space="preserve">2.4334762096405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41916179656982</t>
+    <t xml:space="preserve">2.41916155815125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37979698181152</t>
+    <t xml:space="preserve">2.37979674339294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42989778518677</t>
+    <t xml:space="preserve">2.42989802360535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41379356384277</t>
+    <t xml:space="preserve">2.41379380226135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36548209190369</t>
+    <t xml:space="preserve">2.36548233032227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21875762939453</t>
+    <t xml:space="preserve">2.21875810623169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21338987350464</t>
+    <t xml:space="preserve">2.21339011192322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15792083740234</t>
+    <t xml:space="preserve">2.15792107582092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1471848487854</t>
+    <t xml:space="preserve">2.14718508720398</t>
   </si>
   <si>
     <t xml:space="preserve">2.18654990196228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20981121063232</t>
+    <t xml:space="preserve">2.2098114490509</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22054743766785</t>
+    <t xml:space="preserve">2.22054719924927</t>
   </si>
   <si>
     <t xml:space="preserve">2.17581415176392</t>
@@ -782,58 +782,58 @@
     <t xml:space="preserve">2.15613174438477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17402505874634</t>
+    <t xml:space="preserve">2.17402482032776</t>
   </si>
   <si>
     <t xml:space="preserve">2.19012856483459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.095294713974</t>
+    <t xml:space="preserve">2.09529447555542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14002752304077</t>
+    <t xml:space="preserve">2.14002799987793</t>
   </si>
   <si>
     <t xml:space="preserve">2.11139845848083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30285573005676</t>
+    <t xml:space="preserve">2.30285596847534</t>
   </si>
   <si>
     <t xml:space="preserve">2.27064824104309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1722354888916</t>
+    <t xml:space="preserve">2.17223525047302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19549655914307</t>
+    <t xml:space="preserve">2.19549679756165</t>
   </si>
   <si>
     <t xml:space="preserve">2.25275492668152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2366509437561</t>
+    <t xml:space="preserve">2.23665070533752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21517944335938</t>
+    <t xml:space="preserve">2.2151792049408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24738717079163</t>
+    <t xml:space="preserve">2.24738693237305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24559783935547</t>
+    <t xml:space="preserve">2.24559736251831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26349067687988</t>
+    <t xml:space="preserve">2.26349091529846</t>
   </si>
   <si>
     <t xml:space="preserve">2.37621784210205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3171706199646</t>
+    <t xml:space="preserve">2.31717038154602</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35295701026917</t>
+    <t xml:space="preserve">2.35295724868774</t>
   </si>
   <si>
     <t xml:space="preserve">2.38158583641052</t>
@@ -842,22 +842,22 @@
     <t xml:space="preserve">2.33506345748901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31895971298218</t>
+    <t xml:space="preserve">2.31895995140076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26528000831604</t>
+    <t xml:space="preserve">2.26528024673462</t>
   </si>
   <si>
     <t xml:space="preserve">2.28496265411377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32611680030823</t>
+    <t xml:space="preserve">2.32611703872681</t>
   </si>
   <si>
     <t xml:space="preserve">2.3440101146698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44242286682129</t>
+    <t xml:space="preserve">2.44242310523987</t>
   </si>
   <si>
     <t xml:space="preserve">2.35116767883301</t>
@@ -866,16 +866,16 @@
     <t xml:space="preserve">2.369060754776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37085008621216</t>
+    <t xml:space="preserve">2.37085056304932</t>
   </si>
   <si>
     <t xml:space="preserve">2.29748797416687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3046452999115</t>
+    <t xml:space="preserve">2.30464506149292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38695430755615</t>
+    <t xml:space="preserve">2.38695406913757</t>
   </si>
   <si>
     <t xml:space="preserve">2.29927730560303</t>
@@ -887,16 +887,16 @@
     <t xml:space="preserve">2.54262495040894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65535187721252</t>
+    <t xml:space="preserve">2.65535235404968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61419773101807</t>
+    <t xml:space="preserve">2.61419749259949</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62314438819885</t>
+    <t xml:space="preserve">2.62314414978027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61240863800049</t>
+    <t xml:space="preserve">2.61240839958191</t>
   </si>
   <si>
     <t xml:space="preserve">2.66608810424805</t>
@@ -911,25 +911,25 @@
     <t xml:space="preserve">2.42095112800598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42274022102356</t>
+    <t xml:space="preserve">2.42274045944214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47105240821838</t>
+    <t xml:space="preserve">2.47105193138123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43526554107666</t>
+    <t xml:space="preserve">2.43526577949524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51936388015747</t>
+    <t xml:space="preserve">2.51936364173889</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4513692855835</t>
+    <t xml:space="preserve">2.45136952400208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46031594276428</t>
+    <t xml:space="preserve">2.46031618118286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50862765312195</t>
+    <t xml:space="preserve">2.50862789154053</t>
   </si>
   <si>
     <t xml:space="preserve">2.49431347846985</t>
@@ -947,13 +947,13 @@
     <t xml:space="preserve">2.41558313369751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29390954971313</t>
+    <t xml:space="preserve">2.29390931129456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22770428657532</t>
+    <t xml:space="preserve">2.2277045249939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20623278617859</t>
+    <t xml:space="preserve">2.20623254776001</t>
   </si>
   <si>
     <t xml:space="preserve">2.28138399124146</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">2.13823843002319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98614633083344</t>
+    <t xml:space="preserve">1.98614609241486</t>
   </si>
   <si>
     <t xml:space="preserve">2.06666564941406</t>
@@ -983,31 +983,31 @@
     <t xml:space="preserve">2.05771899223328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00403904914856</t>
+    <t xml:space="preserve">2.00403952598572</t>
   </si>
   <si>
     <t xml:space="preserve">2.07561206817627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99509286880493</t>
+    <t xml:space="preserve">1.99509274959564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01298570632935</t>
+    <t xml:space="preserve">2.0129861831665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96825277805328</t>
+    <t xml:space="preserve">1.96825265884399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97719967365265</t>
+    <t xml:space="preserve">1.97719943523407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95035970211029</t>
+    <t xml:space="preserve">1.950359582901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93246674537659</t>
+    <t xml:space="preserve">1.9324666261673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0308792591095</t>
+    <t xml:space="preserve">2.03087902069092</t>
   </si>
   <si>
     <t xml:space="preserve">2.04877233505249</t>
@@ -1028,43 +1028,43 @@
     <t xml:space="preserve">1.93920648097992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96664810180664</t>
+    <t xml:space="preserve">1.96664822101593</t>
   </si>
   <si>
     <t xml:space="preserve">2.11300349235535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08556151390076</t>
+    <t xml:space="preserve">2.08556175231934</t>
   </si>
   <si>
     <t xml:space="preserve">2.03067851066589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01238417625427</t>
+    <t xml:space="preserve">2.01238393783569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94835376739502</t>
+    <t xml:space="preserve">1.94835388660431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98494255542755</t>
+    <t xml:space="preserve">1.98494267463684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95750093460083</t>
+    <t xml:space="preserve">1.95750117301941</t>
   </si>
   <si>
     <t xml:space="preserve">1.90261769294739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00323677062988</t>
+    <t xml:space="preserve">2.00323700904846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93005907535553</t>
+    <t xml:space="preserve">1.93005919456482</t>
   </si>
   <si>
     <t xml:space="preserve">1.97579538822174</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02153134346008</t>
+    <t xml:space="preserve">2.0215311050415</t>
   </si>
   <si>
     <t xml:space="preserve">2.07641434669495</t>
@@ -1088,16 +1088,16 @@
     <t xml:space="preserve">1.68765842914581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66479051113129</t>
+    <t xml:space="preserve">1.664790391922</t>
   </si>
   <si>
     <t xml:space="preserve">1.69223201274872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72882080078125</t>
+    <t xml:space="preserve">1.72882091999054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75626254081726</t>
+    <t xml:space="preserve">1.75626242160797</t>
   </si>
   <si>
     <t xml:space="preserve">1.70595288276672</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">1.64649605751038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67393779754639</t>
+    <t xml:space="preserve">1.6739376783371</t>
   </si>
   <si>
     <t xml:space="preserve">1.63277530670166</t>
@@ -1124,10 +1124,10 @@
     <t xml:space="preserve">1.66936409473419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66021692752838</t>
+    <t xml:space="preserve">1.66021680831909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74254167079926</t>
+    <t xml:space="preserve">1.74254155158997</t>
   </si>
   <si>
     <t xml:space="preserve">1.70137929916382</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">1.77455699443817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71510016918182</t>
+    <t xml:space="preserve">1.71510004997253</t>
   </si>
   <si>
     <t xml:space="preserve">1.6830849647522</t>
@@ -1148,10 +1148,10 @@
     <t xml:space="preserve">1.65106964111328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71052646636963</t>
+    <t xml:space="preserve">1.71052658557892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65564322471619</t>
+    <t xml:space="preserve">1.65564334392548</t>
   </si>
   <si>
     <t xml:space="preserve">1.62362802028656</t>
@@ -1169,10 +1169,10 @@
     <t xml:space="preserve">1.35378575325012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29890251159668</t>
+    <t xml:space="preserve">1.29890239238739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26231360435486</t>
+    <t xml:space="preserve">1.26231372356415</t>
   </si>
   <si>
     <t xml:space="preserve">1.34921205043793</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">1.49556732177734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44983124732971</t>
+    <t xml:space="preserve">1.449831366539</t>
   </si>
   <si>
     <t xml:space="preserve">1.44525766372681</t>
@@ -1202,16 +1202,16 @@
     <t xml:space="preserve">1.50014090538025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50928795337677</t>
+    <t xml:space="preserve">1.50928807258606</t>
   </si>
   <si>
     <t xml:space="preserve">1.50471448898315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51386165618896</t>
+    <t xml:space="preserve">1.51386153697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45440495014191</t>
+    <t xml:space="preserve">1.45440483093262</t>
   </si>
   <si>
     <t xml:space="preserve">1.47269928455353</t>
@@ -1223,34 +1223,34 @@
     <t xml:space="preserve">1.60076010227203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57789206504822</t>
+    <t xml:space="preserve">1.57789218425751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59618651866913</t>
+    <t xml:space="preserve">1.59618639945984</t>
   </si>
   <si>
     <t xml:space="preserve">1.61448085308075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60990726947784</t>
+    <t xml:space="preserve">1.60990715026855</t>
   </si>
   <si>
     <t xml:space="preserve">1.61905443668365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62820160388947</t>
+    <t xml:space="preserve">1.62820172309875</t>
   </si>
   <si>
     <t xml:space="preserve">1.58703923225403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5504504442215</t>
+    <t xml:space="preserve">1.55045056343079</t>
   </si>
   <si>
     <t xml:space="preserve">1.58246564865112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63734889030457</t>
+    <t xml:space="preserve">1.63734877109528</t>
   </si>
   <si>
     <t xml:space="preserve">1.5733186006546</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">1.67525947093964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6376131772995</t>
+    <t xml:space="preserve">1.63761329650879</t>
   </si>
   <si>
     <t xml:space="preserve">1.60937857627869</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">1.58114373683929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55290901660919</t>
+    <t xml:space="preserve">1.55290913581848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52467441558838</t>
+    <t xml:space="preserve">1.52467429637909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57173216342926</t>
+    <t xml:space="preserve">1.57173228263855</t>
   </si>
   <si>
     <t xml:space="preserve">1.53408598899841</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">1.46820485591888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44938170909882</t>
+    <t xml:space="preserve">1.44938182830811</t>
   </si>
   <si>
     <t xml:space="preserve">1.43055868148804</t>
@@ -1322,67 +1322,67 @@
     <t xml:space="preserve">1.40232396125793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37408924102783</t>
+    <t xml:space="preserve">1.37408936023712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34585440158844</t>
+    <t xml:space="preserve">1.34585452079773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31761980056763</t>
+    <t xml:space="preserve">1.31761991977692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29879665374756</t>
+    <t xml:space="preserve">1.29879677295685</t>
   </si>
   <si>
     <t xml:space="preserve">1.24232733249664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23291575908661</t>
+    <t xml:space="preserve">1.23291563987732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22350418567657</t>
+    <t xml:space="preserve">1.22350406646729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27997362613678</t>
+    <t xml:space="preserve">1.27997350692749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27056205272675</t>
+    <t xml:space="preserve">1.27056193351746</t>
   </si>
   <si>
     <t xml:space="preserve">1.3364429473877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35526609420776</t>
+    <t xml:space="preserve">1.35526621341705</t>
   </si>
   <si>
     <t xml:space="preserve">1.421147108078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43997013568878</t>
+    <t xml:space="preserve">1.43997025489807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3646776676178</t>
+    <t xml:space="preserve">1.36467778682709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38350081443787</t>
+    <t xml:space="preserve">1.38350093364716</t>
   </si>
   <si>
     <t xml:space="preserve">1.32703137397766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28938519954681</t>
+    <t xml:space="preserve">1.28938508033752</t>
   </si>
   <si>
     <t xml:space="preserve">1.51526284217834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7223174571991</t>
+    <t xml:space="preserve">1.72231733798981</t>
   </si>
   <si>
     <t xml:space="preserve">1.74114048480988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71290588378906</t>
+    <t xml:space="preserve">1.71290576457977</t>
   </si>
   <si>
     <t xml:space="preserve">1.70349419116974</t>
@@ -1406,16 +1406,13 @@
     <t xml:space="preserve">1.6940826177597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62820172309875</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.61879014968872</t>
   </si>
   <si>
     <t xml:space="preserve">1.65643632411957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76937520503998</t>
+    <t xml:space="preserve">1.76937532424927</t>
   </si>
   <si>
     <t xml:space="preserve">1.18585789203644</t>
@@ -1424,10 +1421,10 @@
     <t xml:space="preserve">1.16703474521637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21409261226654</t>
+    <t xml:space="preserve">1.21409249305725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20468103885651</t>
+    <t xml:space="preserve">1.20468091964722</t>
   </si>
   <si>
     <t xml:space="preserve">1.1764463186264</t>
@@ -1436,10 +1433,10 @@
     <t xml:space="preserve">1.25173890590668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30820822715759</t>
+    <t xml:space="preserve">1.30820834636688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19526946544647</t>
+    <t xml:space="preserve">1.19526934623718</t>
   </si>
   <si>
     <t xml:space="preserve">1.1482115983963</t>
@@ -1451,7 +1448,7 @@
     <t xml:space="preserve">1.13880002498627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12938857078552</t>
+    <t xml:space="preserve">1.12938845157623</t>
   </si>
   <si>
     <t xml:space="preserve">1.0917421579361</t>
@@ -1472,19 +1469,19 @@
     <t xml:space="preserve">1.07291901111603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03527283668518</t>
+    <t xml:space="preserve">1.03527271747589</t>
   </si>
   <si>
     <t xml:space="preserve">1.05409586429596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01644968986511</t>
+    <t xml:space="preserve">1.01644957065582</t>
   </si>
   <si>
     <t xml:space="preserve">1.04468429088593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00703811645508</t>
+    <t xml:space="preserve">1.00703799724579</t>
   </si>
   <si>
     <t xml:space="preserve">0.969391703605652</t>
@@ -1493,10 +1490,10 @@
     <t xml:space="preserve">0.978803277015686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959980189800262</t>
+    <t xml:space="preserve">0.959980130195618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98821485042572</t>
+    <t xml:space="preserve">0.988214790821075</t>
   </si>
   <si>
     <t xml:space="preserve">0.936451256275177</t>
@@ -1505,19 +1502,19 @@
     <t xml:space="preserve">0.950568616390228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02586126327515</t>
+    <t xml:space="preserve">1.02586114406586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06350743770599</t>
+    <t xml:space="preserve">1.06350755691528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.997626423835754</t>
+    <t xml:space="preserve">0.99762636423111</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26115047931671</t>
+    <t xml:space="preserve">1.26115036010742</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54349744319916</t>
+    <t xml:space="preserve">1.54349756240845</t>
   </si>
   <si>
     <t xml:space="preserve">1.30537188053131</t>
@@ -28918,7 +28915,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1037" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28970,7 +28967,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1039" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29074,7 +29071,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G1043" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29100,7 +29097,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1044" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29152,7 +29149,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1046" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29282,7 +29279,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1051" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29542,7 +29539,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1061" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29568,7 +29565,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1062" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29594,7 +29591,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1063" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29620,7 +29617,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29646,7 +29643,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1065" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29672,7 +29669,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1066" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29698,7 +29695,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1067" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29724,7 +29721,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1068" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29750,7 +29747,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1069" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29776,7 +29773,7 @@
         <v>1.25</v>
       </c>
       <c r="G1070" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29802,7 +29799,7 @@
         <v>1.25</v>
       </c>
       <c r="G1071" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29828,7 +29825,7 @@
         <v>1.25</v>
       </c>
       <c r="G1072" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29854,7 +29851,7 @@
         <v>1.25</v>
       </c>
       <c r="G1073" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30036,7 +30033,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1080" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -30062,7 +30059,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1081" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -30088,7 +30085,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1082" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -30140,7 +30137,7 @@
         <v>1.25</v>
       </c>
       <c r="G1084" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30244,7 +30241,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1088" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30296,7 +30293,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1090" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30348,7 +30345,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1092" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30374,7 +30371,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1093" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30400,7 +30397,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1094" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30426,7 +30423,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1095" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30452,7 +30449,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1096" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30478,7 +30475,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1097" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30504,7 +30501,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1098" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30530,7 +30527,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1099" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30556,7 +30553,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30582,7 +30579,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1101" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30608,7 +30605,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1102" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30634,7 +30631,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1103" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30660,7 +30657,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1104" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30686,7 +30683,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1105" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30712,7 +30709,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30738,7 +30735,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1107" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30764,7 +30761,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1108" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30790,7 +30787,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1109" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30816,7 +30813,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1110" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30842,7 +30839,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1111" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30868,7 +30865,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1112" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30894,7 +30891,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1113" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30920,7 +30917,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1114" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30946,7 +30943,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1115" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30972,7 +30969,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1116" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30998,7 +30995,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1117" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31024,7 +31021,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1118" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31050,7 +31047,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1119" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31076,7 +31073,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1120" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -31102,7 +31099,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1121" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31128,7 +31125,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1122" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31154,7 +31151,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1123" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31180,7 +31177,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1124" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31206,7 +31203,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1125" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31232,7 +31229,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1126" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31258,7 +31255,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1127" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31284,7 +31281,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1128" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31310,7 +31307,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1129" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31336,7 +31333,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1130" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31362,7 +31359,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1131" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31388,7 +31385,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1132" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31414,7 +31411,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1133" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31440,7 +31437,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1134" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31466,7 +31463,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1135" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31492,7 +31489,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1136" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31518,7 +31515,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1137" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31544,7 +31541,7 @@
         <v>1.25</v>
       </c>
       <c r="G1138" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31570,7 +31567,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1139" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31596,7 +31593,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1140" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31622,7 +31619,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1141" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31648,7 +31645,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1142" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31674,7 +31671,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1143" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31700,7 +31697,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31726,7 +31723,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1145" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31752,7 +31749,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1146" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31778,7 +31775,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1147" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31804,7 +31801,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1148" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31830,7 +31827,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1149" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31856,7 +31853,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1150" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31882,7 +31879,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1151" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31908,7 +31905,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1152" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31934,7 +31931,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1153" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31960,7 +31957,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1154" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31986,7 +31983,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1155" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32012,7 +32009,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1156" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -32038,7 +32035,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1157" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32064,7 +32061,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1158" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -32090,7 +32087,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1159" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -32116,7 +32113,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1160" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -32142,7 +32139,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1161" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32168,7 +32165,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1162" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32194,7 +32191,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1163" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32220,7 +32217,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1164" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32246,7 +32243,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1165" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32272,7 +32269,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1166" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32298,7 +32295,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1167" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32324,7 +32321,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1168" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32350,7 +32347,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1169" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32376,7 +32373,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1170" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32402,7 +32399,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1171" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32428,7 +32425,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1172" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32454,7 +32451,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1173" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32480,7 +32477,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1174" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32506,7 +32503,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1175" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32532,7 +32529,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1176" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32558,7 +32555,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1177" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32584,7 +32581,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1178" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32610,7 +32607,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1179" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32636,7 +32633,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1180" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32662,7 +32659,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1181" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32688,7 +32685,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1182" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32714,7 +32711,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1183" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32740,7 +32737,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1184" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32766,7 +32763,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1185" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32792,7 +32789,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1186" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -32818,7 +32815,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1187" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -32844,7 +32841,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1188" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -32870,7 +32867,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1189" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -32896,7 +32893,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1190" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -32922,7 +32919,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1191" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -32948,7 +32945,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1192" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -32974,7 +32971,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1193" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -33000,7 +32997,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1194" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33026,7 +33023,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G1195" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33052,7 +33049,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1196" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33078,7 +33075,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33104,7 +33101,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1198" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33130,7 +33127,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1199" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -33156,7 +33153,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G1200" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -33182,7 +33179,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1201" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -33208,7 +33205,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1202" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -33234,7 +33231,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1203" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -33260,7 +33257,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1204" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -33286,7 +33283,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1205" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -33312,7 +33309,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1206" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -33338,7 +33335,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1207" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -33364,7 +33361,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1208" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -33390,7 +33387,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1209" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -33416,7 +33413,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1210" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -33442,7 +33439,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1211" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -33468,7 +33465,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1212" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -33494,7 +33491,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1213" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -33520,7 +33517,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1214" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -33546,7 +33543,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1215" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -33572,7 +33569,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1216" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -33598,7 +33595,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1217" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -33624,7 +33621,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1218" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -33650,7 +33647,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1219" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -33676,7 +33673,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1220" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -33702,7 +33699,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1221" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -33728,7 +33725,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1222" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -33754,7 +33751,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1223" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -33780,7 +33777,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1224" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -33806,7 +33803,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1225" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -33832,7 +33829,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1226" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -33858,7 +33855,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G1227" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -33884,7 +33881,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1228" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -33910,7 +33907,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1229" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -33936,7 +33933,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1230" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -33962,7 +33959,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1231" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -33988,7 +33985,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1232" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34014,7 +34011,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1233" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34040,7 +34037,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1234" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34066,7 +34063,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1235" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -34092,7 +34089,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1236" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -34118,7 +34115,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1237" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34144,7 +34141,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1238" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -34170,7 +34167,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1239" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -34196,7 +34193,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1240" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -34222,7 +34219,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1241" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -34248,7 +34245,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1242" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -34274,7 +34271,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1243" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -34300,7 +34297,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1244" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -34326,7 +34323,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1245" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34352,7 +34349,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1246" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34378,7 +34375,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1247" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -34404,7 +34401,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1248" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -34430,7 +34427,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1249" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -34456,7 +34453,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1250" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -34482,7 +34479,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1251" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -34508,7 +34505,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1252" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -34534,7 +34531,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1253" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -34560,7 +34557,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1254" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -34586,7 +34583,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1255" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -34612,7 +34609,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1256" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -34638,7 +34635,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1257" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -34664,7 +34661,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1258" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -34690,7 +34687,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1259" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -34716,7 +34713,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1260" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -34742,7 +34739,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1261" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -34768,7 +34765,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1262" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -34794,7 +34791,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1263" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -34820,7 +34817,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1264" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -34846,7 +34843,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1265" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -34872,7 +34869,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1266" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -34898,7 +34895,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1267" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -34924,7 +34921,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1268" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -34950,7 +34947,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1269" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -34976,7 +34973,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1270" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -35002,7 +34999,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1271" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35028,7 +35025,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1272" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35054,7 +35051,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1273" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35080,7 +35077,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1274" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -35106,7 +35103,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1275" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35132,7 +35129,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1276" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -35158,7 +35155,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1277" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35184,7 +35181,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1278" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35210,7 +35207,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1279" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35236,7 +35233,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1280" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -35262,7 +35259,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1281" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -35288,7 +35285,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1282" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35314,7 +35311,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1283" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35340,7 +35337,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1284" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35366,7 +35363,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1285" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35392,7 +35389,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1286" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35418,7 +35415,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1287" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35444,7 +35441,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1288" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35470,7 +35467,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1289" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -35496,7 +35493,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1290" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35522,7 +35519,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1291" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35548,7 +35545,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1292" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -35574,7 +35571,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1293" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35600,7 +35597,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1294" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35626,7 +35623,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1295" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35652,7 +35649,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1296" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35678,7 +35675,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1297" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35704,7 +35701,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1298" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35730,7 +35727,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1299" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35756,7 +35753,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1300" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35782,7 +35779,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1301" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35808,7 +35805,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1302" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35834,7 +35831,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1303" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35860,7 +35857,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1304" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -35886,7 +35883,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1305" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -35912,7 +35909,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1306" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -35938,7 +35935,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1307" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -35964,7 +35961,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1308" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -35990,7 +35987,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1309" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36016,7 +36013,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1310" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36042,7 +36039,7 @@
         <v>1.25</v>
       </c>
       <c r="G1311" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36068,7 +36065,7 @@
         <v>1.25</v>
       </c>
       <c r="G1312" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36094,7 +36091,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1313" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36120,7 +36117,7 @@
         <v>1.25</v>
       </c>
       <c r="G1314" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36146,7 +36143,7 @@
         <v>1.25</v>
       </c>
       <c r="G1315" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -36172,7 +36169,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1316" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -36198,7 +36195,7 @@
         <v>1.25</v>
       </c>
       <c r="G1317" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36224,7 +36221,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36276,7 +36273,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36302,7 +36299,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1321" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36328,7 +36325,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1322" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36354,7 +36351,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1323" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36380,7 +36377,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1324" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36406,7 +36403,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1325" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36432,7 +36429,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1326" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36458,7 +36455,7 @@
         <v>1.25</v>
       </c>
       <c r="G1327" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36484,7 +36481,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1328" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36510,7 +36507,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1329" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36536,7 +36533,7 @@
         <v>1.25</v>
       </c>
       <c r="G1330" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36562,7 +36559,7 @@
         <v>1.25</v>
       </c>
       <c r="G1331" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36588,7 +36585,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1332" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36614,7 +36611,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1333" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36692,7 +36689,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1336" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36900,7 +36897,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1344" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -36952,7 +36949,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1346" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37108,7 +37105,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1352" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37134,7 +37131,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1353" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37212,7 +37209,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1356" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37238,7 +37235,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1357" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37290,7 +37287,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1359" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37316,7 +37313,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1360" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37368,7 +37365,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1362" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37394,7 +37391,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1363" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37420,7 +37417,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1364" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38044,7 +38041,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1388" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38070,7 +38067,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1389" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38096,7 +38093,7 @@
         <v>1.25</v>
       </c>
       <c r="G1390" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38122,7 +38119,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1391" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38148,7 +38145,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1392" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38200,7 +38197,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1394" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38226,7 +38223,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1395" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38252,7 +38249,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1396" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38278,7 +38275,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1397" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38408,7 +38405,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1402" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38434,7 +38431,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1403" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38460,7 +38457,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38486,7 +38483,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1405" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38512,7 +38509,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1406" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38538,7 +38535,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1407" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38564,7 +38561,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1408" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38590,7 +38587,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1409" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38616,7 +38613,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1410" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38642,7 +38639,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1411" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38668,7 +38665,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1412" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38694,7 +38691,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1413" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38720,7 +38717,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1414" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38746,7 +38743,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1415" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38772,7 +38769,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1416" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38798,7 +38795,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1417" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38824,7 +38821,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1418" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38850,7 +38847,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1419" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -38902,7 +38899,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1421" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -38928,7 +38925,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1422" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -38954,7 +38951,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1423" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -38980,7 +38977,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1424" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39006,7 +39003,7 @@
         <v>1.25</v>
       </c>
       <c r="G1425" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39032,7 +39029,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1426" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39058,7 +39055,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1427" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39084,7 +39081,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1428" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39110,7 +39107,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1429" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39136,7 +39133,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1430" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39162,7 +39159,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1431" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39188,7 +39185,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1432" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39214,7 +39211,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1433" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39318,7 +39315,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1437" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39344,7 +39341,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1438" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39370,7 +39367,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1439" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39396,7 +39393,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1440" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39422,7 +39419,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1441" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39448,7 +39445,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1442" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39474,7 +39471,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1443" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39500,7 +39497,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1444" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39526,7 +39523,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1445" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39552,7 +39549,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1446" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39578,7 +39575,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1447" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39604,7 +39601,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1448" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39630,7 +39627,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1449" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39656,7 +39653,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1450" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39682,7 +39679,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1451" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39708,7 +39705,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1452" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39734,7 +39731,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1453" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39760,7 +39757,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1454" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39786,7 +39783,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1455" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39812,7 +39809,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1456" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39838,7 +39835,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1457" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40020,7 +40017,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1464" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40098,7 +40095,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1467" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40124,7 +40121,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1468" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40384,7 +40381,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G1478" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41060,7 +41057,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1504" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41372,7 +41369,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1516" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41450,7 +41447,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1519" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41476,7 +41473,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1520" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41502,7 +41499,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1521" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41528,7 +41525,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1522" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41632,7 +41629,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1526" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41658,7 +41655,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1527" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41762,7 +41759,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1531" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41788,7 +41785,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1532" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41970,7 +41967,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1539" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42022,7 +42019,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1541" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42126,7 +42123,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1545" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42178,7 +42175,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1547" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42204,7 +42201,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1548" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42230,7 +42227,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1549" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42256,7 +42253,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1550" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42282,7 +42279,7 @@
         <v>1.25</v>
       </c>
       <c r="G1551" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42308,7 +42305,7 @@
         <v>1.25</v>
       </c>
       <c r="G1552" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42334,7 +42331,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1553" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42360,7 +42357,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1554" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42386,7 +42383,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1555" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42412,7 +42409,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1556" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42438,7 +42435,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1557" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42464,7 +42461,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1558" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42490,7 +42487,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1559" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42516,7 +42513,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1560" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42542,7 +42539,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1561" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42568,7 +42565,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1562" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42646,7 +42643,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1565" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42672,7 +42669,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1566" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42698,7 +42695,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1567" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42724,7 +42721,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1568" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42750,7 +42747,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1569" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42776,7 +42773,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1570" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42802,7 +42799,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1571" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42828,7 +42825,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1572" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42854,7 +42851,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1573" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -42880,7 +42877,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1574" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -42906,7 +42903,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1575" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -42932,7 +42929,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1576" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -42958,7 +42955,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1577" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -42984,7 +42981,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1578" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43010,7 +43007,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1579" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43036,7 +43033,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1580" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43062,7 +43059,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1581" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43088,7 +43085,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1582" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43114,7 +43111,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1583" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43140,7 +43137,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1584" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43166,7 +43163,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1585" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43192,7 +43189,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1586" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43218,7 +43215,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1587" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43374,7 +43371,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1593" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43400,7 +43397,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1594" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43452,7 +43449,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1596" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43478,7 +43475,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1597" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43530,7 +43527,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1599" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43634,7 +43631,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1603" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43660,7 +43657,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1604" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43686,7 +43683,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1605" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43712,7 +43709,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1606" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43738,7 +43735,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1607" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43764,7 +43761,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1608" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43790,7 +43787,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1609" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43868,7 +43865,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1612" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -43894,7 +43891,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1613" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43920,7 +43917,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1614" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43946,7 +43943,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1615" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -43972,7 +43969,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1616" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44024,7 +44021,7 @@
         <v>1.25</v>
       </c>
       <c r="G1618" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44050,7 +44047,7 @@
         <v>1.25</v>
       </c>
       <c r="G1619" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44076,7 +44073,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1620" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44102,7 +44099,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1621" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44154,7 +44151,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1623" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44284,7 +44281,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1628" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44336,7 +44333,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1630" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44466,7 +44463,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1635" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44492,7 +44489,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44518,7 +44515,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1637" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44544,7 +44541,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1638" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44570,7 +44567,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1639" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44596,7 +44593,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1640" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44622,7 +44619,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1641" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44648,7 +44645,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1642" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44856,7 +44853,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44908,7 +44905,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1652" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44934,7 +44931,7 @@
         <v>1.25</v>
       </c>
       <c r="G1653" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44960,7 +44957,7 @@
         <v>1.25</v>
       </c>
       <c r="G1654" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44986,7 +44983,7 @@
         <v>1.25</v>
       </c>
       <c r="G1655" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45012,7 +45009,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1656" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45038,7 +45035,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1657" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45064,7 +45061,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1658" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45090,7 +45087,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1659" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45116,7 +45113,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1660" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45142,7 +45139,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1661" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45168,7 +45165,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1662" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45194,7 +45191,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1663" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45220,7 +45217,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1664" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45272,7 +45269,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1666" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45298,7 +45295,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1667" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45324,7 +45321,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1668" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45350,7 +45347,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1669" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45402,7 +45399,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1671" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45428,7 +45425,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1672" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45480,7 +45477,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1674" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45532,7 +45529,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1676" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45584,7 +45581,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45662,7 +45659,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1681" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45714,7 +45711,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1683" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45740,7 +45737,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1684" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45766,7 +45763,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1685" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45844,7 +45841,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1688" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46000,7 +45997,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1694" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46026,7 +46023,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1695" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46052,7 +46049,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1696" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46078,7 +46075,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46130,7 +46127,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1699" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46182,7 +46179,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1701" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46312,7 +46309,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1706" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46364,7 +46361,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1708" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46468,7 +46465,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1712" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46520,7 +46517,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1714" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46546,7 +46543,7 @@
         <v>1.25</v>
       </c>
       <c r="G1715" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46572,7 +46569,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1716" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46598,7 +46595,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1717" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46624,7 +46621,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1718" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46650,7 +46647,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1719" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46676,7 +46673,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1720" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46702,7 +46699,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1721" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46728,7 +46725,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1722" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46754,7 +46751,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1723" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46806,7 +46803,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1725" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46832,7 +46829,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1726" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46858,7 +46855,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46988,7 +46985,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1732" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47040,7 +47037,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1734" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47066,7 +47063,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1735" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47248,7 +47245,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1742" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47274,7 +47271,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1743" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47300,7 +47297,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1744" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47326,7 +47323,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1745" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47352,7 +47349,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1746" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47378,7 +47375,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1747" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47404,7 +47401,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1748" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47430,7 +47427,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1749" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47456,7 +47453,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1750" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47482,7 +47479,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1751" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47508,7 +47505,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1752" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47534,7 +47531,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1753" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47560,7 +47557,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1754" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47586,7 +47583,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1755" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47742,7 +47739,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1761" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47794,7 +47791,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47846,7 +47843,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1765" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47872,7 +47869,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1766" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47898,7 +47895,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1767" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47924,7 +47921,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1768" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47950,7 +47947,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1769" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48080,7 +48077,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1774" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48106,7 +48103,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1775" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48236,7 +48233,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1780" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48340,7 +48337,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1784" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48366,7 +48363,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1785" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48392,7 +48389,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1786" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48418,7 +48415,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1787" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48444,7 +48441,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1788" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48470,7 +48467,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1789" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48522,7 +48519,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1791" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48548,7 +48545,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1792" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48782,7 +48779,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1801" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48808,7 +48805,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1802" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48834,7 +48831,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1803" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48860,7 +48857,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1804" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48886,7 +48883,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1805" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48912,7 +48909,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1806" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48938,7 +48935,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1807" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48964,7 +48961,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1808" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48990,7 +48987,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1809" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49016,7 +49013,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1810" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49042,7 +49039,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1811" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49068,7 +49065,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1812" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49094,7 +49091,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1813" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49172,7 +49169,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1816" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49198,7 +49195,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1817" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49224,7 +49221,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1818" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49250,7 +49247,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1819" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49276,7 +49273,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1820" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49302,7 +49299,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1821" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49328,7 +49325,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1822" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49354,7 +49351,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1823" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49380,7 +49377,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1824" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49406,7 +49403,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1825" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49432,7 +49429,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1826" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49458,7 +49455,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1827" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49484,7 +49481,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1828" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49510,7 +49507,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1829" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49536,7 +49533,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1830" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49562,7 +49559,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1831" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49588,7 +49585,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1832" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49614,7 +49611,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1833" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49640,7 +49637,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1834" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49666,7 +49663,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1835" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49692,7 +49689,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1836" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49718,7 +49715,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1837" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49744,7 +49741,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1838" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49770,7 +49767,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1839" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49796,7 +49793,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49822,7 +49819,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1841" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49848,7 +49845,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1842" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49874,7 +49871,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1843" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49900,7 +49897,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1844" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49926,7 +49923,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1845" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49952,7 +49949,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1846" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49978,7 +49975,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1847" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50004,7 +50001,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1848" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50030,7 +50027,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1849" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50056,7 +50053,7 @@
         <v>1.25</v>
       </c>
       <c r="G1850" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50082,7 +50079,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1851" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50238,7 +50235,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1857" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50290,7 +50287,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1859" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50342,7 +50339,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1861" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50498,7 +50495,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1867" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50524,7 +50521,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1868" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50706,7 +50703,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1875" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50732,7 +50729,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1876" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50758,7 +50755,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1877" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50784,7 +50781,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1878" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50810,7 +50807,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1879" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50836,7 +50833,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G1880" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50862,7 +50859,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1881" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50888,7 +50885,7 @@
         <v>1.37000000476837</v>
       </c>
       <c r="G1882" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50914,7 +50911,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1883" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50940,7 +50937,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1884" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50966,7 +50963,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1885" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50992,7 +50989,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1886" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51018,7 +51015,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1887" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51044,7 +51041,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1888" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51070,7 +51067,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1889" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51096,7 +51093,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1890" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51122,7 +51119,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1891" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51148,7 +51145,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1892" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51174,7 +51171,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1893" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51200,7 +51197,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1894" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51226,7 +51223,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1895" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51252,7 +51249,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1896" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51278,7 +51275,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1897" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51304,7 +51301,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1898" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51330,7 +51327,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1899" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51356,7 +51353,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1900" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51382,7 +51379,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1901" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51408,7 +51405,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1902" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51434,7 +51431,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G1903" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51460,7 +51457,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1904" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51486,7 +51483,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1905" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51512,7 +51509,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1906" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51538,7 +51535,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G1907" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51564,7 +51561,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1908" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51590,7 +51587,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G1909" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51616,7 +51613,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1910" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51642,7 +51639,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G1911" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51668,7 +51665,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1912" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51694,7 +51691,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1913" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51720,7 +51717,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51746,7 +51743,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1915" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51772,7 +51769,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1916" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51798,7 +51795,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1917" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51824,7 +51821,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51850,7 +51847,7 @@
         <v>1.25</v>
       </c>
       <c r="G1919" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51876,7 +51873,7 @@
         <v>1.25</v>
       </c>
       <c r="G1920" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51902,7 +51899,7 @@
         <v>1.25</v>
       </c>
       <c r="G1921" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51928,7 +51925,7 @@
         <v>1.25</v>
       </c>
       <c r="G1922" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51954,7 +51951,7 @@
         <v>1.25</v>
       </c>
       <c r="G1923" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51980,7 +51977,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1924" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52006,7 +52003,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1925" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52032,7 +52029,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1926" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52058,7 +52055,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1927" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52084,7 +52081,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1928" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52110,7 +52107,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1929" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52136,7 +52133,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1930" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52162,7 +52159,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1931" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52188,7 +52185,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1932" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52214,7 +52211,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52240,7 +52237,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1934" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52266,7 +52263,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1935" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52292,7 +52289,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1936" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52318,7 +52315,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1937" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52344,7 +52341,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1938" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52370,7 +52367,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1939" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52396,7 +52393,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1940" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52422,7 +52419,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1941" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52448,7 +52445,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1942" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52474,7 +52471,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1943" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52500,7 +52497,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1944" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52526,7 +52523,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1945" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52552,7 +52549,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1946" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52578,7 +52575,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1947" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52604,7 +52601,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1948" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52630,7 +52627,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1949" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52656,7 +52653,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1950" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52682,7 +52679,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1951" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52708,7 +52705,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1952" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52734,7 +52731,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1953" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52760,7 +52757,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1954" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52786,7 +52783,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1955" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52812,7 +52809,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1956" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52838,7 +52835,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1957" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52864,7 +52861,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1958" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52890,7 +52887,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1959" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52916,7 +52913,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1960" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52942,7 +52939,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1961" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52968,7 +52965,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1962" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52994,7 +52991,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1963" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53020,7 +53017,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53046,7 +53043,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1965" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53072,7 +53069,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1966" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53098,7 +53095,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1967" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53124,7 +53121,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1968" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53150,7 +53147,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1969" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53176,7 +53173,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1970" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53202,7 +53199,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1971" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53228,7 +53225,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1972" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53254,7 +53251,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1973" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53280,7 +53277,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1974" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53306,7 +53303,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1975" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53332,7 +53329,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1976" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53358,7 +53355,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53384,7 +53381,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53410,7 +53407,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1979" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53436,7 +53433,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53462,7 +53459,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53488,7 +53485,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1982" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53514,7 +53511,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53540,7 +53537,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1984" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53566,7 +53563,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1985" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53592,7 +53589,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1986" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53618,7 +53615,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1987" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53644,7 +53641,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1988" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53670,7 +53667,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1989" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53696,7 +53693,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1990" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53722,7 +53719,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1991" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53748,7 +53745,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1992" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53774,7 +53771,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1993" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53800,7 +53797,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1994" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53826,7 +53823,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1995" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53852,7 +53849,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1996" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53878,7 +53875,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1997" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53904,7 +53901,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1998" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53930,7 +53927,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1999" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53956,7 +53953,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2000" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53982,7 +53979,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2001" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54008,7 +54005,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2002" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54034,7 +54031,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G2003" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54060,7 +54057,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G2004" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54086,7 +54083,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2005" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54112,7 +54109,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2006" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54138,7 +54135,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54164,7 +54161,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2008" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54190,7 +54187,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2009" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54216,7 +54213,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2010" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54242,7 +54239,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2011" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54268,7 +54265,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2012" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54294,7 +54291,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2013" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54320,7 +54317,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2014" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54346,7 +54343,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2015" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54372,7 +54369,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2016" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54398,7 +54395,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54424,7 +54421,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2018" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54450,7 +54447,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2019" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54476,7 +54473,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2020" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54502,7 +54499,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2021" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54528,7 +54525,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2022" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54554,7 +54551,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2023" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54580,7 +54577,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2024" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54606,7 +54603,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2025" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54632,7 +54629,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54658,7 +54655,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54684,7 +54681,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2028" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54710,7 +54707,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G2029" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54736,7 +54733,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2030" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54762,7 +54759,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2031" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54788,7 +54785,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2032" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54814,7 +54811,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2033" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54840,7 +54837,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2034" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54866,7 +54863,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2035" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54892,7 +54889,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2036" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54918,7 +54915,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2037" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54944,7 +54941,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2038" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54970,7 +54967,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2039" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54996,7 +54993,7 @@
         <v>1.25</v>
       </c>
       <c r="G2040" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55022,7 +55019,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2041" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55048,7 +55045,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2042" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55074,7 +55071,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2043" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55100,7 +55097,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2044" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55126,7 +55123,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2045" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55152,7 +55149,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2046" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55178,7 +55175,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55204,7 +55201,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2048" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55230,7 +55227,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55256,7 +55253,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2050" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55282,7 +55279,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2051" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55308,7 +55305,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2052" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55334,7 +55331,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2053" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55360,7 +55357,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2054" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55386,7 +55383,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2055" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55412,7 +55409,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2056" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55438,7 +55435,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55464,7 +55461,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2058" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55490,7 +55487,7 @@
         <v>1.25</v>
       </c>
       <c r="G2059" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55516,7 +55513,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2060" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55542,7 +55539,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2061" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55568,7 +55565,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2062" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55594,7 +55591,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2063" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55620,7 +55617,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2064" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55646,7 +55643,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2065" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55672,7 +55669,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2066" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55698,7 +55695,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2067" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55724,7 +55721,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2068" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55750,7 +55747,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2069" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55776,7 +55773,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2070" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55802,7 +55799,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G2071" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55828,7 +55825,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2072" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55854,7 +55851,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2073" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55880,7 +55877,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G2074" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55906,7 +55903,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2075" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55932,7 +55929,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G2076" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55958,7 +55955,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2077" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55984,7 +55981,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2078" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56010,7 +56007,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2079" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56036,7 +56033,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2080" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56062,7 +56059,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56088,7 +56085,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2082" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56114,7 +56111,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2083" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56140,7 +56137,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2084" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56166,7 +56163,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2085" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56192,7 +56189,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2086" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56218,7 +56215,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56244,7 +56241,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2088" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56270,7 +56267,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2089" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56296,7 +56293,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2090" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56322,7 +56319,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2091" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56348,7 +56345,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2092" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56374,7 +56371,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2093" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56400,7 +56397,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2094" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56426,7 +56423,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2095" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56452,7 +56449,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2096" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56478,7 +56475,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2097" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56504,7 +56501,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2098" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56530,7 +56527,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2099" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56556,7 +56553,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2100" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56582,7 +56579,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2101" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56608,7 +56605,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2102" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56634,7 +56631,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2103" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56660,7 +56657,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2104" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56686,7 +56683,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2105" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56712,7 +56709,7 @@
         <v>1.25</v>
       </c>
       <c r="G2106" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56738,7 +56735,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2107" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56764,7 +56761,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2108" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56790,7 +56787,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2109" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56816,7 +56813,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2110" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56842,7 +56839,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2111" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56868,7 +56865,7 @@
         <v>1.25</v>
       </c>
       <c r="G2112" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56894,7 +56891,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2113" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56920,7 +56917,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2114" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56946,7 +56943,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2115" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56972,7 +56969,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2116" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56998,7 +56995,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2117" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57024,7 +57021,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2118" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57050,7 +57047,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2119" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57076,7 +57073,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2120" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57102,7 +57099,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2121" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57128,7 +57125,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2122" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57154,7 +57151,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2123" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57180,7 +57177,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2124" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57206,7 +57203,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57232,7 +57229,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2126" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57258,7 +57255,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2127" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57284,7 +57281,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2128" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57310,7 +57307,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2129" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57336,7 +57333,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2130" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57362,7 +57359,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2131" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57388,7 +57385,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2132" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57414,7 +57411,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2133" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57440,7 +57437,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2134" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57466,7 +57463,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2135" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57492,7 +57489,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2136" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57518,7 +57515,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2137" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57544,7 +57541,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2138" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57570,7 +57567,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G2139" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57596,7 +57593,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G2140" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57622,7 +57619,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G2141" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57648,7 +57645,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G2142" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57674,7 +57671,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G2143" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57700,7 +57697,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2144" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57726,7 +57723,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G2145" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57752,7 +57749,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2146" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57778,7 +57775,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G2147" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57804,7 +57801,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2148" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57830,7 +57827,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G2149" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57856,7 +57853,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2150" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57882,7 +57879,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G2151" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57908,7 +57905,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2152" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -57934,7 +57931,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2153" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -57960,7 +57957,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G2154" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -57986,7 +57983,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G2155" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58012,7 +58009,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G2156" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58038,7 +58035,7 @@
         <v>1</v>
       </c>
       <c r="G2157" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58046,7 +58043,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.2941550926</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>3600</v>
@@ -58058,13 +58055,13 @@
         <v>0.964999973773956</v>
       </c>
       <c r="E2158" t="n">
-        <v>1.00999999046326</v>
+        <v>0.964999973773956</v>
       </c>
       <c r="F2158" t="n">
         <v>0.980000019073486</v>
       </c>
       <c r="G2158" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>

--- a/data/LMG.MI.xlsx
+++ b/data/LMG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="537">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53471577167511</t>
+    <t xml:space="preserve">1.53471565246582</t>
   </si>
   <si>
     <t xml:space="preserve">LMG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50033140182495</t>
+    <t xml:space="preserve">1.50033152103424</t>
   </si>
   <si>
     <t xml:space="preserve">1.5514885187149</t>
@@ -62,34 +62,34 @@
     <t xml:space="preserve">1.43575584888458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39214658737183</t>
+    <t xml:space="preserve">1.39214646816254</t>
   </si>
   <si>
     <t xml:space="preserve">1.41646707057953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42569208145142</t>
+    <t xml:space="preserve">1.42569220066071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47433340549469</t>
+    <t xml:space="preserve">1.47433352470398</t>
   </si>
   <si>
     <t xml:space="preserve">1.4416264295578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46762442588806</t>
+    <t xml:space="preserve">1.46762430667877</t>
   </si>
   <si>
     <t xml:space="preserve">1.50871789455414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45923781394958</t>
+    <t xml:space="preserve">1.45923805236816</t>
   </si>
   <si>
     <t xml:space="preserve">1.40640342235565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37453496456146</t>
+    <t xml:space="preserve">1.37453508377075</t>
   </si>
   <si>
     <t xml:space="preserve">1.36698722839355</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">1.40053284168243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40891933441162</t>
+    <t xml:space="preserve">1.40891921520233</t>
   </si>
   <si>
     <t xml:space="preserve">1.3787282705307</t>
@@ -107,22 +107,22 @@
     <t xml:space="preserve">1.44581961631775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52632915973663</t>
+    <t xml:space="preserve">1.52632927894592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49278366565704</t>
+    <t xml:space="preserve">1.49278354644775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57245481014252</t>
+    <t xml:space="preserve">1.57245469093323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56406831741333</t>
+    <t xml:space="preserve">1.56406819820404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5363929271698</t>
+    <t xml:space="preserve">1.53639304637909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55987501144409</t>
+    <t xml:space="preserve">1.5598748922348</t>
   </si>
   <si>
     <t xml:space="preserve">1.62025725841522</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">1.68567132949829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74437630176544</t>
+    <t xml:space="preserve">1.74437618255615</t>
   </si>
   <si>
     <t xml:space="preserve">1.74773108959198</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">1.71753990650177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61857986450195</t>
+    <t xml:space="preserve">1.61857998371124</t>
   </si>
   <si>
     <t xml:space="preserve">1.59342074394226</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">1.57664787769318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51962029933929</t>
+    <t xml:space="preserve">1.51962018013</t>
   </si>
   <si>
     <t xml:space="preserve">1.50116991996765</t>
@@ -158,13 +158,13 @@
     <t xml:space="preserve">1.4734947681427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51932418346405</t>
+    <t xml:space="preserve">1.51932430267334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49662160873413</t>
+    <t xml:space="preserve">1.49662148952484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46955323219299</t>
+    <t xml:space="preserve">1.46955335140228</t>
   </si>
   <si>
     <t xml:space="preserve">1.48439717292786</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">1.49050939083099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47479212284088</t>
+    <t xml:space="preserve">1.47479224205017</t>
   </si>
   <si>
     <t xml:space="preserve">1.46606051921844</t>
@@ -191,19 +191,19 @@
     <t xml:space="preserve">1.43200671672821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39707970619202</t>
+    <t xml:space="preserve">1.39707982540131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35953319072723</t>
+    <t xml:space="preserve">1.35953330993652</t>
   </si>
   <si>
     <t xml:space="preserve">1.38310897350311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37961614131927</t>
+    <t xml:space="preserve">1.37961637973785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31936728954315</t>
+    <t xml:space="preserve">1.31936717033386</t>
   </si>
   <si>
     <t xml:space="preserve">1.3534209728241</t>
@@ -218,10 +218,10 @@
     <t xml:space="preserve">1.47391903400421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44073832035065</t>
+    <t xml:space="preserve">1.44073843955994</t>
   </si>
   <si>
-    <t xml:space="preserve">1.388347864151</t>
+    <t xml:space="preserve">1.38834798336029</t>
   </si>
   <si>
     <t xml:space="preserve">1.32722568511963</t>
@@ -233,28 +233,28 @@
     <t xml:space="preserve">1.27832782268524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25737178325653</t>
+    <t xml:space="preserve">1.25737190246582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26173770427704</t>
+    <t xml:space="preserve">1.26173758506775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28182077407837</t>
+    <t xml:space="preserve">1.28182065486908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29229891300201</t>
+    <t xml:space="preserve">1.29229867458344</t>
   </si>
   <si>
     <t xml:space="preserve">1.28356695175171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23990833759308</t>
+    <t xml:space="preserve">1.2399080991745</t>
   </si>
   <si>
     <t xml:space="preserve">1.19450318813324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27483522891998</t>
+    <t xml:space="preserve">1.27483534812927</t>
   </si>
   <si>
     <t xml:space="preserve">1.21895205974579</t>
@@ -263,10 +263,10 @@
     <t xml:space="preserve">1.2023618221283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19188356399536</t>
+    <t xml:space="preserve">1.19188368320465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22244465351105</t>
+    <t xml:space="preserve">1.22244477272034</t>
   </si>
   <si>
     <t xml:space="preserve">1.17878592014313</t>
@@ -290,97 +290,97 @@
     <t xml:space="preserve">1.1002002954483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13076150417328</t>
+    <t xml:space="preserve">1.13076138496399</t>
   </si>
   <si>
     <t xml:space="preserve">1.11067831516266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11766362190247</t>
+    <t xml:space="preserve">1.11766374111176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08273673057556</t>
+    <t xml:space="preserve">1.08273684978485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05217576026917</t>
+    <t xml:space="preserve">1.05217564105988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02685368061066</t>
+    <t xml:space="preserve">1.02685356140137</t>
   </si>
   <si>
     <t xml:space="preserve">1.04344391822815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05654144287109</t>
+    <t xml:space="preserve">1.05654156208038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04780983924866</t>
+    <t xml:space="preserve">1.04780972003937</t>
   </si>
   <si>
     <t xml:space="preserve">0.999785184860229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01200950145721</t>
+    <t xml:space="preserve">1.0120096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985814332962036</t>
+    <t xml:space="preserve">0.985814213752747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.927311718463898</t>
+    <t xml:space="preserve">0.927311658859253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903735876083374</t>
+    <t xml:space="preserve">0.903735935688019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993672966957092</t>
+    <t xml:space="preserve">0.993672907352448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951760590076447</t>
+    <t xml:space="preserve">0.951760530471802</t>
   </si>
   <si>
     <t xml:space="preserve">0.938663005828857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935170292854309</t>
+    <t xml:space="preserve">0.93517017364502</t>
   </si>
   <si>
     <t xml:space="preserve">0.909848213195801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948267757892609</t>
+    <t xml:space="preserve">0.948267817497253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991926610469818</t>
+    <t xml:space="preserve">0.991926550865173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956999599933624</t>
+    <t xml:space="preserve">0.956999540328979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960492193698883</t>
+    <t xml:space="preserve">0.960492312908173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00939011573792</t>
+    <t xml:space="preserve">1.00938999652863</t>
   </si>
   <si>
     <t xml:space="preserve">1.00415098667145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10107338428497</t>
+    <t xml:space="preserve">1.10107350349426</t>
   </si>
   <si>
     <t xml:space="preserve">1.03471207618713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03209257125854</t>
+    <t xml:space="preserve">1.03209269046783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04519021511078</t>
+    <t xml:space="preserve">1.04519033432007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03907811641693</t>
+    <t xml:space="preserve">1.03907799720764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03383886814117</t>
+    <t xml:space="preserve">1.03383898735046</t>
   </si>
   <si>
     <t xml:space="preserve">0.977955758571625</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">1.03034627437592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01113629341125</t>
+    <t xml:space="preserve">1.01113653182983</t>
   </si>
   <si>
     <t xml:space="preserve">1.03733158111572</t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">0.995419323444366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10456621646881</t>
+    <t xml:space="preserve">1.10456609725952</t>
   </si>
   <si>
     <t xml:space="preserve">1.10543930530548</t>
@@ -428,19 +428,19 @@
     <t xml:space="preserve">1.06963920593262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09845387935638</t>
+    <t xml:space="preserve">1.09845376014709</t>
   </si>
   <si>
     <t xml:space="preserve">1.15259087085724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1857715845108</t>
+    <t xml:space="preserve">1.18577146530151</t>
   </si>
   <si>
     <t xml:space="preserve">1.19799590110779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24776685237885</t>
+    <t xml:space="preserve">1.24776673316956</t>
   </si>
   <si>
     <t xml:space="preserve">1.24863994121552</t>
@@ -449,10 +449,10 @@
     <t xml:space="preserve">1.31063544750214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25824499130249</t>
+    <t xml:space="preserve">1.2582448720932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26610362529755</t>
+    <t xml:space="preserve">1.26610350608826</t>
   </si>
   <si>
     <t xml:space="preserve">1.27046942710876</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">1.20323491096497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24427402019501</t>
+    <t xml:space="preserve">1.2442741394043</t>
   </si>
   <si>
     <t xml:space="preserve">1.24689364433289</t>
@@ -473,34 +473,34 @@
     <t xml:space="preserve">1.20498132705688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19624936580658</t>
+    <t xml:space="preserve">1.19624948501587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24340093135834</t>
+    <t xml:space="preserve">1.24340105056763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2137131690979</t>
+    <t xml:space="preserve">1.21371304988861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29142570495605</t>
+    <t xml:space="preserve">1.29142546653748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30976223945618</t>
+    <t xml:space="preserve">1.30976212024689</t>
   </si>
   <si>
     <t xml:space="preserve">1.28967916965485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21196663379669</t>
+    <t xml:space="preserve">1.21196675300598</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18315196037292</t>
+    <t xml:space="preserve">1.18315184116364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18751788139343</t>
+    <t xml:space="preserve">1.18751764297485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17703974246979</t>
+    <t xml:space="preserve">1.1770396232605</t>
   </si>
   <si>
     <t xml:space="preserve">1.1700541973114</t>
@@ -509,22 +509,22 @@
     <t xml:space="preserve">1.22768378257751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4669337272644</t>
+    <t xml:space="preserve">1.46693360805511</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45645546913147</t>
+    <t xml:space="preserve">1.45645558834076</t>
   </si>
   <si>
     <t xml:space="preserve">1.45994830131531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45820188522339</t>
+    <t xml:space="preserve">1.45820200443268</t>
   </si>
   <si>
     <t xml:space="preserve">1.52368998527527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56036341190338</t>
+    <t xml:space="preserve">1.56036329269409</t>
   </si>
   <si>
     <t xml:space="preserve">1.52019739151001</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">1.55337810516357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55425119400024</t>
+    <t xml:space="preserve">1.55425107479095</t>
   </si>
   <si>
     <t xml:space="preserve">1.5367876291275</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">1.65466630458832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70269083976746</t>
+    <t xml:space="preserve">1.70269095897675</t>
   </si>
   <si>
     <t xml:space="preserve">1.72888612747192</t>
@@ -557,31 +557,31 @@
     <t xml:space="preserve">1.73674464225769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81096434593201</t>
+    <t xml:space="preserve">1.8109644651413</t>
   </si>
   <si>
     <t xml:space="preserve">1.83366692066193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85113060474396</t>
+    <t xml:space="preserve">1.85113036632538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85986232757568</t>
+    <t xml:space="preserve">1.85986256599426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72277402877808</t>
+    <t xml:space="preserve">1.72277390956879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67038345336914</t>
+    <t xml:space="preserve">1.67038333415985</t>
   </si>
   <si>
     <t xml:space="preserve">1.74634969234467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69046652317047</t>
+    <t xml:space="preserve">1.69046640396118</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76032054424286</t>
+    <t xml:space="preserve">1.76032042503357</t>
   </si>
   <si>
     <t xml:space="preserve">1.68697369098663</t>
@@ -590,7 +590,7 @@
     <t xml:space="preserve">1.67649567127228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7550812959671</t>
+    <t xml:space="preserve">1.75508141517639</t>
   </si>
   <si>
     <t xml:space="preserve">1.75682783126831</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">1.81620359420776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79874014854431</t>
+    <t xml:space="preserve">1.79874002933502</t>
   </si>
   <si>
     <t xml:space="preserve">1.72801291942596</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">1.82510709762573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92351996898651</t>
+    <t xml:space="preserve">1.9235200881958</t>
   </si>
   <si>
     <t xml:space="preserve">1.87878668308258</t>
@@ -629,31 +629,31 @@
     <t xml:space="preserve">1.86089360713959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86984038352966</t>
+    <t xml:space="preserve">1.86984026432037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03982591629028</t>
+    <t xml:space="preserve">2.0398256778717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47642016410828</t>
+    <t xml:space="preserve">2.4764199256897</t>
   </si>
   <si>
     <t xml:space="preserve">2.57662224769592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9470112323761</t>
+    <t xml:space="preserve">2.94701147079468</t>
   </si>
   <si>
     <t xml:space="preserve">2.95237946510315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85396671295166</t>
+    <t xml:space="preserve">2.85396695137024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75913286209106</t>
+    <t xml:space="preserve">2.75913310050964</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58556842803955</t>
+    <t xml:space="preserve">2.58556866645813</t>
   </si>
   <si>
     <t xml:space="preserve">2.56767535209656</t>
@@ -662,10 +662,10 @@
     <t xml:space="preserve">2.50504922866821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46747303009033</t>
+    <t xml:space="preserve">2.46747326850891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59809398651123</t>
+    <t xml:space="preserve">2.59809374809265</t>
   </si>
   <si>
     <t xml:space="preserve">2.70187449455261</t>
@@ -674,22 +674,22 @@
     <t xml:space="preserve">2.90764617919922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79134035110474</t>
+    <t xml:space="preserve">2.79134011268616</t>
   </si>
   <si>
     <t xml:space="preserve">2.60882973670959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56946468353271</t>
+    <t xml:space="preserve">2.56946492195129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57841157913208</t>
+    <t xml:space="preserve">2.57841110229492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54978203773499</t>
+    <t xml:space="preserve">2.54978227615356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52473187446594</t>
+    <t xml:space="preserve">2.52473163604736</t>
   </si>
   <si>
     <t xml:space="preserve">2.55872869491577</t>
@@ -704,10 +704,10 @@
     <t xml:space="preserve">2.59451532363892</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54083561897278</t>
+    <t xml:space="preserve">2.5408353805542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56230759620667</t>
+    <t xml:space="preserve">2.56230735778809</t>
   </si>
   <si>
     <t xml:space="preserve">2.56409668922424</t>
@@ -719,16 +719,16 @@
     <t xml:space="preserve">2.5658860206604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58199000358582</t>
+    <t xml:space="preserve">2.58198976516724</t>
   </si>
   <si>
     <t xml:space="preserve">2.6732451915741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52294254302979</t>
+    <t xml:space="preserve">2.52294230461121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48536682128906</t>
+    <t xml:space="preserve">2.48536658287048</t>
   </si>
   <si>
     <t xml:space="preserve">2.53188896179199</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">2.48715591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43347644805908</t>
+    <t xml:space="preserve">2.4334762096405</t>
   </si>
   <si>
     <t xml:space="preserve">2.41916179656982</t>
@@ -752,16 +752,16 @@
     <t xml:space="preserve">2.41379380226135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36548209190369</t>
+    <t xml:space="preserve">2.36548233032227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21875762939453</t>
+    <t xml:space="preserve">2.21875786781311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21338963508606</t>
+    <t xml:space="preserve">2.21338987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15792107582092</t>
+    <t xml:space="preserve">2.15792083740234</t>
   </si>
   <si>
     <t xml:space="preserve">2.14718508720398</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">2.18654990196228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20981121063232</t>
+    <t xml:space="preserve">2.20981097221375</t>
   </si>
   <si>
     <t xml:space="preserve">2.22054719924927</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">2.17581415176392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15613174438477</t>
+    <t xml:space="preserve">2.15613150596619</t>
   </si>
   <si>
     <t xml:space="preserve">2.17402482032776</t>
@@ -794,7 +794,7 @@
     <t xml:space="preserve">2.14002776145935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11139845848083</t>
+    <t xml:space="preserve">2.11139869689941</t>
   </si>
   <si>
     <t xml:space="preserve">2.30285573005676</t>
@@ -803,16 +803,16 @@
     <t xml:space="preserve">2.27064824104309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17223525047302</t>
+    <t xml:space="preserve">2.1722354888916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19549679756165</t>
+    <t xml:space="preserve">2.19549655914307</t>
   </si>
   <si>
     <t xml:space="preserve">2.25275492668152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23665118217468</t>
+    <t xml:space="preserve">2.2366509437561</t>
   </si>
   <si>
     <t xml:space="preserve">2.2151792049408</t>
@@ -821,13 +821,13 @@
     <t xml:space="preserve">2.24738717079163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24559760093689</t>
+    <t xml:space="preserve">2.24559783935547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26349067687988</t>
+    <t xml:space="preserve">2.26349091529846</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37621784210205</t>
+    <t xml:space="preserve">2.37621808052063</t>
   </si>
   <si>
     <t xml:space="preserve">2.31717038154602</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">2.3815860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33506369590759</t>
+    <t xml:space="preserve">2.33506345748901</t>
   </si>
   <si>
     <t xml:space="preserve">2.31895995140076</t>
@@ -848,16 +848,16 @@
     <t xml:space="preserve">2.26528024673462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28496241569519</t>
+    <t xml:space="preserve">2.28496265411377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32611680030823</t>
+    <t xml:space="preserve">2.32611703872681</t>
   </si>
   <si>
     <t xml:space="preserve">2.3440101146698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44242286682129</t>
+    <t xml:space="preserve">2.44242310523987</t>
   </si>
   <si>
     <t xml:space="preserve">2.35116744041443</t>
@@ -872,19 +872,19 @@
     <t xml:space="preserve">2.29748797416687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30464506149292</t>
+    <t xml:space="preserve">2.3046452999115</t>
   </si>
   <si>
     <t xml:space="preserve">2.38695406913757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29927706718445</t>
+    <t xml:space="preserve">2.29927754402161</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34222078323364</t>
+    <t xml:space="preserve">2.34222102165222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54262495040894</t>
+    <t xml:space="preserve">2.54262471199036</t>
   </si>
   <si>
     <t xml:space="preserve">2.6553521156311</t>
@@ -896,10 +896,10 @@
     <t xml:space="preserve">2.62314438819885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61240839958191</t>
+    <t xml:space="preserve">2.61240863800049</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66608786582947</t>
+    <t xml:space="preserve">2.66608810424805</t>
   </si>
   <si>
     <t xml:space="preserve">2.60167241096497</t>
@@ -914,25 +914,25 @@
     <t xml:space="preserve">2.42274045944214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4710521697998</t>
+    <t xml:space="preserve">2.47105240821838</t>
   </si>
   <si>
     <t xml:space="preserve">2.43526554107666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51936388015747</t>
+    <t xml:space="preserve">2.51936364173889</t>
   </si>
   <si>
     <t xml:space="preserve">2.45136952400208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46031618118286</t>
+    <t xml:space="preserve">2.46031594276428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50862765312195</t>
+    <t xml:space="preserve">2.50862789154053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49431324005127</t>
+    <t xml:space="preserve">2.49431347846985</t>
   </si>
   <si>
     <t xml:space="preserve">2.43705487251282</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">2.40663647651672</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49252414703369</t>
+    <t xml:space="preserve">2.49252390861511</t>
   </si>
   <si>
     <t xml:space="preserve">2.41558313369751</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">2.29390931129456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2277045249939</t>
+    <t xml:space="preserve">2.22770428657532</t>
   </si>
   <si>
     <t xml:space="preserve">2.20623278617859</t>
@@ -959,10 +959,10 @@
     <t xml:space="preserve">2.28138422966003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19191789627075</t>
+    <t xml:space="preserve">2.19191813468933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18297147750854</t>
+    <t xml:space="preserve">2.18297123908997</t>
   </si>
   <si>
     <t xml:space="preserve">2.12929201126099</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">2.13823843002319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98614609241486</t>
+    <t xml:space="preserve">1.98614597320557</t>
   </si>
   <si>
     <t xml:space="preserve">2.06666541099548</t>
@@ -983,28 +983,28 @@
     <t xml:space="preserve">2.05771899223328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00403904914856</t>
+    <t xml:space="preserve">2.00403928756714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07561206817627</t>
+    <t xml:space="preserve">2.07561230659485</t>
   </si>
   <si>
     <t xml:space="preserve">1.99509274959564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0129861831665</t>
+    <t xml:space="preserve">2.01298594474792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96825277805328</t>
+    <t xml:space="preserve">1.96825289726257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97719955444336</t>
+    <t xml:space="preserve">1.97719943523407</t>
   </si>
   <si>
     <t xml:space="preserve">1.95035970211029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93246638774872</t>
+    <t xml:space="preserve">1.93246650695801</t>
   </si>
   <si>
     <t xml:space="preserve">2.03087902069092</t>
@@ -1013,19 +1013,19 @@
     <t xml:space="preserve">2.04877233505249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15873908996582</t>
+    <t xml:space="preserve">2.1587393283844</t>
   </si>
   <si>
     <t xml:space="preserve">2.13129758834839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0581202507019</t>
+    <t xml:space="preserve">2.05812001228333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99408972263336</t>
+    <t xml:space="preserve">1.99408960342407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93920648097992</t>
+    <t xml:space="preserve">1.93920636177063</t>
   </si>
   <si>
     <t xml:space="preserve">1.96664822101593</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">2.03067851066589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01238393783569</t>
+    <t xml:space="preserve">2.01238417625427</t>
   </si>
   <si>
     <t xml:space="preserve">1.94835388660431</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">1.98494267463684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95750093460083</t>
+    <t xml:space="preserve">1.95750081539154</t>
   </si>
   <si>
     <t xml:space="preserve">1.9026175737381</t>
@@ -1058,16 +1058,16 @@
     <t xml:space="preserve">2.00323700904846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93005931377411</t>
+    <t xml:space="preserve">1.93005919456482</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97579514980316</t>
+    <t xml:space="preserve">1.97579526901245</t>
   </si>
   <si>
     <t xml:space="preserve">2.02153134346008</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07641434669495</t>
+    <t xml:space="preserve">2.07641458511353</t>
   </si>
   <si>
     <t xml:space="preserve">2.09470891952515</t>
@@ -1076,10 +1076,10 @@
     <t xml:space="preserve">1.86602878570557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84773445129395</t>
+    <t xml:space="preserve">1.84773457050323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87517607212067</t>
+    <t xml:space="preserve">1.87517595291138</t>
   </si>
   <si>
     <t xml:space="preserve">1.83858728408813</t>
@@ -1112,13 +1112,13 @@
     <t xml:space="preserve">1.73339450359344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64649593830109</t>
+    <t xml:space="preserve">1.64649605751038</t>
   </si>
   <si>
     <t xml:space="preserve">1.6739376783371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63277530670166</t>
+    <t xml:space="preserve">1.63277518749237</t>
   </si>
   <si>
     <t xml:space="preserve">1.66936421394348</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">1.74254167079926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70137917995453</t>
+    <t xml:space="preserve">1.70137929916382</t>
   </si>
   <si>
     <t xml:space="preserve">1.64192247390747</t>
@@ -1154,10 +1154,10 @@
     <t xml:space="preserve">1.65564322471619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62362802028656</t>
+    <t xml:space="preserve">1.62362813949585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48184645175934</t>
+    <t xml:space="preserve">1.48184633255005</t>
   </si>
   <si>
     <t xml:space="preserve">1.48642003536224</t>
@@ -1166,10 +1166,10 @@
     <t xml:space="preserve">1.38122725486755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35378575325012</t>
+    <t xml:space="preserve">1.35378563404083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29890251159668</t>
+    <t xml:space="preserve">1.29890239238739</t>
   </si>
   <si>
     <t xml:space="preserve">1.26231372356415</t>
@@ -1187,10 +1187,10 @@
     <t xml:space="preserve">1.46355211734772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49556720256805</t>
+    <t xml:space="preserve">1.49556732177734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.449831366539</t>
+    <t xml:space="preserve">1.44983124732971</t>
   </si>
   <si>
     <t xml:space="preserve">1.44525766372681</t>
@@ -1214,13 +1214,13 @@
     <t xml:space="preserve">1.45440483093262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47269916534424</t>
+    <t xml:space="preserve">1.47269928455353</t>
   </si>
   <si>
     <t xml:space="preserve">1.4269632101059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60076010227203</t>
+    <t xml:space="preserve">1.60075998306274</t>
   </si>
   <si>
     <t xml:space="preserve">1.57789206504822</t>
@@ -1238,22 +1238,22 @@
     <t xml:space="preserve">1.61905443668365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62820172309875</t>
+    <t xml:space="preserve">1.62820160388947</t>
   </si>
   <si>
     <t xml:space="preserve">1.58703923225403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5504504442215</t>
+    <t xml:space="preserve">1.55045056343079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58246564865112</t>
+    <t xml:space="preserve">1.58246576786041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63734877109528</t>
+    <t xml:space="preserve">1.63734889030457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5733186006546</t>
+    <t xml:space="preserve">1.57331848144531</t>
   </si>
   <si>
     <t xml:space="preserve">1.59161293506622</t>
@@ -1404,6 +1404,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.6940826177597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62820172309875</t>
   </si>
   <si>
     <t xml:space="preserve">1.61879014968872</t>
@@ -28915,7 +28918,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1037" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28967,7 +28970,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1039" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29071,7 +29074,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G1043" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29097,7 +29100,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1044" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29149,7 +29152,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1046" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29279,7 +29282,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1051" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29539,7 +29542,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1061" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29565,7 +29568,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1062" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29591,7 +29594,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1063" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29617,7 +29620,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29643,7 +29646,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1065" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29669,7 +29672,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1066" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29695,7 +29698,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1067" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29721,7 +29724,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1068" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29747,7 +29750,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1069" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29773,7 +29776,7 @@
         <v>1.25</v>
       </c>
       <c r="G1070" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29799,7 +29802,7 @@
         <v>1.25</v>
       </c>
       <c r="G1071" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29825,7 +29828,7 @@
         <v>1.25</v>
       </c>
       <c r="G1072" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29851,7 +29854,7 @@
         <v>1.25</v>
       </c>
       <c r="G1073" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30033,7 +30036,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1080" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -30059,7 +30062,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1081" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -30085,7 +30088,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1082" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -30137,7 +30140,7 @@
         <v>1.25</v>
       </c>
       <c r="G1084" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30241,7 +30244,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1088" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30293,7 +30296,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1090" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30345,7 +30348,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1092" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30371,7 +30374,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1093" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30397,7 +30400,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1094" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30423,7 +30426,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1095" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30449,7 +30452,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1096" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30475,7 +30478,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1097" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30501,7 +30504,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1098" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30527,7 +30530,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1099" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30553,7 +30556,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1100" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30579,7 +30582,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1101" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30605,7 +30608,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1102" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30631,7 +30634,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1103" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30657,7 +30660,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1104" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30683,7 +30686,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1105" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30709,7 +30712,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30735,7 +30738,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1107" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30761,7 +30764,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1108" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30787,7 +30790,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1109" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30813,7 +30816,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1110" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30839,7 +30842,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1111" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30865,7 +30868,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1112" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30891,7 +30894,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1113" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30917,7 +30920,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1114" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30943,7 +30946,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1115" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30969,7 +30972,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1116" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30995,7 +30998,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1117" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31021,7 +31024,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1118" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31047,7 +31050,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1119" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31073,7 +31076,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1120" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -31099,7 +31102,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1121" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31125,7 +31128,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1122" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31151,7 +31154,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1123" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31177,7 +31180,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1124" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31203,7 +31206,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1125" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31229,7 +31232,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1126" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31255,7 +31258,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1127" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31281,7 +31284,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1128" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31307,7 +31310,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1129" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31333,7 +31336,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1130" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31359,7 +31362,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1131" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31385,7 +31388,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1132" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31411,7 +31414,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1133" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31437,7 +31440,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1134" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31463,7 +31466,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1135" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31489,7 +31492,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1136" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31515,7 +31518,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1137" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31541,7 +31544,7 @@
         <v>1.25</v>
       </c>
       <c r="G1138" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31567,7 +31570,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1139" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31593,7 +31596,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1140" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31619,7 +31622,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1141" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31645,7 +31648,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1142" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31671,7 +31674,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1143" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31697,7 +31700,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31723,7 +31726,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1145" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31749,7 +31752,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1146" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31775,7 +31778,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1147" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31801,7 +31804,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1148" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31827,7 +31830,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1149" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31853,7 +31856,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1150" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31879,7 +31882,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1151" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31905,7 +31908,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1152" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31931,7 +31934,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1153" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31957,7 +31960,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1154" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31983,7 +31986,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1155" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32009,7 +32012,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1156" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -32035,7 +32038,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1157" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32061,7 +32064,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1158" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -32087,7 +32090,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1159" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -32113,7 +32116,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1160" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -32139,7 +32142,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1161" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32165,7 +32168,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1162" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32191,7 +32194,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1163" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32217,7 +32220,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1164" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32243,7 +32246,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1165" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32269,7 +32272,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1166" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32295,7 +32298,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1167" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32321,7 +32324,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1168" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32347,7 +32350,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1169" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32373,7 +32376,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1170" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32399,7 +32402,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1171" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32425,7 +32428,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1172" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32451,7 +32454,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1173" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32477,7 +32480,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1174" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32503,7 +32506,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1175" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32529,7 +32532,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1176" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32555,7 +32558,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1177" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32581,7 +32584,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1178" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32607,7 +32610,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1179" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32633,7 +32636,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1180" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32659,7 +32662,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1181" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32685,7 +32688,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1182" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32711,7 +32714,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1183" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32737,7 +32740,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1184" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32763,7 +32766,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1185" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32789,7 +32792,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1186" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -32815,7 +32818,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1187" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -32841,7 +32844,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1188" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -32867,7 +32870,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1189" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -32893,7 +32896,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1190" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -32919,7 +32922,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1191" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -32945,7 +32948,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1192" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -32971,7 +32974,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1193" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -32997,7 +33000,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1194" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33023,7 +33026,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G1195" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33049,7 +33052,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1196" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33075,7 +33078,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33101,7 +33104,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1198" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33127,7 +33130,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1199" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -33153,7 +33156,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G1200" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -33179,7 +33182,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1201" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -33205,7 +33208,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1202" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -33231,7 +33234,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1203" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -33257,7 +33260,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1204" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -33283,7 +33286,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1205" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -33309,7 +33312,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1206" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -33335,7 +33338,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1207" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -33361,7 +33364,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1208" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -33387,7 +33390,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1209" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -33413,7 +33416,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1210" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -33439,7 +33442,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1211" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -33465,7 +33468,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1212" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -33491,7 +33494,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1213" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -33517,7 +33520,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1214" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -33543,7 +33546,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1215" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -33569,7 +33572,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1216" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -33595,7 +33598,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1217" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -33621,7 +33624,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1218" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -33647,7 +33650,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1219" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -33673,7 +33676,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1220" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -33699,7 +33702,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1221" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -33725,7 +33728,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1222" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -33751,7 +33754,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1223" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -33777,7 +33780,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1224" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -33803,7 +33806,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1225" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -33829,7 +33832,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1226" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -33855,7 +33858,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G1227" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -33881,7 +33884,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1228" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -33907,7 +33910,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1229" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -33933,7 +33936,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1230" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -33959,7 +33962,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1231" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -33985,7 +33988,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1232" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34011,7 +34014,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1233" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34037,7 +34040,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1234" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34063,7 +34066,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1235" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -34089,7 +34092,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1236" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -34115,7 +34118,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1237" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34141,7 +34144,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1238" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -34167,7 +34170,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1239" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -34193,7 +34196,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1240" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -34219,7 +34222,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1241" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -34245,7 +34248,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1242" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -34271,7 +34274,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1243" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -34297,7 +34300,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1244" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -34323,7 +34326,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1245" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34349,7 +34352,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1246" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34375,7 +34378,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1247" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -34401,7 +34404,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1248" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -34427,7 +34430,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1249" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -34453,7 +34456,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1250" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -34479,7 +34482,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1251" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -34505,7 +34508,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1252" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -34531,7 +34534,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1253" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -34557,7 +34560,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1254" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -34583,7 +34586,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1255" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -34609,7 +34612,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1256" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -34635,7 +34638,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1257" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -34661,7 +34664,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1258" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -34687,7 +34690,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1259" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -34713,7 +34716,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1260" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -34739,7 +34742,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1261" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -34765,7 +34768,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1262" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -34791,7 +34794,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1263" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -34817,7 +34820,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1264" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -34843,7 +34846,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1265" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -34869,7 +34872,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1266" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -34895,7 +34898,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1267" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -34921,7 +34924,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1268" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -34947,7 +34950,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1269" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -34973,7 +34976,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1270" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -34999,7 +35002,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1271" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35025,7 +35028,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1272" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35051,7 +35054,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1273" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35077,7 +35080,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1274" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -35103,7 +35106,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1275" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35129,7 +35132,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1276" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -35155,7 +35158,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1277" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35181,7 +35184,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1278" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35207,7 +35210,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1279" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35233,7 +35236,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1280" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -35259,7 +35262,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1281" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -35285,7 +35288,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1282" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35311,7 +35314,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1283" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35337,7 +35340,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1284" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35363,7 +35366,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1285" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35389,7 +35392,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1286" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35415,7 +35418,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1287" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35441,7 +35444,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1288" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35467,7 +35470,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1289" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -35493,7 +35496,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1290" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35519,7 +35522,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1291" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35545,7 +35548,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1292" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -35571,7 +35574,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1293" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35597,7 +35600,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1294" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35623,7 +35626,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1295" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35649,7 +35652,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1296" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35675,7 +35678,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1297" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35701,7 +35704,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1298" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35727,7 +35730,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1299" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35753,7 +35756,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1300" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35779,7 +35782,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1301" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35805,7 +35808,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1302" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35831,7 +35834,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1303" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35857,7 +35860,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1304" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -35883,7 +35886,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1305" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -35909,7 +35912,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1306" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -35935,7 +35938,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1307" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -35961,7 +35964,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1308" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -35987,7 +35990,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1309" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36013,7 +36016,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1310" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36039,7 +36042,7 @@
         <v>1.25</v>
       </c>
       <c r="G1311" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36065,7 +36068,7 @@
         <v>1.25</v>
       </c>
       <c r="G1312" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36091,7 +36094,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1313" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36117,7 +36120,7 @@
         <v>1.25</v>
       </c>
       <c r="G1314" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36143,7 +36146,7 @@
         <v>1.25</v>
       </c>
       <c r="G1315" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -36169,7 +36172,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1316" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -36195,7 +36198,7 @@
         <v>1.25</v>
       </c>
       <c r="G1317" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36221,7 +36224,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36273,7 +36276,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36299,7 +36302,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1321" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36325,7 +36328,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1322" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36351,7 +36354,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1323" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36377,7 +36380,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1324" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36403,7 +36406,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1325" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36429,7 +36432,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1326" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36455,7 +36458,7 @@
         <v>1.25</v>
       </c>
       <c r="G1327" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36481,7 +36484,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1328" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36507,7 +36510,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1329" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36533,7 +36536,7 @@
         <v>1.25</v>
       </c>
       <c r="G1330" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36559,7 +36562,7 @@
         <v>1.25</v>
       </c>
       <c r="G1331" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36585,7 +36588,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1332" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36611,7 +36614,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1333" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36689,7 +36692,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1336" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36897,7 +36900,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1344" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -36949,7 +36952,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1346" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37105,7 +37108,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1352" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37131,7 +37134,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1353" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37209,7 +37212,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1356" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37235,7 +37238,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1357" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37287,7 +37290,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1359" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37313,7 +37316,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1360" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37365,7 +37368,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1362" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37391,7 +37394,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1363" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37417,7 +37420,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1364" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38041,7 +38044,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1388" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38067,7 +38070,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1389" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38093,7 +38096,7 @@
         <v>1.25</v>
       </c>
       <c r="G1390" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38119,7 +38122,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1391" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38145,7 +38148,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1392" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38197,7 +38200,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1394" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38223,7 +38226,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1395" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38249,7 +38252,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1396" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38275,7 +38278,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1397" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38405,7 +38408,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1402" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38431,7 +38434,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1403" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38457,7 +38460,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38483,7 +38486,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1405" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38509,7 +38512,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1406" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38535,7 +38538,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1407" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38561,7 +38564,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1408" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38587,7 +38590,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1409" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38613,7 +38616,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1410" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38639,7 +38642,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1411" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38665,7 +38668,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1412" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38691,7 +38694,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1413" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38717,7 +38720,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1414" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38743,7 +38746,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1415" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38769,7 +38772,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1416" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38795,7 +38798,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1417" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38821,7 +38824,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1418" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38847,7 +38850,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1419" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -38899,7 +38902,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1421" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -38925,7 +38928,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1422" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -38951,7 +38954,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1423" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -38977,7 +38980,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1424" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39003,7 +39006,7 @@
         <v>1.25</v>
       </c>
       <c r="G1425" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39029,7 +39032,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1426" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39055,7 +39058,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1427" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39081,7 +39084,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1428" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39107,7 +39110,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1429" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39133,7 +39136,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1430" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39159,7 +39162,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1431" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39185,7 +39188,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1432" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39211,7 +39214,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1433" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39315,7 +39318,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1437" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39341,7 +39344,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1438" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39367,7 +39370,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1439" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39393,7 +39396,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1440" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39419,7 +39422,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1441" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39445,7 +39448,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1442" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39471,7 +39474,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1443" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39497,7 +39500,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1444" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39523,7 +39526,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1445" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39549,7 +39552,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1446" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39575,7 +39578,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1447" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39601,7 +39604,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1448" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39627,7 +39630,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1449" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39653,7 +39656,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1450" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39679,7 +39682,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1451" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39705,7 +39708,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1452" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39731,7 +39734,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1453" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39757,7 +39760,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1454" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39783,7 +39786,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1455" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39809,7 +39812,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1456" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39835,7 +39838,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1457" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40017,7 +40020,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1464" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40095,7 +40098,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1467" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40121,7 +40124,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1468" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40381,7 +40384,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G1478" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41057,7 +41060,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1504" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41369,7 +41372,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1516" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41447,7 +41450,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1519" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41473,7 +41476,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1520" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41499,7 +41502,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1521" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41525,7 +41528,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1522" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41629,7 +41632,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1526" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41655,7 +41658,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1527" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41759,7 +41762,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1531" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41785,7 +41788,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1532" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41967,7 +41970,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1539" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42019,7 +42022,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1541" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42123,7 +42126,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1545" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42175,7 +42178,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1547" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42201,7 +42204,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1548" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42227,7 +42230,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1549" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42253,7 +42256,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1550" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42279,7 +42282,7 @@
         <v>1.25</v>
       </c>
       <c r="G1551" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42305,7 +42308,7 @@
         <v>1.25</v>
       </c>
       <c r="G1552" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42331,7 +42334,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1553" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42357,7 +42360,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1554" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42383,7 +42386,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1555" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42409,7 +42412,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1556" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42435,7 +42438,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1557" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42461,7 +42464,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1558" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42487,7 +42490,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1559" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42513,7 +42516,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1560" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42539,7 +42542,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1561" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42565,7 +42568,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1562" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42643,7 +42646,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1565" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42669,7 +42672,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1566" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42695,7 +42698,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1567" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42721,7 +42724,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1568" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42747,7 +42750,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1569" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42773,7 +42776,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1570" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42799,7 +42802,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1571" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42825,7 +42828,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1572" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42851,7 +42854,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1573" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -42877,7 +42880,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1574" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -42903,7 +42906,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1575" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -42929,7 +42932,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1576" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -42955,7 +42958,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1577" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -42981,7 +42984,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1578" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43007,7 +43010,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1579" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43033,7 +43036,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1580" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43059,7 +43062,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1581" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43085,7 +43088,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1582" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43111,7 +43114,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1583" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43137,7 +43140,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1584" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43163,7 +43166,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1585" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43189,7 +43192,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1586" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43215,7 +43218,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1587" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43371,7 +43374,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1593" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43397,7 +43400,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1594" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43449,7 +43452,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1596" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43475,7 +43478,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1597" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43527,7 +43530,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1599" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43631,7 +43634,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1603" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43657,7 +43660,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1604" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43683,7 +43686,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1605" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43709,7 +43712,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1606" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43735,7 +43738,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1607" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43761,7 +43764,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1608" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43787,7 +43790,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1609" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43865,7 +43868,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1612" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -43891,7 +43894,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1613" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43917,7 +43920,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1614" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43943,7 +43946,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1615" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -43969,7 +43972,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1616" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44021,7 +44024,7 @@
         <v>1.25</v>
       </c>
       <c r="G1618" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44047,7 +44050,7 @@
         <v>1.25</v>
       </c>
       <c r="G1619" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44073,7 +44076,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1620" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44099,7 +44102,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1621" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44151,7 +44154,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1623" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44281,7 +44284,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1628" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44333,7 +44336,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1630" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44463,7 +44466,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1635" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44489,7 +44492,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44515,7 +44518,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1637" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44541,7 +44544,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1638" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44567,7 +44570,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1639" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44593,7 +44596,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1640" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44619,7 +44622,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1641" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44645,7 +44648,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1642" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44853,7 +44856,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44905,7 +44908,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1652" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44931,7 +44934,7 @@
         <v>1.25</v>
       </c>
       <c r="G1653" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44957,7 +44960,7 @@
         <v>1.25</v>
       </c>
       <c r="G1654" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44983,7 +44986,7 @@
         <v>1.25</v>
       </c>
       <c r="G1655" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45009,7 +45012,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1656" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45035,7 +45038,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1657" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45061,7 +45064,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1658" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45087,7 +45090,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1659" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45113,7 +45116,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1660" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45139,7 +45142,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1661" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45165,7 +45168,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1662" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45191,7 +45194,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1663" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45217,7 +45220,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1664" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45269,7 +45272,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1666" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45295,7 +45298,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1667" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45321,7 +45324,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1668" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45347,7 +45350,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1669" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45399,7 +45402,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1671" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45425,7 +45428,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1672" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45477,7 +45480,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1674" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45529,7 +45532,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1676" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45581,7 +45584,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45659,7 +45662,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1681" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45711,7 +45714,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1683" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45737,7 +45740,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1684" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45763,7 +45766,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1685" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45841,7 +45844,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1688" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45997,7 +46000,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1694" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46023,7 +46026,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1695" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46049,7 +46052,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1696" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46075,7 +46078,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46127,7 +46130,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1699" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46179,7 +46182,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1701" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46309,7 +46312,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1706" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46361,7 +46364,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1708" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46465,7 +46468,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1712" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46517,7 +46520,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1714" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46543,7 +46546,7 @@
         <v>1.25</v>
       </c>
       <c r="G1715" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46569,7 +46572,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1716" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46595,7 +46598,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1717" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46621,7 +46624,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1718" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46647,7 +46650,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1719" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46673,7 +46676,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1720" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46699,7 +46702,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1721" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46725,7 +46728,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1722" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46751,7 +46754,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1723" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46803,7 +46806,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1725" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46829,7 +46832,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1726" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46855,7 +46858,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46985,7 +46988,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1732" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47037,7 +47040,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1734" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47063,7 +47066,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1735" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47245,7 +47248,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1742" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47271,7 +47274,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1743" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47297,7 +47300,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1744" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47323,7 +47326,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1745" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47349,7 +47352,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1746" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47375,7 +47378,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1747" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47401,7 +47404,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1748" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47427,7 +47430,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1749" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47453,7 +47456,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1750" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47479,7 +47482,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1751" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47505,7 +47508,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1752" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47531,7 +47534,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1753" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47557,7 +47560,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1754" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47583,7 +47586,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1755" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47739,7 +47742,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1761" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47791,7 +47794,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47843,7 +47846,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1765" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47869,7 +47872,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1766" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47895,7 +47898,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1767" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47921,7 +47924,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1768" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47947,7 +47950,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1769" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48077,7 +48080,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1774" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48103,7 +48106,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1775" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48233,7 +48236,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1780" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48337,7 +48340,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1784" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48363,7 +48366,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1785" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48389,7 +48392,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1786" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48415,7 +48418,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1787" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48441,7 +48444,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1788" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48467,7 +48470,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1789" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48519,7 +48522,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1791" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48545,7 +48548,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1792" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48779,7 +48782,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1801" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48805,7 +48808,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1802" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48831,7 +48834,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1803" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48857,7 +48860,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1804" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48883,7 +48886,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1805" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48909,7 +48912,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1806" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48935,7 +48938,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1807" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48961,7 +48964,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1808" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48987,7 +48990,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1809" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49013,7 +49016,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1810" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49039,7 +49042,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1811" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49065,7 +49068,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1812" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49091,7 +49094,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1813" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49169,7 +49172,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1816" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49195,7 +49198,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1817" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49221,7 +49224,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1818" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49247,7 +49250,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1819" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49273,7 +49276,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1820" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49299,7 +49302,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1821" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49325,7 +49328,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1822" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49351,7 +49354,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1823" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49377,7 +49380,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1824" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49403,7 +49406,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1825" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49429,7 +49432,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1826" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49455,7 +49458,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1827" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49481,7 +49484,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1828" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49507,7 +49510,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1829" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49533,7 +49536,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1830" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49559,7 +49562,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1831" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49585,7 +49588,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1832" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49611,7 +49614,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1833" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49637,7 +49640,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1834" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49663,7 +49666,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1835" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49689,7 +49692,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1836" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49715,7 +49718,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1837" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49741,7 +49744,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1838" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49767,7 +49770,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1839" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49793,7 +49796,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49819,7 +49822,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1841" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49845,7 +49848,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1842" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49871,7 +49874,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1843" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49897,7 +49900,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1844" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49923,7 +49926,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1845" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49949,7 +49952,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1846" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49975,7 +49978,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1847" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50001,7 +50004,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1848" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50027,7 +50030,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1849" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50053,7 +50056,7 @@
         <v>1.25</v>
       </c>
       <c r="G1850" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50079,7 +50082,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1851" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50235,7 +50238,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1857" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50287,7 +50290,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1859" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50339,7 +50342,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1861" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50495,7 +50498,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1867" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50521,7 +50524,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1868" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50703,7 +50706,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1875" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50729,7 +50732,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1876" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50755,7 +50758,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1877" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50781,7 +50784,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1878" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50807,7 +50810,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1879" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50833,7 +50836,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G1880" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50859,7 +50862,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1881" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50885,7 +50888,7 @@
         <v>1.37000000476837</v>
       </c>
       <c r="G1882" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50911,7 +50914,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1883" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50937,7 +50940,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1884" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50963,7 +50966,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1885" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50989,7 +50992,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1886" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51015,7 +51018,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1887" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51041,7 +51044,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1888" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51067,7 +51070,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1889" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51093,7 +51096,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1890" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51119,7 +51122,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1891" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51145,7 +51148,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1892" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51171,7 +51174,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1893" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51197,7 +51200,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1894" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51223,7 +51226,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1895" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51249,7 +51252,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1896" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51275,7 +51278,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1897" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51301,7 +51304,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1898" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51327,7 +51330,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1899" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51353,7 +51356,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1900" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51379,7 +51382,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1901" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51405,7 +51408,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1902" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51431,7 +51434,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G1903" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51457,7 +51460,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1904" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51483,7 +51486,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1905" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51509,7 +51512,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1906" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51535,7 +51538,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G1907" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51561,7 +51564,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1908" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51587,7 +51590,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G1909" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51613,7 +51616,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1910" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51639,7 +51642,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G1911" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51665,7 +51668,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1912" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51691,7 +51694,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1913" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51717,7 +51720,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51743,7 +51746,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1915" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51769,7 +51772,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1916" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51795,7 +51798,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1917" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51821,7 +51824,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51847,7 +51850,7 @@
         <v>1.25</v>
       </c>
       <c r="G1919" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51873,7 +51876,7 @@
         <v>1.25</v>
       </c>
       <c r="G1920" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51899,7 +51902,7 @@
         <v>1.25</v>
       </c>
       <c r="G1921" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51925,7 +51928,7 @@
         <v>1.25</v>
       </c>
       <c r="G1922" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51951,7 +51954,7 @@
         <v>1.25</v>
       </c>
       <c r="G1923" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51977,7 +51980,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1924" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52003,7 +52006,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1925" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52029,7 +52032,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1926" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52055,7 +52058,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1927" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52081,7 +52084,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1928" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52107,7 +52110,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1929" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52133,7 +52136,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1930" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52159,7 +52162,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1931" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52185,7 +52188,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1932" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52211,7 +52214,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52237,7 +52240,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1934" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52263,7 +52266,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1935" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52289,7 +52292,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1936" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52315,7 +52318,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1937" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52341,7 +52344,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1938" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52367,7 +52370,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1939" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52393,7 +52396,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1940" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52419,7 +52422,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1941" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52445,7 +52448,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1942" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52471,7 +52474,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1943" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52497,7 +52500,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1944" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52523,7 +52526,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1945" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52549,7 +52552,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1946" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52575,7 +52578,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1947" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52601,7 +52604,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1948" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52627,7 +52630,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1949" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52653,7 +52656,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1950" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52679,7 +52682,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1951" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52705,7 +52708,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1952" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52731,7 +52734,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1953" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52757,7 +52760,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1954" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52783,7 +52786,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1955" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52809,7 +52812,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1956" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52835,7 +52838,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1957" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52861,7 +52864,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1958" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52887,7 +52890,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1959" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52913,7 +52916,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1960" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52939,7 +52942,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1961" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52965,7 +52968,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1962" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52991,7 +52994,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1963" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53017,7 +53020,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53043,7 +53046,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1965" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53069,7 +53072,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1966" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53095,7 +53098,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1967" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53121,7 +53124,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1968" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53147,7 +53150,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1969" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53173,7 +53176,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1970" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53199,7 +53202,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1971" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53225,7 +53228,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1972" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53251,7 +53254,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1973" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53277,7 +53280,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1974" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53303,7 +53306,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1975" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53329,7 +53332,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1976" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53355,7 +53358,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53381,7 +53384,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53407,7 +53410,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1979" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53433,7 +53436,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53459,7 +53462,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53485,7 +53488,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1982" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53511,7 +53514,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53537,7 +53540,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1984" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53563,7 +53566,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1985" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53589,7 +53592,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1986" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53615,7 +53618,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1987" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53641,7 +53644,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1988" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53667,7 +53670,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1989" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53693,7 +53696,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1990" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53719,7 +53722,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1991" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53745,7 +53748,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1992" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53771,7 +53774,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1993" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53797,7 +53800,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1994" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53823,7 +53826,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1995" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53849,7 +53852,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1996" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53875,7 +53878,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1997" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53901,7 +53904,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1998" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53927,7 +53930,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1999" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53953,7 +53956,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2000" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53979,7 +53982,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2001" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54005,7 +54008,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2002" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54031,7 +54034,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G2003" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54057,7 +54060,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G2004" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54083,7 +54086,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2005" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54109,7 +54112,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2006" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54135,7 +54138,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54161,7 +54164,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2008" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54187,7 +54190,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2009" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54213,7 +54216,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2010" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54239,7 +54242,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2011" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54265,7 +54268,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2012" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54291,7 +54294,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2013" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54317,7 +54320,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2014" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54343,7 +54346,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2015" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54369,7 +54372,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2016" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54395,7 +54398,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54421,7 +54424,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2018" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54447,7 +54450,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2019" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54473,7 +54476,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2020" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54499,7 +54502,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2021" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54525,7 +54528,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2022" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54551,7 +54554,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2023" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54577,7 +54580,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2024" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54603,7 +54606,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2025" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54629,7 +54632,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54655,7 +54658,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54681,7 +54684,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2028" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54707,7 +54710,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G2029" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54733,7 +54736,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2030" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54759,7 +54762,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2031" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54785,7 +54788,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2032" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54811,7 +54814,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2033" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54837,7 +54840,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2034" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54863,7 +54866,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2035" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54889,7 +54892,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2036" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54915,7 +54918,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2037" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54941,7 +54944,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2038" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54967,7 +54970,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2039" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54993,7 +54996,7 @@
         <v>1.25</v>
       </c>
       <c r="G2040" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55019,7 +55022,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2041" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55045,7 +55048,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2042" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55071,7 +55074,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2043" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55097,7 +55100,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2044" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55123,7 +55126,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2045" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55149,7 +55152,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2046" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55175,7 +55178,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55201,7 +55204,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2048" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55227,7 +55230,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55253,7 +55256,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2050" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55279,7 +55282,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2051" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55305,7 +55308,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2052" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55331,7 +55334,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2053" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55357,7 +55360,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2054" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55383,7 +55386,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2055" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55409,7 +55412,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2056" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55435,7 +55438,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55461,7 +55464,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2058" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55487,7 +55490,7 @@
         <v>1.25</v>
       </c>
       <c r="G2059" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55513,7 +55516,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2060" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55539,7 +55542,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2061" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55565,7 +55568,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2062" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55591,7 +55594,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2063" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55617,7 +55620,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2064" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55643,7 +55646,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2065" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55669,7 +55672,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2066" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55695,7 +55698,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2067" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55721,7 +55724,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2068" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55747,7 +55750,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2069" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55773,7 +55776,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2070" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55799,7 +55802,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G2071" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55825,7 +55828,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2072" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55851,7 +55854,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2073" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55877,7 +55880,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G2074" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55903,7 +55906,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2075" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55929,7 +55932,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G2076" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55955,7 +55958,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2077" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55981,7 +55984,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2078" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56007,7 +56010,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2079" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56033,7 +56036,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2080" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56059,7 +56062,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56085,7 +56088,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2082" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56111,7 +56114,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2083" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56137,7 +56140,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2084" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56163,7 +56166,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2085" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56189,7 +56192,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2086" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56215,7 +56218,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56241,7 +56244,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2088" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56267,7 +56270,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2089" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56293,7 +56296,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2090" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56319,7 +56322,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2091" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56345,7 +56348,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2092" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56371,7 +56374,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2093" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56397,7 +56400,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2094" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56423,7 +56426,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2095" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56449,7 +56452,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2096" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56475,7 +56478,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2097" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56501,7 +56504,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2098" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56527,7 +56530,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2099" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56553,7 +56556,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2100" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56579,7 +56582,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2101" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56605,7 +56608,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2102" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56631,7 +56634,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2103" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56657,7 +56660,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2104" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56683,7 +56686,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2105" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56709,7 +56712,7 @@
         <v>1.25</v>
       </c>
       <c r="G2106" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56735,7 +56738,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2107" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56761,7 +56764,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2108" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56787,7 +56790,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2109" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56813,7 +56816,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2110" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56839,7 +56842,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2111" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56865,7 +56868,7 @@
         <v>1.25</v>
       </c>
       <c r="G2112" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56891,7 +56894,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2113" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56917,7 +56920,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2114" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56943,7 +56946,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2115" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56969,7 +56972,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2116" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56995,7 +56998,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2117" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57021,7 +57024,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2118" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57047,7 +57050,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2119" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57073,7 +57076,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2120" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57099,7 +57102,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2121" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57125,7 +57128,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2122" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57151,7 +57154,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2123" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57177,7 +57180,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2124" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57203,7 +57206,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57229,7 +57232,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2126" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57255,7 +57258,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2127" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57281,7 +57284,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2128" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57307,7 +57310,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2129" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57333,7 +57336,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2130" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57359,7 +57362,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2131" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57385,7 +57388,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2132" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57411,7 +57414,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2133" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57437,7 +57440,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2134" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57463,7 +57466,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2135" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57489,7 +57492,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2136" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57515,7 +57518,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2137" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57541,7 +57544,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2138" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57567,7 +57570,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G2139" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57593,7 +57596,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G2140" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57619,7 +57622,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G2141" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57645,7 +57648,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G2142" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57671,7 +57674,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G2143" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57697,7 +57700,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2144" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57723,7 +57726,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G2145" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57749,7 +57752,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2146" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57775,7 +57778,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G2147" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57801,7 +57804,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2148" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57827,7 +57830,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G2149" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57853,7 +57856,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2150" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57879,7 +57882,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G2151" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57905,7 +57908,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2152" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -57931,7 +57934,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2153" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -57957,7 +57960,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G2154" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -57983,7 +57986,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G2155" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58009,7 +58012,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G2156" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58035,7 +58038,7 @@
         <v>1</v>
       </c>
       <c r="G2157" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58061,7 +58064,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G2158" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58087,7 +58090,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G2159" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58113,9 +58116,61 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G2160" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.2916666667</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>0.980000019073486</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>0.980000019073486</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>0.980000019073486</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>0.980000019073486</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.2995949074</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>3200</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>0.995000004768372</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>0.995000004768372</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2162" t="s">
         <v>535</v>
       </c>
-      <c r="H2160" t="s">
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LMG.MI.xlsx
+++ b/data/LMG.MI.xlsx
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53471565246582</t>
+    <t xml:space="preserve">1.53471577167511</t>
   </si>
   <si>
     <t xml:space="preserve">LMG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50033152103424</t>
+    <t xml:space="preserve">1.50033140182495</t>
   </si>
   <si>
     <t xml:space="preserve">1.5514885187149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704038143158</t>
+    <t xml:space="preserve">1.50704050064087</t>
   </si>
   <si>
     <t xml:space="preserve">1.48439705371857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44246518611908</t>
+    <t xml:space="preserve">1.44246506690979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43575584888458</t>
+    <t xml:space="preserve">1.43575596809387</t>
   </si>
   <si>
     <t xml:space="preserve">1.39214646816254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41646707057953</t>
+    <t xml:space="preserve">1.41646718978882</t>
   </si>
   <si>
     <t xml:space="preserve">1.42569220066071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47433352470398</t>
+    <t xml:space="preserve">1.47433340549469</t>
   </si>
   <si>
     <t xml:space="preserve">1.4416264295578</t>
@@ -89,13 +89,13 @@
     <t xml:space="preserve">1.40640342235565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37453508377075</t>
+    <t xml:space="preserve">1.37453496456146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36698722839355</t>
+    <t xml:space="preserve">1.36698710918427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40053284168243</t>
+    <t xml:space="preserve">1.40053296089172</t>
   </si>
   <si>
     <t xml:space="preserve">1.40891921520233</t>
@@ -113,19 +113,19 @@
     <t xml:space="preserve">1.49278354644775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57245469093323</t>
+    <t xml:space="preserve">1.57245457172394</t>
   </si>
   <si>
     <t xml:space="preserve">1.56406819820404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53639304637909</t>
+    <t xml:space="preserve">1.5363929271698</t>
   </si>
   <si>
     <t xml:space="preserve">1.5598748922348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62025725841522</t>
+    <t xml:space="preserve">1.62025713920593</t>
   </si>
   <si>
     <t xml:space="preserve">1.68567132949829</t>
@@ -134,10 +134,10 @@
     <t xml:space="preserve">1.74437618255615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74773108959198</t>
+    <t xml:space="preserve">1.7477308511734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71753990650177</t>
+    <t xml:space="preserve">1.71753978729248</t>
   </si>
   <si>
     <t xml:space="preserve">1.61857998371124</t>
@@ -149,22 +149,22 @@
     <t xml:space="preserve">1.57664787769318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51962018013</t>
+    <t xml:space="preserve">1.51962041854858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50116991996765</t>
+    <t xml:space="preserve">1.50117003917694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4734947681427</t>
+    <t xml:space="preserve">1.47349464893341</t>
   </si>
   <si>
     <t xml:space="preserve">1.51932430267334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49662148952484</t>
+    <t xml:space="preserve">1.49662160873413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46955335140228</t>
+    <t xml:space="preserve">1.4695531129837</t>
   </si>
   <si>
     <t xml:space="preserve">1.48439717292786</t>
@@ -176,16 +176,16 @@
     <t xml:space="preserve">1.49050939083099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47479224205017</t>
+    <t xml:space="preserve">1.47479236125946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46606051921844</t>
+    <t xml:space="preserve">1.46606063842773</t>
   </si>
   <si>
     <t xml:space="preserve">1.42240166664124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41454315185547</t>
+    <t xml:space="preserve">1.41454327106476</t>
   </si>
   <si>
     <t xml:space="preserve">1.43200671672821</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">1.35953330993652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38310897350311</t>
+    <t xml:space="preserve">1.3831090927124</t>
   </si>
   <si>
     <t xml:space="preserve">1.37961637973785</t>
@@ -209,13 +209,13 @@
     <t xml:space="preserve">1.3534209728241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36215257644653</t>
+    <t xml:space="preserve">1.36215269565582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42327499389648</t>
+    <t xml:space="preserve">1.42327487468719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47391903400421</t>
+    <t xml:space="preserve">1.4739191532135</t>
   </si>
   <si>
     <t xml:space="preserve">1.44073843955994</t>
@@ -224,16 +224,16 @@
     <t xml:space="preserve">1.38834798336029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32722568511963</t>
+    <t xml:space="preserve">1.32722556591034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3071426153183</t>
+    <t xml:space="preserve">1.30714249610901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27832782268524</t>
+    <t xml:space="preserve">1.27832794189453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25737190246582</t>
+    <t xml:space="preserve">1.25737178325653</t>
   </si>
   <si>
     <t xml:space="preserve">1.26173758506775</t>
@@ -260,19 +260,19 @@
     <t xml:space="preserve">1.21895205974579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2023618221283</t>
+    <t xml:space="preserve">1.20236170291901</t>
   </si>
   <si>
     <t xml:space="preserve">1.19188368320465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22244477272034</t>
+    <t xml:space="preserve">1.22244465351105</t>
   </si>
   <si>
     <t xml:space="preserve">1.17878592014313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16132247447968</t>
+    <t xml:space="preserve">1.16132259368896</t>
   </si>
   <si>
     <t xml:space="preserve">1.09408807754517</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">1.07837080955505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06876599788666</t>
+    <t xml:space="preserve">1.06876587867737</t>
   </si>
   <si>
     <t xml:space="preserve">1.08448302745819</t>
@@ -296,13 +296,13 @@
     <t xml:space="preserve">1.11067831516266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11766374111176</t>
+    <t xml:space="preserve">1.11766386032104</t>
   </si>
   <si>
     <t xml:space="preserve">1.08273684978485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05217564105988</t>
+    <t xml:space="preserve">1.05217576026917</t>
   </si>
   <si>
     <t xml:space="preserve">1.02685356140137</t>
@@ -317,34 +317,34 @@
     <t xml:space="preserve">1.04780972003937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999785184860229</t>
+    <t xml:space="preserve">0.99978506565094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0120096206665</t>
+    <t xml:space="preserve">1.01200973987579</t>
   </si>
   <si>
     <t xml:space="preserve">0.985814213752747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.927311658859253</t>
+    <t xml:space="preserve">0.927311718463898</t>
   </si>
   <si>
     <t xml:space="preserve">0.903735935688019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993672907352448</t>
+    <t xml:space="preserve">0.993672788143158</t>
   </si>
   <si>
     <t xml:space="preserve">0.951760530471802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938663005828857</t>
+    <t xml:space="preserve">0.938662946224213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93517017364502</t>
+    <t xml:space="preserve">0.935170233249664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909848213195801</t>
+    <t xml:space="preserve">0.909848153591156</t>
   </si>
   <si>
     <t xml:space="preserve">0.948267817497253</t>
@@ -368,25 +368,25 @@
     <t xml:space="preserve">1.10107350349426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03471207618713</t>
+    <t xml:space="preserve">1.03471219539642</t>
   </si>
   <si>
     <t xml:space="preserve">1.03209269046783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04519033432007</t>
+    <t xml:space="preserve">1.04519021511078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03907799720764</t>
+    <t xml:space="preserve">1.03907787799835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03383898735046</t>
+    <t xml:space="preserve">1.03383910655975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977955758571625</t>
+    <t xml:space="preserve">0.977955639362335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02510738372803</t>
+    <t xml:space="preserve">1.02510726451874</t>
   </si>
   <si>
     <t xml:space="preserve">0.982321619987488</t>
@@ -395,7 +395,7 @@
     <t xml:space="preserve">1.03121948242188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0146290063858</t>
+    <t xml:space="preserve">1.01462912559509</t>
   </si>
   <si>
     <t xml:space="preserve">1.01026320457458</t>
@@ -413,7 +413,7 @@
     <t xml:space="preserve">1.01113653182983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03733158111572</t>
+    <t xml:space="preserve">1.03733170032501</t>
   </si>
   <si>
     <t xml:space="preserve">0.995419323444366</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">1.06963920593262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09845376014709</t>
+    <t xml:space="preserve">1.09845387935638</t>
   </si>
   <si>
     <t xml:space="preserve">1.15259087085724</t>
@@ -446,37 +446,37 @@
     <t xml:space="preserve">1.24863994121552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31063544750214</t>
+    <t xml:space="preserve">1.31063556671143</t>
   </si>
   <si>
     <t xml:space="preserve">1.2582448720932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26610350608826</t>
+    <t xml:space="preserve">1.26610338687897</t>
   </si>
   <si>
     <t xml:space="preserve">1.27046942710876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20672750473022</t>
+    <t xml:space="preserve">1.20672762393951</t>
   </si>
   <si>
     <t xml:space="preserve">1.20323491096497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2442741394043</t>
+    <t xml:space="preserve">1.24427402019501</t>
   </si>
   <si>
     <t xml:space="preserve">1.24689364433289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20498132705688</t>
+    <t xml:space="preserve">1.2049812078476</t>
   </si>
   <si>
     <t xml:space="preserve">1.19624948501587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24340105056763</t>
+    <t xml:space="preserve">1.24340093135834</t>
   </si>
   <si>
     <t xml:space="preserve">1.21371304988861</t>
@@ -485,28 +485,28 @@
     <t xml:space="preserve">1.29142546653748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30976212024689</t>
+    <t xml:space="preserve">1.30976223945618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28967916965485</t>
+    <t xml:space="preserve">1.28967905044556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21196675300598</t>
+    <t xml:space="preserve">1.21196663379669</t>
   </si>
   <si>
     <t xml:space="preserve">1.18315184116364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18751764297485</t>
+    <t xml:space="preserve">1.18751788139343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1770396232605</t>
+    <t xml:space="preserve">1.17703950405121</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1700541973114</t>
+    <t xml:space="preserve">1.17005431652069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768378257751</t>
+    <t xml:space="preserve">1.2276839017868</t>
   </si>
   <si>
     <t xml:space="preserve">1.46693360805511</t>
@@ -515,13 +515,13 @@
     <t xml:space="preserve">1.45645558834076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45994830131531</t>
+    <t xml:space="preserve">1.4599484205246</t>
   </si>
   <si>
     <t xml:space="preserve">1.45820200443268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52368998527527</t>
+    <t xml:space="preserve">1.52369010448456</t>
   </si>
   <si>
     <t xml:space="preserve">1.56036329269409</t>
@@ -530,16 +530,16 @@
     <t xml:space="preserve">1.52019739151001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55337810516357</t>
+    <t xml:space="preserve">1.55337798595428</t>
   </si>
   <si>
     <t xml:space="preserve">1.55425107479095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5367876291275</t>
+    <t xml:space="preserve">1.53678774833679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60227584838867</t>
+    <t xml:space="preserve">1.60227572917938</t>
   </si>
   <si>
     <t xml:space="preserve">1.64156866073608</t>
@@ -563,25 +563,25 @@
     <t xml:space="preserve">1.83366692066193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85113036632538</t>
+    <t xml:space="preserve">1.85113048553467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85986256599426</t>
+    <t xml:space="preserve">1.85986244678497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72277390956879</t>
+    <t xml:space="preserve">1.72277402877808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67038333415985</t>
+    <t xml:space="preserve">1.67038345336914</t>
   </si>
   <si>
     <t xml:space="preserve">1.74634969234467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69046640396118</t>
+    <t xml:space="preserve">1.69046628475189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76032042503357</t>
+    <t xml:space="preserve">1.76032054424286</t>
   </si>
   <si>
     <t xml:space="preserve">1.68697369098663</t>
@@ -590,46 +590,46 @@
     <t xml:space="preserve">1.67649567127228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75508141517639</t>
+    <t xml:space="preserve">1.7550812959671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75682783126831</t>
+    <t xml:space="preserve">1.75682771205902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7900083065033</t>
+    <t xml:space="preserve">1.79000818729401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8127110004425</t>
+    <t xml:space="preserve">1.81271088123322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82842814922333</t>
+    <t xml:space="preserve">1.82842803001404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81620359420776</t>
+    <t xml:space="preserve">1.81620347499847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79874002933502</t>
+    <t xml:space="preserve">1.79874014854431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72801291942596</t>
+    <t xml:space="preserve">1.72801280021667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81794989109039</t>
+    <t xml:space="preserve">1.81795001029968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82510709762573</t>
+    <t xml:space="preserve">1.82510721683502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9235200881958</t>
+    <t xml:space="preserve">1.92351996898651</t>
   </si>
   <si>
     <t xml:space="preserve">1.87878668308258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86089360713959</t>
+    <t xml:space="preserve">1.8608934879303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86984026432037</t>
+    <t xml:space="preserve">1.86984014511108</t>
   </si>
   <si>
     <t xml:space="preserve">2.0398256778717</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">2.4764199256897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57662224769592</t>
+    <t xml:space="preserve">2.57662200927734</t>
   </si>
   <si>
     <t xml:space="preserve">2.94701147079468</t>
@@ -650,19 +650,19 @@
     <t xml:space="preserve">2.85396695137024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75913310050964</t>
+    <t xml:space="preserve">2.75913286209106</t>
   </si>
   <si>
     <t xml:space="preserve">2.58556866645813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56767535209656</t>
+    <t xml:space="preserve">2.56767559051514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50504922866821</t>
+    <t xml:space="preserve">2.50504899024963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46747326850891</t>
+    <t xml:space="preserve">2.46747303009033</t>
   </si>
   <si>
     <t xml:space="preserve">2.59809374809265</t>
@@ -674,19 +674,19 @@
     <t xml:space="preserve">2.90764617919922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79134011268616</t>
+    <t xml:space="preserve">2.79134035110474</t>
   </si>
   <si>
     <t xml:space="preserve">2.60882973670959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56946492195129</t>
+    <t xml:space="preserve">2.56946468353271</t>
   </si>
   <si>
     <t xml:space="preserve">2.57841110229492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54978227615356</t>
+    <t xml:space="preserve">2.54978203773499</t>
   </si>
   <si>
     <t xml:space="preserve">2.52473163604736</t>
@@ -695,13 +695,13 @@
     <t xml:space="preserve">2.55872869491577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63924813270569</t>
+    <t xml:space="preserve">2.63924789428711</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68398118019104</t>
+    <t xml:space="preserve">2.68398141860962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59451532363892</t>
+    <t xml:space="preserve">2.59451508522034</t>
   </si>
   <si>
     <t xml:space="preserve">2.5408353805542</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">2.64640545845032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5658860206604</t>
+    <t xml:space="preserve">2.56588625907898</t>
   </si>
   <si>
     <t xml:space="preserve">2.58198976516724</t>
@@ -737,13 +737,13 @@
     <t xml:space="preserve">2.48715591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4334762096405</t>
+    <t xml:space="preserve">2.43347668647766</t>
   </si>
   <si>
     <t xml:space="preserve">2.41916179656982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37979674339294</t>
+    <t xml:space="preserve">2.37979698181152</t>
   </si>
   <si>
     <t xml:space="preserve">2.42989778518677</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">2.41379380226135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36548233032227</t>
+    <t xml:space="preserve">2.36548209190369</t>
   </si>
   <si>
     <t xml:space="preserve">2.21875786781311</t>
@@ -767,10 +767,10 @@
     <t xml:space="preserve">2.14718508720398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18654990196228</t>
+    <t xml:space="preserve">2.18655014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20981097221375</t>
+    <t xml:space="preserve">2.20981121063232</t>
   </si>
   <si>
     <t xml:space="preserve">2.22054719924927</t>
@@ -779,19 +779,19 @@
     <t xml:space="preserve">2.17581415176392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15613150596619</t>
+    <t xml:space="preserve">2.15613174438477</t>
   </si>
   <si>
     <t xml:space="preserve">2.17402482032776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19012880325317</t>
+    <t xml:space="preserve">2.19012856483459</t>
   </si>
   <si>
     <t xml:space="preserve">2.095294713974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14002776145935</t>
+    <t xml:space="preserve">2.14002752304077</t>
   </si>
   <si>
     <t xml:space="preserve">2.11139869689941</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">2.30285573005676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27064824104309</t>
+    <t xml:space="preserve">2.27064800262451</t>
   </si>
   <si>
     <t xml:space="preserve">2.1722354888916</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">2.2366509437561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2151792049408</t>
+    <t xml:space="preserve">2.21517944335938</t>
   </si>
   <si>
     <t xml:space="preserve">2.24738717079163</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">2.26349091529846</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37621808052063</t>
+    <t xml:space="preserve">2.37621784210205</t>
   </si>
   <si>
     <t xml:space="preserve">2.31717038154602</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">2.33506345748901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31895995140076</t>
+    <t xml:space="preserve">2.31895971298218</t>
   </si>
   <si>
     <t xml:space="preserve">2.26528024673462</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">2.28496265411377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32611703872681</t>
+    <t xml:space="preserve">2.32611680030823</t>
   </si>
   <si>
     <t xml:space="preserve">2.3440101146698</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">2.35116744041443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36906051635742</t>
+    <t xml:space="preserve">2.369060754776</t>
   </si>
   <si>
     <t xml:space="preserve">2.37085008621216</t>
@@ -878,16 +878,16 @@
     <t xml:space="preserve">2.38695406913757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29927754402161</t>
+    <t xml:space="preserve">2.29927730560303</t>
   </si>
   <si>
     <t xml:space="preserve">2.34222102165222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54262471199036</t>
+    <t xml:space="preserve">2.54262495040894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6553521156311</t>
+    <t xml:space="preserve">2.65535187721252</t>
   </si>
   <si>
     <t xml:space="preserve">2.61419773101807</t>
@@ -902,16 +902,16 @@
     <t xml:space="preserve">2.66608810424805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60167241096497</t>
+    <t xml:space="preserve">2.60167217254639</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58020043373108</t>
+    <t xml:space="preserve">2.58020067214966</t>
   </si>
   <si>
     <t xml:space="preserve">2.42095112800598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42274045944214</t>
+    <t xml:space="preserve">2.42274022102356</t>
   </si>
   <si>
     <t xml:space="preserve">2.47105240821838</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">2.43526554107666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51936364173889</t>
+    <t xml:space="preserve">2.51936388015747</t>
   </si>
   <si>
     <t xml:space="preserve">2.45136952400208</t>
@@ -929,7 +929,7 @@
     <t xml:space="preserve">2.46031594276428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50862789154053</t>
+    <t xml:space="preserve">2.50862765312195</t>
   </si>
   <si>
     <t xml:space="preserve">2.49431347846985</t>
@@ -950,22 +950,22 @@
     <t xml:space="preserve">2.29390931129456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22770428657532</t>
+    <t xml:space="preserve">2.2277045249939</t>
   </si>
   <si>
     <t xml:space="preserve">2.20623278617859</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28138422966003</t>
+    <t xml:space="preserve">2.28138399124146</t>
   </si>
   <si>
     <t xml:space="preserve">2.19191813468933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18297123908997</t>
+    <t xml:space="preserve">2.18297147750854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12929201126099</t>
+    <t xml:space="preserve">2.12929177284241</t>
   </si>
   <si>
     <t xml:space="preserve">2.10245180130005</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">2.13823843002319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98614597320557</t>
+    <t xml:space="preserve">1.98614621162415</t>
   </si>
   <si>
     <t xml:space="preserve">2.06666541099548</t>
@@ -983,10 +983,10 @@
     <t xml:space="preserve">2.05771899223328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00403928756714</t>
+    <t xml:space="preserve">2.00403904914856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07561230659485</t>
+    <t xml:space="preserve">2.07561206817627</t>
   </si>
   <si>
     <t xml:space="preserve">1.99509274959564</t>
@@ -998,19 +998,19 @@
     <t xml:space="preserve">1.96825289726257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97719943523407</t>
+    <t xml:space="preserve">1.97719967365265</t>
   </si>
   <si>
     <t xml:space="preserve">1.95035970211029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93246650695801</t>
+    <t xml:space="preserve">1.93246674537659</t>
   </si>
   <si>
     <t xml:space="preserve">2.03087902069092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04877233505249</t>
+    <t xml:space="preserve">2.04877209663391</t>
   </si>
   <si>
     <t xml:space="preserve">2.1587393283844</t>
@@ -1022,13 +1022,13 @@
     <t xml:space="preserve">2.05812001228333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99408960342407</t>
+    <t xml:space="preserve">1.99408984184265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93920636177063</t>
+    <t xml:space="preserve">1.93920648097992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96664822101593</t>
+    <t xml:space="preserve">1.96664810180664</t>
   </si>
   <si>
     <t xml:space="preserve">2.11300325393677</t>
@@ -1043,25 +1043,25 @@
     <t xml:space="preserve">2.01238417625427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94835388660431</t>
+    <t xml:space="preserve">1.94835364818573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98494267463684</t>
+    <t xml:space="preserve">1.98494243621826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95750081539154</t>
+    <t xml:space="preserve">1.95750105381012</t>
   </si>
   <si>
     <t xml:space="preserve">1.9026175737381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00323700904846</t>
+    <t xml:space="preserve">2.00323677062988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93005919456482</t>
+    <t xml:space="preserve">1.93005907535553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97579526901245</t>
+    <t xml:space="preserve">1.97579550743103</t>
   </si>
   <si>
     <t xml:space="preserve">2.02153134346008</t>
@@ -1073,22 +1073,22 @@
     <t xml:space="preserve">2.09470891952515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86602878570557</t>
+    <t xml:space="preserve">1.86602890491486</t>
   </si>
   <si>
     <t xml:space="preserve">1.84773457050323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87517595291138</t>
+    <t xml:space="preserve">1.87517607212067</t>
   </si>
   <si>
     <t xml:space="preserve">1.83858728408813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6876585483551</t>
+    <t xml:space="preserve">1.68765842914581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.664790391922</t>
+    <t xml:space="preserve">1.66479051113129</t>
   </si>
   <si>
     <t xml:space="preserve">1.69223201274872</t>
@@ -1115,10 +1115,10 @@
     <t xml:space="preserve">1.64649605751038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6739376783371</t>
+    <t xml:space="preserve">1.67393779754639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63277518749237</t>
+    <t xml:space="preserve">1.63277530670166</t>
   </si>
   <si>
     <t xml:space="preserve">1.66936421394348</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">1.66021692752838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74254167079926</t>
+    <t xml:space="preserve">1.74254155158997</t>
   </si>
   <si>
     <t xml:space="preserve">1.70137929916382</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">1.71510004997253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68308484554291</t>
+    <t xml:space="preserve">1.6830849647522</t>
   </si>
   <si>
     <t xml:space="preserve">1.65106964111328</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">1.62362813949585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48184633255005</t>
+    <t xml:space="preserve">1.48184645175934</t>
   </si>
   <si>
     <t xml:space="preserve">1.48642003536224</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">1.29890239238739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26231372356415</t>
+    <t xml:space="preserve">1.26231360435486</t>
   </si>
   <si>
     <t xml:space="preserve">1.34921205043793</t>
@@ -1199,16 +1199,16 @@
     <t xml:space="preserve">1.4178159236908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50014090538025</t>
+    <t xml:space="preserve">1.50014078617096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50928807258606</t>
+    <t xml:space="preserve">1.50928795337677</t>
   </si>
   <si>
     <t xml:space="preserve">1.50471448898315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51386153697968</t>
+    <t xml:space="preserve">1.51386165618896</t>
   </si>
   <si>
     <t xml:space="preserve">1.45440483093262</t>
@@ -1223,10 +1223,10 @@
     <t xml:space="preserve">1.60075998306274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57789206504822</t>
+    <t xml:space="preserve">1.57789218425751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59618639945984</t>
+    <t xml:space="preserve">1.59618651866913</t>
   </si>
   <si>
     <t xml:space="preserve">1.61448097229004</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">1.62820160388947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58703923225403</t>
+    <t xml:space="preserve">1.58703935146332</t>
   </si>
   <si>
     <t xml:space="preserve">1.55045056343079</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">1.57331848144531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59161293506622</t>
+    <t xml:space="preserve">1.59161281585693</t>
   </si>
   <si>
     <t xml:space="preserve">1.5641713142395</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">1.67525947093964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63761329650879</t>
+    <t xml:space="preserve">1.6376131772995</t>
   </si>
   <si>
     <t xml:space="preserve">1.60937857627869</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">1.58114373683929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55290913581848</t>
+    <t xml:space="preserve">1.55290901660919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52467429637909</t>
+    <t xml:space="preserve">1.52467441558838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57173228263855</t>
+    <t xml:space="preserve">1.57173216342926</t>
   </si>
   <si>
     <t xml:space="preserve">1.53408598899841</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">1.46820485591888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44938182830811</t>
+    <t xml:space="preserve">1.44938170909882</t>
   </si>
   <si>
     <t xml:space="preserve">1.43055868148804</t>
@@ -1322,67 +1322,67 @@
     <t xml:space="preserve">1.40232396125793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37408936023712</t>
+    <t xml:space="preserve">1.37408924102783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34585452079773</t>
+    <t xml:space="preserve">1.34585440158844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31761991977692</t>
+    <t xml:space="preserve">1.31761980056763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29879677295685</t>
+    <t xml:space="preserve">1.29879665374756</t>
   </si>
   <si>
     <t xml:space="preserve">1.24232733249664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23291563987732</t>
+    <t xml:space="preserve">1.23291575908661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22350406646729</t>
+    <t xml:space="preserve">1.22350418567657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27997350692749</t>
+    <t xml:space="preserve">1.27997362613678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27056193351746</t>
+    <t xml:space="preserve">1.27056205272675</t>
   </si>
   <si>
     <t xml:space="preserve">1.3364429473877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35526621341705</t>
+    <t xml:space="preserve">1.35526609420776</t>
   </si>
   <si>
     <t xml:space="preserve">1.421147108078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43997025489807</t>
+    <t xml:space="preserve">1.43997013568878</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36467778682709</t>
+    <t xml:space="preserve">1.3646776676178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38350093364716</t>
+    <t xml:space="preserve">1.38350081443787</t>
   </si>
   <si>
     <t xml:space="preserve">1.32703137397766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28938508033752</t>
+    <t xml:space="preserve">1.28938519954681</t>
   </si>
   <si>
     <t xml:space="preserve">1.51526284217834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72231733798981</t>
+    <t xml:space="preserve">1.7223174571991</t>
   </si>
   <si>
     <t xml:space="preserve">1.74114048480988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71290576457977</t>
+    <t xml:space="preserve">1.71290588378906</t>
   </si>
   <si>
     <t xml:space="preserve">1.70349419116974</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">1.65643632411957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76937532424927</t>
+    <t xml:space="preserve">1.76937520503998</t>
   </si>
   <si>
     <t xml:space="preserve">1.18585789203644</t>
@@ -1424,10 +1424,10 @@
     <t xml:space="preserve">1.16703474521637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21409249305725</t>
+    <t xml:space="preserve">1.21409261226654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20468091964722</t>
+    <t xml:space="preserve">1.20468103885651</t>
   </si>
   <si>
     <t xml:space="preserve">1.1764463186264</t>
@@ -1436,10 +1436,10 @@
     <t xml:space="preserve">1.25173890590668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30820834636688</t>
+    <t xml:space="preserve">1.30820822715759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19526934623718</t>
+    <t xml:space="preserve">1.19526946544647</t>
   </si>
   <si>
     <t xml:space="preserve">1.1482115983963</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">1.13880002498627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12938845157623</t>
+    <t xml:space="preserve">1.12938857078552</t>
   </si>
   <si>
     <t xml:space="preserve">1.0917421579361</t>
@@ -1472,19 +1472,19 @@
     <t xml:space="preserve">1.07291901111603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03527271747589</t>
+    <t xml:space="preserve">1.03527283668518</t>
   </si>
   <si>
     <t xml:space="preserve">1.05409586429596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01644957065582</t>
+    <t xml:space="preserve">1.01644968986511</t>
   </si>
   <si>
     <t xml:space="preserve">1.04468429088593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00703799724579</t>
+    <t xml:space="preserve">1.00703811645508</t>
   </si>
   <si>
     <t xml:space="preserve">0.969391703605652</t>
@@ -1493,10 +1493,10 @@
     <t xml:space="preserve">0.978803277015686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959980130195618</t>
+    <t xml:space="preserve">0.959980189800262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988214790821075</t>
+    <t xml:space="preserve">0.98821485042572</t>
   </si>
   <si>
     <t xml:space="preserve">0.936451256275177</t>
@@ -1505,19 +1505,19 @@
     <t xml:space="preserve">0.950568616390228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02586114406586</t>
+    <t xml:space="preserve">1.02586126327515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06350755691528</t>
+    <t xml:space="preserve">1.06350743770599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99762636423111</t>
+    <t xml:space="preserve">0.997626423835754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26115036010742</t>
+    <t xml:space="preserve">1.26115047931671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54349756240845</t>
+    <t xml:space="preserve">1.54349744319916</t>
   </si>
   <si>
     <t xml:space="preserve">1.30537188053131</t>
@@ -58150,7 +58150,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.2995949074</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>3200</v>
@@ -58171,6 +58171,32 @@
         <v>535</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.4871412037</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>2800</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>531</v>
+      </c>
+      <c r="H2163" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LMG.MI.xlsx
+++ b/data/LMG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">LMG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50033140182495</t>
+    <t xml:space="preserve">1.50033128261566</t>
   </si>
   <si>
     <t xml:space="preserve">1.5514885187149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704050064087</t>
+    <t xml:space="preserve">1.50704061985016</t>
   </si>
   <si>
     <t xml:space="preserve">1.48439705371857</t>
@@ -65,13 +65,13 @@
     <t xml:space="preserve">1.39214646816254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41646718978882</t>
+    <t xml:space="preserve">1.41646707057953</t>
   </si>
   <si>
     <t xml:space="preserve">1.42569220066071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47433340549469</t>
+    <t xml:space="preserve">1.47433352470398</t>
   </si>
   <si>
     <t xml:space="preserve">1.4416264295578</t>
@@ -80,37 +80,37 @@
     <t xml:space="preserve">1.46762430667877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50871789455414</t>
+    <t xml:space="preserve">1.50871777534485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45923805236816</t>
+    <t xml:space="preserve">1.45923793315887</t>
   </si>
   <si>
     <t xml:space="preserve">1.40640342235565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37453496456146</t>
+    <t xml:space="preserve">1.37453520298004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36698710918427</t>
+    <t xml:space="preserve">1.36698722839355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40053296089172</t>
+    <t xml:space="preserve">1.40053284168243</t>
   </si>
   <si>
     <t xml:space="preserve">1.40891921520233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3787282705307</t>
+    <t xml:space="preserve">1.37872815132141</t>
   </si>
   <si>
     <t xml:space="preserve">1.44581961631775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52632927894592</t>
+    <t xml:space="preserve">1.52632939815521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49278354644775</t>
+    <t xml:space="preserve">1.49278342723846</t>
   </si>
   <si>
     <t xml:space="preserve">1.57245457172394</t>
@@ -128,58 +128,58 @@
     <t xml:space="preserve">1.62025713920593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68567132949829</t>
+    <t xml:space="preserve">1.685671210289</t>
   </si>
   <si>
     <t xml:space="preserve">1.74437618255615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7477308511734</t>
+    <t xml:space="preserve">1.74773097038269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71753978729248</t>
+    <t xml:space="preserve">1.71753966808319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61857998371124</t>
+    <t xml:space="preserve">1.61857986450195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59342074394226</t>
+    <t xml:space="preserve">1.59342086315155</t>
   </si>
   <si>
     <t xml:space="preserve">1.57664787769318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51962041854858</t>
+    <t xml:space="preserve">1.51962029933929</t>
   </si>
   <si>
     <t xml:space="preserve">1.50117003917694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47349464893341</t>
+    <t xml:space="preserve">1.4734947681427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51932430267334</t>
+    <t xml:space="preserve">1.51932418346405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49662160873413</t>
+    <t xml:space="preserve">1.49662172794342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4695531129837</t>
+    <t xml:space="preserve">1.46955323219299</t>
   </si>
   <si>
     <t xml:space="preserve">1.48439717292786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49312901496887</t>
+    <t xml:space="preserve">1.49312889575958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49050939083099</t>
+    <t xml:space="preserve">1.49050951004028</t>
   </si>
   <si>
     <t xml:space="preserve">1.47479236125946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46606063842773</t>
+    <t xml:space="preserve">1.46606051921844</t>
   </si>
   <si>
     <t xml:space="preserve">1.42240166664124</t>
@@ -191,31 +191,31 @@
     <t xml:space="preserve">1.43200671672821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39707982540131</t>
+    <t xml:space="preserve">1.39707958698273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35953330993652</t>
+    <t xml:space="preserve">1.35953319072723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3831090927124</t>
+    <t xml:space="preserve">1.38310885429382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37961637973785</t>
+    <t xml:space="preserve">1.37961614131927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31936717033386</t>
+    <t xml:space="preserve">1.31936705112457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3534209728241</t>
+    <t xml:space="preserve">1.35342085361481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36215269565582</t>
+    <t xml:space="preserve">1.36215281486511</t>
   </si>
   <si>
     <t xml:space="preserve">1.42327487468719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4739191532135</t>
+    <t xml:space="preserve">1.47391903400421</t>
   </si>
   <si>
     <t xml:space="preserve">1.44073843955994</t>
@@ -224,10 +224,10 @@
     <t xml:space="preserve">1.38834798336029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32722556591034</t>
+    <t xml:space="preserve">1.32722568511963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30714249610901</t>
+    <t xml:space="preserve">1.3071426153183</t>
   </si>
   <si>
     <t xml:space="preserve">1.27832794189453</t>
@@ -245,13 +245,13 @@
     <t xml:space="preserve">1.29229867458344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28356695175171</t>
+    <t xml:space="preserve">1.283567070961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2399080991745</t>
+    <t xml:space="preserve">1.23990821838379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19450318813324</t>
+    <t xml:space="preserve">1.19450306892395</t>
   </si>
   <si>
     <t xml:space="preserve">1.27483534812927</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">1.21895205974579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20236170291901</t>
+    <t xml:space="preserve">1.20236158370972</t>
   </si>
   <si>
     <t xml:space="preserve">1.19188368320465</t>
@@ -269,37 +269,37 @@
     <t xml:space="preserve">1.22244465351105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17878592014313</t>
+    <t xml:space="preserve">1.17878603935242</t>
   </si>
   <si>
     <t xml:space="preserve">1.16132259368896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09408807754517</t>
+    <t xml:space="preserve">1.09408795833588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07837080955505</t>
+    <t xml:space="preserve">1.07837104797363</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06876587867737</t>
+    <t xml:space="preserve">1.06876599788666</t>
   </si>
   <si>
     <t xml:space="preserve">1.08448302745819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1002002954483</t>
+    <t xml:space="preserve">1.10020017623901</t>
   </si>
   <si>
     <t xml:space="preserve">1.13076138496399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11067831516266</t>
+    <t xml:space="preserve">1.11067819595337</t>
   </si>
   <si>
     <t xml:space="preserve">1.11766386032104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08273684978485</t>
+    <t xml:space="preserve">1.08273673057556</t>
   </si>
   <si>
     <t xml:space="preserve">1.05217576026917</t>
@@ -314,55 +314,55 @@
     <t xml:space="preserve">1.05654156208038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04780972003937</t>
+    <t xml:space="preserve">1.04780983924866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99978506565094</t>
+    <t xml:space="preserve">0.999785125255585</t>
   </si>
   <si>
     <t xml:space="preserve">1.01200973987579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985814213752747</t>
+    <t xml:space="preserve">0.985814332962036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.927311718463898</t>
+    <t xml:space="preserve">0.927311658859253</t>
   </si>
   <si>
     <t xml:space="preserve">0.903735935688019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993672788143158</t>
+    <t xml:space="preserve">0.993673026561737</t>
   </si>
   <si>
     <t xml:space="preserve">0.951760530471802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938662946224213</t>
+    <t xml:space="preserve">0.938662886619568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935170233249664</t>
+    <t xml:space="preserve">0.93517017364502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909848153591156</t>
+    <t xml:space="preserve">0.909848213195801</t>
   </si>
   <si>
     <t xml:space="preserve">0.948267817497253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991926550865173</t>
+    <t xml:space="preserve">0.991926670074463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956999540328979</t>
+    <t xml:space="preserve">0.956999599933624</t>
   </si>
   <si>
     <t xml:space="preserve">0.960492312908173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00938999652863</t>
+    <t xml:space="preserve">1.00939011573792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00415098667145</t>
+    <t xml:space="preserve">1.00415086746216</t>
   </si>
   <si>
     <t xml:space="preserve">1.10107350349426</t>
@@ -377,13 +377,13 @@
     <t xml:space="preserve">1.04519021511078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03907787799835</t>
+    <t xml:space="preserve">1.03907823562622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03383910655975</t>
+    <t xml:space="preserve">1.03383898735046</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977955639362335</t>
+    <t xml:space="preserve">0.97795581817627</t>
   </si>
   <si>
     <t xml:space="preserve">1.02510726451874</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">1.01026320457458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01812183856964</t>
+    <t xml:space="preserve">1.01812195777893</t>
   </si>
   <si>
     <t xml:space="preserve">1.02598035335541</t>
@@ -419,19 +419,19 @@
     <t xml:space="preserve">0.995419323444366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10456609725952</t>
+    <t xml:space="preserve">1.10456621646881</t>
   </si>
   <si>
     <t xml:space="preserve">1.10543930530548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06963920593262</t>
+    <t xml:space="preserve">1.06963908672333</t>
   </si>
   <si>
     <t xml:space="preserve">1.09845387935638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15259087085724</t>
+    <t xml:space="preserve">1.15259075164795</t>
   </si>
   <si>
     <t xml:space="preserve">1.18577146530151</t>
@@ -443,19 +443,19 @@
     <t xml:space="preserve">1.24776673316956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24863994121552</t>
+    <t xml:space="preserve">1.24863982200623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31063556671143</t>
+    <t xml:space="preserve">1.31063544750214</t>
   </si>
   <si>
     <t xml:space="preserve">1.2582448720932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26610338687897</t>
+    <t xml:space="preserve">1.26610350608826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27046942710876</t>
+    <t xml:space="preserve">1.27046930789948</t>
   </si>
   <si>
     <t xml:space="preserve">1.20672762393951</t>
@@ -467,19 +467,19 @@
     <t xml:space="preserve">1.24427402019501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24689364433289</t>
+    <t xml:space="preserve">1.2468935251236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2049812078476</t>
+    <t xml:space="preserve">1.20498132705688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19624948501587</t>
+    <t xml:space="preserve">1.19624936580658</t>
   </si>
   <si>
     <t xml:space="preserve">1.24340093135834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21371304988861</t>
+    <t xml:space="preserve">1.21371293067932</t>
   </si>
   <si>
     <t xml:space="preserve">1.29142546653748</t>
@@ -488,22 +488,22 @@
     <t xml:space="preserve">1.30976223945618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28967905044556</t>
+    <t xml:space="preserve">1.28967916965485</t>
   </si>
   <si>
     <t xml:space="preserve">1.21196663379669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18315184116364</t>
+    <t xml:space="preserve">1.18315196037292</t>
   </si>
   <si>
     <t xml:space="preserve">1.18751788139343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17703950405121</t>
+    <t xml:space="preserve">1.17703974246979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17005431652069</t>
+    <t xml:space="preserve">1.1700541973114</t>
   </si>
   <si>
     <t xml:space="preserve">1.2276839017868</t>
@@ -515,10 +515,10 @@
     <t xml:space="preserve">1.45645558834076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4599484205246</t>
+    <t xml:space="preserve">1.45994830131531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45820200443268</t>
+    <t xml:space="preserve">1.45820188522339</t>
   </si>
   <si>
     <t xml:space="preserve">1.52369010448456</t>
@@ -527,16 +527,16 @@
     <t xml:space="preserve">1.56036329269409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52019739151001</t>
+    <t xml:space="preserve">1.5201975107193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55337798595428</t>
+    <t xml:space="preserve">1.553377866745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55425107479095</t>
+    <t xml:space="preserve">1.55425119400024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53678774833679</t>
+    <t xml:space="preserve">1.5367876291275</t>
   </si>
   <si>
     <t xml:space="preserve">1.60227572917938</t>
@@ -548,13 +548,13 @@
     <t xml:space="preserve">1.65466630458832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70269095897675</t>
+    <t xml:space="preserve">1.70269083976746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72888612747192</t>
+    <t xml:space="preserve">1.72888600826263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73674464225769</t>
+    <t xml:space="preserve">1.73674476146698</t>
   </si>
   <si>
     <t xml:space="preserve">1.8109644651413</t>
@@ -569,22 +569,22 @@
     <t xml:space="preserve">1.85986244678497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72277402877808</t>
+    <t xml:space="preserve">1.72277390956879</t>
   </si>
   <si>
     <t xml:space="preserve">1.67038345336914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74634969234467</t>
+    <t xml:space="preserve">1.74634957313538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69046628475189</t>
+    <t xml:space="preserve">1.69046640396118</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76032054424286</t>
+    <t xml:space="preserve">1.76032042503357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68697369098663</t>
+    <t xml:space="preserve">1.68697381019592</t>
   </si>
   <si>
     <t xml:space="preserve">1.67649567127228</t>
@@ -599,10 +599,10 @@
     <t xml:space="preserve">1.79000818729401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81271088123322</t>
+    <t xml:space="preserve">1.81271076202393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82842803001404</t>
+    <t xml:space="preserve">1.82842814922333</t>
   </si>
   <si>
     <t xml:space="preserve">1.81620347499847</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">1.79874014854431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72801280021667</t>
+    <t xml:space="preserve">1.72801303863525</t>
   </si>
   <si>
     <t xml:space="preserve">1.81795001029968</t>
@@ -620,10 +620,10 @@
     <t xml:space="preserve">1.82510721683502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92351996898651</t>
+    <t xml:space="preserve">1.92351973056793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87878668308258</t>
+    <t xml:space="preserve">1.87878656387329</t>
   </si>
   <si>
     <t xml:space="preserve">1.8608934879303</t>
@@ -635,19 +635,19 @@
     <t xml:space="preserve">2.0398256778717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4764199256897</t>
+    <t xml:space="preserve">2.47642016410828</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57662200927734</t>
+    <t xml:space="preserve">2.57662224769592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94701147079468</t>
+    <t xml:space="preserve">2.9470112323761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95237946510315</t>
+    <t xml:space="preserve">2.95237922668457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85396695137024</t>
+    <t xml:space="preserve">2.85396671295166</t>
   </si>
   <si>
     <t xml:space="preserve">2.75913286209106</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">2.58556866645813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56767559051514</t>
+    <t xml:space="preserve">2.56767535209656</t>
   </si>
   <si>
     <t xml:space="preserve">2.50504899024963</t>
@@ -671,7 +671,7 @@
     <t xml:space="preserve">2.70187449455261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90764617919922</t>
+    <t xml:space="preserve">2.9076464176178</t>
   </si>
   <si>
     <t xml:space="preserve">2.79134035110474</t>
@@ -683,7 +683,7 @@
     <t xml:space="preserve">2.56946468353271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57841110229492</t>
+    <t xml:space="preserve">2.5784113407135</t>
   </si>
   <si>
     <t xml:space="preserve">2.54978203773499</t>
@@ -692,28 +692,28 @@
     <t xml:space="preserve">2.52473163604736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55872869491577</t>
+    <t xml:space="preserve">2.55872845649719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63924789428711</t>
+    <t xml:space="preserve">2.63924813270569</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68398141860962</t>
+    <t xml:space="preserve">2.68398118019104</t>
   </si>
   <si>
     <t xml:space="preserve">2.59451508522034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5408353805542</t>
+    <t xml:space="preserve">2.54083561897278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56230735778809</t>
+    <t xml:space="preserve">2.56230759620667</t>
   </si>
   <si>
     <t xml:space="preserve">2.56409668922424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64640545845032</t>
+    <t xml:space="preserve">2.64640522003174</t>
   </si>
   <si>
     <t xml:space="preserve">2.56588625907898</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">2.52294230461121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48536658287048</t>
+    <t xml:space="preserve">2.48536705970764</t>
   </si>
   <si>
     <t xml:space="preserve">2.53188896179199</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">2.48715591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43347668647766</t>
+    <t xml:space="preserve">2.4334762096405</t>
   </si>
   <si>
     <t xml:space="preserve">2.41916179656982</t>
@@ -746,10 +746,10 @@
     <t xml:space="preserve">2.37979698181152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42989778518677</t>
+    <t xml:space="preserve">2.42989802360535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41379380226135</t>
+    <t xml:space="preserve">2.41379356384277</t>
   </si>
   <si>
     <t xml:space="preserve">2.36548209190369</t>
@@ -758,73 +758,73 @@
     <t xml:space="preserve">2.21875786781311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21338987350464</t>
+    <t xml:space="preserve">2.21339011192322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15792083740234</t>
+    <t xml:space="preserve">2.15792107582092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14718508720398</t>
+    <t xml:space="preserve">2.1471848487854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18655014038086</t>
+    <t xml:space="preserve">2.18654990196228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20981121063232</t>
+    <t xml:space="preserve">2.2098114490509</t>
   </si>
   <si>
     <t xml:space="preserve">2.22054719924927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17581415176392</t>
+    <t xml:space="preserve">2.17581391334534</t>
   </si>
   <si>
     <t xml:space="preserve">2.15613174438477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17402482032776</t>
+    <t xml:space="preserve">2.17402505874634</t>
   </si>
   <si>
     <t xml:space="preserve">2.19012856483459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.095294713974</t>
+    <t xml:space="preserve">2.09529447555542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14002752304077</t>
+    <t xml:space="preserve">2.14002776145935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11139869689941</t>
+    <t xml:space="preserve">2.11139845848083</t>
   </si>
   <si>
     <t xml:space="preserve">2.30285573005676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27064800262451</t>
+    <t xml:space="preserve">2.27064824104309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1722354888916</t>
+    <t xml:space="preserve">2.17223525047302</t>
   </si>
   <si>
     <t xml:space="preserve">2.19549655914307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25275492668152</t>
+    <t xml:space="preserve">2.25275468826294</t>
   </si>
   <si>
     <t xml:space="preserve">2.2366509437561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21517944335938</t>
+    <t xml:space="preserve">2.2151792049408</t>
   </si>
   <si>
     <t xml:space="preserve">2.24738717079163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24559783935547</t>
+    <t xml:space="preserve">2.24559760093689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26349091529846</t>
+    <t xml:space="preserve">2.26349115371704</t>
   </si>
   <si>
     <t xml:space="preserve">2.37621784210205</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">2.3815860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33506345748901</t>
+    <t xml:space="preserve">2.33506369590759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31895971298218</t>
+    <t xml:space="preserve">2.31895995140076</t>
   </si>
   <si>
     <t xml:space="preserve">2.26528024673462</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">2.44242310523987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35116744041443</t>
+    <t xml:space="preserve">2.35116767883301</t>
   </si>
   <si>
     <t xml:space="preserve">2.369060754776</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">2.54262495040894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65535187721252</t>
+    <t xml:space="preserve">2.6553521156311</t>
   </si>
   <si>
     <t xml:space="preserve">2.61419773101807</t>
@@ -896,13 +896,13 @@
     <t xml:space="preserve">2.62314438819885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61240863800049</t>
+    <t xml:space="preserve">2.61240839958191</t>
   </si>
   <si>
     <t xml:space="preserve">2.66608810424805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60167217254639</t>
+    <t xml:space="preserve">2.60167241096497</t>
   </si>
   <si>
     <t xml:space="preserve">2.58020067214966</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">2.42274022102356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47105240821838</t>
+    <t xml:space="preserve">2.4710521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43526554107666</t>
+    <t xml:space="preserve">2.43526577949524</t>
   </si>
   <si>
     <t xml:space="preserve">2.51936388015747</t>
@@ -926,13 +926,13 @@
     <t xml:space="preserve">2.45136952400208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46031594276428</t>
+    <t xml:space="preserve">2.46031618118286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50862765312195</t>
+    <t xml:space="preserve">2.50862741470337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49431347846985</t>
+    <t xml:space="preserve">2.49431324005127</t>
   </si>
   <si>
     <t xml:space="preserve">2.43705487251282</t>
@@ -947,43 +947,43 @@
     <t xml:space="preserve">2.41558313369751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29390931129456</t>
+    <t xml:space="preserve">2.29390954971313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2277045249939</t>
+    <t xml:space="preserve">2.22770428657532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20623278617859</t>
+    <t xml:space="preserve">2.20623254776001</t>
   </si>
   <si>
     <t xml:space="preserve">2.28138399124146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19191813468933</t>
+    <t xml:space="preserve">2.19191789627075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18297147750854</t>
+    <t xml:space="preserve">2.18297171592712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12929177284241</t>
+    <t xml:space="preserve">2.12929201126099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10245180130005</t>
+    <t xml:space="preserve">2.10245203971863</t>
   </si>
   <si>
     <t xml:space="preserve">2.13823843002319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98614621162415</t>
+    <t xml:space="preserve">1.98614609241486</t>
   </si>
   <si>
     <t xml:space="preserve">2.06666541099548</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05771899223328</t>
+    <t xml:space="preserve">2.0577187538147</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00403904914856</t>
+    <t xml:space="preserve">2.00403928756714</t>
   </si>
   <si>
     <t xml:space="preserve">2.07561206817627</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">1.97719967365265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95035970211029</t>
+    <t xml:space="preserve">1.950359582901</t>
   </si>
   <si>
     <t xml:space="preserve">1.93246674537659</t>
@@ -1010,28 +1010,28 @@
     <t xml:space="preserve">2.03087902069092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04877209663391</t>
+    <t xml:space="preserve">2.04877233505249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1587393283844</t>
+    <t xml:space="preserve">2.15873908996582</t>
   </si>
   <si>
     <t xml:space="preserve">2.13129758834839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05812001228333</t>
+    <t xml:space="preserve">2.0581202507019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99408984184265</t>
+    <t xml:space="preserve">1.99408972263336</t>
   </si>
   <si>
     <t xml:space="preserve">1.93920648097992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96664810180664</t>
+    <t xml:space="preserve">1.96664822101593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11300325393677</t>
+    <t xml:space="preserve">2.11300349235535</t>
   </si>
   <si>
     <t xml:space="preserve">2.08556175231934</t>
@@ -1040,34 +1040,34 @@
     <t xml:space="preserve">2.03067851066589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01238417625427</t>
+    <t xml:space="preserve">2.01238393783569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94835364818573</t>
+    <t xml:space="preserve">1.94835388660431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98494243621826</t>
+    <t xml:space="preserve">1.98494267463684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95750105381012</t>
+    <t xml:space="preserve">1.95750117301941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9026175737381</t>
+    <t xml:space="preserve">1.90261769294739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00323677062988</t>
+    <t xml:space="preserve">2.00323700904846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93005907535553</t>
+    <t xml:space="preserve">1.93005919456482</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97579550743103</t>
+    <t xml:space="preserve">1.97579538822174</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02153134346008</t>
+    <t xml:space="preserve">2.0215311050415</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07641458511353</t>
+    <t xml:space="preserve">2.07641434669495</t>
   </si>
   <si>
     <t xml:space="preserve">2.09470891952515</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">1.86602890491486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84773457050323</t>
+    <t xml:space="preserve">1.84773445129395</t>
   </si>
   <si>
     <t xml:space="preserve">1.87517607212067</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">1.68765842914581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66479051113129</t>
+    <t xml:space="preserve">1.664790391922</t>
   </si>
   <si>
     <t xml:space="preserve">1.69223201274872</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">1.73796808719635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76540970802307</t>
+    <t xml:space="preserve">1.76540958881378</t>
   </si>
   <si>
     <t xml:space="preserve">1.73339450359344</t>
@@ -1115,16 +1115,16 @@
     <t xml:space="preserve">1.64649605751038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67393779754639</t>
+    <t xml:space="preserve">1.6739376783371</t>
   </si>
   <si>
     <t xml:space="preserve">1.63277530670166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66936421394348</t>
+    <t xml:space="preserve">1.66936409473419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66021692752838</t>
+    <t xml:space="preserve">1.66021680831909</t>
   </si>
   <si>
     <t xml:space="preserve">1.74254155158997</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">1.65106964111328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71052646636963</t>
+    <t xml:space="preserve">1.71052658557892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65564322471619</t>
+    <t xml:space="preserve">1.65564334392548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62362813949585</t>
+    <t xml:space="preserve">1.62362802028656</t>
   </si>
   <si>
     <t xml:space="preserve">1.48184645175934</t>
@@ -1166,19 +1166,19 @@
     <t xml:space="preserve">1.38122725486755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35378563404083</t>
+    <t xml:space="preserve">1.35378575325012</t>
   </si>
   <si>
     <t xml:space="preserve">1.29890239238739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26231360435486</t>
+    <t xml:space="preserve">1.26231372356415</t>
   </si>
   <si>
     <t xml:space="preserve">1.34921205043793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44068419933319</t>
+    <t xml:space="preserve">1.4406840801239</t>
   </si>
   <si>
     <t xml:space="preserve">1.47727286815643</t>
@@ -1190,25 +1190,25 @@
     <t xml:space="preserve">1.49556732177734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44983124732971</t>
+    <t xml:space="preserve">1.449831366539</t>
   </si>
   <si>
     <t xml:space="preserve">1.44525766372681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4178159236908</t>
+    <t xml:space="preserve">1.41781604290009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50014078617096</t>
+    <t xml:space="preserve">1.50014090538025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50928795337677</t>
+    <t xml:space="preserve">1.50928807258606</t>
   </si>
   <si>
     <t xml:space="preserve">1.50471448898315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51386165618896</t>
+    <t xml:space="preserve">1.51386153697968</t>
   </si>
   <si>
     <t xml:space="preserve">1.45440483093262</t>
@@ -1220,40 +1220,40 @@
     <t xml:space="preserve">1.4269632101059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60075998306274</t>
+    <t xml:space="preserve">1.60076010227203</t>
   </si>
   <si>
     <t xml:space="preserve">1.57789218425751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59618651866913</t>
+    <t xml:space="preserve">1.59618639945984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61448097229004</t>
+    <t xml:space="preserve">1.61448085308075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60990726947784</t>
+    <t xml:space="preserve">1.60990715026855</t>
   </si>
   <si>
     <t xml:space="preserve">1.61905443668365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62820160388947</t>
+    <t xml:space="preserve">1.62820172309875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58703935146332</t>
+    <t xml:space="preserve">1.58703923225403</t>
   </si>
   <si>
     <t xml:space="preserve">1.55045056343079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58246576786041</t>
+    <t xml:space="preserve">1.58246564865112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63734889030457</t>
+    <t xml:space="preserve">1.63734877109528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57331848144531</t>
+    <t xml:space="preserve">1.5733186006546</t>
   </si>
   <si>
     <t xml:space="preserve">1.59161281585693</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">1.67525947093964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6376131772995</t>
+    <t xml:space="preserve">1.63761329650879</t>
   </si>
   <si>
     <t xml:space="preserve">1.60937857627869</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">1.58114373683929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55290901660919</t>
+    <t xml:space="preserve">1.55290913581848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52467441558838</t>
+    <t xml:space="preserve">1.52467429637909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57173216342926</t>
+    <t xml:space="preserve">1.57173228263855</t>
   </si>
   <si>
     <t xml:space="preserve">1.53408598899841</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">1.46820485591888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44938170909882</t>
+    <t xml:space="preserve">1.44938182830811</t>
   </si>
   <si>
     <t xml:space="preserve">1.43055868148804</t>
@@ -1322,67 +1322,67 @@
     <t xml:space="preserve">1.40232396125793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37408924102783</t>
+    <t xml:space="preserve">1.37408936023712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34585440158844</t>
+    <t xml:space="preserve">1.34585452079773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31761980056763</t>
+    <t xml:space="preserve">1.31761991977692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29879665374756</t>
+    <t xml:space="preserve">1.29879677295685</t>
   </si>
   <si>
     <t xml:space="preserve">1.24232733249664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23291575908661</t>
+    <t xml:space="preserve">1.23291563987732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22350418567657</t>
+    <t xml:space="preserve">1.22350406646729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27997362613678</t>
+    <t xml:space="preserve">1.27997350692749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27056205272675</t>
+    <t xml:space="preserve">1.27056193351746</t>
   </si>
   <si>
     <t xml:space="preserve">1.3364429473877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35526609420776</t>
+    <t xml:space="preserve">1.35526621341705</t>
   </si>
   <si>
     <t xml:space="preserve">1.421147108078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43997013568878</t>
+    <t xml:space="preserve">1.43997025489807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3646776676178</t>
+    <t xml:space="preserve">1.36467778682709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38350081443787</t>
+    <t xml:space="preserve">1.38350093364716</t>
   </si>
   <si>
     <t xml:space="preserve">1.32703137397766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28938519954681</t>
+    <t xml:space="preserve">1.28938508033752</t>
   </si>
   <si>
     <t xml:space="preserve">1.51526284217834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7223174571991</t>
+    <t xml:space="preserve">1.72231733798981</t>
   </si>
   <si>
     <t xml:space="preserve">1.74114048480988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71290588378906</t>
+    <t xml:space="preserve">1.71290576457977</t>
   </si>
   <si>
     <t xml:space="preserve">1.70349419116974</t>
@@ -1406,16 +1406,13 @@
     <t xml:space="preserve">1.6940826177597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62820172309875</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.61879014968872</t>
   </si>
   <si>
     <t xml:space="preserve">1.65643632411957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76937520503998</t>
+    <t xml:space="preserve">1.76937532424927</t>
   </si>
   <si>
     <t xml:space="preserve">1.18585789203644</t>
@@ -1424,10 +1421,10 @@
     <t xml:space="preserve">1.16703474521637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21409261226654</t>
+    <t xml:space="preserve">1.21409249305725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20468103885651</t>
+    <t xml:space="preserve">1.20468091964722</t>
   </si>
   <si>
     <t xml:space="preserve">1.1764463186264</t>
@@ -1436,10 +1433,10 @@
     <t xml:space="preserve">1.25173890590668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30820822715759</t>
+    <t xml:space="preserve">1.30820834636688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19526946544647</t>
+    <t xml:space="preserve">1.19526934623718</t>
   </si>
   <si>
     <t xml:space="preserve">1.1482115983963</t>
@@ -1451,7 +1448,7 @@
     <t xml:space="preserve">1.13880002498627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12938857078552</t>
+    <t xml:space="preserve">1.12938845157623</t>
   </si>
   <si>
     <t xml:space="preserve">1.0917421579361</t>
@@ -1472,19 +1469,19 @@
     <t xml:space="preserve">1.07291901111603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03527283668518</t>
+    <t xml:space="preserve">1.03527271747589</t>
   </si>
   <si>
     <t xml:space="preserve">1.05409586429596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01644968986511</t>
+    <t xml:space="preserve">1.01644957065582</t>
   </si>
   <si>
     <t xml:space="preserve">1.04468429088593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00703811645508</t>
+    <t xml:space="preserve">1.00703799724579</t>
   </si>
   <si>
     <t xml:space="preserve">0.969391703605652</t>
@@ -1493,10 +1490,10 @@
     <t xml:space="preserve">0.978803277015686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959980189800262</t>
+    <t xml:space="preserve">0.959980130195618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98821485042572</t>
+    <t xml:space="preserve">0.988214790821075</t>
   </si>
   <si>
     <t xml:space="preserve">0.936451256275177</t>
@@ -1505,19 +1502,19 @@
     <t xml:space="preserve">0.950568616390228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02586126327515</t>
+    <t xml:space="preserve">1.02586114406586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06350743770599</t>
+    <t xml:space="preserve">1.06350755691528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.997626423835754</t>
+    <t xml:space="preserve">0.99762636423111</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26115047931671</t>
+    <t xml:space="preserve">1.26115036010742</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54349744319916</t>
+    <t xml:space="preserve">1.54349756240845</t>
   </si>
   <si>
     <t xml:space="preserve">1.30537188053131</t>
@@ -28918,7 +28915,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1037" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28970,7 +28967,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1039" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29074,7 +29071,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G1043" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29100,7 +29097,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1044" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29152,7 +29149,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1046" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29282,7 +29279,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1051" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29542,7 +29539,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1061" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29568,7 +29565,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1062" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29594,7 +29591,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1063" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29620,7 +29617,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29646,7 +29643,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1065" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29672,7 +29669,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1066" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29698,7 +29695,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1067" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29724,7 +29721,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1068" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29750,7 +29747,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1069" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29776,7 +29773,7 @@
         <v>1.25</v>
       </c>
       <c r="G1070" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29802,7 +29799,7 @@
         <v>1.25</v>
       </c>
       <c r="G1071" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29828,7 +29825,7 @@
         <v>1.25</v>
       </c>
       <c r="G1072" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29854,7 +29851,7 @@
         <v>1.25</v>
       </c>
       <c r="G1073" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30036,7 +30033,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1080" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -30062,7 +30059,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1081" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -30088,7 +30085,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1082" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -30140,7 +30137,7 @@
         <v>1.25</v>
       </c>
       <c r="G1084" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30244,7 +30241,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1088" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30296,7 +30293,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1090" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30348,7 +30345,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1092" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30374,7 +30371,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1093" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30400,7 +30397,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1094" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30426,7 +30423,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1095" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30452,7 +30449,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1096" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30478,7 +30475,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1097" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30504,7 +30501,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1098" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30530,7 +30527,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1099" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30556,7 +30553,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30582,7 +30579,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1101" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30608,7 +30605,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1102" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30634,7 +30631,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1103" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30660,7 +30657,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1104" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30686,7 +30683,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1105" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30712,7 +30709,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30738,7 +30735,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1107" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30764,7 +30761,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1108" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30790,7 +30787,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1109" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30816,7 +30813,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1110" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30842,7 +30839,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1111" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30868,7 +30865,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1112" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30894,7 +30891,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1113" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30920,7 +30917,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1114" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30946,7 +30943,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1115" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30972,7 +30969,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1116" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30998,7 +30995,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1117" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31024,7 +31021,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1118" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31050,7 +31047,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1119" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31076,7 +31073,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1120" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -31102,7 +31099,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1121" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31128,7 +31125,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1122" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31154,7 +31151,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1123" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31180,7 +31177,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1124" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31206,7 +31203,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1125" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31232,7 +31229,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1126" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31258,7 +31255,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1127" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31284,7 +31281,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1128" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31310,7 +31307,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1129" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31336,7 +31333,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1130" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31362,7 +31359,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1131" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31388,7 +31385,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1132" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31414,7 +31411,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1133" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31440,7 +31437,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1134" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31466,7 +31463,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1135" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31492,7 +31489,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1136" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31518,7 +31515,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1137" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31544,7 +31541,7 @@
         <v>1.25</v>
       </c>
       <c r="G1138" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31570,7 +31567,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1139" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31596,7 +31593,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1140" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31622,7 +31619,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1141" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31648,7 +31645,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1142" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31674,7 +31671,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1143" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31700,7 +31697,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31726,7 +31723,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1145" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31752,7 +31749,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1146" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31778,7 +31775,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1147" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31804,7 +31801,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1148" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31830,7 +31827,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1149" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31856,7 +31853,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1150" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31882,7 +31879,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1151" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31908,7 +31905,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1152" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31934,7 +31931,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1153" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31960,7 +31957,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1154" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31986,7 +31983,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1155" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32012,7 +32009,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1156" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -32038,7 +32035,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1157" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32064,7 +32061,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1158" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -32090,7 +32087,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1159" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -32116,7 +32113,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1160" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -32142,7 +32139,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1161" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32168,7 +32165,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1162" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32194,7 +32191,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1163" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32220,7 +32217,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1164" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32246,7 +32243,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1165" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32272,7 +32269,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1166" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32298,7 +32295,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1167" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32324,7 +32321,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1168" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32350,7 +32347,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1169" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32376,7 +32373,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1170" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32402,7 +32399,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1171" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32428,7 +32425,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1172" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32454,7 +32451,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1173" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32480,7 +32477,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1174" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32506,7 +32503,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1175" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32532,7 +32529,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1176" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32558,7 +32555,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1177" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32584,7 +32581,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1178" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32610,7 +32607,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1179" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32636,7 +32633,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1180" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32662,7 +32659,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1181" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32688,7 +32685,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1182" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32714,7 +32711,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1183" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32740,7 +32737,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1184" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32766,7 +32763,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1185" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32792,7 +32789,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1186" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -32818,7 +32815,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1187" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -32844,7 +32841,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1188" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -32870,7 +32867,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1189" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -32896,7 +32893,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1190" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -32922,7 +32919,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1191" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -32948,7 +32945,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1192" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -32974,7 +32971,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1193" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -33000,7 +32997,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1194" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33026,7 +33023,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G1195" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33052,7 +33049,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1196" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33078,7 +33075,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33104,7 +33101,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1198" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33130,7 +33127,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1199" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -33156,7 +33153,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G1200" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -33182,7 +33179,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1201" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -33208,7 +33205,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1202" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -33234,7 +33231,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1203" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -33260,7 +33257,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1204" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -33286,7 +33283,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1205" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -33312,7 +33309,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1206" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -33338,7 +33335,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1207" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -33364,7 +33361,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1208" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -33390,7 +33387,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1209" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -33416,7 +33413,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1210" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -33442,7 +33439,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1211" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -33468,7 +33465,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1212" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -33494,7 +33491,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1213" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -33520,7 +33517,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1214" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -33546,7 +33543,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1215" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -33572,7 +33569,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1216" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -33598,7 +33595,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1217" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -33624,7 +33621,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1218" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -33650,7 +33647,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1219" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -33676,7 +33673,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1220" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -33702,7 +33699,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1221" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -33728,7 +33725,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1222" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -33754,7 +33751,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1223" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -33780,7 +33777,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1224" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -33806,7 +33803,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1225" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -33832,7 +33829,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1226" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -33858,7 +33855,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G1227" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -33884,7 +33881,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1228" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -33910,7 +33907,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1229" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -33936,7 +33933,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1230" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -33962,7 +33959,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1231" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -33988,7 +33985,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1232" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34014,7 +34011,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1233" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34040,7 +34037,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1234" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34066,7 +34063,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1235" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -34092,7 +34089,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1236" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -34118,7 +34115,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1237" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34144,7 +34141,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1238" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -34170,7 +34167,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1239" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -34196,7 +34193,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1240" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -34222,7 +34219,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1241" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -34248,7 +34245,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1242" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -34274,7 +34271,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1243" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -34300,7 +34297,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1244" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -34326,7 +34323,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1245" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34352,7 +34349,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1246" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34378,7 +34375,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1247" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -34404,7 +34401,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1248" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -34430,7 +34427,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1249" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -34456,7 +34453,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1250" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -34482,7 +34479,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1251" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -34508,7 +34505,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1252" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -34534,7 +34531,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1253" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -34560,7 +34557,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1254" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -34586,7 +34583,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1255" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -34612,7 +34609,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1256" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -34638,7 +34635,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1257" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -34664,7 +34661,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1258" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -34690,7 +34687,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1259" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -34716,7 +34713,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1260" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -34742,7 +34739,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1261" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -34768,7 +34765,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1262" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -34794,7 +34791,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1263" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -34820,7 +34817,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1264" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -34846,7 +34843,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1265" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -34872,7 +34869,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1266" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -34898,7 +34895,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1267" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -34924,7 +34921,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1268" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -34950,7 +34947,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1269" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -34976,7 +34973,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1270" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -35002,7 +34999,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1271" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35028,7 +35025,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1272" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35054,7 +35051,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1273" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35080,7 +35077,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1274" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -35106,7 +35103,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1275" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35132,7 +35129,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1276" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -35158,7 +35155,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1277" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35184,7 +35181,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1278" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35210,7 +35207,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1279" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35236,7 +35233,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1280" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -35262,7 +35259,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1281" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -35288,7 +35285,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1282" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35314,7 +35311,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1283" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35340,7 +35337,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1284" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35366,7 +35363,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1285" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35392,7 +35389,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1286" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35418,7 +35415,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1287" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35444,7 +35441,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1288" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35470,7 +35467,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1289" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -35496,7 +35493,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1290" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35522,7 +35519,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1291" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35548,7 +35545,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1292" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -35574,7 +35571,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1293" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35600,7 +35597,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1294" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35626,7 +35623,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1295" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35652,7 +35649,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1296" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35678,7 +35675,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1297" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35704,7 +35701,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1298" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35730,7 +35727,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1299" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35756,7 +35753,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1300" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35782,7 +35779,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1301" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35808,7 +35805,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1302" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35834,7 +35831,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1303" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35860,7 +35857,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1304" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -35886,7 +35883,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1305" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -35912,7 +35909,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1306" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -35938,7 +35935,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1307" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -35964,7 +35961,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1308" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -35990,7 +35987,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1309" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36016,7 +36013,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1310" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36042,7 +36039,7 @@
         <v>1.25</v>
       </c>
       <c r="G1311" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36068,7 +36065,7 @@
         <v>1.25</v>
       </c>
       <c r="G1312" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36094,7 +36091,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1313" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36120,7 +36117,7 @@
         <v>1.25</v>
       </c>
       <c r="G1314" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36146,7 +36143,7 @@
         <v>1.25</v>
       </c>
       <c r="G1315" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -36172,7 +36169,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1316" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -36198,7 +36195,7 @@
         <v>1.25</v>
       </c>
       <c r="G1317" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36224,7 +36221,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36276,7 +36273,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36302,7 +36299,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1321" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36328,7 +36325,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1322" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36354,7 +36351,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1323" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36380,7 +36377,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1324" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36406,7 +36403,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1325" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36432,7 +36429,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1326" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36458,7 +36455,7 @@
         <v>1.25</v>
       </c>
       <c r="G1327" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36484,7 +36481,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1328" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36510,7 +36507,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1329" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36536,7 +36533,7 @@
         <v>1.25</v>
       </c>
       <c r="G1330" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36562,7 +36559,7 @@
         <v>1.25</v>
       </c>
       <c r="G1331" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36588,7 +36585,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1332" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36614,7 +36611,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1333" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36692,7 +36689,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1336" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36900,7 +36897,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1344" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -36952,7 +36949,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1346" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37108,7 +37105,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1352" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37134,7 +37131,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1353" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37212,7 +37209,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1356" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37238,7 +37235,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1357" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37290,7 +37287,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1359" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37316,7 +37313,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1360" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37368,7 +37365,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1362" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37394,7 +37391,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1363" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37420,7 +37417,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1364" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38044,7 +38041,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1388" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38070,7 +38067,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1389" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38096,7 +38093,7 @@
         <v>1.25</v>
       </c>
       <c r="G1390" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38122,7 +38119,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1391" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38148,7 +38145,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1392" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38200,7 +38197,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1394" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38226,7 +38223,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1395" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38252,7 +38249,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1396" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38278,7 +38275,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1397" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38408,7 +38405,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1402" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38434,7 +38431,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1403" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38460,7 +38457,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38486,7 +38483,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1405" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38512,7 +38509,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1406" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38538,7 +38535,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1407" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38564,7 +38561,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1408" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38590,7 +38587,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1409" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38616,7 +38613,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1410" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38642,7 +38639,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1411" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38668,7 +38665,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1412" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38694,7 +38691,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1413" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38720,7 +38717,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1414" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38746,7 +38743,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1415" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38772,7 +38769,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1416" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38798,7 +38795,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1417" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38824,7 +38821,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1418" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38850,7 +38847,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1419" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -38902,7 +38899,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1421" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -38928,7 +38925,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1422" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -38954,7 +38951,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1423" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -38980,7 +38977,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1424" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39006,7 +39003,7 @@
         <v>1.25</v>
       </c>
       <c r="G1425" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39032,7 +39029,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1426" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39058,7 +39055,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1427" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39084,7 +39081,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1428" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39110,7 +39107,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1429" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39136,7 +39133,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1430" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39162,7 +39159,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1431" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39188,7 +39185,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1432" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39214,7 +39211,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1433" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39318,7 +39315,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1437" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39344,7 +39341,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1438" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39370,7 +39367,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1439" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39396,7 +39393,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1440" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39422,7 +39419,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1441" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39448,7 +39445,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1442" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39474,7 +39471,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1443" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39500,7 +39497,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1444" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39526,7 +39523,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1445" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39552,7 +39549,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1446" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39578,7 +39575,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1447" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39604,7 +39601,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1448" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39630,7 +39627,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1449" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39656,7 +39653,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1450" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39682,7 +39679,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1451" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39708,7 +39705,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1452" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39734,7 +39731,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1453" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39760,7 +39757,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1454" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39786,7 +39783,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1455" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39812,7 +39809,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1456" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39838,7 +39835,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1457" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40020,7 +40017,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1464" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40098,7 +40095,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1467" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40124,7 +40121,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1468" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40384,7 +40381,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G1478" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41060,7 +41057,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1504" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41372,7 +41369,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1516" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41450,7 +41447,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1519" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41476,7 +41473,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1520" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41502,7 +41499,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1521" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41528,7 +41525,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1522" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41632,7 +41629,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1526" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41658,7 +41655,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1527" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41762,7 +41759,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1531" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41788,7 +41785,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1532" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41970,7 +41967,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1539" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42022,7 +42019,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1541" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42126,7 +42123,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1545" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42178,7 +42175,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1547" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42204,7 +42201,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1548" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42230,7 +42227,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1549" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42256,7 +42253,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1550" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42282,7 +42279,7 @@
         <v>1.25</v>
       </c>
       <c r="G1551" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42308,7 +42305,7 @@
         <v>1.25</v>
       </c>
       <c r="G1552" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42334,7 +42331,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1553" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42360,7 +42357,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1554" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42386,7 +42383,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1555" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42412,7 +42409,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1556" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42438,7 +42435,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1557" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42464,7 +42461,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1558" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42490,7 +42487,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1559" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42516,7 +42513,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1560" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42542,7 +42539,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1561" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42568,7 +42565,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1562" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42646,7 +42643,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1565" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42672,7 +42669,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1566" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42698,7 +42695,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1567" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42724,7 +42721,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1568" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42750,7 +42747,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1569" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42776,7 +42773,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1570" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42802,7 +42799,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1571" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42828,7 +42825,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1572" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42854,7 +42851,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1573" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -42880,7 +42877,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1574" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -42906,7 +42903,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1575" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -42932,7 +42929,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1576" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -42958,7 +42955,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1577" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -42984,7 +42981,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1578" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43010,7 +43007,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1579" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43036,7 +43033,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1580" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43062,7 +43059,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1581" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43088,7 +43085,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1582" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43114,7 +43111,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1583" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43140,7 +43137,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1584" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43166,7 +43163,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1585" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43192,7 +43189,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1586" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43218,7 +43215,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1587" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43374,7 +43371,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1593" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43400,7 +43397,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1594" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43452,7 +43449,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1596" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43478,7 +43475,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1597" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43530,7 +43527,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1599" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43634,7 +43631,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1603" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43660,7 +43657,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1604" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43686,7 +43683,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1605" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43712,7 +43709,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1606" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43738,7 +43735,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1607" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43764,7 +43761,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1608" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43790,7 +43787,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1609" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43868,7 +43865,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1612" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -43894,7 +43891,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1613" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43920,7 +43917,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1614" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43946,7 +43943,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1615" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -43972,7 +43969,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1616" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44024,7 +44021,7 @@
         <v>1.25</v>
       </c>
       <c r="G1618" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44050,7 +44047,7 @@
         <v>1.25</v>
       </c>
       <c r="G1619" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44076,7 +44073,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1620" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44102,7 +44099,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1621" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44154,7 +44151,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1623" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44284,7 +44281,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1628" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44336,7 +44333,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1630" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44466,7 +44463,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1635" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44492,7 +44489,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44518,7 +44515,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1637" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44544,7 +44541,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1638" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44570,7 +44567,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1639" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44596,7 +44593,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1640" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44622,7 +44619,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1641" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44648,7 +44645,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1642" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44856,7 +44853,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44908,7 +44905,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1652" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44934,7 +44931,7 @@
         <v>1.25</v>
       </c>
       <c r="G1653" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44960,7 +44957,7 @@
         <v>1.25</v>
       </c>
       <c r="G1654" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44986,7 +44983,7 @@
         <v>1.25</v>
       </c>
       <c r="G1655" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45012,7 +45009,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1656" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45038,7 +45035,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1657" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45064,7 +45061,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1658" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45090,7 +45087,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1659" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45116,7 +45113,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1660" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45142,7 +45139,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1661" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45168,7 +45165,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1662" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45194,7 +45191,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1663" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45220,7 +45217,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1664" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45272,7 +45269,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1666" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45298,7 +45295,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1667" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45324,7 +45321,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1668" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45350,7 +45347,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1669" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45402,7 +45399,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1671" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45428,7 +45425,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1672" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45480,7 +45477,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1674" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45532,7 +45529,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1676" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45584,7 +45581,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45662,7 +45659,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1681" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45714,7 +45711,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1683" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45740,7 +45737,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1684" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45766,7 +45763,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1685" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45844,7 +45841,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1688" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46000,7 +45997,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1694" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46026,7 +46023,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1695" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46052,7 +46049,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1696" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46078,7 +46075,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46130,7 +46127,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1699" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46182,7 +46179,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1701" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46312,7 +46309,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1706" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46364,7 +46361,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1708" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46468,7 +46465,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1712" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46520,7 +46517,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1714" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46546,7 +46543,7 @@
         <v>1.25</v>
       </c>
       <c r="G1715" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46572,7 +46569,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1716" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46598,7 +46595,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1717" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46624,7 +46621,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1718" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46650,7 +46647,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1719" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46676,7 +46673,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1720" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46702,7 +46699,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1721" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46728,7 +46725,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1722" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46754,7 +46751,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1723" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46806,7 +46803,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1725" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46832,7 +46829,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1726" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46858,7 +46855,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46988,7 +46985,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1732" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47040,7 +47037,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1734" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47066,7 +47063,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1735" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47248,7 +47245,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1742" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47274,7 +47271,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1743" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47300,7 +47297,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1744" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47326,7 +47323,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1745" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47352,7 +47349,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1746" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47378,7 +47375,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1747" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47404,7 +47401,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1748" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47430,7 +47427,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1749" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47456,7 +47453,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1750" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47482,7 +47479,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1751" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47508,7 +47505,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1752" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47534,7 +47531,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1753" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47560,7 +47557,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1754" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47586,7 +47583,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1755" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47742,7 +47739,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1761" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47794,7 +47791,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47846,7 +47843,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1765" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47872,7 +47869,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1766" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47898,7 +47895,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1767" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47924,7 +47921,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1768" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47950,7 +47947,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1769" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48080,7 +48077,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1774" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48106,7 +48103,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1775" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48236,7 +48233,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1780" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48340,7 +48337,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1784" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48366,7 +48363,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1785" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48392,7 +48389,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1786" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48418,7 +48415,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1787" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48444,7 +48441,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1788" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48470,7 +48467,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1789" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48522,7 +48519,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1791" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48548,7 +48545,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1792" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48782,7 +48779,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1801" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48808,7 +48805,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1802" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48834,7 +48831,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1803" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48860,7 +48857,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1804" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48886,7 +48883,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1805" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48912,7 +48909,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1806" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48938,7 +48935,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1807" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48964,7 +48961,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1808" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48990,7 +48987,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1809" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49016,7 +49013,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1810" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49042,7 +49039,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1811" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49068,7 +49065,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1812" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49094,7 +49091,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1813" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49172,7 +49169,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1816" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49198,7 +49195,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1817" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49224,7 +49221,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1818" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49250,7 +49247,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1819" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49276,7 +49273,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1820" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49302,7 +49299,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1821" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49328,7 +49325,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1822" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49354,7 +49351,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1823" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49380,7 +49377,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1824" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49406,7 +49403,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1825" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49432,7 +49429,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1826" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49458,7 +49455,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1827" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49484,7 +49481,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1828" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49510,7 +49507,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1829" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49536,7 +49533,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1830" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49562,7 +49559,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1831" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49588,7 +49585,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1832" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49614,7 +49611,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1833" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49640,7 +49637,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1834" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49666,7 +49663,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1835" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49692,7 +49689,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1836" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49718,7 +49715,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1837" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49744,7 +49741,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1838" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49770,7 +49767,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1839" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49796,7 +49793,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49822,7 +49819,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1841" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49848,7 +49845,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1842" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49874,7 +49871,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1843" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49900,7 +49897,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1844" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49926,7 +49923,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1845" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49952,7 +49949,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1846" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49978,7 +49975,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1847" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50004,7 +50001,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1848" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50030,7 +50027,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1849" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50056,7 +50053,7 @@
         <v>1.25</v>
       </c>
       <c r="G1850" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50082,7 +50079,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1851" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50238,7 +50235,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1857" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50290,7 +50287,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1859" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50342,7 +50339,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1861" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50498,7 +50495,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1867" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50524,7 +50521,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1868" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50706,7 +50703,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1875" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50732,7 +50729,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1876" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50758,7 +50755,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1877" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50784,7 +50781,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1878" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50810,7 +50807,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1879" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50836,7 +50833,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G1880" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50862,7 +50859,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1881" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50888,7 +50885,7 @@
         <v>1.37000000476837</v>
       </c>
       <c r="G1882" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50914,7 +50911,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1883" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50940,7 +50937,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1884" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50966,7 +50963,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1885" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50992,7 +50989,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1886" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51018,7 +51015,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1887" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51044,7 +51041,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1888" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51070,7 +51067,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1889" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51096,7 +51093,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1890" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51122,7 +51119,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1891" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51148,7 +51145,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1892" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51174,7 +51171,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1893" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51200,7 +51197,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1894" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51226,7 +51223,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1895" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51252,7 +51249,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1896" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51278,7 +51275,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1897" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51304,7 +51301,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1898" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51330,7 +51327,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1899" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51356,7 +51353,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1900" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51382,7 +51379,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1901" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51408,7 +51405,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1902" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51434,7 +51431,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G1903" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51460,7 +51457,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1904" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51486,7 +51483,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1905" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51512,7 +51509,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1906" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51538,7 +51535,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G1907" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51564,7 +51561,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1908" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51590,7 +51587,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G1909" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51616,7 +51613,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1910" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51642,7 +51639,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G1911" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51668,7 +51665,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1912" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51694,7 +51691,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1913" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51720,7 +51717,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51746,7 +51743,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1915" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51772,7 +51769,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1916" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51798,7 +51795,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1917" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51824,7 +51821,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51850,7 +51847,7 @@
         <v>1.25</v>
       </c>
       <c r="G1919" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51876,7 +51873,7 @@
         <v>1.25</v>
       </c>
       <c r="G1920" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51902,7 +51899,7 @@
         <v>1.25</v>
       </c>
       <c r="G1921" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51928,7 +51925,7 @@
         <v>1.25</v>
       </c>
       <c r="G1922" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51954,7 +51951,7 @@
         <v>1.25</v>
       </c>
       <c r="G1923" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51980,7 +51977,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1924" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52006,7 +52003,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1925" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52032,7 +52029,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1926" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52058,7 +52055,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1927" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52084,7 +52081,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1928" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52110,7 +52107,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1929" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52136,7 +52133,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1930" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52162,7 +52159,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1931" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52188,7 +52185,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1932" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52214,7 +52211,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52240,7 +52237,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1934" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52266,7 +52263,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1935" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52292,7 +52289,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1936" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52318,7 +52315,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1937" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52344,7 +52341,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1938" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52370,7 +52367,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1939" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52396,7 +52393,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1940" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52422,7 +52419,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1941" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52448,7 +52445,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1942" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52474,7 +52471,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1943" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52500,7 +52497,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1944" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52526,7 +52523,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1945" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52552,7 +52549,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1946" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52578,7 +52575,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1947" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52604,7 +52601,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1948" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52630,7 +52627,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1949" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52656,7 +52653,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1950" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52682,7 +52679,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1951" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52708,7 +52705,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1952" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52734,7 +52731,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1953" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52760,7 +52757,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1954" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52786,7 +52783,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1955" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52812,7 +52809,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1956" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52838,7 +52835,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1957" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52864,7 +52861,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1958" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52890,7 +52887,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1959" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52916,7 +52913,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1960" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52942,7 +52939,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1961" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52968,7 +52965,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1962" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52994,7 +52991,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1963" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53020,7 +53017,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53046,7 +53043,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1965" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53072,7 +53069,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1966" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53098,7 +53095,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1967" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53124,7 +53121,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1968" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53150,7 +53147,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1969" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53176,7 +53173,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1970" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53202,7 +53199,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1971" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53228,7 +53225,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1972" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53254,7 +53251,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1973" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53280,7 +53277,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1974" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53306,7 +53303,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1975" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53332,7 +53329,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1976" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53358,7 +53355,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53384,7 +53381,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53410,7 +53407,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1979" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53436,7 +53433,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53462,7 +53459,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53488,7 +53485,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1982" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53514,7 +53511,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53540,7 +53537,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1984" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53566,7 +53563,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1985" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53592,7 +53589,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1986" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53618,7 +53615,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1987" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53644,7 +53641,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1988" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53670,7 +53667,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1989" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53696,7 +53693,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1990" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53722,7 +53719,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1991" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53748,7 +53745,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1992" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53774,7 +53771,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1993" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53800,7 +53797,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1994" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53826,7 +53823,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1995" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53852,7 +53849,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1996" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53878,7 +53875,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1997" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53904,7 +53901,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1998" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53930,7 +53927,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1999" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53956,7 +53953,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2000" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53982,7 +53979,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2001" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54008,7 +54005,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2002" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54034,7 +54031,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G2003" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54060,7 +54057,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G2004" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54086,7 +54083,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2005" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54112,7 +54109,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2006" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54138,7 +54135,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54164,7 +54161,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2008" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54190,7 +54187,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2009" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54216,7 +54213,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2010" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54242,7 +54239,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2011" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54268,7 +54265,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2012" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54294,7 +54291,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2013" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54320,7 +54317,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2014" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54346,7 +54343,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2015" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54372,7 +54369,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2016" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54398,7 +54395,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54424,7 +54421,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2018" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54450,7 +54447,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2019" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54476,7 +54473,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2020" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54502,7 +54499,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2021" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54528,7 +54525,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2022" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54554,7 +54551,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2023" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54580,7 +54577,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2024" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54606,7 +54603,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2025" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54632,7 +54629,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54658,7 +54655,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54684,7 +54681,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2028" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54710,7 +54707,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G2029" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54736,7 +54733,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2030" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54762,7 +54759,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2031" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54788,7 +54785,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2032" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54814,7 +54811,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2033" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54840,7 +54837,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2034" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54866,7 +54863,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2035" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54892,7 +54889,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2036" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54918,7 +54915,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2037" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54944,7 +54941,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2038" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54970,7 +54967,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2039" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54996,7 +54993,7 @@
         <v>1.25</v>
       </c>
       <c r="G2040" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55022,7 +55019,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2041" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55048,7 +55045,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2042" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55074,7 +55071,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2043" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55100,7 +55097,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2044" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55126,7 +55123,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2045" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55152,7 +55149,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2046" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55178,7 +55175,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55204,7 +55201,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2048" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55230,7 +55227,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55256,7 +55253,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2050" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55282,7 +55279,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2051" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55308,7 +55305,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2052" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55334,7 +55331,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2053" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55360,7 +55357,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2054" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55386,7 +55383,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2055" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55412,7 +55409,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2056" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55438,7 +55435,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55464,7 +55461,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2058" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55490,7 +55487,7 @@
         <v>1.25</v>
       </c>
       <c r="G2059" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55516,7 +55513,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2060" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55542,7 +55539,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2061" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55568,7 +55565,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2062" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55594,7 +55591,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2063" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55620,7 +55617,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2064" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55646,7 +55643,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2065" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55672,7 +55669,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2066" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55698,7 +55695,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2067" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55724,7 +55721,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2068" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55750,7 +55747,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2069" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55776,7 +55773,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2070" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55802,7 +55799,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G2071" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55828,7 +55825,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2072" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55854,7 +55851,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2073" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55880,7 +55877,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G2074" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55906,7 +55903,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2075" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55932,7 +55929,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G2076" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55958,7 +55955,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2077" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55984,7 +55981,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2078" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56010,7 +56007,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2079" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56036,7 +56033,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2080" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56062,7 +56059,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56088,7 +56085,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2082" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56114,7 +56111,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2083" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56140,7 +56137,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2084" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56166,7 +56163,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2085" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56192,7 +56189,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2086" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56218,7 +56215,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56244,7 +56241,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2088" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56270,7 +56267,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2089" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56296,7 +56293,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2090" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56322,7 +56319,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2091" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56348,7 +56345,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2092" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56374,7 +56371,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2093" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56400,7 +56397,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2094" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56426,7 +56423,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2095" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56452,7 +56449,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2096" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56478,7 +56475,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2097" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56504,7 +56501,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2098" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56530,7 +56527,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2099" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56556,7 +56553,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2100" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56582,7 +56579,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2101" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56608,7 +56605,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2102" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56634,7 +56631,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2103" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56660,7 +56657,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2104" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56686,7 +56683,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2105" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56712,7 +56709,7 @@
         <v>1.25</v>
       </c>
       <c r="G2106" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56738,7 +56735,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2107" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56764,7 +56761,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2108" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56790,7 +56787,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2109" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56816,7 +56813,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2110" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56842,7 +56839,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2111" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56868,7 +56865,7 @@
         <v>1.25</v>
       </c>
       <c r="G2112" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56894,7 +56891,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2113" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56920,7 +56917,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2114" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56946,7 +56943,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2115" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56972,7 +56969,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2116" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56998,7 +56995,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2117" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57024,7 +57021,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2118" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57050,7 +57047,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2119" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57076,7 +57073,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2120" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57102,7 +57099,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2121" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57128,7 +57125,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2122" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57154,7 +57151,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2123" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57180,7 +57177,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2124" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57206,7 +57203,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57232,7 +57229,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2126" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57258,7 +57255,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2127" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57284,7 +57281,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2128" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57310,7 +57307,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2129" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57336,7 +57333,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2130" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57362,7 +57359,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2131" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57388,7 +57385,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2132" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57414,7 +57411,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2133" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57440,7 +57437,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2134" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57466,7 +57463,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2135" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57492,7 +57489,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2136" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57518,7 +57515,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2137" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57544,7 +57541,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2138" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57570,7 +57567,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G2139" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57596,7 +57593,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G2140" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57622,7 +57619,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G2141" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57648,7 +57645,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G2142" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57674,7 +57671,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G2143" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57700,7 +57697,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2144" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57726,7 +57723,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G2145" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57752,7 +57749,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2146" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57778,7 +57775,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G2147" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57804,7 +57801,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2148" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57830,7 +57827,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G2149" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57856,7 +57853,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2150" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57882,7 +57879,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G2151" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57908,7 +57905,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2152" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -57934,7 +57931,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2153" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -57960,7 +57957,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G2154" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -57986,7 +57983,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G2155" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58012,7 +58009,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G2156" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58038,7 +58035,7 @@
         <v>1</v>
       </c>
       <c r="G2157" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58064,7 +58061,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G2158" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58090,7 +58087,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G2159" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58116,7 +58113,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G2160" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -58142,7 +58139,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G2161" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -58168,7 +58165,7 @@
         <v>1</v>
       </c>
       <c r="G2162" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -58176,7 +58173,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.4871412037</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>2800</v>
@@ -58194,7 +58191,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2163" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>

--- a/data/LMG.MI.xlsx
+++ b/data/LMG.MI.xlsx
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53471577167511</t>
+    <t xml:space="preserve">1.53471565246582</t>
   </si>
   <si>
     <t xml:space="preserve">LMG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50033152103424</t>
+    <t xml:space="preserve">1.50033140182495</t>
   </si>
   <si>
     <t xml:space="preserve">1.5514885187149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704038143158</t>
+    <t xml:space="preserve">1.50704061985016</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439705371857</t>
+    <t xml:space="preserve">1.48439717292786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44246506690979</t>
+    <t xml:space="preserve">1.44246518611908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43575584888458</t>
+    <t xml:space="preserve">1.43575596809387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39214658737183</t>
+    <t xml:space="preserve">1.39214646816254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41646707057953</t>
+    <t xml:space="preserve">1.41646718978882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42569220066071</t>
+    <t xml:space="preserve">1.42569231987</t>
   </si>
   <si>
     <t xml:space="preserve">1.47433352470398</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">1.46762430667877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50871789455414</t>
+    <t xml:space="preserve">1.50871777534485</t>
   </si>
   <si>
     <t xml:space="preserve">1.45923793315887</t>
@@ -89,25 +89,25 @@
     <t xml:space="preserve">1.40640342235565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37453508377075</t>
+    <t xml:space="preserve">1.37453496456146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36698734760284</t>
+    <t xml:space="preserve">1.36698722839355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40053284168243</t>
+    <t xml:space="preserve">1.40053296089172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40891921520233</t>
+    <t xml:space="preserve">1.40891933441162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3787282705307</t>
+    <t xml:space="preserve">1.37872815132141</t>
   </si>
   <si>
     <t xml:space="preserve">1.44581961631775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52632939815521</t>
+    <t xml:space="preserve">1.52632927894592</t>
   </si>
   <si>
     <t xml:space="preserve">1.49278354644775</t>
@@ -122,25 +122,25 @@
     <t xml:space="preserve">1.53639304637909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5598748922348</t>
+    <t xml:space="preserve">1.55987501144409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62025725841522</t>
+    <t xml:space="preserve">1.62025737762451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68567132949829</t>
+    <t xml:space="preserve">1.685671210289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74437618255615</t>
+    <t xml:space="preserve">1.74437630176544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74773108959198</t>
+    <t xml:space="preserve">1.7477308511734</t>
   </si>
   <si>
     <t xml:space="preserve">1.71753990650177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61857998371124</t>
+    <t xml:space="preserve">1.61857986450195</t>
   </si>
   <si>
     <t xml:space="preserve">1.59342074394226</t>
@@ -155,28 +155,28 @@
     <t xml:space="preserve">1.50116991996765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4734947681427</t>
+    <t xml:space="preserve">1.47349488735199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51932430267334</t>
+    <t xml:space="preserve">1.51932418346405</t>
   </si>
   <si>
     <t xml:space="preserve">1.49662148952484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46955335140228</t>
+    <t xml:space="preserve">1.4695531129837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439717292786</t>
+    <t xml:space="preserve">1.48439729213715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49312901496887</t>
+    <t xml:space="preserve">1.49312889575958</t>
   </si>
   <si>
     <t xml:space="preserve">1.49050939083099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47479224205017</t>
+    <t xml:space="preserve">1.47479236125946</t>
   </si>
   <si>
     <t xml:space="preserve">1.46606051921844</t>
@@ -194,13 +194,13 @@
     <t xml:space="preserve">1.39707982540131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35953330993652</t>
+    <t xml:space="preserve">1.35953319072723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38310897350311</t>
+    <t xml:space="preserve">1.38310885429382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37961637973785</t>
+    <t xml:space="preserve">1.37961626052856</t>
   </si>
   <si>
     <t xml:space="preserve">1.31936717033386</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">1.3534209728241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36215257644653</t>
+    <t xml:space="preserve">1.36215269565582</t>
   </si>
   <si>
     <t xml:space="preserve">1.42327499389648</t>
@@ -224,25 +224,25 @@
     <t xml:space="preserve">1.38834798336029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32722568511963</t>
+    <t xml:space="preserve">1.32722580432892</t>
   </si>
   <si>
     <t xml:space="preserve">1.3071426153183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27832782268524</t>
+    <t xml:space="preserve">1.27832794189453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25737190246582</t>
+    <t xml:space="preserve">1.25737178325653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26173758506775</t>
+    <t xml:space="preserve">1.26173782348633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28182065486908</t>
+    <t xml:space="preserve">1.28182053565979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29229867458344</t>
+    <t xml:space="preserve">1.29229879379272</t>
   </si>
   <si>
     <t xml:space="preserve">1.28356695175171</t>
@@ -251,10 +251,10 @@
     <t xml:space="preserve">1.2399080991745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19450318813324</t>
+    <t xml:space="preserve">1.19450330734253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27483534812927</t>
+    <t xml:space="preserve">1.27483522891998</t>
   </si>
   <si>
     <t xml:space="preserve">1.21895205974579</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">1.19188368320465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22244477272034</t>
+    <t xml:space="preserve">1.22244465351105</t>
   </si>
   <si>
     <t xml:space="preserve">1.17878592014313</t>
@@ -278,52 +278,52 @@
     <t xml:space="preserve">1.09408807754517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07837080955505</t>
+    <t xml:space="preserve">1.07837092876434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06876599788666</t>
+    <t xml:space="preserve">1.06876587867737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08448302745819</t>
+    <t xml:space="preserve">1.08448314666748</t>
   </si>
   <si>
     <t xml:space="preserve">1.1002002954483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13076138496399</t>
+    <t xml:space="preserve">1.1307612657547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11067831516266</t>
+    <t xml:space="preserve">1.11067843437195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11766374111176</t>
+    <t xml:space="preserve">1.11766362190247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08273684978485</t>
+    <t xml:space="preserve">1.08273673057556</t>
   </si>
   <si>
     <t xml:space="preserve">1.05217564105988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02685356140137</t>
+    <t xml:space="preserve">1.02685368061066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04344391822815</t>
+    <t xml:space="preserve">1.04344403743744</t>
   </si>
   <si>
     <t xml:space="preserve">1.05654156208038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04780972003937</t>
+    <t xml:space="preserve">1.04780983924866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999785184860229</t>
+    <t xml:space="preserve">0.999785125255585</t>
   </si>
   <si>
     <t xml:space="preserve">1.0120096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985814213752747</t>
+    <t xml:space="preserve">0.985814273357391</t>
   </si>
   <si>
     <t xml:space="preserve">0.927311658859253</t>
@@ -335,25 +335,25 @@
     <t xml:space="preserve">0.993672907352448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951760530471802</t>
+    <t xml:space="preserve">0.951760590076447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938663005828857</t>
+    <t xml:space="preserve">0.938662946224213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93517017364502</t>
+    <t xml:space="preserve">0.935170233249664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909848213195801</t>
+    <t xml:space="preserve">0.909848153591156</t>
   </si>
   <si>
     <t xml:space="preserve">0.948267817497253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991926550865173</t>
+    <t xml:space="preserve">0.991926670074463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956999540328979</t>
+    <t xml:space="preserve">0.956999599933624</t>
   </si>
   <si>
     <t xml:space="preserve">0.960492312908173</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">1.00938999652863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00415098667145</t>
+    <t xml:space="preserve">1.00415086746216</t>
   </si>
   <si>
     <t xml:space="preserve">1.10107350349426</t>
@@ -371,28 +371,28 @@
     <t xml:space="preserve">1.03471207618713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03209269046783</t>
+    <t xml:space="preserve">1.03209280967712</t>
   </si>
   <si>
     <t xml:space="preserve">1.04519033432007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03907799720764</t>
+    <t xml:space="preserve">1.03907811641693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03383898735046</t>
+    <t xml:space="preserve">1.03383910655975</t>
   </si>
   <si>
     <t xml:space="preserve">0.977955758571625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02510738372803</t>
+    <t xml:space="preserve">1.02510726451874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982321619987488</t>
+    <t xml:space="preserve">0.982321739196777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03121948242188</t>
+    <t xml:space="preserve">1.03121936321259</t>
   </si>
   <si>
     <t xml:space="preserve">1.0146290063858</t>
@@ -404,19 +404,19 @@
     <t xml:space="preserve">1.01812183856964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02598035335541</t>
+    <t xml:space="preserve">1.02598023414612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03034627437592</t>
+    <t xml:space="preserve">1.03034639358521</t>
   </si>
   <si>
     <t xml:space="preserve">1.01113653182983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03733158111572</t>
+    <t xml:space="preserve">1.03733170032501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995419323444366</t>
+    <t xml:space="preserve">0.995419144630432</t>
   </si>
   <si>
     <t xml:space="preserve">1.10456609725952</t>
@@ -428,19 +428,19 @@
     <t xml:space="preserve">1.06963920593262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09845376014709</t>
+    <t xml:space="preserve">1.09845387935638</t>
   </si>
   <si>
     <t xml:space="preserve">1.15259087085724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18577146530151</t>
+    <t xml:space="preserve">1.18577134609222</t>
   </si>
   <si>
     <t xml:space="preserve">1.19799590110779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24776673316956</t>
+    <t xml:space="preserve">1.24776685237885</t>
   </si>
   <si>
     <t xml:space="preserve">1.24863994121552</t>
@@ -455,13 +455,13 @@
     <t xml:space="preserve">1.26610350608826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27046942710876</t>
+    <t xml:space="preserve">1.27046930789948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20672750473022</t>
+    <t xml:space="preserve">1.20672762393951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20323491096497</t>
+    <t xml:space="preserve">1.20323479175568</t>
   </si>
   <si>
     <t xml:space="preserve">1.2442741394043</t>
@@ -470,13 +470,13 @@
     <t xml:space="preserve">1.24689364433289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20498132705688</t>
+    <t xml:space="preserve">1.2049812078476</t>
   </si>
   <si>
     <t xml:space="preserve">1.19624948501587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24340105056763</t>
+    <t xml:space="preserve">1.24340093135834</t>
   </si>
   <si>
     <t xml:space="preserve">1.21371304988861</t>
@@ -488,22 +488,22 @@
     <t xml:space="preserve">1.30976212024689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28967916965485</t>
+    <t xml:space="preserve">1.28967928886414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21196675300598</t>
+    <t xml:space="preserve">1.21196663379669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18315184116364</t>
+    <t xml:space="preserve">1.18315196037292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18751764297485</t>
+    <t xml:space="preserve">1.18751776218414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1770396232605</t>
+    <t xml:space="preserve">1.17703974246979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1700541973114</t>
+    <t xml:space="preserve">1.17005443572998</t>
   </si>
   <si>
     <t xml:space="preserve">1.22768378257751</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">1.45994830131531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45820200443268</t>
+    <t xml:space="preserve">1.45820188522339</t>
   </si>
   <si>
     <t xml:space="preserve">1.52368998527527</t>
@@ -536,19 +536,19 @@
     <t xml:space="preserve">1.55425107479095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5367876291275</t>
+    <t xml:space="preserve">1.53678750991821</t>
   </si>
   <si>
     <t xml:space="preserve">1.60227584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64156866073608</t>
+    <t xml:space="preserve">1.64156877994537</t>
   </si>
   <si>
     <t xml:space="preserve">1.65466630458832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70269095897675</t>
+    <t xml:space="preserve">1.70269107818604</t>
   </si>
   <si>
     <t xml:space="preserve">1.72888612747192</t>
@@ -557,22 +557,22 @@
     <t xml:space="preserve">1.73674464225769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8109644651413</t>
+    <t xml:space="preserve">1.81096458435059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83366692066193</t>
+    <t xml:space="preserve">1.83366703987122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85113036632538</t>
+    <t xml:space="preserve">1.85113048553467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85986256599426</t>
+    <t xml:space="preserve">1.85986244678497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72277390956879</t>
+    <t xml:space="preserve">1.7227737903595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67038333415985</t>
+    <t xml:space="preserve">1.67038345336914</t>
   </si>
   <si>
     <t xml:space="preserve">1.74634969234467</t>
@@ -581,16 +581,16 @@
     <t xml:space="preserve">1.69046640396118</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76032042503357</t>
+    <t xml:space="preserve">1.76032054424286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68697369098663</t>
+    <t xml:space="preserve">1.68697392940521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67649567127228</t>
+    <t xml:space="preserve">1.67649555206299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75508141517639</t>
+    <t xml:space="preserve">1.7550812959671</t>
   </si>
   <si>
     <t xml:space="preserve">1.75682783126831</t>
@@ -599,13 +599,13 @@
     <t xml:space="preserve">1.7900083065033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8127110004425</t>
+    <t xml:space="preserve">1.81271088123322</t>
   </si>
   <si>
     <t xml:space="preserve">1.82842814922333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81620359420776</t>
+    <t xml:space="preserve">1.81620347499847</t>
   </si>
   <si>
     <t xml:space="preserve">1.79874002933502</t>
@@ -617,10 +617,10 @@
     <t xml:space="preserve">1.81794989109039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82510709762573</t>
+    <t xml:space="preserve">1.82510721683502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9235200881958</t>
+    <t xml:space="preserve">1.92351996898651</t>
   </si>
   <si>
     <t xml:space="preserve">1.87878668308258</t>
@@ -629,7 +629,7 @@
     <t xml:space="preserve">1.86089360713959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86984026432037</t>
+    <t xml:space="preserve">1.86984014511108</t>
   </si>
   <si>
     <t xml:space="preserve">2.0398256778717</t>
@@ -638,22 +638,22 @@
     <t xml:space="preserve">2.4764199256897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57662224769592</t>
+    <t xml:space="preserve">2.57662200927734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94701147079468</t>
+    <t xml:space="preserve">2.9470112323761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95237946510315</t>
+    <t xml:space="preserve">2.95237922668457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85396695137024</t>
+    <t xml:space="preserve">2.85396671295166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75913310050964</t>
+    <t xml:space="preserve">2.75913286209106</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58556866645813</t>
+    <t xml:space="preserve">2.58556842803955</t>
   </si>
   <si>
     <t xml:space="preserve">2.56767535209656</t>
@@ -665,28 +665,28 @@
     <t xml:space="preserve">2.46747326850891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59809374809265</t>
+    <t xml:space="preserve">2.59809398651123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70187449455261</t>
+    <t xml:space="preserve">2.70187425613403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90764617919922</t>
+    <t xml:space="preserve">2.9076464176178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79134011268616</t>
+    <t xml:space="preserve">2.79134058952332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60882973670959</t>
+    <t xml:space="preserve">2.60882949829102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56946492195129</t>
+    <t xml:space="preserve">2.56946468353271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57841110229492</t>
+    <t xml:space="preserve">2.5784113407135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54978227615356</t>
+    <t xml:space="preserve">2.54978203773499</t>
   </si>
   <si>
     <t xml:space="preserve">2.52473163604736</t>
@@ -701,25 +701,25 @@
     <t xml:space="preserve">2.68398118019104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59451532363892</t>
+    <t xml:space="preserve">2.59451508522034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5408353805542</t>
+    <t xml:space="preserve">2.54083561897278</t>
   </si>
   <si>
     <t xml:space="preserve">2.56230735778809</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56409668922424</t>
+    <t xml:space="preserve">2.56409692764282</t>
   </si>
   <si>
     <t xml:space="preserve">2.64640545845032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5658860206604</t>
+    <t xml:space="preserve">2.56588625907898</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58198976516724</t>
+    <t xml:space="preserve">2.58199000358582</t>
   </si>
   <si>
     <t xml:space="preserve">2.6732451915741</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">2.52294230461121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48536658287048</t>
+    <t xml:space="preserve">2.48536682128906</t>
   </si>
   <si>
     <t xml:space="preserve">2.53188896179199</t>
@@ -737,25 +737,25 @@
     <t xml:space="preserve">2.48715591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4334762096405</t>
+    <t xml:space="preserve">2.43347668647766</t>
   </si>
   <si>
     <t xml:space="preserve">2.41916179656982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37979674339294</t>
+    <t xml:space="preserve">2.37979698181152</t>
   </si>
   <si>
     <t xml:space="preserve">2.42989778518677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41379380226135</t>
+    <t xml:space="preserve">2.41379356384277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36548233032227</t>
+    <t xml:space="preserve">2.36548209190369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21875786781311</t>
+    <t xml:space="preserve">2.21875762939453</t>
   </si>
   <si>
     <t xml:space="preserve">2.21338987350464</t>
@@ -764,37 +764,37 @@
     <t xml:space="preserve">2.15792083740234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14718508720398</t>
+    <t xml:space="preserve">2.1471848487854</t>
   </si>
   <si>
     <t xml:space="preserve">2.18654990196228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20981097221375</t>
+    <t xml:space="preserve">2.20981121063232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22054719924927</t>
+    <t xml:space="preserve">2.22054743766785</t>
   </si>
   <si>
     <t xml:space="preserve">2.17581415176392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15613150596619</t>
+    <t xml:space="preserve">2.15613174438477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17402482032776</t>
+    <t xml:space="preserve">2.17402505874634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19012880325317</t>
+    <t xml:space="preserve">2.19012856483459</t>
   </si>
   <si>
     <t xml:space="preserve">2.095294713974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14002776145935</t>
+    <t xml:space="preserve">2.14002752304077</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11139869689941</t>
+    <t xml:space="preserve">2.11139845848083</t>
   </si>
   <si>
     <t xml:space="preserve">2.30285573005676</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">2.2366509437561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2151792049408</t>
+    <t xml:space="preserve">2.21517944335938</t>
   </si>
   <si>
     <t xml:space="preserve">2.24738717079163</t>
@@ -824,46 +824,46 @@
     <t xml:space="preserve">2.24559783935547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26349091529846</t>
+    <t xml:space="preserve">2.26349067687988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37621808052063</t>
+    <t xml:space="preserve">2.37621784210205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31717038154602</t>
+    <t xml:space="preserve">2.3171706199646</t>
   </si>
   <si>
     <t xml:space="preserve">2.35295701026917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3815860748291</t>
+    <t xml:space="preserve">2.38158583641052</t>
   </si>
   <si>
     <t xml:space="preserve">2.33506345748901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31895995140076</t>
+    <t xml:space="preserve">2.31895971298218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26528024673462</t>
+    <t xml:space="preserve">2.26528000831604</t>
   </si>
   <si>
     <t xml:space="preserve">2.28496265411377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32611703872681</t>
+    <t xml:space="preserve">2.32611680030823</t>
   </si>
   <si>
     <t xml:space="preserve">2.3440101146698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44242310523987</t>
+    <t xml:space="preserve">2.44242286682129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35116744041443</t>
+    <t xml:space="preserve">2.35116767883301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36906051635742</t>
+    <t xml:space="preserve">2.369060754776</t>
   </si>
   <si>
     <t xml:space="preserve">2.37085008621216</t>
@@ -875,19 +875,19 @@
     <t xml:space="preserve">2.3046452999115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38695406913757</t>
+    <t xml:space="preserve">2.38695430755615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29927754402161</t>
+    <t xml:space="preserve">2.29927730560303</t>
   </si>
   <si>
     <t xml:space="preserve">2.34222102165222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54262471199036</t>
+    <t xml:space="preserve">2.54262495040894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6553521156311</t>
+    <t xml:space="preserve">2.65535187721252</t>
   </si>
   <si>
     <t xml:space="preserve">2.61419773101807</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">2.60167241096497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58020043373108</t>
+    <t xml:space="preserve">2.58020067214966</t>
   </si>
   <si>
     <t xml:space="preserve">2.42095112800598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42274045944214</t>
+    <t xml:space="preserve">2.42274022102356</t>
   </si>
   <si>
     <t xml:space="preserve">2.47105240821838</t>
@@ -920,16 +920,16 @@
     <t xml:space="preserve">2.43526554107666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51936364173889</t>
+    <t xml:space="preserve">2.51936388015747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45136952400208</t>
+    <t xml:space="preserve">2.4513692855835</t>
   </si>
   <si>
     <t xml:space="preserve">2.46031594276428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50862789154053</t>
+    <t xml:space="preserve">2.50862765312195</t>
   </si>
   <si>
     <t xml:space="preserve">2.49431347846985</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">2.41558313369751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29390931129456</t>
+    <t xml:space="preserve">2.29390954971313</t>
   </si>
   <si>
     <t xml:space="preserve">2.22770428657532</t>
@@ -956,16 +956,16 @@
     <t xml:space="preserve">2.20623278617859</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28138422966003</t>
+    <t xml:space="preserve">2.28138399124146</t>
   </si>
   <si>
     <t xml:space="preserve">2.19191813468933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18297123908997</t>
+    <t xml:space="preserve">2.18297147750854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12929201126099</t>
+    <t xml:space="preserve">2.12929177284241</t>
   </si>
   <si>
     <t xml:space="preserve">2.10245180130005</t>
@@ -974,67 +974,67 @@
     <t xml:space="preserve">2.13823843002319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98614597320557</t>
+    <t xml:space="preserve">1.98614633083344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06666541099548</t>
+    <t xml:space="preserve">2.06666564941406</t>
   </si>
   <si>
     <t xml:space="preserve">2.05771899223328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00403928756714</t>
+    <t xml:space="preserve">2.00403904914856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07561230659485</t>
+    <t xml:space="preserve">2.07561206817627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99509274959564</t>
+    <t xml:space="preserve">1.99509286880493</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01298594474792</t>
+    <t xml:space="preserve">2.01298570632935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96825289726257</t>
+    <t xml:space="preserve">1.96825277805328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97719943523407</t>
+    <t xml:space="preserve">1.97719967365265</t>
   </si>
   <si>
     <t xml:space="preserve">1.95035970211029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93246650695801</t>
+    <t xml:space="preserve">1.93246674537659</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03087902069092</t>
+    <t xml:space="preserve">2.0308792591095</t>
   </si>
   <si>
     <t xml:space="preserve">2.04877233505249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1587393283844</t>
+    <t xml:space="preserve">2.15873908996582</t>
   </si>
   <si>
     <t xml:space="preserve">2.13129758834839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05812001228333</t>
+    <t xml:space="preserve">2.0581202507019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99408960342407</t>
+    <t xml:space="preserve">1.99408972263336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93920636177063</t>
+    <t xml:space="preserve">1.93920648097992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96664822101593</t>
+    <t xml:space="preserve">1.96664810180664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11300325393677</t>
+    <t xml:space="preserve">2.11300349235535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08556175231934</t>
+    <t xml:space="preserve">2.08556151390076</t>
   </si>
   <si>
     <t xml:space="preserve">2.03067851066589</t>
@@ -1043,61 +1043,61 @@
     <t xml:space="preserve">2.01238417625427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94835388660431</t>
+    <t xml:space="preserve">1.94835376739502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98494267463684</t>
+    <t xml:space="preserve">1.98494255542755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95750081539154</t>
+    <t xml:space="preserve">1.95750093460083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9026175737381</t>
+    <t xml:space="preserve">1.90261769294739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00323700904846</t>
+    <t xml:space="preserve">2.00323677062988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93005919456482</t>
+    <t xml:space="preserve">1.93005907535553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97579526901245</t>
+    <t xml:space="preserve">1.97579538822174</t>
   </si>
   <si>
     <t xml:space="preserve">2.02153134346008</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07641458511353</t>
+    <t xml:space="preserve">2.07641434669495</t>
   </si>
   <si>
     <t xml:space="preserve">2.09470891952515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86602878570557</t>
+    <t xml:space="preserve">1.86602890491486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84773457050323</t>
+    <t xml:space="preserve">1.84773445129395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87517595291138</t>
+    <t xml:space="preserve">1.87517607212067</t>
   </si>
   <si>
     <t xml:space="preserve">1.83858728408813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6876585483551</t>
+    <t xml:space="preserve">1.68765842914581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.664790391922</t>
+    <t xml:space="preserve">1.66479051113129</t>
   </si>
   <si>
     <t xml:space="preserve">1.69223201274872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72882091999054</t>
+    <t xml:space="preserve">1.72882080078125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75626242160797</t>
+    <t xml:space="preserve">1.75626254081726</t>
   </si>
   <si>
     <t xml:space="preserve">1.70595288276672</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">1.73796808719635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76540970802307</t>
+    <t xml:space="preserve">1.76540958881378</t>
   </si>
   <si>
     <t xml:space="preserve">1.73339450359344</t>
@@ -1115,13 +1115,13 @@
     <t xml:space="preserve">1.64649605751038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6739376783371</t>
+    <t xml:space="preserve">1.67393779754639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63277518749237</t>
+    <t xml:space="preserve">1.63277530670166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66936421394348</t>
+    <t xml:space="preserve">1.66936409473419</t>
   </si>
   <si>
     <t xml:space="preserve">1.66021692752838</t>
@@ -1139,10 +1139,10 @@
     <t xml:space="preserve">1.77455699443817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71510004997253</t>
+    <t xml:space="preserve">1.71510016918182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68308484554291</t>
+    <t xml:space="preserve">1.6830849647522</t>
   </si>
   <si>
     <t xml:space="preserve">1.65106964111328</t>
@@ -1154,10 +1154,10 @@
     <t xml:space="preserve">1.65564322471619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62362813949585</t>
+    <t xml:space="preserve">1.62362802028656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48184633255005</t>
+    <t xml:space="preserve">1.48184645175934</t>
   </si>
   <si>
     <t xml:space="preserve">1.48642003536224</t>
@@ -1166,19 +1166,19 @@
     <t xml:space="preserve">1.38122725486755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35378563404083</t>
+    <t xml:space="preserve">1.35378575325012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29890239238739</t>
+    <t xml:space="preserve">1.29890251159668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26231372356415</t>
+    <t xml:space="preserve">1.26231360435486</t>
   </si>
   <si>
     <t xml:space="preserve">1.34921205043793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44068419933319</t>
+    <t xml:space="preserve">1.4406840801239</t>
   </si>
   <si>
     <t xml:space="preserve">1.47727286815643</t>
@@ -1196,22 +1196,22 @@
     <t xml:space="preserve">1.44525766372681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4178159236908</t>
+    <t xml:space="preserve">1.41781604290009</t>
   </si>
   <si>
     <t xml:space="preserve">1.50014090538025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50928807258606</t>
+    <t xml:space="preserve">1.50928795337677</t>
   </si>
   <si>
     <t xml:space="preserve">1.50471448898315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51386153697968</t>
+    <t xml:space="preserve">1.51386165618896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45440483093262</t>
+    <t xml:space="preserve">1.45440495014191</t>
   </si>
   <si>
     <t xml:space="preserve">1.47269928455353</t>
@@ -1220,16 +1220,16 @@
     <t xml:space="preserve">1.4269632101059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60075998306274</t>
+    <t xml:space="preserve">1.60076010227203</t>
   </si>
   <si>
     <t xml:space="preserve">1.57789206504822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59618639945984</t>
+    <t xml:space="preserve">1.59618651866913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61448097229004</t>
+    <t xml:space="preserve">1.61448085308075</t>
   </si>
   <si>
     <t xml:space="preserve">1.60990726947784</t>
@@ -1244,19 +1244,19 @@
     <t xml:space="preserve">1.58703923225403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55045056343079</t>
+    <t xml:space="preserve">1.5504504442215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58246576786041</t>
+    <t xml:space="preserve">1.58246564865112</t>
   </si>
   <si>
     <t xml:space="preserve">1.63734889030457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57331848144531</t>
+    <t xml:space="preserve">1.5733186006546</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59161293506622</t>
+    <t xml:space="preserve">1.59161281585693</t>
   </si>
   <si>
     <t xml:space="preserve">1.5641713142395</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">1.67525947093964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63761329650879</t>
+    <t xml:space="preserve">1.6376131772995</t>
   </si>
   <si>
     <t xml:space="preserve">1.60937857627869</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">1.58114373683929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55290913581848</t>
+    <t xml:space="preserve">1.55290901660919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52467429637909</t>
+    <t xml:space="preserve">1.52467441558838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57173228263855</t>
+    <t xml:space="preserve">1.57173216342926</t>
   </si>
   <si>
     <t xml:space="preserve">1.53408598899841</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">1.46820485591888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44938182830811</t>
+    <t xml:space="preserve">1.44938170909882</t>
   </si>
   <si>
     <t xml:space="preserve">1.43055868148804</t>
@@ -1322,67 +1322,67 @@
     <t xml:space="preserve">1.40232396125793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37408936023712</t>
+    <t xml:space="preserve">1.37408924102783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34585452079773</t>
+    <t xml:space="preserve">1.34585440158844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31761991977692</t>
+    <t xml:space="preserve">1.31761980056763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29879677295685</t>
+    <t xml:space="preserve">1.29879665374756</t>
   </si>
   <si>
     <t xml:space="preserve">1.24232733249664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23291563987732</t>
+    <t xml:space="preserve">1.23291575908661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22350406646729</t>
+    <t xml:space="preserve">1.22350418567657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27997350692749</t>
+    <t xml:space="preserve">1.27997362613678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27056193351746</t>
+    <t xml:space="preserve">1.27056205272675</t>
   </si>
   <si>
     <t xml:space="preserve">1.3364429473877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35526621341705</t>
+    <t xml:space="preserve">1.35526609420776</t>
   </si>
   <si>
     <t xml:space="preserve">1.421147108078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43997025489807</t>
+    <t xml:space="preserve">1.43997013568878</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36467778682709</t>
+    <t xml:space="preserve">1.3646776676178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38350093364716</t>
+    <t xml:space="preserve">1.38350081443787</t>
   </si>
   <si>
     <t xml:space="preserve">1.32703137397766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28938508033752</t>
+    <t xml:space="preserve">1.28938519954681</t>
   </si>
   <si>
     <t xml:space="preserve">1.51526284217834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72231733798981</t>
+    <t xml:space="preserve">1.7223174571991</t>
   </si>
   <si>
     <t xml:space="preserve">1.74114048480988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71290576457977</t>
+    <t xml:space="preserve">1.71290588378906</t>
   </si>
   <si>
     <t xml:space="preserve">1.70349419116974</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">1.65643632411957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76937532424927</t>
+    <t xml:space="preserve">1.76937520503998</t>
   </si>
   <si>
     <t xml:space="preserve">1.18585789203644</t>
@@ -1424,10 +1424,10 @@
     <t xml:space="preserve">1.16703474521637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21409249305725</t>
+    <t xml:space="preserve">1.21409261226654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20468091964722</t>
+    <t xml:space="preserve">1.20468103885651</t>
   </si>
   <si>
     <t xml:space="preserve">1.1764463186264</t>
@@ -1436,10 +1436,10 @@
     <t xml:space="preserve">1.25173890590668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30820834636688</t>
+    <t xml:space="preserve">1.30820822715759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19526934623718</t>
+    <t xml:space="preserve">1.19526946544647</t>
   </si>
   <si>
     <t xml:space="preserve">1.1482115983963</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">1.13880002498627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12938845157623</t>
+    <t xml:space="preserve">1.12938857078552</t>
   </si>
   <si>
     <t xml:space="preserve">1.0917421579361</t>
@@ -1472,19 +1472,19 @@
     <t xml:space="preserve">1.07291901111603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03527271747589</t>
+    <t xml:space="preserve">1.03527283668518</t>
   </si>
   <si>
     <t xml:space="preserve">1.05409586429596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01644957065582</t>
+    <t xml:space="preserve">1.01644968986511</t>
   </si>
   <si>
     <t xml:space="preserve">1.04468429088593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00703799724579</t>
+    <t xml:space="preserve">1.00703811645508</t>
   </si>
   <si>
     <t xml:space="preserve">0.969391703605652</t>
@@ -1493,10 +1493,10 @@
     <t xml:space="preserve">0.978803277015686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959980130195618</t>
+    <t xml:space="preserve">0.959980189800262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988214790821075</t>
+    <t xml:space="preserve">0.98821485042572</t>
   </si>
   <si>
     <t xml:space="preserve">0.936451256275177</t>
@@ -1505,19 +1505,19 @@
     <t xml:space="preserve">0.950568616390228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02586114406586</t>
+    <t xml:space="preserve">1.02586126327515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06350755691528</t>
+    <t xml:space="preserve">1.06350743770599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99762636423111</t>
+    <t xml:space="preserve">0.997626423835754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26115036010742</t>
+    <t xml:space="preserve">1.26115047931671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54349756240845</t>
+    <t xml:space="preserve">1.54349744319916</t>
   </si>
   <si>
     <t xml:space="preserve">1.30537188053131</t>
@@ -58252,6 +58252,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.2916666667</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>530</v>
+      </c>
+      <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/LMG.MI.xlsx
+++ b/data/LMG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,46 +44,46 @@
     <t xml:space="preserve">LMG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50033140182495</t>
+    <t xml:space="preserve">1.50033128261566</t>
   </si>
   <si>
     <t xml:space="preserve">1.5514885187149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704050064087</t>
+    <t xml:space="preserve">1.50704038143158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439717292786</t>
+    <t xml:space="preserve">1.48439705371857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44246518611908</t>
+    <t xml:space="preserve">1.44246506690979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43575596809387</t>
+    <t xml:space="preserve">1.43575584888458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39214646816254</t>
+    <t xml:space="preserve">1.39214658737183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41646730899811</t>
+    <t xml:space="preserve">1.41646695137024</t>
   </si>
   <si>
     <t xml:space="preserve">1.42569220066071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47433352470398</t>
+    <t xml:space="preserve">1.47433340549469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44162631034851</t>
+    <t xml:space="preserve">1.4416264295578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46762442588806</t>
+    <t xml:space="preserve">1.46762430667877</t>
   </si>
   <si>
     <t xml:space="preserve">1.50871789455414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4592376947403</t>
+    <t xml:space="preserve">1.45923793315887</t>
   </si>
   <si>
     <t xml:space="preserve">1.40640342235565</t>
@@ -101,46 +101,46 @@
     <t xml:space="preserve">1.40891933441162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37872838973999</t>
+    <t xml:space="preserve">1.3787282705307</t>
   </si>
   <si>
     <t xml:space="preserve">1.44581961631775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52632939815521</t>
+    <t xml:space="preserve">1.52632915973663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49278354644775</t>
+    <t xml:space="preserve">1.49278366565704</t>
   </si>
   <si>
     <t xml:space="preserve">1.57245469093323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56406819820404</t>
+    <t xml:space="preserve">1.56406831741333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53639304637909</t>
+    <t xml:space="preserve">1.5363929271698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55987513065338</t>
+    <t xml:space="preserve">1.5598748922348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62025725841522</t>
+    <t xml:space="preserve">1.62025713920593</t>
   </si>
   <si>
     <t xml:space="preserve">1.68567132949829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74437606334686</t>
+    <t xml:space="preserve">1.74437630176544</t>
   </si>
   <si>
     <t xml:space="preserve">1.74773097038269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71753978729248</t>
+    <t xml:space="preserve">1.71753990650177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61857986450195</t>
+    <t xml:space="preserve">1.61857998371124</t>
   </si>
   <si>
     <t xml:space="preserve">1.59342074394226</t>
@@ -149,34 +149,34 @@
     <t xml:space="preserve">1.57664787769318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51962018013</t>
+    <t xml:space="preserve">1.51962029933929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50117003917694</t>
+    <t xml:space="preserve">1.50116991996765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47349464893341</t>
+    <t xml:space="preserve">1.47349488735199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51932406425476</t>
+    <t xml:space="preserve">1.51932418346405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49662172794342</t>
+    <t xml:space="preserve">1.49662160873413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4695531129837</t>
+    <t xml:space="preserve">1.46955323219299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439729213715</t>
+    <t xml:space="preserve">1.48439717292786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49312889575958</t>
+    <t xml:space="preserve">1.49312901496887</t>
   </si>
   <si>
     <t xml:space="preserve">1.49050939083099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47479236125946</t>
+    <t xml:space="preserve">1.47479212284088</t>
   </si>
   <si>
     <t xml:space="preserve">1.46606051921844</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">1.42240166664124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41454303264618</t>
+    <t xml:space="preserve">1.41454315185547</t>
   </si>
   <si>
     <t xml:space="preserve">1.43200671672821</t>
@@ -194,13 +194,13 @@
     <t xml:space="preserve">1.39707970619202</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35953330993652</t>
+    <t xml:space="preserve">1.35953319072723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38310885429382</t>
+    <t xml:space="preserve">1.38310897350311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37961626052856</t>
+    <t xml:space="preserve">1.37961614131927</t>
   </si>
   <si>
     <t xml:space="preserve">1.31936728954315</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">1.44073832035065</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38834798336029</t>
+    <t xml:space="preserve">1.388347864151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32722580432892</t>
+    <t xml:space="preserve">1.32722568511963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30714273452759</t>
+    <t xml:space="preserve">1.3071426153183</t>
   </si>
   <si>
     <t xml:space="preserve">1.27832782268524</t>
@@ -242,13 +242,13 @@
     <t xml:space="preserve">1.28182077407837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29229879379272</t>
+    <t xml:space="preserve">1.29229891300201</t>
   </si>
   <si>
     <t xml:space="preserve">1.28356695175171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23990821838379</t>
+    <t xml:space="preserve">1.23990833759308</t>
   </si>
   <si>
     <t xml:space="preserve">1.19450318813324</t>
@@ -260,22 +260,22 @@
     <t xml:space="preserve">1.21895205974579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20236170291901</t>
+    <t xml:space="preserve">1.2023618221283</t>
   </si>
   <si>
     <t xml:space="preserve">1.19188356399536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22244477272034</t>
+    <t xml:space="preserve">1.22244465351105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17878603935242</t>
+    <t xml:space="preserve">1.17878592014313</t>
   </si>
   <si>
     <t xml:space="preserve">1.16132247447968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09408795833588</t>
+    <t xml:space="preserve">1.09408807754517</t>
   </si>
   <si>
     <t xml:space="preserve">1.07837080955505</t>
@@ -284,16 +284,16 @@
     <t xml:space="preserve">1.06876599788666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08448314666748</t>
+    <t xml:space="preserve">1.08448302745819</t>
   </si>
   <si>
     <t xml:space="preserve">1.1002002954483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13076138496399</t>
+    <t xml:space="preserve">1.13076150417328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11067843437195</t>
+    <t xml:space="preserve">1.11067831516266</t>
   </si>
   <si>
     <t xml:space="preserve">1.11766362190247</t>
@@ -302,34 +302,34 @@
     <t xml:space="preserve">1.08273673057556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05217564105988</t>
+    <t xml:space="preserve">1.05217576026917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02685344219208</t>
+    <t xml:space="preserve">1.02685368061066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04344403743744</t>
+    <t xml:space="preserve">1.04344391822815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05654156208038</t>
+    <t xml:space="preserve">1.05654144287109</t>
   </si>
   <si>
     <t xml:space="preserve">1.04780983924866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999785125255585</t>
+    <t xml:space="preserve">0.999785184860229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01200973987579</t>
+    <t xml:space="preserve">1.01200950145721</t>
   </si>
   <si>
     <t xml:space="preserve">0.985814332962036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.927311658859253</t>
+    <t xml:space="preserve">0.927311718463898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903735995292664</t>
+    <t xml:space="preserve">0.903735876083374</t>
   </si>
   <si>
     <t xml:space="preserve">0.993672966957092</t>
@@ -338,40 +338,40 @@
     <t xml:space="preserve">0.951760590076447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938662946224213</t>
+    <t xml:space="preserve">0.938663005828857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935170233249664</t>
+    <t xml:space="preserve">0.935170292854309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909848153591156</t>
+    <t xml:space="preserve">0.909848213195801</t>
   </si>
   <si>
     <t xml:space="preserve">0.948267757892609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991926729679108</t>
+    <t xml:space="preserve">0.991926610469818</t>
   </si>
   <si>
     <t xml:space="preserve">0.956999599933624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960492312908173</t>
+    <t xml:space="preserve">0.960492193698883</t>
   </si>
   <si>
     <t xml:space="preserve">1.00939011573792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00415110588074</t>
+    <t xml:space="preserve">1.00415098667145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10107362270355</t>
+    <t xml:space="preserve">1.10107338428497</t>
   </si>
   <si>
     <t xml:space="preserve">1.03471207618713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03209280967712</t>
+    <t xml:space="preserve">1.03209257125854</t>
   </si>
   <si>
     <t xml:space="preserve">1.04519021511078</t>
@@ -380,16 +380,16 @@
     <t xml:space="preserve">1.03907811641693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03383910655975</t>
+    <t xml:space="preserve">1.03383886814117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97795581817627</t>
+    <t xml:space="preserve">0.977955758571625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02510726451874</t>
+    <t xml:space="preserve">1.02510738372803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982321739196777</t>
+    <t xml:space="preserve">0.982321619987488</t>
   </si>
   <si>
     <t xml:space="preserve">1.03121948242188</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">1.03034627437592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01113641262054</t>
+    <t xml:space="preserve">1.01113629341125</t>
   </si>
   <si>
     <t xml:space="preserve">1.03733158111572</t>
@@ -419,22 +419,22 @@
     <t xml:space="preserve">0.995419323444366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10456609725952</t>
+    <t xml:space="preserve">1.10456621646881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10543918609619</t>
+    <t xml:space="preserve">1.10543930530548</t>
   </si>
   <si>
     <t xml:space="preserve">1.06963920593262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09845399856567</t>
+    <t xml:space="preserve">1.09845387935638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15259075164795</t>
+    <t xml:space="preserve">1.15259087085724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18577146530151</t>
+    <t xml:space="preserve">1.1857715845108</t>
   </si>
   <si>
     <t xml:space="preserve">1.19799590110779</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">1.24776685237885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2486400604248</t>
+    <t xml:space="preserve">1.24863994121552</t>
   </si>
   <si>
     <t xml:space="preserve">1.31063544750214</t>
@@ -464,13 +464,13 @@
     <t xml:space="preserve">1.20323491096497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2442741394043</t>
+    <t xml:space="preserve">1.24427402019501</t>
   </si>
   <si>
     <t xml:space="preserve">1.24689364433289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2049812078476</t>
+    <t xml:space="preserve">1.20498132705688</t>
   </si>
   <si>
     <t xml:space="preserve">1.19624936580658</t>
@@ -479,10 +479,10 @@
     <t xml:space="preserve">1.24340093135834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21371304988861</t>
+    <t xml:space="preserve">1.2137131690979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29142546653748</t>
+    <t xml:space="preserve">1.29142570495605</t>
   </si>
   <si>
     <t xml:space="preserve">1.30976223945618</t>
@@ -500,19 +500,19 @@
     <t xml:space="preserve">1.18751788139343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1770396232605</t>
+    <t xml:space="preserve">1.17703974246979</t>
   </si>
   <si>
     <t xml:space="preserve">1.1700541973114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2276839017868</t>
+    <t xml:space="preserve">1.22768378257751</t>
   </si>
   <si>
     <t xml:space="preserve">1.4669337272644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45645558834076</t>
+    <t xml:space="preserve">1.45645546913147</t>
   </si>
   <si>
     <t xml:space="preserve">1.45994830131531</t>
@@ -524,16 +524,16 @@
     <t xml:space="preserve">1.52368998527527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56036329269409</t>
+    <t xml:space="preserve">1.56036341190338</t>
   </si>
   <si>
     <t xml:space="preserve">1.52019739151001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55337822437286</t>
+    <t xml:space="preserve">1.55337810516357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55425107479095</t>
+    <t xml:space="preserve">1.55425119400024</t>
   </si>
   <si>
     <t xml:space="preserve">1.5367876291275</t>
@@ -545,28 +545,28 @@
     <t xml:space="preserve">1.64156866073608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65466618537903</t>
+    <t xml:space="preserve">1.65466630458832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70269095897675</t>
+    <t xml:space="preserve">1.70269083976746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72888624668121</t>
+    <t xml:space="preserve">1.72888612747192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73674476146698</t>
+    <t xml:space="preserve">1.73674464225769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8109644651413</t>
+    <t xml:space="preserve">1.81096434593201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83366703987122</t>
+    <t xml:space="preserve">1.83366692066193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85113048553467</t>
+    <t xml:space="preserve">1.85113060474396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85986244678497</t>
+    <t xml:space="preserve">1.85986232757568</t>
   </si>
   <si>
     <t xml:space="preserve">1.72277402877808</t>
@@ -578,7 +578,7 @@
     <t xml:space="preserve">1.74634969234467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69046640396118</t>
+    <t xml:space="preserve">1.69046652317047</t>
   </si>
   <si>
     <t xml:space="preserve">1.76032054424286</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">1.68697369098663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67649555206299</t>
+    <t xml:space="preserve">1.67649567127228</t>
   </si>
   <si>
     <t xml:space="preserve">1.7550812959671</t>
@@ -599,13 +599,13 @@
     <t xml:space="preserve">1.7900083065033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81271088123322</t>
+    <t xml:space="preserve">1.8127110004425</t>
   </si>
   <si>
     <t xml:space="preserve">1.82842814922333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81620335578918</t>
+    <t xml:space="preserve">1.81620359420776</t>
   </si>
   <si>
     <t xml:space="preserve">1.79874014854431</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">1.72801291942596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81795012950897</t>
+    <t xml:space="preserve">1.81794989109039</t>
   </si>
   <si>
     <t xml:space="preserve">1.82510709762573</t>
@@ -635,19 +635,19 @@
     <t xml:space="preserve">2.03982591629028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4764199256897</t>
+    <t xml:space="preserve">2.47642016410828</t>
   </si>
   <si>
     <t xml:space="preserve">2.57662224769592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94701147079468</t>
+    <t xml:space="preserve">2.9470112323761</t>
   </si>
   <si>
     <t xml:space="preserve">2.95237946510315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85396695137024</t>
+    <t xml:space="preserve">2.85396671295166</t>
   </si>
   <si>
     <t xml:space="preserve">2.75913286209106</t>
@@ -659,10 +659,10 @@
     <t xml:space="preserve">2.56767535209656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50504946708679</t>
+    <t xml:space="preserve">2.50504922866821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46747326850891</t>
+    <t xml:space="preserve">2.46747303009033</t>
   </si>
   <si>
     <t xml:space="preserve">2.59809398651123</t>
@@ -680,10 +680,10 @@
     <t xml:space="preserve">2.60882973670959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56946492195129</t>
+    <t xml:space="preserve">2.56946468353271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5784113407135</t>
+    <t xml:space="preserve">2.57841157913208</t>
   </si>
   <si>
     <t xml:space="preserve">2.54978203773499</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">2.52473187446594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55872893333435</t>
+    <t xml:space="preserve">2.55872869491577</t>
   </si>
   <si>
     <t xml:space="preserve">2.63924813270569</t>
@@ -704,10 +704,10 @@
     <t xml:space="preserve">2.59451532363892</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5408353805542</t>
+    <t xml:space="preserve">2.54083561897278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56230735778809</t>
+    <t xml:space="preserve">2.56230759620667</t>
   </si>
   <si>
     <t xml:space="preserve">2.56409668922424</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">2.64640545845032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56588578224182</t>
+    <t xml:space="preserve">2.5658860206604</t>
   </si>
   <si>
     <t xml:space="preserve">2.58199000358582</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">2.6732451915741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52294230461121</t>
+    <t xml:space="preserve">2.52294254302979</t>
   </si>
   <si>
     <t xml:space="preserve">2.48536682128906</t>
@@ -737,13 +737,13 @@
     <t xml:space="preserve">2.48715591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4334762096405</t>
+    <t xml:space="preserve">2.43347644805908</t>
   </si>
   <si>
     <t xml:space="preserve">2.41916179656982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37979698181152</t>
+    <t xml:space="preserve">2.37979674339294</t>
   </si>
   <si>
     <t xml:space="preserve">2.42989778518677</t>
@@ -752,13 +752,13 @@
     <t xml:space="preserve">2.41379380226135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36548233032227</t>
+    <t xml:space="preserve">2.36548209190369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21875786781311</t>
+    <t xml:space="preserve">2.21875762939453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21338987350464</t>
+    <t xml:space="preserve">2.21338963508606</t>
   </si>
   <si>
     <t xml:space="preserve">2.15792107582092</t>
@@ -794,16 +794,16 @@
     <t xml:space="preserve">2.14002776145935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11139869689941</t>
+    <t xml:space="preserve">2.11139845848083</t>
   </si>
   <si>
     <t xml:space="preserve">2.30285573005676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27064800262451</t>
+    <t xml:space="preserve">2.27064824104309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1722354888916</t>
+    <t xml:space="preserve">2.17223525047302</t>
   </si>
   <si>
     <t xml:space="preserve">2.19549679756165</t>
@@ -818,13 +818,13 @@
     <t xml:space="preserve">2.2151792049408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24738693237305</t>
+    <t xml:space="preserve">2.24738717079163</t>
   </si>
   <si>
     <t xml:space="preserve">2.24559760093689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26349091529846</t>
+    <t xml:space="preserve">2.26349067687988</t>
   </si>
   <si>
     <t xml:space="preserve">2.37621784210205</t>
@@ -851,13 +851,13 @@
     <t xml:space="preserve">2.28496241569519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32611703872681</t>
+    <t xml:space="preserve">2.32611680030823</t>
   </si>
   <si>
     <t xml:space="preserve">2.3440101146698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44242310523987</t>
+    <t xml:space="preserve">2.44242286682129</t>
   </si>
   <si>
     <t xml:space="preserve">2.35116744041443</t>
@@ -872,19 +872,19 @@
     <t xml:space="preserve">2.29748797416687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3046452999115</t>
+    <t xml:space="preserve">2.30464506149292</t>
   </si>
   <si>
     <t xml:space="preserve">2.38695406913757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29927730560303</t>
+    <t xml:space="preserve">2.29927706718445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34222102165222</t>
+    <t xml:space="preserve">2.34222078323364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54262471199036</t>
+    <t xml:space="preserve">2.54262495040894</t>
   </si>
   <si>
     <t xml:space="preserve">2.6553521156311</t>
@@ -938,22 +938,22 @@
     <t xml:space="preserve">2.43705487251282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4066367149353</t>
+    <t xml:space="preserve">2.40663647651672</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49252390861511</t>
+    <t xml:space="preserve">2.49252414703369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41558289527893</t>
+    <t xml:space="preserve">2.41558313369751</t>
   </si>
   <si>
     <t xml:space="preserve">2.29390931129456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22770428657532</t>
+    <t xml:space="preserve">2.2277045249939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20623254776001</t>
+    <t xml:space="preserve">2.20623278617859</t>
   </si>
   <si>
     <t xml:space="preserve">2.28138422966003</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">2.05771899223328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00403928756714</t>
+    <t xml:space="preserve">2.00403904914856</t>
   </si>
   <si>
     <t xml:space="preserve">2.07561206817627</t>
@@ -992,40 +992,40 @@
     <t xml:space="preserve">1.99509274959564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01298594474792</t>
+    <t xml:space="preserve">2.0129861831665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96825301647186</t>
+    <t xml:space="preserve">1.96825277805328</t>
   </si>
   <si>
     <t xml:space="preserve">1.97719955444336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.950359582901</t>
+    <t xml:space="preserve">1.95035970211029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93246650695801</t>
+    <t xml:space="preserve">1.93246638774872</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0308792591095</t>
+    <t xml:space="preserve">2.03087902069092</t>
   </si>
   <si>
     <t xml:space="preserve">2.04877233505249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1587393283844</t>
+    <t xml:space="preserve">2.15873908996582</t>
   </si>
   <si>
     <t xml:space="preserve">2.13129758834839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05812001228333</t>
+    <t xml:space="preserve">2.0581202507019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99408960342407</t>
+    <t xml:space="preserve">1.99408972263336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93920636177063</t>
+    <t xml:space="preserve">1.93920648097992</t>
   </si>
   <si>
     <t xml:space="preserve">1.96664822101593</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">2.03067851066589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01238417625427</t>
+    <t xml:space="preserve">2.01238393783569</t>
   </si>
   <si>
     <t xml:space="preserve">1.94835388660431</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">1.98494267463684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95750081539154</t>
+    <t xml:space="preserve">1.95750093460083</t>
   </si>
   <si>
     <t xml:space="preserve">1.9026175737381</t>
@@ -1058,16 +1058,16 @@
     <t xml:space="preserve">2.00323700904846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93005919456482</t>
+    <t xml:space="preserve">1.93005931377411</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97579526901245</t>
+    <t xml:space="preserve">1.97579514980316</t>
   </si>
   <si>
     <t xml:space="preserve">2.02153134346008</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07641458511353</t>
+    <t xml:space="preserve">2.07641434669495</t>
   </si>
   <si>
     <t xml:space="preserve">2.09470891952515</t>
@@ -1076,10 +1076,10 @@
     <t xml:space="preserve">1.86602878570557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84773457050323</t>
+    <t xml:space="preserve">1.84773445129395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87517595291138</t>
+    <t xml:space="preserve">1.87517607212067</t>
   </si>
   <si>
     <t xml:space="preserve">1.83858728408813</t>
@@ -1112,13 +1112,13 @@
     <t xml:space="preserve">1.73339450359344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64649605751038</t>
+    <t xml:space="preserve">1.64649593830109</t>
   </si>
   <si>
     <t xml:space="preserve">1.6739376783371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63277518749237</t>
+    <t xml:space="preserve">1.63277530670166</t>
   </si>
   <si>
     <t xml:space="preserve">1.66936421394348</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">1.74254167079926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70137929916382</t>
+    <t xml:space="preserve">1.70137917995453</t>
   </si>
   <si>
     <t xml:space="preserve">1.64192247390747</t>
@@ -1154,10 +1154,10 @@
     <t xml:space="preserve">1.65564322471619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62362813949585</t>
+    <t xml:space="preserve">1.62362802028656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48184633255005</t>
+    <t xml:space="preserve">1.48184645175934</t>
   </si>
   <si>
     <t xml:space="preserve">1.48642003536224</t>
@@ -1166,10 +1166,10 @@
     <t xml:space="preserve">1.38122725486755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35378563404083</t>
+    <t xml:space="preserve">1.35378575325012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29890239238739</t>
+    <t xml:space="preserve">1.29890251159668</t>
   </si>
   <si>
     <t xml:space="preserve">1.26231372356415</t>
@@ -1187,10 +1187,10 @@
     <t xml:space="preserve">1.46355211734772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49556732177734</t>
+    <t xml:space="preserve">1.49556720256805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44983124732971</t>
+    <t xml:space="preserve">1.449831366539</t>
   </si>
   <si>
     <t xml:space="preserve">1.44525766372681</t>
@@ -1214,13 +1214,13 @@
     <t xml:space="preserve">1.45440483093262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47269928455353</t>
+    <t xml:space="preserve">1.47269916534424</t>
   </si>
   <si>
     <t xml:space="preserve">1.4269632101059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60075998306274</t>
+    <t xml:space="preserve">1.60076010227203</t>
   </si>
   <si>
     <t xml:space="preserve">1.57789206504822</t>
@@ -1238,22 +1238,22 @@
     <t xml:space="preserve">1.61905443668365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62820160388947</t>
+    <t xml:space="preserve">1.62820172309875</t>
   </si>
   <si>
     <t xml:space="preserve">1.58703923225403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55045056343079</t>
+    <t xml:space="preserve">1.5504504442215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58246576786041</t>
+    <t xml:space="preserve">1.58246564865112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63734889030457</t>
+    <t xml:space="preserve">1.63734877109528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57331848144531</t>
+    <t xml:space="preserve">1.5733186006546</t>
   </si>
   <si>
     <t xml:space="preserve">1.59161293506622</t>
@@ -1404,9 +1404,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.6940826177597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62820172309875</t>
   </si>
   <si>
     <t xml:space="preserve">1.61879014968872</t>
@@ -28918,7 +28915,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1037" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28970,7 +28967,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1039" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29074,7 +29071,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G1043" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29100,7 +29097,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1044" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29152,7 +29149,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1046" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29282,7 +29279,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1051" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29542,7 +29539,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1061" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29568,7 +29565,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1062" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29594,7 +29591,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1063" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29620,7 +29617,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29646,7 +29643,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1065" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29672,7 +29669,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1066" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29698,7 +29695,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1067" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29724,7 +29721,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1068" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29750,7 +29747,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1069" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29776,7 +29773,7 @@
         <v>1.25</v>
       </c>
       <c r="G1070" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29802,7 +29799,7 @@
         <v>1.25</v>
       </c>
       <c r="G1071" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29828,7 +29825,7 @@
         <v>1.25</v>
       </c>
       <c r="G1072" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29854,7 +29851,7 @@
         <v>1.25</v>
       </c>
       <c r="G1073" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30036,7 +30033,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1080" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -30062,7 +30059,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1081" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -30088,7 +30085,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1082" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -30140,7 +30137,7 @@
         <v>1.25</v>
       </c>
       <c r="G1084" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30244,7 +30241,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1088" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30296,7 +30293,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1090" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30348,7 +30345,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1092" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30374,7 +30371,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1093" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30400,7 +30397,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1094" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30426,7 +30423,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1095" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30452,7 +30449,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1096" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30478,7 +30475,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1097" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30504,7 +30501,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1098" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30530,7 +30527,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1099" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30556,7 +30553,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30582,7 +30579,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1101" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30608,7 +30605,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1102" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30634,7 +30631,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1103" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30660,7 +30657,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1104" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30686,7 +30683,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1105" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30712,7 +30709,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30738,7 +30735,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1107" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30764,7 +30761,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1108" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30790,7 +30787,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1109" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30816,7 +30813,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1110" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30842,7 +30839,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1111" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30868,7 +30865,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1112" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30894,7 +30891,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1113" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30920,7 +30917,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1114" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30946,7 +30943,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1115" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30972,7 +30969,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1116" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30998,7 +30995,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1117" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31024,7 +31021,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1118" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31050,7 +31047,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1119" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31076,7 +31073,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1120" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -31102,7 +31099,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1121" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31128,7 +31125,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1122" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31154,7 +31151,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1123" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31180,7 +31177,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1124" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31206,7 +31203,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1125" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31232,7 +31229,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1126" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31258,7 +31255,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1127" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31284,7 +31281,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1128" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31310,7 +31307,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1129" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31336,7 +31333,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1130" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31362,7 +31359,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1131" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31388,7 +31385,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1132" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31414,7 +31411,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1133" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31440,7 +31437,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1134" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31466,7 +31463,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1135" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31492,7 +31489,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1136" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31518,7 +31515,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1137" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31544,7 +31541,7 @@
         <v>1.25</v>
       </c>
       <c r="G1138" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31570,7 +31567,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1139" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31596,7 +31593,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1140" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31622,7 +31619,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1141" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31648,7 +31645,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1142" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31674,7 +31671,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1143" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31700,7 +31697,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31726,7 +31723,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1145" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31752,7 +31749,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1146" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31778,7 +31775,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1147" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31804,7 +31801,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1148" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31830,7 +31827,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1149" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31856,7 +31853,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1150" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31882,7 +31879,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1151" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31908,7 +31905,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1152" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31934,7 +31931,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1153" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31960,7 +31957,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1154" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31986,7 +31983,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1155" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32012,7 +32009,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1156" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -32038,7 +32035,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1157" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32064,7 +32061,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1158" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -32090,7 +32087,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1159" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -32116,7 +32113,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1160" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -32142,7 +32139,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1161" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32168,7 +32165,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1162" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32194,7 +32191,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1163" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32220,7 +32217,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1164" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32246,7 +32243,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1165" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32272,7 +32269,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1166" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32298,7 +32295,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1167" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32324,7 +32321,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1168" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32350,7 +32347,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1169" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32376,7 +32373,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1170" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32402,7 +32399,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1171" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32428,7 +32425,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1172" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32454,7 +32451,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1173" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32480,7 +32477,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1174" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32506,7 +32503,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1175" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32532,7 +32529,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1176" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32558,7 +32555,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1177" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32584,7 +32581,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1178" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32610,7 +32607,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1179" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32636,7 +32633,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1180" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32662,7 +32659,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1181" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32688,7 +32685,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1182" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32714,7 +32711,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1183" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32740,7 +32737,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1184" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32766,7 +32763,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1185" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32792,7 +32789,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1186" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -32818,7 +32815,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1187" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -32844,7 +32841,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1188" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -32870,7 +32867,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1189" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -32896,7 +32893,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1190" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -32922,7 +32919,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1191" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -32948,7 +32945,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1192" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -32974,7 +32971,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1193" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -33000,7 +32997,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1194" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33026,7 +33023,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G1195" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33052,7 +33049,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1196" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33078,7 +33075,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33104,7 +33101,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1198" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33130,7 +33127,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1199" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -33156,7 +33153,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G1200" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -33182,7 +33179,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1201" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -33208,7 +33205,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1202" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -33234,7 +33231,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1203" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -33260,7 +33257,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1204" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -33286,7 +33283,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1205" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -33312,7 +33309,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1206" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -33338,7 +33335,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1207" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -33364,7 +33361,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1208" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -33390,7 +33387,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1209" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -33416,7 +33413,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1210" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -33442,7 +33439,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1211" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -33468,7 +33465,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1212" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -33494,7 +33491,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1213" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -33520,7 +33517,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1214" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -33546,7 +33543,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1215" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -33572,7 +33569,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1216" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -33598,7 +33595,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1217" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -33624,7 +33621,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1218" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -33650,7 +33647,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1219" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -33676,7 +33673,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1220" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -33702,7 +33699,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1221" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -33728,7 +33725,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1222" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -33754,7 +33751,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1223" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -33780,7 +33777,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1224" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -33806,7 +33803,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1225" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -33832,7 +33829,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1226" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -33858,7 +33855,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G1227" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -33884,7 +33881,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1228" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -33910,7 +33907,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1229" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -33936,7 +33933,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1230" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -33962,7 +33959,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1231" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -33988,7 +33985,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1232" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34014,7 +34011,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1233" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34040,7 +34037,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1234" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34066,7 +34063,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1235" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -34092,7 +34089,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1236" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -34118,7 +34115,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1237" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34144,7 +34141,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1238" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -34170,7 +34167,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1239" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -34196,7 +34193,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1240" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -34222,7 +34219,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1241" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -34248,7 +34245,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1242" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -34274,7 +34271,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1243" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -34300,7 +34297,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1244" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -34326,7 +34323,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1245" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34352,7 +34349,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1246" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34378,7 +34375,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1247" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -34404,7 +34401,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1248" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -34430,7 +34427,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1249" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -34456,7 +34453,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1250" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -34482,7 +34479,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1251" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -34508,7 +34505,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1252" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -34534,7 +34531,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1253" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -34560,7 +34557,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1254" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -34586,7 +34583,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1255" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -34612,7 +34609,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1256" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -34638,7 +34635,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1257" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -34664,7 +34661,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1258" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -34690,7 +34687,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1259" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -34716,7 +34713,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1260" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -34742,7 +34739,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1261" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -34768,7 +34765,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1262" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -34794,7 +34791,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1263" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -34820,7 +34817,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1264" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -34846,7 +34843,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1265" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -34872,7 +34869,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1266" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -34898,7 +34895,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1267" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -34924,7 +34921,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1268" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -34950,7 +34947,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1269" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -34976,7 +34973,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1270" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -35002,7 +34999,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1271" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35028,7 +35025,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1272" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35054,7 +35051,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1273" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35080,7 +35077,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1274" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -35106,7 +35103,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1275" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35132,7 +35129,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1276" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -35158,7 +35155,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1277" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35184,7 +35181,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1278" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35210,7 +35207,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1279" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35236,7 +35233,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1280" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -35262,7 +35259,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1281" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -35288,7 +35285,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1282" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35314,7 +35311,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1283" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35340,7 +35337,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1284" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35366,7 +35363,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1285" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35392,7 +35389,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1286" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35418,7 +35415,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1287" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35444,7 +35441,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1288" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35470,7 +35467,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1289" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -35496,7 +35493,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1290" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35522,7 +35519,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1291" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35548,7 +35545,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1292" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -35574,7 +35571,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1293" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35600,7 +35597,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1294" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35626,7 +35623,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1295" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35652,7 +35649,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1296" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35678,7 +35675,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1297" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35704,7 +35701,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1298" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35730,7 +35727,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1299" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35756,7 +35753,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1300" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35782,7 +35779,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1301" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35808,7 +35805,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1302" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35834,7 +35831,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1303" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35860,7 +35857,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1304" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -35886,7 +35883,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1305" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -35912,7 +35909,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1306" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -35938,7 +35935,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1307" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -35964,7 +35961,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1308" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -35990,7 +35987,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1309" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36016,7 +36013,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1310" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36042,7 +36039,7 @@
         <v>1.25</v>
       </c>
       <c r="G1311" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36068,7 +36065,7 @@
         <v>1.25</v>
       </c>
       <c r="G1312" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36094,7 +36091,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1313" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36120,7 +36117,7 @@
         <v>1.25</v>
       </c>
       <c r="G1314" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36146,7 +36143,7 @@
         <v>1.25</v>
       </c>
       <c r="G1315" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -36172,7 +36169,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1316" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -36198,7 +36195,7 @@
         <v>1.25</v>
       </c>
       <c r="G1317" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36224,7 +36221,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36276,7 +36273,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36302,7 +36299,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1321" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36328,7 +36325,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1322" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36354,7 +36351,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1323" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36380,7 +36377,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1324" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36406,7 +36403,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1325" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36432,7 +36429,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1326" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36458,7 +36455,7 @@
         <v>1.25</v>
       </c>
       <c r="G1327" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36484,7 +36481,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1328" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36510,7 +36507,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1329" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36536,7 +36533,7 @@
         <v>1.25</v>
       </c>
       <c r="G1330" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36562,7 +36559,7 @@
         <v>1.25</v>
       </c>
       <c r="G1331" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36588,7 +36585,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1332" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36614,7 +36611,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1333" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36692,7 +36689,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1336" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36900,7 +36897,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1344" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -36952,7 +36949,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1346" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37108,7 +37105,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1352" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37134,7 +37131,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1353" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37212,7 +37209,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1356" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37238,7 +37235,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1357" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37290,7 +37287,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1359" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37316,7 +37313,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1360" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37368,7 +37365,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1362" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37394,7 +37391,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1363" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37420,7 +37417,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1364" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38044,7 +38041,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1388" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38070,7 +38067,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1389" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38096,7 +38093,7 @@
         <v>1.25</v>
       </c>
       <c r="G1390" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38122,7 +38119,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1391" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38148,7 +38145,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1392" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38200,7 +38197,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1394" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38226,7 +38223,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1395" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38252,7 +38249,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1396" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38278,7 +38275,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1397" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38408,7 +38405,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1402" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38434,7 +38431,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1403" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38460,7 +38457,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38486,7 +38483,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1405" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38512,7 +38509,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1406" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38538,7 +38535,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1407" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38564,7 +38561,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1408" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38590,7 +38587,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1409" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38616,7 +38613,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1410" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38642,7 +38639,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1411" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38668,7 +38665,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1412" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38694,7 +38691,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1413" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38720,7 +38717,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1414" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38746,7 +38743,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1415" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38772,7 +38769,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1416" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38798,7 +38795,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1417" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38824,7 +38821,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1418" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38850,7 +38847,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1419" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -38902,7 +38899,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1421" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -38928,7 +38925,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1422" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -38954,7 +38951,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1423" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -38980,7 +38977,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1424" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39006,7 +39003,7 @@
         <v>1.25</v>
       </c>
       <c r="G1425" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39032,7 +39029,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1426" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39058,7 +39055,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1427" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39084,7 +39081,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1428" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39110,7 +39107,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1429" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39136,7 +39133,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1430" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39162,7 +39159,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1431" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39188,7 +39185,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1432" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39214,7 +39211,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1433" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39318,7 +39315,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1437" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39344,7 +39341,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1438" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39370,7 +39367,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1439" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39396,7 +39393,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1440" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39422,7 +39419,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1441" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39448,7 +39445,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1442" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39474,7 +39471,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1443" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39500,7 +39497,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1444" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39526,7 +39523,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1445" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39552,7 +39549,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1446" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39578,7 +39575,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1447" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39604,7 +39601,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1448" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39630,7 +39627,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1449" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39656,7 +39653,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1450" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39682,7 +39679,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1451" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39708,7 +39705,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1452" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39734,7 +39731,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1453" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39760,7 +39757,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1454" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39786,7 +39783,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1455" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39812,7 +39809,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1456" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39838,7 +39835,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1457" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40020,7 +40017,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1464" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40098,7 +40095,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1467" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40124,7 +40121,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1468" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40384,7 +40381,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G1478" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41060,7 +41057,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1504" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41372,7 +41369,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1516" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41450,7 +41447,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1519" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41476,7 +41473,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1520" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41502,7 +41499,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1521" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41528,7 +41525,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1522" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41632,7 +41629,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1526" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41658,7 +41655,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1527" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41762,7 +41759,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1531" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41788,7 +41785,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1532" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41970,7 +41967,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1539" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42022,7 +42019,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1541" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42126,7 +42123,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1545" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42178,7 +42175,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1547" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42204,7 +42201,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1548" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42230,7 +42227,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1549" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42256,7 +42253,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1550" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42282,7 +42279,7 @@
         <v>1.25</v>
       </c>
       <c r="G1551" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42308,7 +42305,7 @@
         <v>1.25</v>
       </c>
       <c r="G1552" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42334,7 +42331,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1553" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42360,7 +42357,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1554" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42386,7 +42383,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1555" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42412,7 +42409,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1556" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42438,7 +42435,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1557" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42464,7 +42461,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1558" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42490,7 +42487,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1559" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42516,7 +42513,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1560" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42542,7 +42539,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1561" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42568,7 +42565,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1562" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42646,7 +42643,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1565" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42672,7 +42669,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1566" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42698,7 +42695,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1567" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42724,7 +42721,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1568" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42750,7 +42747,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1569" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42776,7 +42773,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1570" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42802,7 +42799,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1571" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42828,7 +42825,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1572" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42854,7 +42851,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1573" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -42880,7 +42877,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1574" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -42906,7 +42903,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1575" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -42932,7 +42929,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1576" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -42958,7 +42955,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1577" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -42984,7 +42981,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1578" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43010,7 +43007,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1579" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43036,7 +43033,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1580" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43062,7 +43059,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1581" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43088,7 +43085,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1582" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43114,7 +43111,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1583" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43140,7 +43137,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1584" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43166,7 +43163,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1585" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43192,7 +43189,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1586" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43218,7 +43215,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1587" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43374,7 +43371,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1593" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43400,7 +43397,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1594" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43452,7 +43449,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1596" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43478,7 +43475,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1597" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43530,7 +43527,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1599" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43634,7 +43631,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1603" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43660,7 +43657,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1604" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43686,7 +43683,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1605" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43712,7 +43709,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1606" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43738,7 +43735,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1607" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43764,7 +43761,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1608" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43790,7 +43787,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1609" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43868,7 +43865,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1612" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -43894,7 +43891,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1613" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43920,7 +43917,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1614" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43946,7 +43943,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1615" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -43972,7 +43969,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1616" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44024,7 +44021,7 @@
         <v>1.25</v>
       </c>
       <c r="G1618" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44050,7 +44047,7 @@
         <v>1.25</v>
       </c>
       <c r="G1619" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44076,7 +44073,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1620" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44102,7 +44099,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1621" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44154,7 +44151,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1623" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44284,7 +44281,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1628" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44336,7 +44333,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1630" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44466,7 +44463,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1635" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44492,7 +44489,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44518,7 +44515,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1637" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44544,7 +44541,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1638" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44570,7 +44567,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1639" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44596,7 +44593,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1640" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44622,7 +44619,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1641" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44648,7 +44645,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1642" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44856,7 +44853,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44908,7 +44905,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1652" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44934,7 +44931,7 @@
         <v>1.25</v>
       </c>
       <c r="G1653" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44960,7 +44957,7 @@
         <v>1.25</v>
       </c>
       <c r="G1654" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44986,7 +44983,7 @@
         <v>1.25</v>
       </c>
       <c r="G1655" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45012,7 +45009,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1656" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45038,7 +45035,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1657" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45064,7 +45061,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1658" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45090,7 +45087,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1659" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45116,7 +45113,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1660" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45142,7 +45139,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1661" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45168,7 +45165,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1662" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45194,7 +45191,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1663" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45220,7 +45217,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1664" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45272,7 +45269,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1666" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45298,7 +45295,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1667" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45324,7 +45321,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1668" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45350,7 +45347,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1669" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45402,7 +45399,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1671" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45428,7 +45425,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1672" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45480,7 +45477,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1674" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45532,7 +45529,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1676" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45584,7 +45581,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45662,7 +45659,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1681" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45714,7 +45711,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1683" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45740,7 +45737,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1684" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45766,7 +45763,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1685" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45844,7 +45841,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1688" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46000,7 +45997,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1694" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46026,7 +46023,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1695" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46052,7 +46049,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1696" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46078,7 +46075,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46130,7 +46127,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1699" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46182,7 +46179,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1701" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46312,7 +46309,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1706" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46364,7 +46361,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1708" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46468,7 +46465,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1712" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46520,7 +46517,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1714" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46546,7 +46543,7 @@
         <v>1.25</v>
       </c>
       <c r="G1715" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46572,7 +46569,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1716" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46598,7 +46595,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1717" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46624,7 +46621,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1718" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46650,7 +46647,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1719" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46676,7 +46673,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1720" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46702,7 +46699,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1721" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46728,7 +46725,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1722" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46754,7 +46751,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1723" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46806,7 +46803,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1725" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46832,7 +46829,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1726" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46858,7 +46855,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46988,7 +46985,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1732" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47040,7 +47037,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1734" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47066,7 +47063,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1735" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47248,7 +47245,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1742" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47274,7 +47271,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1743" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47300,7 +47297,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1744" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47326,7 +47323,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1745" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47352,7 +47349,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1746" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47378,7 +47375,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1747" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47404,7 +47401,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1748" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47430,7 +47427,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1749" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47456,7 +47453,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1750" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47482,7 +47479,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1751" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47508,7 +47505,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1752" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47534,7 +47531,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1753" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47560,7 +47557,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1754" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47586,7 +47583,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1755" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47742,7 +47739,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1761" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47794,7 +47791,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47846,7 +47843,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1765" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47872,7 +47869,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1766" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47898,7 +47895,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1767" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47924,7 +47921,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1768" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47950,7 +47947,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1769" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48080,7 +48077,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1774" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48106,7 +48103,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1775" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48236,7 +48233,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1780" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48340,7 +48337,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1784" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48366,7 +48363,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1785" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48392,7 +48389,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1786" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48418,7 +48415,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1787" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48444,7 +48441,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1788" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48470,7 +48467,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1789" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48522,7 +48519,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1791" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48548,7 +48545,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1792" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48782,7 +48779,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1801" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48808,7 +48805,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1802" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48834,7 +48831,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1803" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48860,7 +48857,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1804" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48886,7 +48883,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1805" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48912,7 +48909,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1806" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48938,7 +48935,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1807" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48964,7 +48961,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1808" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48990,7 +48987,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1809" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49016,7 +49013,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1810" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49042,7 +49039,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1811" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49068,7 +49065,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1812" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49094,7 +49091,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1813" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49172,7 +49169,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1816" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49198,7 +49195,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1817" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49224,7 +49221,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1818" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49250,7 +49247,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1819" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49276,7 +49273,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1820" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49302,7 +49299,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1821" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49328,7 +49325,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1822" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49354,7 +49351,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1823" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49380,7 +49377,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1824" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49406,7 +49403,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1825" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49432,7 +49429,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1826" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49458,7 +49455,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1827" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49484,7 +49481,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1828" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49510,7 +49507,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1829" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49536,7 +49533,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1830" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49562,7 +49559,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1831" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49588,7 +49585,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1832" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49614,7 +49611,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1833" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49640,7 +49637,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1834" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49666,7 +49663,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1835" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49692,7 +49689,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1836" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49718,7 +49715,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1837" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49744,7 +49741,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1838" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49770,7 +49767,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1839" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49796,7 +49793,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49822,7 +49819,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1841" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49848,7 +49845,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1842" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49874,7 +49871,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1843" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49900,7 +49897,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1844" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49926,7 +49923,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1845" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49952,7 +49949,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1846" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49978,7 +49975,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1847" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50004,7 +50001,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1848" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50030,7 +50027,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1849" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50056,7 +50053,7 @@
         <v>1.25</v>
       </c>
       <c r="G1850" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50082,7 +50079,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1851" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50238,7 +50235,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1857" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50290,7 +50287,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1859" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50342,7 +50339,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1861" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50498,7 +50495,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1867" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50524,7 +50521,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1868" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50706,7 +50703,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1875" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50732,7 +50729,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1876" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50758,7 +50755,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1877" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50784,7 +50781,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1878" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50810,7 +50807,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1879" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50836,7 +50833,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G1880" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50862,7 +50859,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1881" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50888,7 +50885,7 @@
         <v>1.37000000476837</v>
       </c>
       <c r="G1882" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50914,7 +50911,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1883" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50940,7 +50937,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1884" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50966,7 +50963,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1885" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50992,7 +50989,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1886" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51018,7 +51015,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1887" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51044,7 +51041,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1888" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51070,7 +51067,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1889" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51096,7 +51093,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1890" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51122,7 +51119,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1891" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51148,7 +51145,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1892" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51174,7 +51171,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1893" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51200,7 +51197,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1894" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51226,7 +51223,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1895" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51252,7 +51249,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1896" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51278,7 +51275,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1897" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51304,7 +51301,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1898" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51330,7 +51327,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1899" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51356,7 +51353,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1900" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51382,7 +51379,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1901" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51408,7 +51405,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1902" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51434,7 +51431,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G1903" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51460,7 +51457,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1904" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51486,7 +51483,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1905" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51512,7 +51509,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1906" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51538,7 +51535,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G1907" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51564,7 +51561,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G1908" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51590,7 +51587,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G1909" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51616,7 +51613,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1910" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51642,7 +51639,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G1911" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51668,7 +51665,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1912" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51694,7 +51691,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1913" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51720,7 +51717,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51746,7 +51743,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1915" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51772,7 +51769,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1916" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51798,7 +51795,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1917" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51824,7 +51821,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51850,7 +51847,7 @@
         <v>1.25</v>
       </c>
       <c r="G1919" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51876,7 +51873,7 @@
         <v>1.25</v>
       </c>
       <c r="G1920" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51902,7 +51899,7 @@
         <v>1.25</v>
       </c>
       <c r="G1921" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51928,7 +51925,7 @@
         <v>1.25</v>
       </c>
       <c r="G1922" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51954,7 +51951,7 @@
         <v>1.25</v>
       </c>
       <c r="G1923" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51980,7 +51977,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1924" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52006,7 +52003,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1925" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52032,7 +52029,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1926" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52058,7 +52055,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1927" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52084,7 +52081,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1928" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52110,7 +52107,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1929" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52136,7 +52133,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1930" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52162,7 +52159,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1931" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52188,7 +52185,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1932" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52214,7 +52211,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52240,7 +52237,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1934" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52266,7 +52263,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1935" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52292,7 +52289,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1936" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52318,7 +52315,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1937" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52344,7 +52341,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1938" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52370,7 +52367,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1939" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52396,7 +52393,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1940" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52422,7 +52419,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1941" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52448,7 +52445,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1942" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52474,7 +52471,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1943" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52500,7 +52497,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1944" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52526,7 +52523,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1945" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52552,7 +52549,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1946" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52578,7 +52575,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1947" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52604,7 +52601,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1948" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52630,7 +52627,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1949" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52656,7 +52653,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1950" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52682,7 +52679,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1951" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52708,7 +52705,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1952" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52734,7 +52731,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1953" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52760,7 +52757,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1954" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52786,7 +52783,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1955" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52812,7 +52809,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1956" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52838,7 +52835,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1957" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52864,7 +52861,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1958" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52890,7 +52887,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1959" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52916,7 +52913,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1960" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52942,7 +52939,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1961" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52968,7 +52965,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1962" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52994,7 +52991,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1963" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53020,7 +53017,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53046,7 +53043,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1965" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53072,7 +53069,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1966" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53098,7 +53095,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1967" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53124,7 +53121,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1968" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53150,7 +53147,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1969" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53176,7 +53173,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1970" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53202,7 +53199,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1971" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53228,7 +53225,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1972" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53254,7 +53251,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1973" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53280,7 +53277,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1974" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53306,7 +53303,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1975" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53332,7 +53329,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1976" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53358,7 +53355,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53384,7 +53381,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53410,7 +53407,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1979" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53436,7 +53433,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53462,7 +53459,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53488,7 +53485,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1982" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53514,7 +53511,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53540,7 +53537,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1984" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53566,7 +53563,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1985" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53592,7 +53589,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1986" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53618,7 +53615,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1987" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53644,7 +53641,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1988" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53670,7 +53667,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1989" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53696,7 +53693,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1990" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53722,7 +53719,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1991" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53748,7 +53745,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1992" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53774,7 +53771,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1993" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53800,7 +53797,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1994" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53826,7 +53823,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1995" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53852,7 +53849,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1996" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53878,7 +53875,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1997" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53904,7 +53901,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1998" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53930,7 +53927,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1999" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53956,7 +53953,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2000" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53982,7 +53979,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2001" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54008,7 +54005,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2002" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54034,7 +54031,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G2003" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54060,7 +54057,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G2004" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54086,7 +54083,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2005" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54112,7 +54109,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2006" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54138,7 +54135,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54164,7 +54161,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2008" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54190,7 +54187,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2009" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54216,7 +54213,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2010" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54242,7 +54239,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2011" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54268,7 +54265,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2012" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54294,7 +54291,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2013" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54320,7 +54317,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2014" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54346,7 +54343,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2015" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54372,7 +54369,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2016" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54398,7 +54395,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54424,7 +54421,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2018" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54450,7 +54447,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2019" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54476,7 +54473,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2020" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54502,7 +54499,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2021" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54528,7 +54525,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2022" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54554,7 +54551,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2023" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54580,7 +54577,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2024" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54606,7 +54603,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2025" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54632,7 +54629,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54658,7 +54655,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54684,7 +54681,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2028" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54710,7 +54707,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G2029" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54736,7 +54733,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2030" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54762,7 +54759,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2031" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54788,7 +54785,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2032" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54814,7 +54811,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2033" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54840,7 +54837,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2034" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54866,7 +54863,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2035" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54892,7 +54889,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2036" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54918,7 +54915,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2037" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54944,7 +54941,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2038" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54970,7 +54967,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2039" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54996,7 +54993,7 @@
         <v>1.25</v>
       </c>
       <c r="G2040" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55022,7 +55019,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2041" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55048,7 +55045,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2042" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55074,7 +55071,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2043" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55100,7 +55097,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2044" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55126,7 +55123,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2045" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55152,7 +55149,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2046" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55178,7 +55175,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55204,7 +55201,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2048" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55230,7 +55227,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55256,7 +55253,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2050" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55282,7 +55279,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2051" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55308,7 +55305,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2052" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55334,7 +55331,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2053" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55360,7 +55357,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2054" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55386,7 +55383,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2055" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55412,7 +55409,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2056" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55438,7 +55435,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55464,7 +55461,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2058" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55490,7 +55487,7 @@
         <v>1.25</v>
       </c>
       <c r="G2059" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55516,7 +55513,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2060" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55542,7 +55539,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2061" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55568,7 +55565,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2062" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55594,7 +55591,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2063" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55620,7 +55617,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2064" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55646,7 +55643,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2065" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55672,7 +55669,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2066" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55698,7 +55695,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2067" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55724,7 +55721,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2068" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55750,7 +55747,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2069" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55776,7 +55773,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2070" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55802,7 +55799,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G2071" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55828,7 +55825,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2072" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55854,7 +55851,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2073" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55880,7 +55877,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G2074" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55906,7 +55903,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2075" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55932,7 +55929,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G2076" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55958,7 +55955,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2077" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55984,7 +55981,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2078" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56010,7 +56007,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2079" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56036,7 +56033,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2080" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56062,7 +56059,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56088,7 +56085,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2082" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56114,7 +56111,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2083" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56140,7 +56137,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2084" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56166,7 +56163,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2085" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56192,7 +56189,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2086" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56218,7 +56215,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56244,7 +56241,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2088" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56270,7 +56267,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2089" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56296,7 +56293,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2090" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56322,7 +56319,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2091" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56348,7 +56345,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2092" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56374,7 +56371,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2093" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56400,7 +56397,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2094" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56426,7 +56423,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2095" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56452,7 +56449,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2096" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56478,7 +56475,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2097" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56504,7 +56501,7 @@
         <v>1.30999994277954</v>
       </c>
       <c r="G2098" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56530,7 +56527,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2099" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56556,7 +56553,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2100" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56582,7 +56579,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2101" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56608,7 +56605,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2102" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56634,7 +56631,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2103" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56660,7 +56657,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G2104" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56686,7 +56683,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G2105" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56712,7 +56709,7 @@
         <v>1.25</v>
       </c>
       <c r="G2106" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56738,7 +56735,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2107" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56764,7 +56761,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2108" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56790,7 +56787,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2109" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56816,7 +56813,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2110" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56842,7 +56839,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2111" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56868,7 +56865,7 @@
         <v>1.25</v>
       </c>
       <c r="G2112" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56894,7 +56891,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2113" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56920,7 +56917,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2114" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56946,7 +56943,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2115" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56972,7 +56969,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2116" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56998,7 +56995,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2117" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57024,7 +57021,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G2118" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57050,7 +57047,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G2119" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57076,7 +57073,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2120" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57102,7 +57099,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2121" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57128,7 +57125,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G2122" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57154,7 +57151,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2123" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57180,7 +57177,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2124" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57206,7 +57203,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57232,7 +57229,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G2126" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57258,7 +57255,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2127" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57284,7 +57281,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G2128" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57310,7 +57307,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2129" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57336,7 +57333,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G2130" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57362,7 +57359,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G2131" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57388,7 +57385,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2132" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57414,7 +57411,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G2133" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57440,7 +57437,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G2134" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57466,7 +57463,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2135" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57492,7 +57489,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2136" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57518,7 +57515,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2137" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57544,7 +57541,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G2138" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57570,7 +57567,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G2139" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57596,7 +57593,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G2140" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57622,7 +57619,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G2141" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57648,7 +57645,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G2142" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57674,7 +57671,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G2143" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57700,7 +57697,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2144" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57726,7 +57723,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G2145" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57752,7 +57749,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2146" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57778,7 +57775,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G2147" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57804,7 +57801,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2148" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57830,7 +57827,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G2149" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57856,7 +57853,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2150" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57882,7 +57879,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G2151" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57908,7 +57905,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2152" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -57934,7 +57931,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2153" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -57960,7 +57957,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G2154" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -57986,7 +57983,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G2155" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58012,7 +58009,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G2156" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58038,7 +58035,7 @@
         <v>1</v>
       </c>
       <c r="G2157" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58064,7 +58061,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G2158" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58090,7 +58087,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G2159" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58116,7 +58113,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G2160" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -58142,7 +58139,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G2161" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -58168,7 +58165,7 @@
         <v>1</v>
       </c>
       <c r="G2162" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -58194,7 +58191,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2163" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -58220,7 +58217,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G2164" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -58246,7 +58243,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2165" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -58272,7 +58269,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2166" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -58298,7 +58295,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2167" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -58324,7 +58321,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2168" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -58332,7 +58329,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6352314815</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>2000</v>
@@ -58350,7 +58347,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G2169" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>

--- a/data/LMG.MI.xlsx
+++ b/data/LMG.MI.xlsx
@@ -44,34 +44,34 @@
     <t xml:space="preserve">LMG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50033128261566</t>
+    <t xml:space="preserve">1.50033140182495</t>
   </si>
   <si>
     <t xml:space="preserve">1.5514885187149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704038143158</t>
+    <t xml:space="preserve">1.50704073905945</t>
   </si>
   <si>
     <t xml:space="preserve">1.48439705371857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44246506690979</t>
+    <t xml:space="preserve">1.44246518611908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43575584888458</t>
+    <t xml:space="preserve">1.43575596809387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39214658737183</t>
+    <t xml:space="preserve">1.39214634895325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41646695137024</t>
+    <t xml:space="preserve">1.41646707057953</t>
   </si>
   <si>
     <t xml:space="preserve">1.42569220066071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47433340549469</t>
+    <t xml:space="preserve">1.47433364391327</t>
   </si>
   <si>
     <t xml:space="preserve">1.4416264295578</t>
@@ -80,52 +80,52 @@
     <t xml:space="preserve">1.46762430667877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50871789455414</t>
+    <t xml:space="preserve">1.50871801376343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45923793315887</t>
+    <t xml:space="preserve">1.45923781394958</t>
   </si>
   <si>
     <t xml:space="preserve">1.40640342235565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37453496456146</t>
+    <t xml:space="preserve">1.37453508377075</t>
   </si>
   <si>
     <t xml:space="preserve">1.36698722839355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40053284168243</t>
+    <t xml:space="preserve">1.40053296089172</t>
   </si>
   <si>
     <t xml:space="preserve">1.40891933441162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3787282705307</t>
+    <t xml:space="preserve">1.37872815132141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44581961631775</t>
+    <t xml:space="preserve">1.44581949710846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52632915973663</t>
+    <t xml:space="preserve">1.52632927894592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49278366565704</t>
+    <t xml:space="preserve">1.49278354644775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57245469093323</t>
+    <t xml:space="preserve">1.57245457172394</t>
   </si>
   <si>
     <t xml:space="preserve">1.56406831741333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5363929271698</t>
+    <t xml:space="preserve">1.53639304637909</t>
   </si>
   <si>
     <t xml:space="preserve">1.5598748922348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62025713920593</t>
+    <t xml:space="preserve">1.62025725841522</t>
   </si>
   <si>
     <t xml:space="preserve">1.68567132949829</t>
@@ -137,34 +137,34 @@
     <t xml:space="preserve">1.74773097038269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71753990650177</t>
+    <t xml:space="preserve">1.71753966808319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61857998371124</t>
+    <t xml:space="preserve">1.61857986450195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59342074394226</t>
+    <t xml:space="preserve">1.59342062473297</t>
   </si>
   <si>
     <t xml:space="preserve">1.57664787769318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51962029933929</t>
+    <t xml:space="preserve">1.51962018013</t>
   </si>
   <si>
     <t xml:space="preserve">1.50116991996765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47349488735199</t>
+    <t xml:space="preserve">1.4734947681427</t>
   </si>
   <si>
     <t xml:space="preserve">1.51932418346405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49662160873413</t>
+    <t xml:space="preserve">1.49662172794342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46955323219299</t>
+    <t xml:space="preserve">1.4695531129837</t>
   </si>
   <si>
     <t xml:space="preserve">1.48439717292786</t>
@@ -173,22 +173,22 @@
     <t xml:space="preserve">1.49312901496887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49050939083099</t>
+    <t xml:space="preserve">1.49050951004028</t>
   </si>
   <si>
     <t xml:space="preserve">1.47479212284088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46606051921844</t>
+    <t xml:space="preserve">1.46606063842773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42240166664124</t>
+    <t xml:space="preserve">1.42240178585052</t>
   </si>
   <si>
     <t xml:space="preserve">1.41454315185547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43200671672821</t>
+    <t xml:space="preserve">1.4320068359375</t>
   </si>
   <si>
     <t xml:space="preserve">1.39707970619202</t>
@@ -200,16 +200,16 @@
     <t xml:space="preserve">1.38310897350311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37961614131927</t>
+    <t xml:space="preserve">1.37961626052856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31936728954315</t>
+    <t xml:space="preserve">1.31936717033386</t>
   </si>
   <si>
     <t xml:space="preserve">1.3534209728241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36215257644653</t>
+    <t xml:space="preserve">1.36215269565582</t>
   </si>
   <si>
     <t xml:space="preserve">1.42327499389648</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">1.388347864151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32722568511963</t>
+    <t xml:space="preserve">1.32722580432892</t>
   </si>
   <si>
     <t xml:space="preserve">1.3071426153183</t>
@@ -233,94 +233,94 @@
     <t xml:space="preserve">1.27832782268524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25737178325653</t>
+    <t xml:space="preserve">1.25737190246582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26173770427704</t>
+    <t xml:space="preserve">1.26173758506775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28182077407837</t>
+    <t xml:space="preserve">1.28182065486908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29229891300201</t>
+    <t xml:space="preserve">1.29229879379272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28356695175171</t>
+    <t xml:space="preserve">1.28356719017029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23990833759308</t>
+    <t xml:space="preserve">1.23990821838379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19450318813324</t>
+    <t xml:space="preserve">1.19450306892395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27483522891998</t>
+    <t xml:space="preserve">1.27483534812927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21895205974579</t>
+    <t xml:space="preserve">1.21895217895508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2023618221283</t>
+    <t xml:space="preserve">1.20236170291901</t>
   </si>
   <si>
     <t xml:space="preserve">1.19188356399536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22244465351105</t>
+    <t xml:space="preserve">1.22244477272034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17878592014313</t>
+    <t xml:space="preserve">1.17878603935242</t>
   </si>
   <si>
     <t xml:space="preserve">1.16132247447968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09408807754517</t>
+    <t xml:space="preserve">1.09408795833588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07837080955505</t>
+    <t xml:space="preserve">1.07837104797363</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06876599788666</t>
+    <t xml:space="preserve">1.06876587867737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08448302745819</t>
+    <t xml:space="preserve">1.08448314666748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1002002954483</t>
+    <t xml:space="preserve">1.10020017623901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13076150417328</t>
+    <t xml:space="preserve">1.13076138496399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11067831516266</t>
+    <t xml:space="preserve">1.11067819595337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11766362190247</t>
+    <t xml:space="preserve">1.11766374111176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08273673057556</t>
+    <t xml:space="preserve">1.08273696899414</t>
   </si>
   <si>
     <t xml:space="preserve">1.05217576026917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02685368061066</t>
+    <t xml:space="preserve">1.02685356140137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04344391822815</t>
+    <t xml:space="preserve">1.04344403743744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05654144287109</t>
+    <t xml:space="preserve">1.05654156208038</t>
   </si>
   <si>
     <t xml:space="preserve">1.04780983924866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999785184860229</t>
+    <t xml:space="preserve">0.999785125255585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01200950145721</t>
+    <t xml:space="preserve">1.01200973987579</t>
   </si>
   <si>
     <t xml:space="preserve">0.985814332962036</t>
@@ -329,34 +329,34 @@
     <t xml:space="preserve">0.927311718463898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903735876083374</t>
+    <t xml:space="preserve">0.903735935688019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993672966957092</t>
+    <t xml:space="preserve">0.993672907352448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951760590076447</t>
+    <t xml:space="preserve">0.951760470867157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938663005828857</t>
+    <t xml:space="preserve">0.938662946224213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935170292854309</t>
+    <t xml:space="preserve">0.935170233249664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909848213195801</t>
+    <t xml:space="preserve">0.909848153591156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948267757892609</t>
+    <t xml:space="preserve">0.948267817497253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991926610469818</t>
+    <t xml:space="preserve">0.991926550865173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956999599933624</t>
+    <t xml:space="preserve">0.956999540328979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960492193698883</t>
+    <t xml:space="preserve">0.960492253303528</t>
   </si>
   <si>
     <t xml:space="preserve">1.00939011573792</t>
@@ -368,40 +368,40 @@
     <t xml:space="preserve">1.10107338428497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03471207618713</t>
+    <t xml:space="preserve">1.03471219539642</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03209257125854</t>
+    <t xml:space="preserve">1.03209269046783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04519021511078</t>
+    <t xml:space="preserve">1.04519033432007</t>
   </si>
   <si>
     <t xml:space="preserve">1.03907811641693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03383886814117</t>
+    <t xml:space="preserve">1.03383898735046</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977955758571625</t>
+    <t xml:space="preserve">0.97795581817627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02510738372803</t>
+    <t xml:space="preserve">1.02510726451874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982321619987488</t>
+    <t xml:space="preserve">0.982321739196777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03121948242188</t>
+    <t xml:space="preserve">1.03121936321259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0146290063858</t>
+    <t xml:space="preserve">1.01462912559509</t>
   </si>
   <si>
     <t xml:space="preserve">1.01026320457458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01812183856964</t>
+    <t xml:space="preserve">1.01812195777893</t>
   </si>
   <si>
     <t xml:space="preserve">1.02598035335541</t>
@@ -410,19 +410,19 @@
     <t xml:space="preserve">1.03034627437592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01113629341125</t>
+    <t xml:space="preserve">1.01113641262054</t>
   </si>
   <si>
     <t xml:space="preserve">1.03733158111572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995419323444366</t>
+    <t xml:space="preserve">0.995419204235077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10456621646881</t>
+    <t xml:space="preserve">1.10456609725952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10543930530548</t>
+    <t xml:space="preserve">1.10543942451477</t>
   </si>
   <si>
     <t xml:space="preserve">1.06963920593262</t>
@@ -434,13 +434,13 @@
     <t xml:space="preserve">1.15259087085724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1857715845108</t>
+    <t xml:space="preserve">1.18577146530151</t>
   </si>
   <si>
     <t xml:space="preserve">1.19799590110779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24776685237885</t>
+    <t xml:space="preserve">1.24776697158813</t>
   </si>
   <si>
     <t xml:space="preserve">1.24863994121552</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">1.25824499130249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26610362529755</t>
+    <t xml:space="preserve">1.26610350608826</t>
   </si>
   <si>
     <t xml:space="preserve">1.27046942710876</t>
@@ -467,37 +467,37 @@
     <t xml:space="preserve">1.24427402019501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24689364433289</t>
+    <t xml:space="preserve">1.2468935251236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20498132705688</t>
+    <t xml:space="preserve">1.2049812078476</t>
   </si>
   <si>
     <t xml:space="preserve">1.19624936580658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24340093135834</t>
+    <t xml:space="preserve">1.24340105056763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2137131690979</t>
+    <t xml:space="preserve">1.21371293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29142570495605</t>
+    <t xml:space="preserve">1.29142558574677</t>
   </si>
   <si>
     <t xml:space="preserve">1.30976223945618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28967916965485</t>
+    <t xml:space="preserve">1.28967928886414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21196663379669</t>
+    <t xml:space="preserve">1.21196675300598</t>
   </si>
   <si>
     <t xml:space="preserve">1.18315196037292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18751788139343</t>
+    <t xml:space="preserve">1.18751776218414</t>
   </si>
   <si>
     <t xml:space="preserve">1.17703974246979</t>
@@ -506,13 +506,13 @@
     <t xml:space="preserve">1.1700541973114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768378257751</t>
+    <t xml:space="preserve">1.22768366336823</t>
   </si>
   <si>
     <t xml:space="preserve">1.4669337272644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45645546913147</t>
+    <t xml:space="preserve">1.45645558834076</t>
   </si>
   <si>
     <t xml:space="preserve">1.45994830131531</t>
@@ -521,16 +521,16 @@
     <t xml:space="preserve">1.45820188522339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52368998527527</t>
+    <t xml:space="preserve">1.52369010448456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56036341190338</t>
+    <t xml:space="preserve">1.56036329269409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52019739151001</t>
+    <t xml:space="preserve">1.52019727230072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55337810516357</t>
+    <t xml:space="preserve">1.553377866745</t>
   </si>
   <si>
     <t xml:space="preserve">1.55425119400024</t>
@@ -545,55 +545,55 @@
     <t xml:space="preserve">1.64156866073608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65466630458832</t>
+    <t xml:space="preserve">1.65466618537903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70269083976746</t>
+    <t xml:space="preserve">1.70269107818604</t>
   </si>
   <si>
     <t xml:space="preserve">1.72888612747192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73674464225769</t>
+    <t xml:space="preserve">1.73674476146698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81096434593201</t>
+    <t xml:space="preserve">1.81096458435059</t>
   </si>
   <si>
     <t xml:space="preserve">1.83366692066193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85113060474396</t>
+    <t xml:space="preserve">1.85113048553467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85986232757568</t>
+    <t xml:space="preserve">1.85986256599426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72277402877808</t>
+    <t xml:space="preserve">1.7227737903595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67038345336914</t>
+    <t xml:space="preserve">1.67038333415985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74634969234467</t>
+    <t xml:space="preserve">1.74634957313538</t>
   </si>
   <si>
     <t xml:space="preserve">1.69046652317047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76032054424286</t>
+    <t xml:space="preserve">1.76032042503357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68697369098663</t>
+    <t xml:space="preserve">1.68697381019592</t>
   </si>
   <si>
     <t xml:space="preserve">1.67649567127228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7550812959671</t>
+    <t xml:space="preserve">1.75508141517639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75682783126831</t>
+    <t xml:space="preserve">1.75682771205902</t>
   </si>
   <si>
     <t xml:space="preserve">1.7900083065033</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">1.81620359420776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79874014854431</t>
+    <t xml:space="preserve">1.79874002933502</t>
   </si>
   <si>
     <t xml:space="preserve">1.72801291942596</t>
@@ -617,7 +617,7 @@
     <t xml:space="preserve">1.81794989109039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82510709762573</t>
+    <t xml:space="preserve">1.82510721683502</t>
   </si>
   <si>
     <t xml:space="preserve">1.92351996898651</t>
@@ -629,13 +629,13 @@
     <t xml:space="preserve">1.86089360713959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86984038352966</t>
+    <t xml:space="preserve">1.86984002590179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03982591629028</t>
+    <t xml:space="preserve">2.0398256778717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47642016410828</t>
+    <t xml:space="preserve">2.4764199256897</t>
   </si>
   <si>
     <t xml:space="preserve">2.57662224769592</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">2.9470112323761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95237946510315</t>
+    <t xml:space="preserve">2.95237922668457</t>
   </si>
   <si>
     <t xml:space="preserve">2.85396671295166</t>
@@ -665,13 +665,13 @@
     <t xml:space="preserve">2.46747303009033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59809398651123</t>
+    <t xml:space="preserve">2.59809374809265</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70187449455261</t>
+    <t xml:space="preserve">2.70187425613403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90764617919922</t>
+    <t xml:space="preserve">2.9076464176178</t>
   </si>
   <si>
     <t xml:space="preserve">2.79134035110474</t>
@@ -683,28 +683,28 @@
     <t xml:space="preserve">2.56946468353271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57841157913208</t>
+    <t xml:space="preserve">2.5784113407135</t>
   </si>
   <si>
     <t xml:space="preserve">2.54978203773499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52473187446594</t>
+    <t xml:space="preserve">2.52473163604736</t>
   </si>
   <si>
     <t xml:space="preserve">2.55872869491577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63924813270569</t>
+    <t xml:space="preserve">2.63924837112427</t>
   </si>
   <si>
     <t xml:space="preserve">2.68398118019104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59451532363892</t>
+    <t xml:space="preserve">2.59451508522034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54083561897278</t>
+    <t xml:space="preserve">2.5408353805542</t>
   </si>
   <si>
     <t xml:space="preserve">2.56230759620667</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">2.64640545845032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5658860206604</t>
+    <t xml:space="preserve">2.56588625907898</t>
   </si>
   <si>
     <t xml:space="preserve">2.58199000358582</t>
@@ -725,40 +725,40 @@
     <t xml:space="preserve">2.6732451915741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52294254302979</t>
+    <t xml:space="preserve">2.52294230461121</t>
   </si>
   <si>
     <t xml:space="preserve">2.48536682128906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53188896179199</t>
+    <t xml:space="preserve">2.53188872337341</t>
   </si>
   <si>
     <t xml:space="preserve">2.48715591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43347644805908</t>
+    <t xml:space="preserve">2.4334762096405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41916179656982</t>
+    <t xml:space="preserve">2.41916155815125</t>
   </si>
   <si>
     <t xml:space="preserve">2.37979674339294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42989778518677</t>
+    <t xml:space="preserve">2.42989802360535</t>
   </si>
   <si>
     <t xml:space="preserve">2.41379380226135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36548209190369</t>
+    <t xml:space="preserve">2.36548233032227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21875762939453</t>
+    <t xml:space="preserve">2.21875810623169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21338963508606</t>
+    <t xml:space="preserve">2.21339011192322</t>
   </si>
   <si>
     <t xml:space="preserve">2.15792107582092</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">2.18654990196228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20981121063232</t>
+    <t xml:space="preserve">2.2098114490509</t>
   </si>
   <si>
     <t xml:space="preserve">2.22054719924927</t>
@@ -785,19 +785,19 @@
     <t xml:space="preserve">2.17402482032776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19012880325317</t>
+    <t xml:space="preserve">2.19012856483459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.095294713974</t>
+    <t xml:space="preserve">2.09529447555542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14002776145935</t>
+    <t xml:space="preserve">2.14002799987793</t>
   </si>
   <si>
     <t xml:space="preserve">2.11139845848083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30285573005676</t>
+    <t xml:space="preserve">2.30285596847534</t>
   </si>
   <si>
     <t xml:space="preserve">2.27064824104309</t>
@@ -812,19 +812,19 @@
     <t xml:space="preserve">2.25275492668152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23665118217468</t>
+    <t xml:space="preserve">2.23665070533752</t>
   </si>
   <si>
     <t xml:space="preserve">2.2151792049408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24738717079163</t>
+    <t xml:space="preserve">2.24738693237305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24559760093689</t>
+    <t xml:space="preserve">2.24559736251831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26349067687988</t>
+    <t xml:space="preserve">2.26349091529846</t>
   </si>
   <si>
     <t xml:space="preserve">2.37621784210205</t>
@@ -833,13 +833,13 @@
     <t xml:space="preserve">2.31717038154602</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35295701026917</t>
+    <t xml:space="preserve">2.35295724868774</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3815860748291</t>
+    <t xml:space="preserve">2.38158583641052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33506369590759</t>
+    <t xml:space="preserve">2.33506345748901</t>
   </si>
   <si>
     <t xml:space="preserve">2.31895995140076</t>
@@ -848,25 +848,25 @@
     <t xml:space="preserve">2.26528024673462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28496241569519</t>
+    <t xml:space="preserve">2.28496265411377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32611680030823</t>
+    <t xml:space="preserve">2.32611703872681</t>
   </si>
   <si>
     <t xml:space="preserve">2.3440101146698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44242286682129</t>
+    <t xml:space="preserve">2.44242310523987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35116744041443</t>
+    <t xml:space="preserve">2.35116767883301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36906051635742</t>
+    <t xml:space="preserve">2.369060754776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37085008621216</t>
+    <t xml:space="preserve">2.37085056304932</t>
   </si>
   <si>
     <t xml:space="preserve">2.29748797416687</t>
@@ -878,34 +878,34 @@
     <t xml:space="preserve">2.38695406913757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29927706718445</t>
+    <t xml:space="preserve">2.29927730560303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34222078323364</t>
+    <t xml:space="preserve">2.34222102165222</t>
   </si>
   <si>
     <t xml:space="preserve">2.54262495040894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6553521156311</t>
+    <t xml:space="preserve">2.65535235404968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61419773101807</t>
+    <t xml:space="preserve">2.61419749259949</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62314438819885</t>
+    <t xml:space="preserve">2.62314414978027</t>
   </si>
   <si>
     <t xml:space="preserve">2.61240839958191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66608786582947</t>
+    <t xml:space="preserve">2.66608810424805</t>
   </si>
   <si>
     <t xml:space="preserve">2.60167241096497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58020043373108</t>
+    <t xml:space="preserve">2.58020067214966</t>
   </si>
   <si>
     <t xml:space="preserve">2.42095112800598</t>
@@ -914,13 +914,13 @@
     <t xml:space="preserve">2.42274045944214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4710521697998</t>
+    <t xml:space="preserve">2.47105193138123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43526554107666</t>
+    <t xml:space="preserve">2.43526577949524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51936388015747</t>
+    <t xml:space="preserve">2.51936364173889</t>
   </si>
   <si>
     <t xml:space="preserve">2.45136952400208</t>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">2.46031618118286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50862765312195</t>
+    <t xml:space="preserve">2.50862789154053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49431324005127</t>
+    <t xml:space="preserve">2.49431347846985</t>
   </si>
   <si>
     <t xml:space="preserve">2.43705487251282</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">2.40663647651672</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49252414703369</t>
+    <t xml:space="preserve">2.49252390861511</t>
   </si>
   <si>
     <t xml:space="preserve">2.41558313369751</t>
@@ -953,19 +953,19 @@
     <t xml:space="preserve">2.2277045249939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20623278617859</t>
+    <t xml:space="preserve">2.20623254776001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28138422966003</t>
+    <t xml:space="preserve">2.28138399124146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19191789627075</t>
+    <t xml:space="preserve">2.19191813468933</t>
   </si>
   <si>
     <t xml:space="preserve">2.18297147750854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12929201126099</t>
+    <t xml:space="preserve">2.12929177284241</t>
   </si>
   <si>
     <t xml:space="preserve">2.10245180130005</t>
@@ -977,13 +977,13 @@
     <t xml:space="preserve">1.98614609241486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06666541099548</t>
+    <t xml:space="preserve">2.06666564941406</t>
   </si>
   <si>
     <t xml:space="preserve">2.05771899223328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00403904914856</t>
+    <t xml:space="preserve">2.00403952598572</t>
   </si>
   <si>
     <t xml:space="preserve">2.07561206817627</t>
@@ -995,16 +995,16 @@
     <t xml:space="preserve">2.0129861831665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96825277805328</t>
+    <t xml:space="preserve">1.96825265884399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97719955444336</t>
+    <t xml:space="preserve">1.97719943523407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95035970211029</t>
+    <t xml:space="preserve">1.950359582901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93246638774872</t>
+    <t xml:space="preserve">1.9324666261673</t>
   </si>
   <si>
     <t xml:space="preserve">2.03087902069092</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">1.96664822101593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11300325393677</t>
+    <t xml:space="preserve">2.11300349235535</t>
   </si>
   <si>
     <t xml:space="preserve">2.08556175231934</t>
@@ -1049,22 +1049,22 @@
     <t xml:space="preserve">1.98494267463684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95750093460083</t>
+    <t xml:space="preserve">1.95750117301941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9026175737381</t>
+    <t xml:space="preserve">1.90261769294739</t>
   </si>
   <si>
     <t xml:space="preserve">2.00323700904846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93005931377411</t>
+    <t xml:space="preserve">1.93005919456482</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97579514980316</t>
+    <t xml:space="preserve">1.97579538822174</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02153134346008</t>
+    <t xml:space="preserve">2.0215311050415</t>
   </si>
   <si>
     <t xml:space="preserve">2.07641434669495</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">2.09470891952515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86602878570557</t>
+    <t xml:space="preserve">1.86602890491486</t>
   </si>
   <si>
     <t xml:space="preserve">1.84773445129395</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">1.83858728408813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6876585483551</t>
+    <t xml:space="preserve">1.68765842914581</t>
   </si>
   <si>
     <t xml:space="preserve">1.664790391922</t>
@@ -1106,13 +1106,13 @@
     <t xml:space="preserve">1.73796808719635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76540970802307</t>
+    <t xml:space="preserve">1.76540958881378</t>
   </si>
   <si>
     <t xml:space="preserve">1.73339450359344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64649593830109</t>
+    <t xml:space="preserve">1.64649605751038</t>
   </si>
   <si>
     <t xml:space="preserve">1.6739376783371</t>
@@ -1121,16 +1121,16 @@
     <t xml:space="preserve">1.63277530670166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66936421394348</t>
+    <t xml:space="preserve">1.66936409473419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66021692752838</t>
+    <t xml:space="preserve">1.66021680831909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74254167079926</t>
+    <t xml:space="preserve">1.74254155158997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70137917995453</t>
+    <t xml:space="preserve">1.70137929916382</t>
   </si>
   <si>
     <t xml:space="preserve">1.64192247390747</t>
@@ -1142,16 +1142,16 @@
     <t xml:space="preserve">1.71510004997253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68308484554291</t>
+    <t xml:space="preserve">1.6830849647522</t>
   </si>
   <si>
     <t xml:space="preserve">1.65106964111328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71052646636963</t>
+    <t xml:space="preserve">1.71052658557892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65564322471619</t>
+    <t xml:space="preserve">1.65564334392548</t>
   </si>
   <si>
     <t xml:space="preserve">1.62362802028656</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">1.35378575325012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29890251159668</t>
+    <t xml:space="preserve">1.29890239238739</t>
   </si>
   <si>
     <t xml:space="preserve">1.26231372356415</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">1.34921205043793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44068419933319</t>
+    <t xml:space="preserve">1.4406840801239</t>
   </si>
   <si>
     <t xml:space="preserve">1.47727286815643</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">1.46355211734772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49556720256805</t>
+    <t xml:space="preserve">1.49556732177734</t>
   </si>
   <si>
     <t xml:space="preserve">1.449831366539</t>
@@ -1196,7 +1196,7 @@
     <t xml:space="preserve">1.44525766372681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4178159236908</t>
+    <t xml:space="preserve">1.41781604290009</t>
   </si>
   <si>
     <t xml:space="preserve">1.50014090538025</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">1.45440483093262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47269916534424</t>
+    <t xml:space="preserve">1.47269928455353</t>
   </si>
   <si>
     <t xml:space="preserve">1.4269632101059</t>
@@ -1223,16 +1223,16 @@
     <t xml:space="preserve">1.60076010227203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57789206504822</t>
+    <t xml:space="preserve">1.57789218425751</t>
   </si>
   <si>
     <t xml:space="preserve">1.59618639945984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61448097229004</t>
+    <t xml:space="preserve">1.61448085308075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60990726947784</t>
+    <t xml:space="preserve">1.60990715026855</t>
   </si>
   <si>
     <t xml:space="preserve">1.61905443668365</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">1.58703923225403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5504504442215</t>
+    <t xml:space="preserve">1.55045056343079</t>
   </si>
   <si>
     <t xml:space="preserve">1.58246564865112</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">1.5733186006546</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59161293506622</t>
+    <t xml:space="preserve">1.59161281585693</t>
   </si>
   <si>
     <t xml:space="preserve">1.5641713142395</t>
@@ -58353,6 +58353,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.2916666667</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>529</v>
+      </c>
+      <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.3286805556</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>400</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>530</v>
+      </c>
+      <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/LMG.MI.xlsx
+++ b/data/LMG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="537">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53471577167511</t>
+    <t xml:space="preserve">1.5347158908844</t>
   </si>
   <si>
     <t xml:space="preserve">LMG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50033140182495</t>
+    <t xml:space="preserve">1.50033128261566</t>
   </si>
   <si>
     <t xml:space="preserve">1.5514885187149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704073905945</t>
+    <t xml:space="preserve">1.50704061985016</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439705371857</t>
+    <t xml:space="preserve">1.48439693450928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44246518611908</t>
+    <t xml:space="preserve">1.44246506690979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43575596809387</t>
+    <t xml:space="preserve">1.43575608730316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39214634895325</t>
+    <t xml:space="preserve">1.39214646816254</t>
   </si>
   <si>
     <t xml:space="preserve">1.41646707057953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42569220066071</t>
+    <t xml:space="preserve">1.42569231987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47433364391327</t>
+    <t xml:space="preserve">1.47433340549469</t>
   </si>
   <si>
     <t xml:space="preserve">1.4416264295578</t>
@@ -80,28 +80,28 @@
     <t xml:space="preserve">1.46762430667877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50871801376343</t>
+    <t xml:space="preserve">1.50871777534485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45923781394958</t>
+    <t xml:space="preserve">1.45923793315887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40640342235565</t>
+    <t xml:space="preserve">1.40640330314636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37453508377075</t>
+    <t xml:space="preserve">1.37453496456146</t>
   </si>
   <si>
     <t xml:space="preserve">1.36698722839355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40053296089172</t>
+    <t xml:space="preserve">1.40053284168243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40891933441162</t>
+    <t xml:space="preserve">1.40891921520233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37872815132141</t>
+    <t xml:space="preserve">1.3787282705307</t>
   </si>
   <si>
     <t xml:space="preserve">1.44581949710846</t>
@@ -113,10 +113,10 @@
     <t xml:space="preserve">1.49278354644775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57245457172394</t>
+    <t xml:space="preserve">1.57245469093323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56406831741333</t>
+    <t xml:space="preserve">1.56406819820404</t>
   </si>
   <si>
     <t xml:space="preserve">1.53639304637909</t>
@@ -125,25 +125,25 @@
     <t xml:space="preserve">1.5598748922348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62025725841522</t>
+    <t xml:space="preserve">1.62025713920593</t>
   </si>
   <si>
     <t xml:space="preserve">1.68567132949829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74437630176544</t>
+    <t xml:space="preserve">1.74437618255615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74773097038269</t>
+    <t xml:space="preserve">1.7477308511734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71753966808319</t>
+    <t xml:space="preserve">1.71753978729248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61857986450195</t>
+    <t xml:space="preserve">1.61857998371124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59342062473297</t>
+    <t xml:space="preserve">1.59342074394226</t>
   </si>
   <si>
     <t xml:space="preserve">1.57664787769318</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">1.51962018013</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50116991996765</t>
+    <t xml:space="preserve">1.50117003917694</t>
   </si>
   <si>
     <t xml:space="preserve">1.4734947681427</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">1.51932418346405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49662172794342</t>
+    <t xml:space="preserve">1.49662160873413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4695531129837</t>
+    <t xml:space="preserve">1.46955323219299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48439717292786</t>
+    <t xml:space="preserve">1.48439729213715</t>
   </si>
   <si>
     <t xml:space="preserve">1.49312901496887</t>
@@ -176,40 +176,40 @@
     <t xml:space="preserve">1.49050951004028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47479212284088</t>
+    <t xml:space="preserve">1.47479224205017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46606063842773</t>
+    <t xml:space="preserve">1.46606051921844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42240178585052</t>
+    <t xml:space="preserve">1.42240166664124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41454315185547</t>
+    <t xml:space="preserve">1.41454327106476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4320068359375</t>
+    <t xml:space="preserve">1.43200659751892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39707970619202</t>
+    <t xml:space="preserve">1.39707982540131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35953319072723</t>
+    <t xml:space="preserve">1.35953330993652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38310897350311</t>
+    <t xml:space="preserve">1.38310885429382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37961626052856</t>
+    <t xml:space="preserve">1.37961637973785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31936717033386</t>
+    <t xml:space="preserve">1.31936728954315</t>
   </si>
   <si>
     <t xml:space="preserve">1.3534209728241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36215269565582</t>
+    <t xml:space="preserve">1.36215281486511</t>
   </si>
   <si>
     <t xml:space="preserve">1.42327499389648</t>
@@ -218,52 +218,52 @@
     <t xml:space="preserve">1.47391903400421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44073832035065</t>
+    <t xml:space="preserve">1.44073843955994</t>
   </si>
   <si>
-    <t xml:space="preserve">1.388347864151</t>
+    <t xml:space="preserve">1.38834810256958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32722580432892</t>
+    <t xml:space="preserve">1.32722568511963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3071426153183</t>
+    <t xml:space="preserve">1.30714273452759</t>
   </si>
   <si>
     <t xml:space="preserve">1.27832782268524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25737190246582</t>
+    <t xml:space="preserve">1.25737178325653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26173758506775</t>
+    <t xml:space="preserve">1.26173770427704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28182065486908</t>
+    <t xml:space="preserve">1.28182089328766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29229879379272</t>
+    <t xml:space="preserve">1.29229867458344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28356719017029</t>
+    <t xml:space="preserve">1.28356695175171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23990821838379</t>
+    <t xml:space="preserve">1.23990833759308</t>
   </si>
   <si>
     <t xml:space="preserve">1.19450306892395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27483534812927</t>
+    <t xml:space="preserve">1.27483510971069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21895217895508</t>
+    <t xml:space="preserve">1.21895205974579</t>
   </si>
   <si>
     <t xml:space="preserve">1.20236170291901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19188356399536</t>
+    <t xml:space="preserve">1.19188368320465</t>
   </si>
   <si>
     <t xml:space="preserve">1.22244477272034</t>
@@ -272,25 +272,25 @@
     <t xml:space="preserve">1.17878603935242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16132247447968</t>
+    <t xml:space="preserve">1.16132259368896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09408795833588</t>
+    <t xml:space="preserve">1.09408819675446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07837104797363</t>
+    <t xml:space="preserve">1.07837080955505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06876587867737</t>
+    <t xml:space="preserve">1.06876599788666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08448314666748</t>
+    <t xml:space="preserve">1.08448326587677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10020017623901</t>
+    <t xml:space="preserve">1.1002002954483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13076138496399</t>
+    <t xml:space="preserve">1.1307612657547</t>
   </si>
   <si>
     <t xml:space="preserve">1.11067819595337</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">1.11766374111176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08273696899414</t>
+    <t xml:space="preserve">1.08273684978485</t>
   </si>
   <si>
     <t xml:space="preserve">1.05217576026917</t>
@@ -317,16 +317,16 @@
     <t xml:space="preserve">1.04780983924866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999785125255585</t>
+    <t xml:space="preserve">0.999785184860229</t>
   </si>
   <si>
     <t xml:space="preserve">1.01200973987579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985814332962036</t>
+    <t xml:space="preserve">0.985814452171326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.927311718463898</t>
+    <t xml:space="preserve">0.927311658859253</t>
   </si>
   <si>
     <t xml:space="preserve">0.903735935688019</t>
@@ -335,28 +335,28 @@
     <t xml:space="preserve">0.993672907352448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951760470867157</t>
+    <t xml:space="preserve">0.951760649681091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938662946224213</t>
+    <t xml:space="preserve">0.938663005828857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935170233249664</t>
+    <t xml:space="preserve">0.935170352458954</t>
   </si>
   <si>
     <t xml:space="preserve">0.909848153591156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948267817497253</t>
+    <t xml:space="preserve">0.948267877101898</t>
   </si>
   <si>
     <t xml:space="preserve">0.991926550865173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956999540328979</t>
+    <t xml:space="preserve">0.956999599933624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960492253303528</t>
+    <t xml:space="preserve">0.960492432117462</t>
   </si>
   <si>
     <t xml:space="preserve">1.00939011573792</t>
@@ -365,28 +365,28 @@
     <t xml:space="preserve">1.00415098667145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10107338428497</t>
+    <t xml:space="preserve">1.10107350349426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03471219539642</t>
+    <t xml:space="preserve">1.03471207618713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03209269046783</t>
+    <t xml:space="preserve">1.03209257125854</t>
   </si>
   <si>
     <t xml:space="preserve">1.04519033432007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03907811641693</t>
+    <t xml:space="preserve">1.03907799720764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03383898735046</t>
+    <t xml:space="preserve">1.03383910655975</t>
   </si>
   <si>
     <t xml:space="preserve">0.97795581817627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02510726451874</t>
+    <t xml:space="preserve">1.02510738372803</t>
   </si>
   <si>
     <t xml:space="preserve">0.982321739196777</t>
@@ -395,49 +395,49 @@
     <t xml:space="preserve">1.03121936321259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01462912559509</t>
+    <t xml:space="preserve">1.0146290063858</t>
   </si>
   <si>
     <t xml:space="preserve">1.01026320457458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01812195777893</t>
+    <t xml:space="preserve">1.01812183856964</t>
   </si>
   <si>
     <t xml:space="preserve">1.02598035335541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03034627437592</t>
+    <t xml:space="preserve">1.03034615516663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01113641262054</t>
+    <t xml:space="preserve">1.01113653182983</t>
   </si>
   <si>
     <t xml:space="preserve">1.03733158111572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995419204235077</t>
+    <t xml:space="preserve">0.995419323444366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10456609725952</t>
+    <t xml:space="preserve">1.10456597805023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10543942451477</t>
+    <t xml:space="preserve">1.10543930530548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06963920593262</t>
+    <t xml:space="preserve">1.06963908672333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09845387935638</t>
+    <t xml:space="preserve">1.09845399856567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15259087085724</t>
+    <t xml:space="preserve">1.15259075164795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18577146530151</t>
+    <t xml:space="preserve">1.18577134609222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19799590110779</t>
+    <t xml:space="preserve">1.1979957818985</t>
   </si>
   <si>
     <t xml:space="preserve">1.24776697158813</t>
@@ -446,10 +446,10 @@
     <t xml:space="preserve">1.24863994121552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31063544750214</t>
+    <t xml:space="preserve">1.31063532829285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25824499130249</t>
+    <t xml:space="preserve">1.2582448720932</t>
   </si>
   <si>
     <t xml:space="preserve">1.26610350608826</t>
@@ -458,40 +458,40 @@
     <t xml:space="preserve">1.27046942710876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20672750473022</t>
+    <t xml:space="preserve">1.20672762393951</t>
   </si>
   <si>
     <t xml:space="preserve">1.20323491096497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24427402019501</t>
+    <t xml:space="preserve">1.2442741394043</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2468935251236</t>
+    <t xml:space="preserve">1.24689376354218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2049812078476</t>
+    <t xml:space="preserve">1.20498132705688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19624936580658</t>
+    <t xml:space="preserve">1.19624948501587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24340105056763</t>
+    <t xml:space="preserve">1.24340093135834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21371293067932</t>
+    <t xml:space="preserve">1.21371304988861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29142558574677</t>
+    <t xml:space="preserve">1.29142546653748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30976223945618</t>
+    <t xml:space="preserve">1.30976212024689</t>
   </si>
   <si>
     <t xml:space="preserve">1.28967928886414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21196675300598</t>
+    <t xml:space="preserve">1.2119665145874</t>
   </si>
   <si>
     <t xml:space="preserve">1.18315196037292</t>
@@ -500,16 +500,16 @@
     <t xml:space="preserve">1.18751776218414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17703974246979</t>
+    <t xml:space="preserve">1.1770396232605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1700541973114</t>
+    <t xml:space="preserve">1.17005431652069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768366336823</t>
+    <t xml:space="preserve">1.22768378257751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4669337272644</t>
+    <t xml:space="preserve">1.46693360805511</t>
   </si>
   <si>
     <t xml:space="preserve">1.45645558834076</t>
@@ -524,16 +524,16 @@
     <t xml:space="preserve">1.52369010448456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56036329269409</t>
+    <t xml:space="preserve">1.56036341190338</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52019727230072</t>
+    <t xml:space="preserve">1.52019739151001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.553377866745</t>
+    <t xml:space="preserve">1.55337798595428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55425119400024</t>
+    <t xml:space="preserve">1.55425107479095</t>
   </si>
   <si>
     <t xml:space="preserve">1.5367876291275</t>
@@ -545,31 +545,31 @@
     <t xml:space="preserve">1.64156866073608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65466618537903</t>
+    <t xml:space="preserve">1.65466630458832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70269107818604</t>
+    <t xml:space="preserve">1.70269083976746</t>
   </si>
   <si>
     <t xml:space="preserve">1.72888612747192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73674476146698</t>
+    <t xml:space="preserve">1.73674464225769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81096458435059</t>
+    <t xml:space="preserve">1.8109644651413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83366692066193</t>
+    <t xml:space="preserve">1.83366703987122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85113048553467</t>
+    <t xml:space="preserve">1.85113036632538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85986256599426</t>
+    <t xml:space="preserve">1.85986220836639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7227737903595</t>
+    <t xml:space="preserve">1.72277402877808</t>
   </si>
   <si>
     <t xml:space="preserve">1.67038333415985</t>
@@ -578,13 +578,13 @@
     <t xml:space="preserve">1.74634957313538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69046652317047</t>
+    <t xml:space="preserve">1.69046640396118</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76032042503357</t>
+    <t xml:space="preserve">1.76032054424286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68697381019592</t>
+    <t xml:space="preserve">1.68697369098663</t>
   </si>
   <si>
     <t xml:space="preserve">1.67649567127228</t>
@@ -593,10 +593,10 @@
     <t xml:space="preserve">1.75508141517639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75682771205902</t>
+    <t xml:space="preserve">1.75682783126831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7900083065033</t>
+    <t xml:space="preserve">1.79000842571259</t>
   </si>
   <si>
     <t xml:space="preserve">1.8127110004425</t>
@@ -605,31 +605,31 @@
     <t xml:space="preserve">1.82842814922333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81620359420776</t>
+    <t xml:space="preserve">1.81620347499847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79874002933502</t>
+    <t xml:space="preserve">1.79874014854431</t>
   </si>
   <si>
     <t xml:space="preserve">1.72801291942596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81794989109039</t>
+    <t xml:space="preserve">1.81795001029968</t>
   </si>
   <si>
     <t xml:space="preserve">1.82510721683502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92351996898651</t>
+    <t xml:space="preserve">1.92351984977722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87878668308258</t>
+    <t xml:space="preserve">1.87878680229187</t>
   </si>
   <si>
     <t xml:space="preserve">1.86089360713959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86984002590179</t>
+    <t xml:space="preserve">1.86984026432037</t>
   </si>
   <si>
     <t xml:space="preserve">2.0398256778717</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">2.4764199256897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57662224769592</t>
+    <t xml:space="preserve">2.57662200927734</t>
   </si>
   <si>
     <t xml:space="preserve">2.9470112323761</t>
@@ -647,55 +647,55 @@
     <t xml:space="preserve">2.95237922668457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85396671295166</t>
+    <t xml:space="preserve">2.85396695137024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75913286209106</t>
+    <t xml:space="preserve">2.75913310050964</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58556842803955</t>
+    <t xml:space="preserve">2.58556890487671</t>
   </si>
   <si>
     <t xml:space="preserve">2.56767535209656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50504922866821</t>
+    <t xml:space="preserve">2.50504899024963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46747303009033</t>
+    <t xml:space="preserve">2.46747326850891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59809374809265</t>
+    <t xml:space="preserve">2.59809398651123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70187425613403</t>
+    <t xml:space="preserve">2.70187449455261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9076464176178</t>
+    <t xml:space="preserve">2.90764617919922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79134035110474</t>
+    <t xml:space="preserve">2.79134011268616</t>
   </si>
   <si>
     <t xml:space="preserve">2.60882973670959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56946468353271</t>
+    <t xml:space="preserve">2.56946492195129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5784113407135</t>
+    <t xml:space="preserve">2.57841110229492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54978203773499</t>
+    <t xml:space="preserve">2.54978227615356</t>
   </si>
   <si>
     <t xml:space="preserve">2.52473163604736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55872869491577</t>
+    <t xml:space="preserve">2.55872845649719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63924837112427</t>
+    <t xml:space="preserve">2.63924813270569</t>
   </si>
   <si>
     <t xml:space="preserve">2.68398118019104</t>
@@ -716,10 +716,10 @@
     <t xml:space="preserve">2.64640545845032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56588625907898</t>
+    <t xml:space="preserve">2.5658860206604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58199000358582</t>
+    <t xml:space="preserve">2.58198976516724</t>
   </si>
   <si>
     <t xml:space="preserve">2.6732451915741</t>
@@ -728,25 +728,25 @@
     <t xml:space="preserve">2.52294230461121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48536682128906</t>
+    <t xml:space="preserve">2.48536658287048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53188872337341</t>
+    <t xml:space="preserve">2.53188896179199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48715591430664</t>
+    <t xml:space="preserve">2.48715567588806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4334762096405</t>
+    <t xml:space="preserve">2.43347644805908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41916155815125</t>
+    <t xml:space="preserve">2.41916179656982</t>
   </si>
   <si>
     <t xml:space="preserve">2.37979674339294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42989802360535</t>
+    <t xml:space="preserve">2.42989778518677</t>
   </si>
   <si>
     <t xml:space="preserve">2.41379380226135</t>
@@ -755,22 +755,22 @@
     <t xml:space="preserve">2.36548233032227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21875810623169</t>
+    <t xml:space="preserve">2.21875786781311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21339011192322</t>
+    <t xml:space="preserve">2.21338987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15792107582092</t>
+    <t xml:space="preserve">2.15792083740234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14718508720398</t>
+    <t xml:space="preserve">2.14718532562256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18654990196228</t>
+    <t xml:space="preserve">2.18655014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2098114490509</t>
+    <t xml:space="preserve">2.20981121063232</t>
   </si>
   <si>
     <t xml:space="preserve">2.22054719924927</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">2.17581415176392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15613174438477</t>
+    <t xml:space="preserve">2.15613150596619</t>
   </si>
   <si>
     <t xml:space="preserve">2.17402482032776</t>
@@ -788,13 +788,13 @@
     <t xml:space="preserve">2.19012856483459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09529447555542</t>
+    <t xml:space="preserve">2.095294713974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14002799987793</t>
+    <t xml:space="preserve">2.14002776145935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11139845848083</t>
+    <t xml:space="preserve">2.11139869689941</t>
   </si>
   <si>
     <t xml:space="preserve">2.30285596847534</t>
@@ -806,34 +806,34 @@
     <t xml:space="preserve">2.17223525047302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19549679756165</t>
+    <t xml:space="preserve">2.19549655914307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25275492668152</t>
+    <t xml:space="preserve">2.25275468826294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23665070533752</t>
+    <t xml:space="preserve">2.2366509437561</t>
   </si>
   <si>
     <t xml:space="preserve">2.2151792049408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24738693237305</t>
+    <t xml:space="preserve">2.24738717079163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24559736251831</t>
+    <t xml:space="preserve">2.24559783935547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26349091529846</t>
+    <t xml:space="preserve">2.26349067687988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37621784210205</t>
+    <t xml:space="preserve">2.37621808052063</t>
   </si>
   <si>
     <t xml:space="preserve">2.31717038154602</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35295724868774</t>
+    <t xml:space="preserve">2.35295701026917</t>
   </si>
   <si>
     <t xml:space="preserve">2.38158583641052</t>
@@ -848,25 +848,25 @@
     <t xml:space="preserve">2.26528024673462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28496265411377</t>
+    <t xml:space="preserve">2.28496289253235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32611703872681</t>
+    <t xml:space="preserve">2.32611727714539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3440101146698</t>
+    <t xml:space="preserve">2.34401035308838</t>
   </si>
   <si>
     <t xml:space="preserve">2.44242310523987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35116767883301</t>
+    <t xml:space="preserve">2.35116744041443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.369060754776</t>
+    <t xml:space="preserve">2.36906051635742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37085056304932</t>
+    <t xml:space="preserve">2.37085008621216</t>
   </si>
   <si>
     <t xml:space="preserve">2.29748797416687</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">2.30464506149292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38695406913757</t>
+    <t xml:space="preserve">2.38695383071899</t>
   </si>
   <si>
     <t xml:space="preserve">2.29927730560303</t>
@@ -884,16 +884,16 @@
     <t xml:space="preserve">2.34222102165222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54262495040894</t>
+    <t xml:space="preserve">2.54262471199036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65535235404968</t>
+    <t xml:space="preserve">2.6553521156311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61419749259949</t>
+    <t xml:space="preserve">2.61419773101807</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62314414978027</t>
+    <t xml:space="preserve">2.62314438819885</t>
   </si>
   <si>
     <t xml:space="preserve">2.61240839958191</t>
@@ -911,22 +911,22 @@
     <t xml:space="preserve">2.42095112800598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42274045944214</t>
+    <t xml:space="preserve">2.42274022102356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47105193138123</t>
+    <t xml:space="preserve">2.47105240821838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43526577949524</t>
+    <t xml:space="preserve">2.43526554107666</t>
   </si>
   <si>
     <t xml:space="preserve">2.51936364173889</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45136952400208</t>
+    <t xml:space="preserve">2.45136976242065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46031618118286</t>
+    <t xml:space="preserve">2.46031594276428</t>
   </si>
   <si>
     <t xml:space="preserve">2.50862789154053</t>
@@ -941,19 +941,19 @@
     <t xml:space="preserve">2.40663647651672</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49252390861511</t>
+    <t xml:space="preserve">2.49252414703369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41558313369751</t>
+    <t xml:space="preserve">2.41558337211609</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29390931129456</t>
+    <t xml:space="preserve">2.29390907287598</t>
   </si>
   <si>
     <t xml:space="preserve">2.2277045249939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20623254776001</t>
+    <t xml:space="preserve">2.20623278617859</t>
   </si>
   <si>
     <t xml:space="preserve">2.28138399124146</t>
@@ -962,10 +962,10 @@
     <t xml:space="preserve">2.19191813468933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18297147750854</t>
+    <t xml:space="preserve">2.18297123908997</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12929177284241</t>
+    <t xml:space="preserve">2.12929201126099</t>
   </si>
   <si>
     <t xml:space="preserve">2.10245180130005</t>
@@ -974,37 +974,37 @@
     <t xml:space="preserve">2.13823843002319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98614609241486</t>
+    <t xml:space="preserve">1.98614597320557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06666564941406</t>
+    <t xml:space="preserve">2.06666541099548</t>
   </si>
   <si>
     <t xml:space="preserve">2.05771899223328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00403952598572</t>
+    <t xml:space="preserve">2.00403928756714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07561206817627</t>
+    <t xml:space="preserve">2.07561230659485</t>
   </si>
   <si>
     <t xml:space="preserve">1.99509274959564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0129861831665</t>
+    <t xml:space="preserve">2.01298594474792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96825265884399</t>
+    <t xml:space="preserve">1.96825313568115</t>
   </si>
   <si>
     <t xml:space="preserve">1.97719943523407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.950359582901</t>
+    <t xml:space="preserve">1.95035982131958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9324666261673</t>
+    <t xml:space="preserve">1.93246674537659</t>
   </si>
   <si>
     <t xml:space="preserve">2.03087902069092</t>
@@ -1013,25 +1013,25 @@
     <t xml:space="preserve">2.04877233505249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15873908996582</t>
+    <t xml:space="preserve">2.1587393283844</t>
   </si>
   <si>
     <t xml:space="preserve">2.13129758834839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0581202507019</t>
+    <t xml:space="preserve">2.05812001228333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99408972263336</t>
+    <t xml:space="preserve">1.99408984184265</t>
   </si>
   <si>
     <t xml:space="preserve">1.93920648097992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96664822101593</t>
+    <t xml:space="preserve">1.96664810180664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11300349235535</t>
+    <t xml:space="preserve">2.11300325393677</t>
   </si>
   <si>
     <t xml:space="preserve">2.08556175231934</t>
@@ -1040,34 +1040,34 @@
     <t xml:space="preserve">2.03067851066589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01238393783569</t>
+    <t xml:space="preserve">2.01238417625427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94835388660431</t>
+    <t xml:space="preserve">1.94835364818573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98494267463684</t>
+    <t xml:space="preserve">1.98494243621826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95750117301941</t>
+    <t xml:space="preserve">1.95750105381012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90261769294739</t>
+    <t xml:space="preserve">1.9026175737381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00323700904846</t>
+    <t xml:space="preserve">2.00323677062988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93005919456482</t>
+    <t xml:space="preserve">1.93005907535553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97579538822174</t>
+    <t xml:space="preserve">1.97579550743103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0215311050415</t>
+    <t xml:space="preserve">2.02153134346008</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07641434669495</t>
+    <t xml:space="preserve">2.07641458511353</t>
   </si>
   <si>
     <t xml:space="preserve">2.09470891952515</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">1.86602890491486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84773445129395</t>
+    <t xml:space="preserve">1.84773457050323</t>
   </si>
   <si>
     <t xml:space="preserve">1.87517607212067</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">1.68765842914581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.664790391922</t>
+    <t xml:space="preserve">1.66479051113129</t>
   </si>
   <si>
     <t xml:space="preserve">1.69223201274872</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">1.73796808719635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76540958881378</t>
+    <t xml:space="preserve">1.76540970802307</t>
   </si>
   <si>
     <t xml:space="preserve">1.73339450359344</t>
@@ -1115,16 +1115,16 @@
     <t xml:space="preserve">1.64649605751038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6739376783371</t>
+    <t xml:space="preserve">1.67393779754639</t>
   </si>
   <si>
     <t xml:space="preserve">1.63277530670166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66936409473419</t>
+    <t xml:space="preserve">1.66936421394348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66021680831909</t>
+    <t xml:space="preserve">1.66021692752838</t>
   </si>
   <si>
     <t xml:space="preserve">1.74254155158997</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">1.65106964111328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71052658557892</t>
+    <t xml:space="preserve">1.71052646636963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65564334392548</t>
+    <t xml:space="preserve">1.65564322471619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62362802028656</t>
+    <t xml:space="preserve">1.62362813949585</t>
   </si>
   <si>
     <t xml:space="preserve">1.48184645175934</t>
@@ -1166,19 +1166,19 @@
     <t xml:space="preserve">1.38122725486755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35378575325012</t>
+    <t xml:space="preserve">1.35378563404083</t>
   </si>
   <si>
     <t xml:space="preserve">1.29890239238739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26231372356415</t>
+    <t xml:space="preserve">1.26231360435486</t>
   </si>
   <si>
     <t xml:space="preserve">1.34921205043793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4406840801239</t>
+    <t xml:space="preserve">1.44068419933319</t>
   </si>
   <si>
     <t xml:space="preserve">1.47727286815643</t>
@@ -1190,25 +1190,25 @@
     <t xml:space="preserve">1.49556732177734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.449831366539</t>
+    <t xml:space="preserve">1.44983124732971</t>
   </si>
   <si>
     <t xml:space="preserve">1.44525766372681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41781604290009</t>
+    <t xml:space="preserve">1.4178159236908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50014090538025</t>
+    <t xml:space="preserve">1.50014078617096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50928807258606</t>
+    <t xml:space="preserve">1.50928795337677</t>
   </si>
   <si>
     <t xml:space="preserve">1.50471448898315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51386153697968</t>
+    <t xml:space="preserve">1.51386165618896</t>
   </si>
   <si>
     <t xml:space="preserve">1.45440483093262</t>
@@ -1220,40 +1220,40 @@
     <t xml:space="preserve">1.4269632101059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60076010227203</t>
+    <t xml:space="preserve">1.60075998306274</t>
   </si>
   <si>
     <t xml:space="preserve">1.57789218425751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59618639945984</t>
+    <t xml:space="preserve">1.59618651866913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61448085308075</t>
+    <t xml:space="preserve">1.61448097229004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60990715026855</t>
+    <t xml:space="preserve">1.60990726947784</t>
   </si>
   <si>
     <t xml:space="preserve">1.61905443668365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62820172309875</t>
+    <t xml:space="preserve">1.62820160388947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58703923225403</t>
+    <t xml:space="preserve">1.58703935146332</t>
   </si>
   <si>
     <t xml:space="preserve">1.55045056343079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58246564865112</t>
+    <t xml:space="preserve">1.58246576786041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63734877109528</t>
+    <t xml:space="preserve">1.63734889030457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5733186006546</t>
+    <t xml:space="preserve">1.57331848144531</t>
   </si>
   <si>
     <t xml:space="preserve">1.59161281585693</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">1.67525947093964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63761329650879</t>
+    <t xml:space="preserve">1.6376131772995</t>
   </si>
   <si>
     <t xml:space="preserve">1.60937857627869</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">1.58114373683929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55290913581848</t>
+    <t xml:space="preserve">1.55290901660919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52467429637909</t>
+    <t xml:space="preserve">1.52467441558838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57173228263855</t>
+    <t xml:space="preserve">1.57173216342926</t>
   </si>
   <si>
     <t xml:space="preserve">1.53408598899841</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">1.46820485591888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44938182830811</t>
+    <t xml:space="preserve">1.44938170909882</t>
   </si>
   <si>
     <t xml:space="preserve">1.43055868148804</t>
@@ -1322,67 +1322,67 @@
     <t xml:space="preserve">1.40232396125793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37408936023712</t>
+    <t xml:space="preserve">1.37408924102783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34585452079773</t>
+    <t xml:space="preserve">1.34585440158844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31761991977692</t>
+    <t xml:space="preserve">1.31761980056763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29879677295685</t>
+    <t xml:space="preserve">1.29879665374756</t>
   </si>
   <si>
     <t xml:space="preserve">1.24232733249664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23291563987732</t>
+    <t xml:space="preserve">1.23291575908661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22350406646729</t>
+    <t xml:space="preserve">1.22350418567657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27997350692749</t>
+    <t xml:space="preserve">1.27997362613678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27056193351746</t>
+    <t xml:space="preserve">1.27056205272675</t>
   </si>
   <si>
     <t xml:space="preserve">1.3364429473877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35526621341705</t>
+    <t xml:space="preserve">1.35526609420776</t>
   </si>
   <si>
     <t xml:space="preserve">1.421147108078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43997025489807</t>
+    <t xml:space="preserve">1.43997013568878</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36467778682709</t>
+    <t xml:space="preserve">1.3646776676178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38350093364716</t>
+    <t xml:space="preserve">1.38350081443787</t>
   </si>
   <si>
     <t xml:space="preserve">1.32703137397766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28938508033752</t>
+    <t xml:space="preserve">1.28938519954681</t>
   </si>
   <si>
     <t xml:space="preserve">1.51526284217834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72231733798981</t>
+    <t xml:space="preserve">1.7223174571991</t>
   </si>
   <si>
     <t xml:space="preserve">1.74114048480988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71290576457977</t>
+    <t xml:space="preserve">1.71290588378906</t>
   </si>
   <si>
     <t xml:space="preserve">1.70349419116974</t>
@@ -1406,13 +1406,16 @@
     <t xml:space="preserve">1.6940826177597</t>
   </si>
   <si>
+    <t xml:space="preserve">1.62820172309875</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.61879014968872</t>
   </si>
   <si>
     <t xml:space="preserve">1.65643632411957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76937532424927</t>
+    <t xml:space="preserve">1.76937520503998</t>
   </si>
   <si>
     <t xml:space="preserve">1.18585789203644</t>
@@ -1421,10 +1424,10 @@
     <t xml:space="preserve">1.16703474521637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21409249305725</t>
+    <t xml:space="preserve">1.21409261226654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20468091964722</t>
+    <t xml:space="preserve">1.20468103885651</t>
   </si>
   <si>
     <t xml:space="preserve">1.1764463186264</t>
@@ -1433,10 +1436,10 @@
     <t xml:space="preserve">1.25173890590668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30820834636688</t>
+    <t xml:space="preserve">1.30820822715759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19526934623718</t>
+    <t xml:space="preserve">1.19526946544647</t>
   </si>
   <si>
     <t xml:space="preserve">1.1482115983963</t>
@@ -1448,7 +1451,7 @@
     <t xml:space="preserve">1.13880002498627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12938845157623</t>
+    <t xml:space="preserve">1.12938857078552</t>
   </si>
   <si>
     <t xml:space="preserve">1.0917421579361</t>
@@ -1469,19 +1472,19 @@
     <t xml:space="preserve">1.07291901111603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03527271747589</t>
+    <t xml:space="preserve">1.03527283668518</t>
   </si>
   <si>
     <t xml:space="preserve">1.05409586429596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01644957065582</t>
+    <t xml:space="preserve">1.01644968986511</t>
   </si>
   <si>
     <t xml:space="preserve">1.04468429088593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00703799724579</t>
+    <t xml:space="preserve">1.00703811645508</t>
   </si>
   <si>
     <t xml:space="preserve">0.969391703605652</t>
@@ -1490,10 +1493,10 @@
     <t xml:space="preserve">0.978803277015686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959980130195618</t>
+    <t xml:space="preserve">0.959980189800262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988214790821075</t>
+    <t xml:space="preserve">0.98821485042572</t>
   </si>
   <si>
     <t xml:space="preserve">0.936451256275177</t>
@@ -1502,19 +1505,19 @@
     <t xml:space="preserve">0.950568616390228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02586114406586</t>
+    <t xml:space="preserve">1.02586126327515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06350755691528</t>
+    <t xml:space="preserve">1.06350743770599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99762636423111</t>
+    <t xml:space="preserve">0.997626423835754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26115036010742</t>
+    <t xml:space="preserve">1.26115047931671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54349756240845</t>
+    <t xml:space="preserve">1.54349744319916</t>
   </si>
   <si>
     <t xml:space="preserve">1.30537188053131</t>
@@ -28915,7 +28918,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1037" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28967,7 +28970,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1039" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29071,7 +29074,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G1043" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29097,7 +29100,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1044" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29149,7 +29152,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1046" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29279,7 +29282,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1051" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29539,7 +29542,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1061" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29565,7 +29568,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1062" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29591,7 +29594,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1063" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29617,7 +29620,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29643,7 +29646,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1065" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29669,7 +29672,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1066" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29695,7 +29698,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1067" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29721,7 +29724,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1068" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29747,7 +29750,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1069" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29773,7 +29776,7 @@
         <v>1.25</v>
       </c>
       <c r="G1070" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29799,7 +29802,7 @@
         <v>1.25</v>
       </c>
       <c r="G1071" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29825,7 +29828,7 @@
         <v>1.25</v>
       </c>
       <c r="G1072" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29851,7 +29854,7 @@
         <v>1.25</v>
       </c>
       <c r="G1073" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30033,7 +30036,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1080" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -30059,7 +30062,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1081" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -30085,7 +30088,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1082" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -30137,7 +30140,7 @@
         <v>1.25</v>
       </c>
       <c r="G1084" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30241,7 +30244,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1088" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30293,7 +30296,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1090" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30345,7 +30348,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1092" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30371,7 +30374,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1093" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30397,7 +30400,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1094" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30423,7 +30426,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1095" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30449,7 +30452,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1096" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30475,7 +30478,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1097" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30501,7 +30504,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1098" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30527,7 +30530,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1099" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30553,7 +30556,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1100" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30579,7 +30582,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1101" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30605,7 +30608,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1102" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30631,7 +30634,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1103" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30657,7 +30660,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1104" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30683,7 +30686,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1105" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30709,7 +30712,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30735,7 +30738,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1107" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30761,7 +30764,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1108" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30787,7 +30790,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1109" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30813,7 +30816,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1110" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30839,7 +30842,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1111" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30865,7 +30868,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1112" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30891,7 +30894,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1113" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30917,7 +30920,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1114" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30943,7 +30946,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1115" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30969,7 +30972,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1116" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30995,7 +30998,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1117" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31021,7 +31024,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1118" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31047,7 +31050,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1119" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31073,7 +31076,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1120" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -31099,7 +31102,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1121" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31125,7 +31128,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1122" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31151,7 +31154,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1123" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31177,7 +31180,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1124" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31203,7 +31206,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1125" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31229,7 +31232,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1126" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31255,7 +31258,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1127" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31281,7 +31284,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1128" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31307,7 +31310,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1129" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31333,7 +31336,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1130" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31359,7 +31362,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1131" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31385,7 +31388,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1132" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31411,7 +31414,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1133" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31437,7 +31440,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1134" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31463,7 +31466,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1135" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31489,7 +31492,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1136" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31515,7 +31518,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1137" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31541,7 +31544,7 @@
         <v>1.25</v>
       </c>
       <c r="G1138" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31567,7 +31570,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1139" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31593,7 +31596,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1140" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31619,7 +31622,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1141" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31645,7 +31648,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1142" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31671,7 +31674,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1143" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31697,7 +31700,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31723,7 +31726,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1145" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31749,7 +31752,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1146" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31775,7 +31778,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1147" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31801,7 +31804,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1148" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31827,7 +31830,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1149" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31853,7 +31856,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1150" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31879,7 +31882,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1151" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31905,7 +31908,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1152" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31931,7 +31934,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1153" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31957,7 +31960,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1154" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31983,7 +31986,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1155" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32009,7 +32012,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1156" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -32035,7 +32038,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1157" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32061,7 +32064,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1158" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -32087,7 +32090,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1159" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -32113,7 +32116,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1160" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -32139,7 +32142,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1161" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32165,7 +32168,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1162" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32191,7 +32194,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1163" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32217,7 +32220,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1164" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32243,7 +32246,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1165" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32269,7 +32272,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1166" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32295,7 +32298,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1167" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32321,7 +32324,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1168" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32347,7 +32350,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1169" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32373,7 +32376,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1170" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32399,7 +32402,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1171" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32425,7 +32428,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1172" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32451,7 +32454,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1173" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32477,7 +32480,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1174" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32503,7 +32506,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1175" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32529,7 +32532,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1176" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32555,7 +32558,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1177" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32581,7 +32584,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1178" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32607,7 +32610,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1179" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32633,7 +32636,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1180" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32659,7 +32662,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1181" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32685,7 +32688,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1182" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32711,7 +32714,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1183" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32737,7 +32740,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1184" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32763,7 +32766,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1185" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32789,7 +32792,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1186" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -32815,7 +32818,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1187" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -32841,7 +32844,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1188" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -32867,7 +32870,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1189" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -32893,7 +32896,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1190" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -32919,7 +32922,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1191" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -32945,7 +32948,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1192" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -32971,7 +32974,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1193" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -32997,7 +33000,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1194" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33023,7 +33026,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G1195" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33049,7 +33052,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1196" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33075,7 +33078,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33101,7 +33104,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1198" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33127,7 +33130,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1199" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -33153,7 +33156,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G1200" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -33179,7 +33182,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1201" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -33205,7 +33208,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1202" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -33231,7 +33234,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1203" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -33257,7 +33260,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1204" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -33283,7 +33286,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1205" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -33309,7 +33312,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1206" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -33335,7 +33338,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1207" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -33361,7 +33364,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1208" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -33387,7 +33390,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1209" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -33413,7 +33416,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1210" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -33439,7 +33442,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1211" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -33465,7 +33468,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1212" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -33491,7 +33494,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1213" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -33517,7 +33520,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1214" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -33543,7 +33546,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1215" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -33569,7 +33572,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1216" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -33595,7 +33598,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1217" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -33621,7 +33624,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1218" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -33647,7 +33650,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1219" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -33673,7 +33676,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1220" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -33699,7 +33702,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1221" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -33725,7 +33728,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1222" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -33751,7 +33754,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1223" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -33777,7 +33780,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1224" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -33803,7 +33806,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1225" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -33829,7 +33832,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1226" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -33855,7 +33858,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G1227" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -33881,7 +33884,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1228" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -33907,7 +33910,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1229" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -33933,7 +33936,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1230" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -33959,7 +33962,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1231" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -33985,7 +33988,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1232" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34011,7 +34014,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1233" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34037,7 +34040,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1234" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34063,7 +34066,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1235" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -34089,7 +34092,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G1236" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -34115,7 +34118,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1237" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34141,7 +34144,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1238" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -34167,7 +34170,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1239" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -34193,7 +34196,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1240" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -34219,7 +34222,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1241" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -34245,7 +34248,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1242" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -34271,7 +34274,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1243" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -34297,7 +34300,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1244" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -34323,7 +34326,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1245" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34349,7 +34352,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1246" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34375,7 +34378,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1247" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -34401,7 +34404,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1248" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -34427,7 +34430,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1249" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -34453,7 +34456,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1250" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -34479,7 +34482,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1251" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -34505,7 +34508,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1252" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -34531,7 +34534,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1253" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -34557,7 +34560,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1254" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -34583,7 +34586,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1255" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -34609,7 +34612,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1256" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -34635,7 +34638,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1257" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -34661,7 +34664,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1258" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -34687,7 +34690,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1259" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -34713,7 +34716,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1260" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -34739,7 +34742,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1261" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -34765,7 +34768,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1262" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -34791,7 +34794,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1263" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -34817,7 +34820,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1264" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -34843,7 +34846,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1265" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -34869,7 +34872,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1266" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -34895,7 +34898,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1267" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -34921,7 +34924,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1268" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -34947,7 +34950,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1269" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -34973,7 +34976,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1270" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -34999,7 +35002,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1271" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35025,7 +35028,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1272" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35051,7 +35054,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1273" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35077,7 +35080,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1274" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -35103,7 +35106,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1275" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35129,7 +35132,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1276" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -35155,7 +35158,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1277" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35181,7 +35184,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1278" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35207,7 +35210,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1279" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35233,7 +35236,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1280" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -35259,7 +35262,7 @@
         <v>1.12000000476837</v>
       </c>
       <c r="G1281" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -35285,7 +35288,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1282" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35311,7 +35314,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1283" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35337,7 +35340,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1284" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35363,7 +35366,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1285" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35389,7 +35392,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1286" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35415,7 +35418,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1287" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35441,7 +35444,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1288" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35467,7 +35470,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1289" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -35493,7 +35496,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1290" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35519,7 +35522,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1291" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35545,7 +35548,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1292" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -35571,7 +35574,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1293" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35597,7 +35600,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1294" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35623,7 +35626,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1295" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35649,7 +35652,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1296" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35675,7 +35678,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1297" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35701,7 +35704,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1298" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35727,7 +35730,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1299" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35753,7 +35756,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1300" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35779,7 +35782,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1301" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35805,7 +35808,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1302" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35831,7 +35834,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1303" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35857,7 +35860,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1304" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -35883,7 +35886,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1305" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -35909,7 +35912,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1306" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -35935,7 +35938,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1307" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -35961,7 +35964,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1308" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -35987,7 +35990,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1309" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36013,7 +36016,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1310" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36039,7 +36042,7 @@
         <v>1.25</v>
       </c>
       <c r="G1311" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36065,7 +36068,7 @@
         <v>1.25</v>
       </c>
       <c r="G1312" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36091,7 +36094,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1313" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36117,7 +36120,7 @@
         <v>1.25</v>
       </c>
       <c r="G1314" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36143,7 +36146,7 @@
         <v>1.25</v>
       </c>
       <c r="G1315" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -36169,7 +36172,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1316" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -36195,7 +36198,7 @@
         <v>1.25</v>
       </c>
       <c r="G1317" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36221,7 +36224,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36273,7 +36276,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36299,7 +36302,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1321" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36325,7 +36328,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1322" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36351,7 +36354,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1323" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36377,7 +36380,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1324" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36403,7 +36406,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1325" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36429,7 +36432,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1326" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36455,7 +36458,7 @@
         <v>1.25</v>
       </c>
       <c r="G1327" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36481,7 +36484,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1328" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36507,7 +36510,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1329" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36533,7 +36536,7 @@
         <v>1.25</v>
       </c>
       <c r="G1330" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36559,7 +36562,7 @@
         <v>1.25</v>
       </c>
       <c r="G1331" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36585,7 +36588,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1332" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36611,7 +36614,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1333" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36689,7 +36692,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1336" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36897,7 +36900,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1344" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -36949,7 +36952,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1346" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37105,7 +37108,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1352" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37131,7 +37134,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1353" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37209,7 +37212,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1356" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37235,7 +37238,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1357" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37287,7 +37290,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1359" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37313,7 +37316,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1360" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37365,7 +37368,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1362" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37391,7 +37394,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1363" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37417,7 +37420,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1364" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38041,7 +38044,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1388" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38067,7 +38070,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1389" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38093,7 +38096,7 @@
         <v>1.25</v>
       </c>
       <c r="G1390" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38119,7 +38122,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1391" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38145,7 +38148,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1392" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38197,7 +38200,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1394" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38223,7 +38226,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1395" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38249,7 +38252,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1396" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38275,7 +38278,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1397" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38405,7 +38408,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1402" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38431,7 +38434,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1403" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38457,7 +38460,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38483,7 +38486,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1405" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38509,7 +38512,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1406" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38535,7 +38538,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1407" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38561,7 +38564,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1408" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38587,7 +38590,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1409" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38613,7 +38616,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1410" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38639,7 +38642,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1411" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38665,7 +38668,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1412" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38691,7 +38694,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1413" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38717,7 +38720,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1414" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38743,7 +38746,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1415" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38769,7 +38772,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1416" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38795,7 +38798,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1417" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38821,7 +38824,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1418" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38847,7 +38850,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1419" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -38899,7 +38902,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1421" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -38925,7 +38928,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1422" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -38951,7 +38954,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1423" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -38977,7 +38980,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1424" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39003,7 +39006,7 @@
         <v>1.25</v>
       </c>
       <c r="G1425" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39029,7 +39032,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1426" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39055,7 +39058,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1427" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39081,7 +39084,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1428" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39107,7 +39110,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1429" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39133,7 +39136,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1430" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39159,7 +39162,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1431" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39185,7 +39188,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1432" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39211,7 +39214,7 @@
         <v>1.28999996185303</v>
       </c>
       <c r="G1433" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39315,7 +39318,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1437" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39341,7 +39344,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1438" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39367,7 +39370,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1439" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39393,7 +39396,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1440" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39419,7 +39422,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1441" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39445,7 +39448,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1442" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39471,7 +39474,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1443" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39497,7 +39500,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1444" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39523,7 +39526,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1445" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39549,7 +39552,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1446" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39575,7 +39578,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1447" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39601,7 +39604,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1448" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39627,7 +39630,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1449" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39653,7 +39656,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1450" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39679,7 +39682,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1451" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39705,7 +39708,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1452" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39731,7 +39734,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1453" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39757,7 +39760,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1454" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39783,7 +39786,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1455" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39809,7 +39812,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1456" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39835,7 +39838,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1457" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40017,7 +40020,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1464" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40095,7 +40098,7 @@
         <v>1.3400000333786</v>
       </c>
       <c r="G1467" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40121,7